--- a/sc0_match_results.xlsx
+++ b/sc0_match_results.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2591" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2394" uniqueCount="379">
   <si>
     <t>Competition_Name</t>
   </si>
@@ -683,6 +683,9 @@
     <t>Wed</t>
   </si>
   <si>
+    <t>Tue</t>
+  </si>
+  <si>
     <t>Thu</t>
   </si>
   <si>
@@ -704,93 +707,99 @@
     <t>19:45</t>
   </si>
   <si>
+    <t>17:30</t>
+  </si>
+  <si>
+    <t>17:00</t>
+  </si>
+  <si>
+    <t>17:45</t>
+  </si>
+  <si>
+    <t>12:00</t>
+  </si>
+  <si>
+    <t>17:15</t>
+  </si>
+  <si>
+    <t>Hearts</t>
+  </si>
+  <si>
+    <t>Motherwell</t>
+  </si>
+  <si>
+    <t>Dundee United</t>
+  </si>
+  <si>
+    <t>St Mirren</t>
+  </si>
+  <si>
+    <t>Celtic</t>
+  </si>
+  <si>
+    <t>St Johnstone</t>
+  </si>
+  <si>
+    <t>Ross County</t>
+  </si>
+  <si>
+    <t>Aberdeen</t>
+  </si>
+  <si>
+    <t>Hibernian</t>
+  </si>
+  <si>
+    <t>Kilmarnock</t>
+  </si>
+  <si>
+    <t>Dundee</t>
+  </si>
+  <si>
+    <t>Rangers</t>
+  </si>
+  <si>
+    <t>Tynecastle Stadium</t>
+  </si>
+  <si>
+    <t>Fir Park</t>
+  </si>
+  <si>
+    <t>Tannadice Park</t>
+  </si>
+  <si>
+    <t>The Simple Digital Arena</t>
+  </si>
+  <si>
+    <t>Celtic Park</t>
+  </si>
+  <si>
+    <t>McDiarmid Park</t>
+  </si>
+  <si>
+    <t>Global Energy Stadium</t>
+  </si>
+  <si>
+    <t>Pittodrie Stadium</t>
+  </si>
+  <si>
+    <t>Easter Road Stadium</t>
+  </si>
+  <si>
+    <t>BBSP Stadium, Rugby Park</t>
+  </si>
+  <si>
+    <t>Kilmac Stadium at Dens Park</t>
+  </si>
+  <si>
+    <t>Ibrox Stadium</t>
+  </si>
+  <si>
+    <t>Hampden Park</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>17:30</t>
-  </si>
-  <si>
-    <t>12:00</t>
-  </si>
-  <si>
-    <t>17:45</t>
-  </si>
-  <si>
-    <t>Hearts</t>
-  </si>
-  <si>
-    <t>Motherwell</t>
-  </si>
-  <si>
-    <t>Dundee United</t>
-  </si>
-  <si>
-    <t>St Mirren</t>
-  </si>
-  <si>
-    <t>Celtic</t>
-  </si>
-  <si>
-    <t>St Johnstone</t>
-  </si>
-  <si>
-    <t>Aberdeen</t>
-  </si>
-  <si>
-    <t>Ross County</t>
-  </si>
-  <si>
-    <t>Kilmarnock</t>
-  </si>
-  <si>
-    <t>Hibernian</t>
-  </si>
-  <si>
-    <t>Dundee</t>
-  </si>
-  <si>
-    <t>Rangers</t>
-  </si>
-  <si>
-    <t>Tynecastle Stadium</t>
-  </si>
-  <si>
-    <t>Fir Park</t>
-  </si>
-  <si>
-    <t>Tannadice Park</t>
-  </si>
-  <si>
-    <t>The Simple Digital Arena</t>
-  </si>
-  <si>
-    <t>Celtic Park</t>
-  </si>
-  <si>
-    <t>McDiarmid Park</t>
-  </si>
-  <si>
-    <t>Pittodrie Stadium</t>
-  </si>
-  <si>
-    <t>Global Energy Stadium</t>
-  </si>
-  <si>
-    <t>BBSP Stadium, Rugby Park</t>
-  </si>
-  <si>
-    <t>Easter Road Stadium</t>
-  </si>
-  <si>
-    <t>Kilmac Stadium at Dens Park</t>
-  </si>
-  <si>
-    <t>Ibrox Stadium</t>
-  </si>
-  <si>
-    <t>Hampden Park</t>
-  </si>
-  <si>
     <t>Dan McFarlane</t>
   </si>
   <si>
@@ -827,7 +836,7 @@
     <t>Colin Steven</t>
   </si>
   <si>
-    <t>Match Postponed</t>
+    <t>Craig Napier</t>
   </si>
   <si>
     <t>https://fbref.com/en/matches/2c1a3b4f/Heart-of-Midlothian-Rangers-August-3-2024-Scottish-Premiership</t>
@@ -851,19 +860,28 @@
     <t>https://fbref.com/en/stathead/matchup/teams/7c77b0bc/25f1fd26/Heart-of-Midlothian-vs-Kilmarnock-History</t>
   </si>
   <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/b81aa4fa/00032902/Celtic-vs-Dundee-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/f3aacc58/a5298e9f/Hibernian-vs-Ross-County-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/dd289621/3568ad4c/St-Johnstone-vs-St-Mirren-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e986ece7/9d04848a/Dundee-United-vs-Motherwell-History</t>
+  </si>
+  <si>
     <t>https://fbref.com/en/stathead/matchup/teams/8bbab7cf/86b7acd2/Aberdeen-vs-Rangers-History</t>
   </si>
   <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/b81aa4fa/00032902/Celtic-vs-Dundee-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/f3aacc58/a5298e9f/Hibernian-vs-Ross-County-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/dd289621/3568ad4c/St-Johnstone-vs-St-Mirren-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e986ece7/9d04848a/Dundee-United-vs-Motherwell-History</t>
+    <t>https://fbref.com/en/stathead/matchup/teams/dd289621/7c77b0bc/St-Johnstone-vs-Heart-of-Midlothian-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/a5298e9f/3568ad4c/Ross-County-vs-St-Mirren-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/f3aacc58/8bbab7cf/Hibernian-vs-Aberdeen-History</t>
   </si>
   <si>
     <t>https://fbref.com/en/stathead/matchup/teams/9d04848a/25f1fd26/Motherwell-vs-Kilmarnock-History</t>
@@ -872,13 +890,7 @@
     <t>https://fbref.com/en/stathead/matchup/teams/e986ece7/b81aa4fa/Dundee-United-vs-Celtic-History</t>
   </si>
   <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/f3aacc58/8bbab7cf/Hibernian-vs-Aberdeen-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/dd289621/7c77b0bc/St-Johnstone-vs-Heart-of-Midlothian-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/a5298e9f/3568ad4c/Ross-County-vs-St-Mirren-History</t>
+    <t>https://fbref.com/en/stathead/matchup/teams/86b7acd2/00032902/Rangers-vs-Dundee-History</t>
   </si>
   <si>
     <t>https://fbref.com/en/stathead/matchup/teams/dd289621/9d04848a/St-Johnstone-vs-Motherwell-History</t>
@@ -887,15 +899,15 @@
     <t>https://fbref.com/en/stathead/matchup/teams/e986ece7/a5298e9f/Dundee-United-vs-Ross-County-History</t>
   </si>
   <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/f3aacc58/3568ad4c/Hibernian-vs-St-Mirren-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/8bbab7cf/00032902/Aberdeen-vs-Dundee-History</t>
+  </si>
+  <si>
     <t>https://fbref.com/en/stathead/matchup/teams/b81aa4fa/25f1fd26/Celtic-vs-Kilmarnock-History</t>
   </si>
   <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/f3aacc58/3568ad4c/Hibernian-vs-St-Mirren-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/8bbab7cf/00032902/Aberdeen-vs-Dundee-History</t>
-  </si>
-  <si>
     <t>https://fbref.com/en/stathead/matchup/teams/86b7acd2/7c77b0bc/Rangers-vs-Heart-of-Midlothian-History</t>
   </si>
   <si>
@@ -908,72 +920,69 @@
     <t>https://fbref.com/en/stathead/matchup/teams/dd289621/25f1fd26/St-Johnstone-vs-Kilmarnock-History</t>
   </si>
   <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/a5298e9f/9d04848a/Ross-County-vs-Motherwell-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/f3aacc58/00032902/Hibernian-vs-Dundee-History</t>
+  </si>
+  <si>
     <t>https://fbref.com/en/stathead/matchup/teams/b81aa4fa/7c77b0bc/Celtic-vs-Heart-of-Midlothian-History</t>
   </si>
   <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/a5298e9f/9d04848a/Ross-County-vs-Motherwell-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/f3aacc58/00032902/Hibernian-vs-Dundee-History</t>
-  </si>
-  <si>
     <t>https://fbref.com/en/stathead/matchup/teams/25f1fd26/00032902/Kilmarnock-vs-Dundee-History</t>
   </si>
   <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/b81aa4fa/a5298e9f/Celtic-vs-Ross-County-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/f3aacc58/9d04848a/Hibernian-vs-Motherwell-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e986ece7/3568ad4c/Dundee-United-vs-St-Mirren-History</t>
+  </si>
+  <si>
     <t>https://fbref.com/en/stathead/matchup/teams/dd289621/86b7acd2/St-Johnstone-vs-Rangers-History</t>
   </si>
   <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/b81aa4fa/a5298e9f/Celtic-vs-Ross-County-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/f3aacc58/9d04848a/Hibernian-vs-Motherwell-History</t>
-  </si>
-  <si>
     <t>https://fbref.com/en/stathead/matchup/teams/8bbab7cf/7c77b0bc/Aberdeen-vs-Heart-of-Midlothian-History</t>
   </si>
   <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e986ece7/3568ad4c/Dundee-United-vs-St-Mirren-History</t>
-  </si>
-  <si>
     <t>https://fbref.com/en/matches/c7993ddd/Ross-County-St-Johnstone-September-21-2024-Scottish-Premiership</t>
   </si>
   <si>
     <t>https://fbref.com/en/matches/eca23e74/St-Mirren-Heart-of-Midlothian-September-21-2024-Scottish-Premiership</t>
   </si>
   <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/f3aacc58/e986ece7/Hibernian-vs-Dundee-United-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/9d04848a/00032902/Motherwell-vs-Dundee-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/86b7acd2/25f1fd26/Rangers-vs-Kilmarnock-History</t>
+  </si>
+  <si>
     <t>https://fbref.com/en/stathead/matchup/teams/b81aa4fa/8bbab7cf/Celtic-vs-Aberdeen-History</t>
   </si>
   <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/f3aacc58/e986ece7/Hibernian-vs-Dundee-United-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/9d04848a/00032902/Motherwell-vs-Dundee-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/86b7acd2/25f1fd26/Rangers-vs-Kilmarnock-History</t>
-  </si>
-  <si>
     <t>https://fbref.com/en/stathead/matchup/teams/7c77b0bc/00032902/Heart-of-Midlothian-vs-Dundee-History</t>
   </si>
   <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e986ece7/25f1fd26/Dundee-United-vs-Kilmarnock-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/9d04848a/3568ad4c/Motherwell-vs-St-Mirren-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/dd289621/8bbab7cf/St-Johnstone-vs-Aberdeen-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/f3aacc58/b81aa4fa/Hibernian-vs-Celtic-History</t>
+  </si>
+  <si>
     <t>https://fbref.com/en/stathead/matchup/teams/a5298e9f/86b7acd2/Ross-County-vs-Rangers-History</t>
   </si>
   <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e986ece7/25f1fd26/Dundee-United-vs-Kilmarnock-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/9d04848a/3568ad4c/Motherwell-vs-St-Mirren-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/dd289621/8bbab7cf/St-Johnstone-vs-Aberdeen-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/f3aacc58/b81aa4fa/Hibernian-vs-Celtic-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/86b7acd2/00032902/Rangers-vs-Dundee-History</t>
-  </si>
-  <si>
     <t>https://fbref.com/en/stathead/matchup/teams/f3aacc58/7c77b0bc/Hibernian-vs-Heart-of-Midlothian-History</t>
   </si>
   <si>
@@ -986,12 +995,12 @@
     <t>https://fbref.com/en/stathead/matchup/teams/b81aa4fa/9d04848a/Celtic-vs-Motherwell-History</t>
   </si>
   <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/a5298e9f/00032902/Ross-County-vs-Dundee-History</t>
+  </si>
+  <si>
     <t>https://fbref.com/en/stathead/matchup/teams/86b7acd2/3568ad4c/Rangers-vs-St-Mirren-History</t>
   </si>
   <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/a5298e9f/00032902/Ross-County-vs-Dundee-History</t>
-  </si>
-  <si>
     <t>https://fbref.com/en/matches/3f458af7/Ross-County-Dundee-United-August-10-2024-Scottish-Premiership</t>
   </si>
   <si>
@@ -1122,6 +1131,24 @@
   </si>
   <si>
     <t>https://fbref.com/en/matches/77c13f3b/Dundee-United-Rangers-September-15-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/9efd8a62/Heart-of-Midlothian-Ross-County-September-28-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/d3bc079b/Kilmarnock-Dundee-United-September-28-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/d7b2ed59/Motherwell-St-Mirren-September-28-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/ed92dd8c/Dundee-Aberdeen-September-28-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/a30220aa/St-Johnstone-Celtic-September-28-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/fdb926ed/Rangers-Hibernian-September-29-2024-Scottish-Premiership</t>
   </si>
 </sst>
 </file>
@@ -1262,16 +1289,16 @@
         <v>45507.0</v>
       </c>
       <c r="J2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="L2" t="n">
         <v>0.0</v>
       </c>
       <c r="M2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="N2" t="n">
         <v>0.0</v>
@@ -1280,16 +1307,16 @@
         <v>18478.0</v>
       </c>
       <c r="P2" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q2" t="s">
-        <v>230</v>
-      </c>
-      <c r="R2" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R2" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S2" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
     </row>
     <row r="3">
@@ -1321,16 +1348,16 @@
         <v>45507.0</v>
       </c>
       <c r="J3" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K3" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="L3" t="n">
         <v>0.0</v>
       </c>
       <c r="M3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N3" t="n">
         <v>0.0</v>
@@ -1339,16 +1366,16 @@
         <v>4353.0</v>
       </c>
       <c r="P3" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q3" t="s">
-        <v>230</v>
-      </c>
-      <c r="R3" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R3" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S3" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
     </row>
     <row r="4">
@@ -1380,16 +1407,16 @@
         <v>45508.0</v>
       </c>
       <c r="J4" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L4" t="n">
         <v>2.0</v>
       </c>
       <c r="M4" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="N4" t="n">
         <v>2.0</v>
@@ -1398,16 +1425,16 @@
         <v>12616.0</v>
       </c>
       <c r="P4" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q4" t="s">
-        <v>230</v>
-      </c>
-      <c r="R4" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R4" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S4" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
     </row>
     <row r="5">
@@ -1439,16 +1466,16 @@
         <v>45508.0</v>
       </c>
       <c r="J5" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K5" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="L5" t="n">
         <v>3.0</v>
       </c>
       <c r="M5" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N5" t="n">
         <v>0.0</v>
@@ -1457,16 +1484,16 @@
         <v>6171.0</v>
       </c>
       <c r="P5" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q5" t="s">
-        <v>230</v>
-      </c>
-      <c r="R5" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R5" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S5" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="6">
@@ -1498,16 +1525,16 @@
         <v>45508.0</v>
       </c>
       <c r="J6" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="K6" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="L6" t="n">
         <v>4.0</v>
       </c>
       <c r="M6" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="N6" t="n">
         <v>0.0</v>
@@ -1516,16 +1543,16 @@
         <v>#N/A</v>
       </c>
       <c r="P6" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q6" t="s">
-        <v>230</v>
-      </c>
-      <c r="R6" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R6" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S6" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="7">
@@ -1557,16 +1584,16 @@
         <v>45509.0</v>
       </c>
       <c r="J7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="K7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L7" t="n">
         <v>1.0</v>
       </c>
       <c r="M7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="N7" t="n">
         <v>2.0</v>
@@ -1575,16 +1602,16 @@
         <v>#N/A</v>
       </c>
       <c r="P7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q7" t="s">
-        <v>230</v>
-      </c>
-      <c r="R7" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R7" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="8">
@@ -1616,16 +1643,16 @@
         <v>45595.0</v>
       </c>
       <c r="J8" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K8" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="L8" t="e">
         <v>#N/A</v>
       </c>
       <c r="M8" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="N8" t="e">
         <v>#N/A</v>
@@ -1634,16 +1661,16 @@
         <v>#N/A</v>
       </c>
       <c r="P8" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q8" t="s">
-        <v>230</v>
-      </c>
-      <c r="R8" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R8" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S8" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="9">
@@ -1675,7 +1702,7 @@
         <v>45595.0</v>
       </c>
       <c r="J9" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K9" t="s">
         <v>240</v>
@@ -1684,7 +1711,7 @@
         <v>#N/A</v>
       </c>
       <c r="M9" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="N9" t="e">
         <v>#N/A</v>
@@ -1696,13 +1723,13 @@
         <v>252</v>
       </c>
       <c r="Q9" t="s">
-        <v>230</v>
-      </c>
-      <c r="R9" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R9" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S9" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
     <row r="10">
@@ -1734,10 +1761,10 @@
         <v>45595.0</v>
       </c>
       <c r="J10" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K10" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="L10" t="e">
         <v>#N/A</v>
@@ -1752,16 +1779,16 @@
         <v>#N/A</v>
       </c>
       <c r="P10" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="Q10" t="s">
-        <v>230</v>
-      </c>
-      <c r="R10" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R10" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S10" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
     </row>
     <row r="11">
@@ -1793,17 +1820,17 @@
         <v>45595.0</v>
       </c>
       <c r="J11" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K11" t="s">
+        <v>239</v>
+      </c>
+      <c r="L11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M11" t="s">
         <v>241</v>
       </c>
-      <c r="L11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M11" t="s">
-        <v>243</v>
-      </c>
       <c r="N11" t="e">
         <v>#N/A</v>
       </c>
@@ -1811,16 +1838,16 @@
         <v>#N/A</v>
       </c>
       <c r="P11" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="Q11" t="s">
-        <v>230</v>
-      </c>
-      <c r="R11" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R11" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S11" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="12">
@@ -1852,17 +1879,17 @@
         <v>45595.0</v>
       </c>
       <c r="J12" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K12" t="s">
+        <v>238</v>
+      </c>
+      <c r="L12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M12" t="s">
         <v>237</v>
       </c>
-      <c r="L12" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M12" t="s">
-        <v>239</v>
-      </c>
       <c r="N12" t="e">
         <v>#N/A</v>
       </c>
@@ -1870,16 +1897,16 @@
         <v>#N/A</v>
       </c>
       <c r="P12" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q12" t="s">
-        <v>230</v>
-      </c>
-      <c r="R12" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R12" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S12" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="13">
@@ -1914,13 +1941,13 @@
         <v>229</v>
       </c>
       <c r="K13" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="L13" t="e">
         <v>#N/A</v>
       </c>
       <c r="M13" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="N13" t="e">
         <v>#N/A</v>
@@ -1929,16 +1956,16 @@
         <v>#N/A</v>
       </c>
       <c r="P13" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="Q13" t="s">
-        <v>230</v>
-      </c>
-      <c r="R13" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R13" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S13" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
     </row>
     <row r="14">
@@ -1970,16 +1997,16 @@
         <v>45598.0</v>
       </c>
       <c r="J14" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="L14" t="e">
         <v>#N/A</v>
       </c>
       <c r="M14" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="N14" t="e">
         <v>#N/A</v>
@@ -1988,16 +2015,16 @@
         <v>#N/A</v>
       </c>
       <c r="P14" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="Q14" t="s">
-        <v>230</v>
-      </c>
-      <c r="R14" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R14" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S14" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
     </row>
     <row r="15">
@@ -2029,16 +2056,16 @@
         <v>45598.0</v>
       </c>
       <c r="J15" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K15" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L15" t="e">
         <v>#N/A</v>
       </c>
       <c r="M15" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="N15" t="e">
         <v>#N/A</v>
@@ -2047,16 +2074,16 @@
         <v>#N/A</v>
       </c>
       <c r="P15" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q15" t="s">
-        <v>230</v>
-      </c>
-      <c r="R15" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R15" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S15" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
     </row>
     <row r="16">
@@ -2082,23 +2109,23 @@
         <v>28</v>
       </c>
       <c r="H16" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="I16" t="n" s="2">
-        <v>45598.0</v>
+        <v>45622.0</v>
       </c>
       <c r="J16" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="K16" t="s">
+        <v>244</v>
+      </c>
+      <c r="L16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M16" t="s">
         <v>243</v>
       </c>
-      <c r="L16" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M16" t="s">
-        <v>240</v>
-      </c>
       <c r="N16" t="e">
         <v>#N/A</v>
       </c>
@@ -2106,16 +2133,16 @@
         <v>#N/A</v>
       </c>
       <c r="P16" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q16" t="s">
-        <v>230</v>
-      </c>
-      <c r="R16" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R16" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S16" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="17">
@@ -2141,22 +2168,22 @@
         <v>28</v>
       </c>
       <c r="H17" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="I17" t="n" s="2">
-        <v>45598.0</v>
+        <v>45665.0</v>
       </c>
       <c r="J17" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="K17" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="L17" t="e">
         <v>#N/A</v>
       </c>
       <c r="M17" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="N17" t="e">
         <v>#N/A</v>
@@ -2165,16 +2192,16 @@
         <v>#N/A</v>
       </c>
       <c r="P17" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="Q17" t="s">
-        <v>230</v>
-      </c>
-      <c r="R17" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R17" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S17" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="18">
@@ -2200,22 +2227,22 @@
         <v>28</v>
       </c>
       <c r="H18" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="I18" t="n" s="2">
-        <v>45598.0</v>
+        <v>45665.0</v>
       </c>
       <c r="J18" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="K18" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="L18" t="e">
         <v>#N/A</v>
       </c>
       <c r="M18" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="N18" t="e">
         <v>#N/A</v>
@@ -2224,16 +2251,16 @@
         <v>#N/A</v>
       </c>
       <c r="P18" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="Q18" t="s">
-        <v>230</v>
-      </c>
-      <c r="R18" t="s">
-        <v>271</v>
-      </c>
-      <c r="S18" t="e">
-        <v>#N/A</v>
+        <v>261</v>
+      </c>
+      <c r="R18" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S18" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="19">
@@ -2259,22 +2286,22 @@
         <v>28</v>
       </c>
       <c r="H19" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="I19" t="n" s="2">
-        <v>45598.0</v>
+        <v>45666.0</v>
       </c>
       <c r="J19" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="K19" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="L19" t="e">
         <v>#N/A</v>
       </c>
       <c r="M19" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="N19" t="e">
         <v>#N/A</v>
@@ -2283,16 +2310,16 @@
         <v>#N/A</v>
       </c>
       <c r="P19" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="Q19" t="s">
-        <v>230</v>
-      </c>
-      <c r="R19" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R19" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S19" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
     </row>
     <row r="20">
@@ -2324,16 +2351,16 @@
         <v>45605.0</v>
       </c>
       <c r="J20" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K20" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="L20" t="e">
         <v>#N/A</v>
       </c>
       <c r="M20" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="N20" t="e">
         <v>#N/A</v>
@@ -2342,16 +2369,16 @@
         <v>#N/A</v>
       </c>
       <c r="P20" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q20" t="s">
-        <v>230</v>
-      </c>
-      <c r="R20" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R20" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S20" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
     </row>
     <row r="21">
@@ -2383,16 +2410,16 @@
         <v>45605.0</v>
       </c>
       <c r="J21" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K21" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L21" t="e">
         <v>#N/A</v>
       </c>
       <c r="M21" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N21" t="e">
         <v>#N/A</v>
@@ -2401,16 +2428,16 @@
         <v>#N/A</v>
       </c>
       <c r="P21" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q21" t="s">
-        <v>230</v>
-      </c>
-      <c r="R21" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R21" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S21" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
     </row>
     <row r="22">
@@ -2442,16 +2469,16 @@
         <v>45605.0</v>
       </c>
       <c r="J22" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K22" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="L22" t="e">
         <v>#N/A</v>
       </c>
       <c r="M22" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="N22" t="e">
         <v>#N/A</v>
@@ -2460,16 +2487,16 @@
         <v>#N/A</v>
       </c>
       <c r="P22" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q22" t="s">
-        <v>230</v>
-      </c>
-      <c r="R22" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R22" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S22" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="23">
@@ -2501,7 +2528,7 @@
         <v>45605.0</v>
       </c>
       <c r="J23" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="K23" t="s">
         <v>243</v>
@@ -2510,7 +2537,7 @@
         <v>#N/A</v>
       </c>
       <c r="M23" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="N23" t="e">
         <v>#N/A</v>
@@ -2522,13 +2549,13 @@
         <v>255</v>
       </c>
       <c r="Q23" t="s">
-        <v>230</v>
-      </c>
-      <c r="R23" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R23" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S23" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
     </row>
     <row r="24">
@@ -2554,23 +2581,23 @@
         <v>29</v>
       </c>
       <c r="H24" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I24" t="n" s="2">
-        <v>45605.0</v>
+        <v>45606.0</v>
       </c>
       <c r="J24" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K24" t="s">
+        <v>245</v>
+      </c>
+      <c r="L24" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M24" t="s">
         <v>240</v>
       </c>
-      <c r="L24" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M24" t="s">
-        <v>244</v>
-      </c>
       <c r="N24" t="e">
         <v>#N/A</v>
       </c>
@@ -2578,16 +2605,16 @@
         <v>#N/A</v>
       </c>
       <c r="P24" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="Q24" t="s">
-        <v>230</v>
-      </c>
-      <c r="R24" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R24" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S24" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
     </row>
     <row r="25">
@@ -2619,16 +2646,16 @@
         <v>45606.0</v>
       </c>
       <c r="J25" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="K25" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="L25" t="e">
         <v>#N/A</v>
       </c>
       <c r="M25" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="N25" t="e">
         <v>#N/A</v>
@@ -2637,16 +2664,16 @@
         <v>#N/A</v>
       </c>
       <c r="P25" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q25" t="s">
-        <v>230</v>
-      </c>
-      <c r="R25" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R25" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S25" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
     </row>
     <row r="26">
@@ -2678,16 +2705,16 @@
         <v>45619.0</v>
       </c>
       <c r="J26" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K26" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="L26" t="e">
         <v>#N/A</v>
       </c>
       <c r="M26" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="N26" t="e">
         <v>#N/A</v>
@@ -2696,16 +2723,16 @@
         <v>#N/A</v>
       </c>
       <c r="P26" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q26" t="s">
-        <v>230</v>
-      </c>
-      <c r="R26" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R26" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S26" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
     </row>
     <row r="27">
@@ -2737,16 +2764,16 @@
         <v>45619.0</v>
       </c>
       <c r="J27" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K27" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="L27" t="e">
         <v>#N/A</v>
       </c>
       <c r="M27" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="N27" t="e">
         <v>#N/A</v>
@@ -2755,16 +2782,16 @@
         <v>#N/A</v>
       </c>
       <c r="P27" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q27" t="s">
-        <v>230</v>
-      </c>
-      <c r="R27" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R27" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S27" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
     </row>
     <row r="28">
@@ -2796,16 +2823,16 @@
         <v>45619.0</v>
       </c>
       <c r="J28" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K28" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L28" t="e">
         <v>#N/A</v>
       </c>
       <c r="M28" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="N28" t="e">
         <v>#N/A</v>
@@ -2814,16 +2841,16 @@
         <v>#N/A</v>
       </c>
       <c r="P28" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q28" t="s">
-        <v>230</v>
-      </c>
-      <c r="R28" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R28" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S28" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
     </row>
     <row r="29">
@@ -2855,16 +2882,16 @@
         <v>45619.0</v>
       </c>
       <c r="J29" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K29" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="L29" t="e">
         <v>#N/A</v>
       </c>
       <c r="M29" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="N29" t="e">
         <v>#N/A</v>
@@ -2873,16 +2900,16 @@
         <v>#N/A</v>
       </c>
       <c r="P29" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="Q29" t="s">
-        <v>230</v>
-      </c>
-      <c r="R29" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R29" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S29" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
     </row>
     <row r="30">
@@ -2914,16 +2941,16 @@
         <v>45619.0</v>
       </c>
       <c r="J30" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="K30" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="L30" t="e">
         <v>#N/A</v>
       </c>
       <c r="M30" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="N30" t="e">
         <v>#N/A</v>
@@ -2932,16 +2959,16 @@
         <v>#N/A</v>
       </c>
       <c r="P30" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="Q30" t="s">
-        <v>230</v>
-      </c>
-      <c r="R30" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R30" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S30" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
     </row>
     <row r="31">
@@ -2973,16 +3000,16 @@
         <v>45619.0</v>
       </c>
       <c r="J31" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="K31" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="L31" t="e">
         <v>#N/A</v>
       </c>
       <c r="M31" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="N31" t="e">
         <v>#N/A</v>
@@ -2991,16 +3018,16 @@
         <v>#N/A</v>
       </c>
       <c r="P31" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="Q31" t="s">
-        <v>230</v>
-      </c>
-      <c r="R31" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R31" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S31" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="32">
@@ -3032,16 +3059,16 @@
         <v>45626.0</v>
       </c>
       <c r="J32" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K32" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="L32" t="e">
         <v>#N/A</v>
       </c>
       <c r="M32" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="N32" t="e">
         <v>#N/A</v>
@@ -3050,16 +3077,16 @@
         <v>#N/A</v>
       </c>
       <c r="P32" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q32" t="s">
-        <v>230</v>
-      </c>
-      <c r="R32" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R32" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S32" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
     </row>
     <row r="33">
@@ -3091,16 +3118,16 @@
         <v>45626.0</v>
       </c>
       <c r="J33" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K33" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L33" t="e">
         <v>#N/A</v>
       </c>
       <c r="M33" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="N33" t="e">
         <v>#N/A</v>
@@ -3109,16 +3136,16 @@
         <v>#N/A</v>
       </c>
       <c r="P33" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q33" t="s">
-        <v>230</v>
-      </c>
-      <c r="R33" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R33" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S33" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
     </row>
     <row r="34">
@@ -3150,16 +3177,16 @@
         <v>45626.0</v>
       </c>
       <c r="J34" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K34" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="L34" t="e">
         <v>#N/A</v>
       </c>
       <c r="M34" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="N34" t="e">
         <v>#N/A</v>
@@ -3168,16 +3195,16 @@
         <v>#N/A</v>
       </c>
       <c r="P34" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="Q34" t="s">
-        <v>230</v>
-      </c>
-      <c r="R34" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R34" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S34" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
     </row>
     <row r="35">
@@ -3209,16 +3236,16 @@
         <v>45626.0</v>
       </c>
       <c r="J35" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K35" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="L35" t="e">
         <v>#N/A</v>
       </c>
       <c r="M35" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="N35" t="e">
         <v>#N/A</v>
@@ -3227,16 +3254,16 @@
         <v>#N/A</v>
       </c>
       <c r="P35" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q35" t="s">
-        <v>230</v>
-      </c>
-      <c r="R35" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R35" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S35" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="36">
@@ -3262,22 +3289,22 @@
         <v>31</v>
       </c>
       <c r="H36" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I36" t="n" s="2">
-        <v>45626.0</v>
+        <v>45627.0</v>
       </c>
       <c r="J36" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="K36" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="L36" t="e">
         <v>#N/A</v>
       </c>
       <c r="M36" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="N36" t="e">
         <v>#N/A</v>
@@ -3286,16 +3313,16 @@
         <v>#N/A</v>
       </c>
       <c r="P36" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="Q36" t="s">
-        <v>230</v>
-      </c>
-      <c r="R36" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R36" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S36" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
     </row>
     <row r="37">
@@ -3321,13 +3348,13 @@
         <v>31</v>
       </c>
       <c r="H37" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I37" t="n" s="2">
-        <v>45626.0</v>
+        <v>45627.0</v>
       </c>
       <c r="J37" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K37" t="s">
         <v>236</v>
@@ -3336,7 +3363,7 @@
         <v>#N/A</v>
       </c>
       <c r="M37" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="N37" t="e">
         <v>#N/A</v>
@@ -3348,13 +3375,13 @@
         <v>248</v>
       </c>
       <c r="Q37" t="s">
-        <v>230</v>
-      </c>
-      <c r="R37" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R37" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S37" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
     </row>
     <row r="38">
@@ -3386,16 +3413,16 @@
         <v>45556.0</v>
       </c>
       <c r="J38" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K38" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L38" t="n">
         <v>3.0</v>
       </c>
       <c r="M38" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="N38" t="n">
         <v>3.0</v>
@@ -3404,16 +3431,16 @@
         <v>3063.0</v>
       </c>
       <c r="P38" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q38" t="s">
-        <v>259</v>
-      </c>
-      <c r="R38" t="s">
-        <v>230</v>
+        <v>262</v>
+      </c>
+      <c r="R38" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S38" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
     </row>
     <row r="39">
@@ -3445,16 +3472,16 @@
         <v>45556.0</v>
       </c>
       <c r="J39" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K39" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="L39" t="n">
         <v>2.0</v>
       </c>
       <c r="M39" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="N39" t="n">
         <v>1.0</v>
@@ -3463,16 +3490,16 @@
         <v>7341.0</v>
       </c>
       <c r="P39" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q39" t="s">
-        <v>260</v>
-      </c>
-      <c r="R39" t="s">
-        <v>230</v>
+        <v>263</v>
+      </c>
+      <c r="R39" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S39" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
     </row>
     <row r="40">
@@ -3498,16 +3525,16 @@
         <v>32</v>
       </c>
       <c r="H40" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="I40" t="n" s="2">
-        <v>45630.0</v>
+        <v>45599.0</v>
       </c>
       <c r="J40" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="K40" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="L40" t="e">
         <v>#N/A</v>
@@ -3522,16 +3549,16 @@
         <v>#N/A</v>
       </c>
       <c r="P40" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q40" t="s">
-        <v>230</v>
-      </c>
-      <c r="R40" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R40" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S40" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
     </row>
     <row r="41">
@@ -3563,16 +3590,16 @@
         <v>45630.0</v>
       </c>
       <c r="J41" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K41" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="L41" t="e">
         <v>#N/A</v>
       </c>
       <c r="M41" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="N41" t="e">
         <v>#N/A</v>
@@ -3581,16 +3608,16 @@
         <v>#N/A</v>
       </c>
       <c r="P41" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q41" t="s">
-        <v>230</v>
-      </c>
-      <c r="R41" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R41" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S41" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
     </row>
     <row r="42">
@@ -3622,16 +3649,16 @@
         <v>45630.0</v>
       </c>
       <c r="J42" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K42" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="L42" t="e">
         <v>#N/A</v>
       </c>
       <c r="M42" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="N42" t="e">
         <v>#N/A</v>
@@ -3640,16 +3667,16 @@
         <v>#N/A</v>
       </c>
       <c r="P42" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q42" t="s">
-        <v>230</v>
-      </c>
-      <c r="R42" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R42" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S42" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
     </row>
     <row r="43">
@@ -3684,13 +3711,13 @@
         <v>229</v>
       </c>
       <c r="K43" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="L43" t="e">
         <v>#N/A</v>
       </c>
       <c r="M43" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="N43" t="e">
         <v>#N/A</v>
@@ -3699,16 +3726,16 @@
         <v>#N/A</v>
       </c>
       <c r="P43" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="Q43" t="s">
-        <v>230</v>
-      </c>
-      <c r="R43" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R43" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S43" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
     </row>
     <row r="44">
@@ -3740,16 +3767,16 @@
         <v>45633.0</v>
       </c>
       <c r="J44" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K44" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="L44" t="e">
         <v>#N/A</v>
       </c>
       <c r="M44" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="N44" t="e">
         <v>#N/A</v>
@@ -3758,16 +3785,16 @@
         <v>#N/A</v>
       </c>
       <c r="P44" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q44" t="s">
-        <v>230</v>
-      </c>
-      <c r="R44" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R44" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S44" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="45">
@@ -3799,10 +3826,10 @@
         <v>45633.0</v>
       </c>
       <c r="J45" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K45" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="L45" t="e">
         <v>#N/A</v>
@@ -3817,16 +3844,16 @@
         <v>#N/A</v>
       </c>
       <c r="P45" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="Q45" t="s">
-        <v>230</v>
-      </c>
-      <c r="R45" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R45" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S45" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="46">
@@ -3858,16 +3885,16 @@
         <v>45633.0</v>
       </c>
       <c r="J46" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K46" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="L46" t="e">
         <v>#N/A</v>
       </c>
       <c r="M46" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="N46" t="e">
         <v>#N/A</v>
@@ -3876,16 +3903,16 @@
         <v>#N/A</v>
       </c>
       <c r="P46" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q46" t="s">
-        <v>230</v>
-      </c>
-      <c r="R46" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R46" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S46" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="47">
@@ -3917,16 +3944,16 @@
         <v>45633.0</v>
       </c>
       <c r="J47" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K47" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="L47" t="e">
         <v>#N/A</v>
       </c>
       <c r="M47" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="N47" t="e">
         <v>#N/A</v>
@@ -3935,16 +3962,16 @@
         <v>#N/A</v>
       </c>
       <c r="P47" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="Q47" t="s">
-        <v>230</v>
-      </c>
-      <c r="R47" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R47" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S47" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
     </row>
     <row r="48">
@@ -3976,7 +4003,7 @@
         <v>45633.0</v>
       </c>
       <c r="J48" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K48" t="s">
         <v>240</v>
@@ -3985,7 +4012,7 @@
         <v>#N/A</v>
       </c>
       <c r="M48" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="N48" t="e">
         <v>#N/A</v>
@@ -3997,13 +4024,13 @@
         <v>252</v>
       </c>
       <c r="Q48" t="s">
-        <v>230</v>
-      </c>
-      <c r="R48" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R48" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S48" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
     <row r="49">
@@ -4029,22 +4056,22 @@
         <v>33</v>
       </c>
       <c r="H49" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I49" t="n" s="2">
-        <v>45633.0</v>
+        <v>45634.0</v>
       </c>
       <c r="J49" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="K49" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="L49" t="e">
         <v>#N/A</v>
       </c>
       <c r="M49" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="N49" t="e">
         <v>#N/A</v>
@@ -4053,16 +4080,16 @@
         <v>#N/A</v>
       </c>
       <c r="P49" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="Q49" t="s">
-        <v>230</v>
-      </c>
-      <c r="R49" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R49" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S49" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
     </row>
     <row r="50">
@@ -4094,17 +4121,17 @@
         <v>45640.0</v>
       </c>
       <c r="J50" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K50" t="s">
+        <v>241</v>
+      </c>
+      <c r="L50" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M50" t="s">
         <v>239</v>
       </c>
-      <c r="L50" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M50" t="s">
-        <v>237</v>
-      </c>
       <c r="N50" t="e">
         <v>#N/A</v>
       </c>
@@ -4112,16 +4139,16 @@
         <v>#N/A</v>
       </c>
       <c r="P50" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q50" t="s">
-        <v>230</v>
-      </c>
-      <c r="R50" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R50" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S50" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="51">
@@ -4153,16 +4180,16 @@
         <v>45640.0</v>
       </c>
       <c r="J51" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K51" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L51" t="e">
         <v>#N/A</v>
       </c>
       <c r="M51" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="N51" t="e">
         <v>#N/A</v>
@@ -4171,16 +4198,16 @@
         <v>#N/A</v>
       </c>
       <c r="P51" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q51" t="s">
-        <v>230</v>
-      </c>
-      <c r="R51" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R51" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S51" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="52">
@@ -4212,17 +4239,17 @@
         <v>45640.0</v>
       </c>
       <c r="J52" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K52" t="s">
+        <v>244</v>
+      </c>
+      <c r="L52" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M52" t="s">
         <v>242</v>
       </c>
-      <c r="L52" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M52" t="s">
-        <v>234</v>
-      </c>
       <c r="N52" t="e">
         <v>#N/A</v>
       </c>
@@ -4230,16 +4257,16 @@
         <v>#N/A</v>
       </c>
       <c r="P52" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q52" t="s">
-        <v>230</v>
-      </c>
-      <c r="R52" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R52" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S52" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
     </row>
     <row r="53">
@@ -4271,16 +4298,16 @@
         <v>45640.0</v>
       </c>
       <c r="J53" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K53" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="L53" t="e">
         <v>#N/A</v>
       </c>
       <c r="M53" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="N53" t="e">
         <v>#N/A</v>
@@ -4289,16 +4316,16 @@
         <v>#N/A</v>
       </c>
       <c r="P53" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="Q53" t="s">
-        <v>230</v>
-      </c>
-      <c r="R53" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R53" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S53" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="54">
@@ -4324,16 +4351,16 @@
         <v>34</v>
       </c>
       <c r="H54" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I54" t="n" s="2">
-        <v>45640.0</v>
+        <v>45641.0</v>
       </c>
       <c r="J54" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K54" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="L54" t="e">
         <v>#N/A</v>
@@ -4348,16 +4375,16 @@
         <v>#N/A</v>
       </c>
       <c r="P54" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="Q54" t="s">
-        <v>230</v>
-      </c>
-      <c r="R54" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R54" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S54" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="55">
@@ -4383,22 +4410,22 @@
         <v>34</v>
       </c>
       <c r="H55" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I55" t="n" s="2">
-        <v>45640.0</v>
+        <v>45641.0</v>
       </c>
       <c r="J55" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K55" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="L55" t="e">
         <v>#N/A</v>
       </c>
       <c r="M55" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="N55" t="e">
         <v>#N/A</v>
@@ -4407,16 +4434,16 @@
         <v>#N/A</v>
       </c>
       <c r="P55" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q55" t="s">
-        <v>230</v>
-      </c>
-      <c r="R55" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R55" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S55" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
     </row>
     <row r="56">
@@ -4442,22 +4469,22 @@
         <v>35</v>
       </c>
       <c r="H56" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I56" t="n" s="2">
-        <v>45647.0</v>
+        <v>45634.0</v>
       </c>
       <c r="J56" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="K56" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="L56" t="e">
         <v>#N/A</v>
       </c>
       <c r="M56" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="N56" t="e">
         <v>#N/A</v>
@@ -4466,16 +4493,16 @@
         <v>#N/A</v>
       </c>
       <c r="P56" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="Q56" t="s">
-        <v>230</v>
-      </c>
-      <c r="R56" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R56" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S56" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
     </row>
     <row r="57">
@@ -4507,16 +4534,16 @@
         <v>45647.0</v>
       </c>
       <c r="J57" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K57" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="L57" t="e">
         <v>#N/A</v>
       </c>
       <c r="M57" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="N57" t="e">
         <v>#N/A</v>
@@ -4525,16 +4552,16 @@
         <v>#N/A</v>
       </c>
       <c r="P57" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q57" t="s">
-        <v>230</v>
-      </c>
-      <c r="R57" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R57" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S57" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
     </row>
     <row r="58">
@@ -4566,16 +4593,16 @@
         <v>45647.0</v>
       </c>
       <c r="J58" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K58" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="L58" t="e">
         <v>#N/A</v>
       </c>
       <c r="M58" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="N58" t="e">
         <v>#N/A</v>
@@ -4584,16 +4611,16 @@
         <v>#N/A</v>
       </c>
       <c r="P58" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="Q58" t="s">
-        <v>230</v>
-      </c>
-      <c r="R58" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R58" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S58" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="59">
@@ -4625,10 +4652,10 @@
         <v>45647.0</v>
       </c>
       <c r="J59" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K59" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="L59" t="e">
         <v>#N/A</v>
@@ -4643,16 +4670,16 @@
         <v>#N/A</v>
       </c>
       <c r="P59" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="Q59" t="s">
-        <v>230</v>
-      </c>
-      <c r="R59" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R59" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S59" t="s">
-        <v>319</v>
+        <v>289</v>
       </c>
     </row>
     <row r="60">
@@ -4684,16 +4711,16 @@
         <v>45647.0</v>
       </c>
       <c r="J60" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K60" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="L60" t="e">
         <v>#N/A</v>
       </c>
       <c r="M60" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="N60" t="e">
         <v>#N/A</v>
@@ -4702,16 +4729,16 @@
         <v>#N/A</v>
       </c>
       <c r="P60" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="Q60" t="s">
-        <v>230</v>
-      </c>
-      <c r="R60" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R60" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S60" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
     </row>
     <row r="61">
@@ -4743,16 +4770,16 @@
         <v>45647.0</v>
       </c>
       <c r="J61" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K61" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="L61" t="e">
         <v>#N/A</v>
       </c>
       <c r="M61" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="N61" t="e">
         <v>#N/A</v>
@@ -4761,13 +4788,13 @@
         <v>#N/A</v>
       </c>
       <c r="P61" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q61" t="s">
-        <v>230</v>
-      </c>
-      <c r="R61" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R61" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S61" t="s">
         <v>287</v>
@@ -4796,22 +4823,22 @@
         <v>36</v>
       </c>
       <c r="H62" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I62" t="n" s="2">
         <v>45652.0</v>
       </c>
       <c r="J62" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K62" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="L62" t="e">
         <v>#N/A</v>
       </c>
       <c r="M62" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N62" t="e">
         <v>#N/A</v>
@@ -4820,16 +4847,16 @@
         <v>#N/A</v>
       </c>
       <c r="P62" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q62" t="s">
-        <v>230</v>
-      </c>
-      <c r="R62" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R62" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S62" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
     </row>
     <row r="63">
@@ -4855,22 +4882,22 @@
         <v>36</v>
       </c>
       <c r="H63" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I63" t="n" s="2">
         <v>45652.0</v>
       </c>
       <c r="J63" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K63" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L63" t="e">
         <v>#N/A</v>
       </c>
       <c r="M63" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="N63" t="e">
         <v>#N/A</v>
@@ -4879,16 +4906,16 @@
         <v>#N/A</v>
       </c>
       <c r="P63" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q63" t="s">
-        <v>230</v>
-      </c>
-      <c r="R63" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R63" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S63" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="64">
@@ -4914,22 +4941,22 @@
         <v>36</v>
       </c>
       <c r="H64" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I64" t="n" s="2">
         <v>45652.0</v>
       </c>
       <c r="J64" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K64" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="L64" t="e">
         <v>#N/A</v>
       </c>
       <c r="M64" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="N64" t="e">
         <v>#N/A</v>
@@ -4938,16 +4965,16 @@
         <v>#N/A</v>
       </c>
       <c r="P64" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q64" t="s">
-        <v>230</v>
-      </c>
-      <c r="R64" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R64" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S64" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="65">
@@ -4973,22 +5000,22 @@
         <v>36</v>
       </c>
       <c r="H65" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I65" t="n" s="2">
         <v>45652.0</v>
       </c>
       <c r="J65" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K65" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="L65" t="e">
         <v>#N/A</v>
       </c>
       <c r="M65" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="N65" t="e">
         <v>#N/A</v>
@@ -4997,16 +5024,16 @@
         <v>#N/A</v>
       </c>
       <c r="P65" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q65" t="s">
-        <v>230</v>
-      </c>
-      <c r="R65" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R65" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S65" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
     </row>
     <row r="66">
@@ -5032,22 +5059,22 @@
         <v>36</v>
       </c>
       <c r="H66" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I66" t="n" s="2">
         <v>45652.0</v>
       </c>
       <c r="J66" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K66" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="L66" t="e">
         <v>#N/A</v>
       </c>
       <c r="M66" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="N66" t="e">
         <v>#N/A</v>
@@ -5056,16 +5083,16 @@
         <v>#N/A</v>
       </c>
       <c r="P66" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="Q66" t="s">
-        <v>230</v>
-      </c>
-      <c r="R66" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R66" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S66" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
     </row>
     <row r="67">
@@ -5091,22 +5118,22 @@
         <v>36</v>
       </c>
       <c r="H67" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I67" t="n" s="2">
         <v>45652.0</v>
       </c>
       <c r="J67" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="K67" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="L67" t="e">
         <v>#N/A</v>
       </c>
       <c r="M67" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="N67" t="e">
         <v>#N/A</v>
@@ -5115,16 +5142,16 @@
         <v>#N/A</v>
       </c>
       <c r="P67" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="Q67" t="s">
-        <v>230</v>
-      </c>
-      <c r="R67" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R67" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S67" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
     </row>
     <row r="68">
@@ -5156,16 +5183,16 @@
         <v>45514.0</v>
       </c>
       <c r="J68" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K68" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L68" t="n">
         <v>1.0</v>
       </c>
       <c r="M68" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="N68" t="n">
         <v>1.0</v>
@@ -5174,16 +5201,16 @@
         <v>4169.0</v>
       </c>
       <c r="P68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q68" t="s">
-        <v>230</v>
-      </c>
-      <c r="R68" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R68" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S68" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
     </row>
     <row r="69">
@@ -5215,16 +5242,16 @@
         <v>45514.0</v>
       </c>
       <c r="J69" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K69" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="L69" t="n">
         <v>2.0</v>
       </c>
       <c r="M69" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="N69" t="n">
         <v>1.0</v>
@@ -5233,16 +5260,16 @@
         <v>48529.0</v>
       </c>
       <c r="P69" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q69" t="s">
-        <v>230</v>
-      </c>
-      <c r="R69" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R69" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S69" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
     </row>
     <row r="70">
@@ -5277,13 +5304,13 @@
         <v>231</v>
       </c>
       <c r="K70" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L70" t="n">
         <v>3.0</v>
       </c>
       <c r="M70" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="N70" t="n">
         <v>1.0</v>
@@ -5292,16 +5319,16 @@
         <v>7266.0</v>
       </c>
       <c r="P70" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q70" t="s">
-        <v>230</v>
-      </c>
-      <c r="R70" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R70" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S70" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
     <row r="71">
@@ -5333,16 +5360,16 @@
         <v>45515.0</v>
       </c>
       <c r="J71" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K71" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L71" t="n">
         <v>0.0</v>
       </c>
       <c r="M71" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="N71" t="n">
         <v>2.0</v>
@@ -5351,16 +5378,16 @@
         <v>17918.0</v>
       </c>
       <c r="P71" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q71" t="s">
-        <v>230</v>
-      </c>
-      <c r="R71" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R71" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S71" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
     </row>
     <row r="72">
@@ -5392,16 +5419,16 @@
         <v>45515.0</v>
       </c>
       <c r="J72" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K72" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="L72" t="n">
         <v>0.0</v>
       </c>
       <c r="M72" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="N72" t="n">
         <v>3.0</v>
@@ -5410,16 +5437,16 @@
         <v>4843.0</v>
       </c>
       <c r="P72" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q72" t="s">
-        <v>230</v>
-      </c>
-      <c r="R72" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R72" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S72" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
     </row>
     <row r="73">
@@ -5451,16 +5478,16 @@
         <v>45515.0</v>
       </c>
       <c r="J73" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K73" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="L73" t="n">
         <v>3.0</v>
       </c>
       <c r="M73" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="N73" t="n">
         <v>1.0</v>
@@ -5469,16 +5496,16 @@
         <v>17057.0</v>
       </c>
       <c r="P73" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q73" t="s">
-        <v>230</v>
-      </c>
-      <c r="R73" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R73" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S73" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
     </row>
     <row r="74">
@@ -5510,16 +5537,16 @@
         <v>45655.0</v>
       </c>
       <c r="J74" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K74" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="L74" t="e">
         <v>#N/A</v>
       </c>
       <c r="M74" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="N74" t="e">
         <v>#N/A</v>
@@ -5528,16 +5555,16 @@
         <v>#N/A</v>
       </c>
       <c r="P74" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q74" t="s">
-        <v>230</v>
-      </c>
-      <c r="R74" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R74" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S74" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
     </row>
     <row r="75">
@@ -5569,16 +5596,16 @@
         <v>45655.0</v>
       </c>
       <c r="J75" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K75" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="L75" t="e">
         <v>#N/A</v>
       </c>
       <c r="M75" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="N75" t="e">
         <v>#N/A</v>
@@ -5587,16 +5614,16 @@
         <v>#N/A</v>
       </c>
       <c r="P75" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q75" t="s">
-        <v>230</v>
-      </c>
-      <c r="R75" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R75" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S75" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
     </row>
     <row r="76">
@@ -5628,16 +5655,16 @@
         <v>45655.0</v>
       </c>
       <c r="J76" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K76" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L76" t="e">
         <v>#N/A</v>
       </c>
       <c r="M76" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="N76" t="e">
         <v>#N/A</v>
@@ -5646,16 +5673,16 @@
         <v>#N/A</v>
       </c>
       <c r="P76" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q76" t="s">
-        <v>230</v>
-      </c>
-      <c r="R76" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R76" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S76" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
     </row>
     <row r="77">
@@ -5687,16 +5714,16 @@
         <v>45655.0</v>
       </c>
       <c r="J77" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K77" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="L77" t="e">
         <v>#N/A</v>
       </c>
       <c r="M77" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="N77" t="e">
         <v>#N/A</v>
@@ -5705,16 +5732,16 @@
         <v>#N/A</v>
       </c>
       <c r="P77" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q77" t="s">
-        <v>230</v>
-      </c>
-      <c r="R77" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R77" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S77" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
     </row>
     <row r="78">
@@ -5746,16 +5773,16 @@
         <v>45655.0</v>
       </c>
       <c r="J78" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K78" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L78" t="e">
         <v>#N/A</v>
       </c>
       <c r="M78" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="N78" t="e">
         <v>#N/A</v>
@@ -5764,16 +5791,16 @@
         <v>#N/A</v>
       </c>
       <c r="P78" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q78" t="s">
-        <v>230</v>
-      </c>
-      <c r="R78" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R78" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S78" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
     </row>
     <row r="79">
@@ -5805,16 +5832,16 @@
         <v>45655.0</v>
       </c>
       <c r="J79" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="K79" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L79" t="e">
         <v>#N/A</v>
       </c>
       <c r="M79" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="N79" t="e">
         <v>#N/A</v>
@@ -5823,16 +5850,16 @@
         <v>#N/A</v>
       </c>
       <c r="P79" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q79" t="s">
-        <v>230</v>
-      </c>
-      <c r="R79" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R79" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S79" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
     </row>
     <row r="80">
@@ -5858,22 +5885,22 @@
         <v>38</v>
       </c>
       <c r="H80" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I80" t="n" s="2">
         <v>45659.0</v>
       </c>
       <c r="J80" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K80" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="L80" t="e">
         <v>#N/A</v>
       </c>
       <c r="M80" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="N80" t="e">
         <v>#N/A</v>
@@ -5882,16 +5909,16 @@
         <v>#N/A</v>
       </c>
       <c r="P80" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="Q80" t="s">
-        <v>230</v>
-      </c>
-      <c r="R80" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R80" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S80" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
     </row>
     <row r="81">
@@ -5917,22 +5944,22 @@
         <v>38</v>
       </c>
       <c r="H81" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I81" t="n" s="2">
         <v>45659.0</v>
       </c>
       <c r="J81" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K81" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L81" t="e">
         <v>#N/A</v>
       </c>
       <c r="M81" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N81" t="e">
         <v>#N/A</v>
@@ -5941,16 +5968,16 @@
         <v>#N/A</v>
       </c>
       <c r="P81" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="Q81" t="s">
-        <v>230</v>
-      </c>
-      <c r="R81" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R81" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S81" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
     </row>
     <row r="82">
@@ -5976,22 +6003,22 @@
         <v>38</v>
       </c>
       <c r="H82" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I82" t="n" s="2">
         <v>45659.0</v>
       </c>
       <c r="J82" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K82" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="L82" t="e">
         <v>#N/A</v>
       </c>
       <c r="M82" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="N82" t="e">
         <v>#N/A</v>
@@ -6000,16 +6027,16 @@
         <v>#N/A</v>
       </c>
       <c r="P82" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="Q82" t="s">
-        <v>230</v>
-      </c>
-      <c r="R82" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R82" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S82" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
     </row>
     <row r="83">
@@ -6035,22 +6062,22 @@
         <v>38</v>
       </c>
       <c r="H83" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I83" t="n" s="2">
         <v>45659.0</v>
       </c>
       <c r="J83" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K83" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="L83" t="e">
         <v>#N/A</v>
       </c>
       <c r="M83" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N83" t="e">
         <v>#N/A</v>
@@ -6059,16 +6086,16 @@
         <v>#N/A</v>
       </c>
       <c r="P83" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="Q83" t="s">
-        <v>230</v>
-      </c>
-      <c r="R83" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R83" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S83" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
     </row>
     <row r="84">
@@ -6094,22 +6121,22 @@
         <v>38</v>
       </c>
       <c r="H84" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I84" t="n" s="2">
         <v>45659.0</v>
       </c>
       <c r="J84" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K84" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="L84" t="e">
         <v>#N/A</v>
       </c>
       <c r="M84" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="N84" t="e">
         <v>#N/A</v>
@@ -6118,16 +6145,16 @@
         <v>#N/A</v>
       </c>
       <c r="P84" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="Q84" t="s">
-        <v>230</v>
-      </c>
-      <c r="R84" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R84" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S84" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
     </row>
     <row r="85">
@@ -6153,7 +6180,7 @@
         <v>38</v>
       </c>
       <c r="H85" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I85" t="n" s="2">
         <v>45659.0</v>
@@ -6162,13 +6189,13 @@
         <v>231</v>
       </c>
       <c r="K85" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L85" t="e">
         <v>#N/A</v>
       </c>
       <c r="M85" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="N85" t="e">
         <v>#N/A</v>
@@ -6177,16 +6204,16 @@
         <v>#N/A</v>
       </c>
       <c r="P85" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="Q85" t="s">
-        <v>230</v>
-      </c>
-      <c r="R85" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R85" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S85" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
     </row>
     <row r="86">
@@ -6218,16 +6245,16 @@
         <v>45662.0</v>
       </c>
       <c r="J86" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K86" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="L86" t="e">
         <v>#N/A</v>
       </c>
       <c r="M86" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="N86" t="e">
         <v>#N/A</v>
@@ -6236,16 +6263,16 @@
         <v>#N/A</v>
       </c>
       <c r="P86" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="Q86" t="s">
-        <v>230</v>
-      </c>
-      <c r="R86" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R86" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S86" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
     </row>
     <row r="87">
@@ -6277,17 +6304,17 @@
         <v>45662.0</v>
       </c>
       <c r="J87" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K87" t="s">
+        <v>238</v>
+      </c>
+      <c r="L87" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M87" t="s">
         <v>236</v>
       </c>
-      <c r="L87" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M87" t="s">
-        <v>234</v>
-      </c>
       <c r="N87" t="e">
         <v>#N/A</v>
       </c>
@@ -6295,16 +6322,16 @@
         <v>#N/A</v>
       </c>
       <c r="P87" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="Q87" t="s">
-        <v>230</v>
-      </c>
-      <c r="R87" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R87" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S87" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
     </row>
     <row r="88">
@@ -6336,16 +6363,16 @@
         <v>45662.0</v>
       </c>
       <c r="J88" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K88" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L88" t="e">
         <v>#N/A</v>
       </c>
       <c r="M88" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="N88" t="e">
         <v>#N/A</v>
@@ -6354,16 +6381,16 @@
         <v>#N/A</v>
       </c>
       <c r="P88" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="Q88" t="s">
-        <v>230</v>
-      </c>
-      <c r="R88" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R88" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S88" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
     </row>
     <row r="89">
@@ -6395,16 +6422,16 @@
         <v>45662.0</v>
       </c>
       <c r="J89" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K89" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="L89" t="e">
         <v>#N/A</v>
       </c>
       <c r="M89" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="N89" t="e">
         <v>#N/A</v>
@@ -6413,16 +6440,16 @@
         <v>#N/A</v>
       </c>
       <c r="P89" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="Q89" t="s">
-        <v>230</v>
-      </c>
-      <c r="R89" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R89" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S89" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
     </row>
     <row r="90">
@@ -6454,16 +6481,16 @@
         <v>45662.0</v>
       </c>
       <c r="J90" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K90" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L90" t="e">
         <v>#N/A</v>
       </c>
       <c r="M90" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="N90" t="e">
         <v>#N/A</v>
@@ -6472,16 +6499,16 @@
         <v>#N/A</v>
       </c>
       <c r="P90" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="Q90" t="s">
-        <v>230</v>
-      </c>
-      <c r="R90" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R90" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S90" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
     </row>
     <row r="91">
@@ -6513,17 +6540,17 @@
         <v>45662.0</v>
       </c>
       <c r="J91" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K91" t="s">
+        <v>245</v>
+      </c>
+      <c r="L91" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M91" t="s">
         <v>242</v>
       </c>
-      <c r="L91" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M91" t="s">
-        <v>241</v>
-      </c>
       <c r="N91" t="e">
         <v>#N/A</v>
       </c>
@@ -6531,16 +6558,16 @@
         <v>#N/A</v>
       </c>
       <c r="P91" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="Q91" t="s">
-        <v>230</v>
-      </c>
-      <c r="R91" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R91" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S91" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
     </row>
     <row r="92">
@@ -6566,22 +6593,22 @@
         <v>40</v>
       </c>
       <c r="H92" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I92" t="n" s="2">
-        <v>45668.0</v>
+        <v>45599.0</v>
       </c>
       <c r="J92" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K92" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="L92" t="e">
         <v>#N/A</v>
       </c>
       <c r="M92" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="N92" t="e">
         <v>#N/A</v>
@@ -6590,16 +6617,16 @@
         <v>#N/A</v>
       </c>
       <c r="P92" t="s">
-        <v>230</v>
+        <v>258</v>
       </c>
       <c r="Q92" t="s">
-        <v>230</v>
-      </c>
-      <c r="R92" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R92" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S92" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="93">
@@ -6631,17 +6658,17 @@
         <v>45668.0</v>
       </c>
       <c r="J93" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K93" t="s">
+        <v>242</v>
+      </c>
+      <c r="L93" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M93" t="s">
         <v>240</v>
       </c>
-      <c r="L93" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M93" t="s">
-        <v>234</v>
-      </c>
       <c r="N93" t="e">
         <v>#N/A</v>
       </c>
@@ -6649,16 +6676,16 @@
         <v>#N/A</v>
       </c>
       <c r="P93" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="Q93" t="s">
-        <v>230</v>
-      </c>
-      <c r="R93" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R93" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S93" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="94">
@@ -6690,16 +6717,16 @@
         <v>45668.0</v>
       </c>
       <c r="J94" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K94" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="L94" t="e">
         <v>#N/A</v>
       </c>
       <c r="M94" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="N94" t="e">
         <v>#N/A</v>
@@ -6708,16 +6735,16 @@
         <v>#N/A</v>
       </c>
       <c r="P94" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="Q94" t="s">
-        <v>230</v>
-      </c>
-      <c r="R94" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R94" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S94" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
     </row>
     <row r="95">
@@ -6749,16 +6776,16 @@
         <v>45668.0</v>
       </c>
       <c r="J95" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K95" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="L95" t="e">
         <v>#N/A</v>
       </c>
       <c r="M95" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="N95" t="e">
         <v>#N/A</v>
@@ -6767,16 +6794,16 @@
         <v>#N/A</v>
       </c>
       <c r="P95" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="Q95" t="s">
-        <v>230</v>
-      </c>
-      <c r="R95" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R95" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S95" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
     </row>
     <row r="96">
@@ -6808,16 +6835,16 @@
         <v>45668.0</v>
       </c>
       <c r="J96" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K96" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="L96" t="e">
         <v>#N/A</v>
       </c>
       <c r="M96" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="N96" t="e">
         <v>#N/A</v>
@@ -6826,16 +6853,16 @@
         <v>#N/A</v>
       </c>
       <c r="P96" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="Q96" t="s">
-        <v>230</v>
-      </c>
-      <c r="R96" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R96" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S96" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
     </row>
     <row r="97">
@@ -6867,16 +6894,16 @@
         <v>45668.0</v>
       </c>
       <c r="J97" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K97" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L97" t="e">
         <v>#N/A</v>
       </c>
       <c r="M97" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="N97" t="e">
         <v>#N/A</v>
@@ -6885,16 +6912,16 @@
         <v>#N/A</v>
       </c>
       <c r="P97" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="Q97" t="s">
-        <v>230</v>
-      </c>
-      <c r="R97" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R97" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S97" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
     </row>
     <row r="98">
@@ -6926,16 +6953,16 @@
         <v>45682.0</v>
       </c>
       <c r="J98" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K98" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L98" t="e">
         <v>#N/A</v>
       </c>
       <c r="M98" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="N98" t="e">
         <v>#N/A</v>
@@ -6944,16 +6971,16 @@
         <v>#N/A</v>
       </c>
       <c r="P98" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="Q98" t="s">
-        <v>230</v>
-      </c>
-      <c r="R98" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R98" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S98" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
     </row>
     <row r="99">
@@ -6985,16 +7012,16 @@
         <v>45682.0</v>
       </c>
       <c r="J99" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K99" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L99" t="e">
         <v>#N/A</v>
       </c>
       <c r="M99" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N99" t="e">
         <v>#N/A</v>
@@ -7003,16 +7030,16 @@
         <v>#N/A</v>
       </c>
       <c r="P99" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="Q99" t="s">
-        <v>230</v>
-      </c>
-      <c r="R99" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R99" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S99" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="100">
@@ -7044,16 +7071,16 @@
         <v>45682.0</v>
       </c>
       <c r="J100" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K100" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="L100" t="e">
         <v>#N/A</v>
       </c>
       <c r="M100" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="N100" t="e">
         <v>#N/A</v>
@@ -7062,16 +7089,16 @@
         <v>#N/A</v>
       </c>
       <c r="P100" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="Q100" t="s">
-        <v>230</v>
-      </c>
-      <c r="R100" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R100" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S100" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="101">
@@ -7103,16 +7130,16 @@
         <v>45682.0</v>
       </c>
       <c r="J101" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K101" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L101" t="e">
         <v>#N/A</v>
       </c>
       <c r="M101" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="N101" t="e">
         <v>#N/A</v>
@@ -7121,16 +7148,16 @@
         <v>#N/A</v>
       </c>
       <c r="P101" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="Q101" t="s">
-        <v>230</v>
-      </c>
-      <c r="R101" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R101" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S101" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
     </row>
     <row r="102">
@@ -7162,16 +7189,16 @@
         <v>45682.0</v>
       </c>
       <c r="J102" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K102" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="L102" t="e">
         <v>#N/A</v>
       </c>
       <c r="M102" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="N102" t="e">
         <v>#N/A</v>
@@ -7180,16 +7207,16 @@
         <v>#N/A</v>
       </c>
       <c r="P102" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="Q102" t="s">
-        <v>230</v>
-      </c>
-      <c r="R102" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R102" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S102" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
     </row>
     <row r="103">
@@ -7221,16 +7248,16 @@
         <v>45682.0</v>
       </c>
       <c r="J103" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K103" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="L103" t="e">
         <v>#N/A</v>
       </c>
       <c r="M103" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="N103" t="e">
         <v>#N/A</v>
@@ -7239,16 +7266,16 @@
         <v>#N/A</v>
       </c>
       <c r="P103" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="Q103" t="s">
-        <v>230</v>
-      </c>
-      <c r="R103" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R103" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S103" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="104">
@@ -7280,16 +7307,16 @@
         <v>45689.0</v>
       </c>
       <c r="J104" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K104" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="L104" t="e">
         <v>#N/A</v>
       </c>
       <c r="M104" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="N104" t="e">
         <v>#N/A</v>
@@ -7298,16 +7325,16 @@
         <v>#N/A</v>
       </c>
       <c r="P104" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="Q104" t="s">
-        <v>230</v>
-      </c>
-      <c r="R104" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R104" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S104" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="105">
@@ -7339,16 +7366,16 @@
         <v>45689.0</v>
       </c>
       <c r="J105" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K105" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L105" t="e">
         <v>#N/A</v>
       </c>
       <c r="M105" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="N105" t="e">
         <v>#N/A</v>
@@ -7357,16 +7384,16 @@
         <v>#N/A</v>
       </c>
       <c r="P105" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="Q105" t="s">
-        <v>230</v>
-      </c>
-      <c r="R105" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R105" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S105" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="106">
@@ -7398,17 +7425,17 @@
         <v>45689.0</v>
       </c>
       <c r="J106" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K106" t="s">
+        <v>244</v>
+      </c>
+      <c r="L106" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M106" t="s">
         <v>243</v>
       </c>
-      <c r="L106" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M106" t="s">
-        <v>240</v>
-      </c>
       <c r="N106" t="e">
         <v>#N/A</v>
       </c>
@@ -7416,16 +7443,16 @@
         <v>#N/A</v>
       </c>
       <c r="P106" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="Q106" t="s">
-        <v>230</v>
-      </c>
-      <c r="R106" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R106" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S106" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="107">
@@ -7457,16 +7484,16 @@
         <v>45689.0</v>
       </c>
       <c r="J107" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K107" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="L107" t="e">
         <v>#N/A</v>
       </c>
       <c r="M107" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="N107" t="e">
         <v>#N/A</v>
@@ -7475,16 +7502,16 @@
         <v>#N/A</v>
       </c>
       <c r="P107" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="Q107" t="s">
-        <v>230</v>
-      </c>
-      <c r="R107" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R107" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S107" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
     </row>
     <row r="108">
@@ -7516,16 +7543,16 @@
         <v>45689.0</v>
       </c>
       <c r="J108" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K108" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="L108" t="e">
         <v>#N/A</v>
       </c>
       <c r="M108" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="N108" t="e">
         <v>#N/A</v>
@@ -7534,16 +7561,16 @@
         <v>#N/A</v>
       </c>
       <c r="P108" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="Q108" t="s">
-        <v>230</v>
-      </c>
-      <c r="R108" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R108" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S108" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
     </row>
     <row r="109">
@@ -7575,16 +7602,16 @@
         <v>45689.0</v>
       </c>
       <c r="J109" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K109" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="L109" t="e">
         <v>#N/A</v>
       </c>
       <c r="M109" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N109" t="e">
         <v>#N/A</v>
@@ -7593,16 +7620,16 @@
         <v>#N/A</v>
       </c>
       <c r="P109" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="Q109" t="s">
-        <v>230</v>
-      </c>
-      <c r="R109" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R109" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S109" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
     </row>
     <row r="110">
@@ -7634,17 +7661,17 @@
         <v>45703.0</v>
       </c>
       <c r="J110" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K110" t="s">
+        <v>240</v>
+      </c>
+      <c r="L110" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M110" t="s">
         <v>238</v>
       </c>
-      <c r="L110" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M110" t="s">
-        <v>236</v>
-      </c>
       <c r="N110" t="e">
         <v>#N/A</v>
       </c>
@@ -7652,16 +7679,16 @@
         <v>#N/A</v>
       </c>
       <c r="P110" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="Q110" t="s">
-        <v>230</v>
-      </c>
-      <c r="R110" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R110" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S110" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
     </row>
     <row r="111">
@@ -7693,16 +7720,16 @@
         <v>45703.0</v>
       </c>
       <c r="J111" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K111" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L111" t="e">
         <v>#N/A</v>
       </c>
       <c r="M111" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="N111" t="e">
         <v>#N/A</v>
@@ -7711,16 +7738,16 @@
         <v>#N/A</v>
       </c>
       <c r="P111" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="Q111" t="s">
-        <v>230</v>
-      </c>
-      <c r="R111" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R111" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S111" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="112">
@@ -7752,16 +7779,16 @@
         <v>45703.0</v>
       </c>
       <c r="J112" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K112" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="L112" t="e">
         <v>#N/A</v>
       </c>
       <c r="M112" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N112" t="e">
         <v>#N/A</v>
@@ -7770,16 +7797,16 @@
         <v>#N/A</v>
       </c>
       <c r="P112" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="Q112" t="s">
-        <v>230</v>
-      </c>
-      <c r="R112" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R112" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S112" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="113">
@@ -7811,16 +7838,16 @@
         <v>45703.0</v>
       </c>
       <c r="J113" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K113" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="L113" t="e">
         <v>#N/A</v>
       </c>
       <c r="M113" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N113" t="e">
         <v>#N/A</v>
@@ -7829,16 +7856,16 @@
         <v>#N/A</v>
       </c>
       <c r="P113" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="Q113" t="s">
-        <v>230</v>
-      </c>
-      <c r="R113" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R113" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S113" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
     </row>
     <row r="114">
@@ -7870,16 +7897,16 @@
         <v>45703.0</v>
       </c>
       <c r="J114" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K114" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="L114" t="e">
         <v>#N/A</v>
       </c>
       <c r="M114" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="N114" t="e">
         <v>#N/A</v>
@@ -7888,16 +7915,16 @@
         <v>#N/A</v>
       </c>
       <c r="P114" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="Q114" t="s">
-        <v>230</v>
-      </c>
-      <c r="R114" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R114" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S114" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
     </row>
     <row r="115">
@@ -7929,16 +7956,16 @@
         <v>45703.0</v>
       </c>
       <c r="J115" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K115" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="L115" t="e">
         <v>#N/A</v>
       </c>
       <c r="M115" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="N115" t="e">
         <v>#N/A</v>
@@ -7947,16 +7974,16 @@
         <v>#N/A</v>
       </c>
       <c r="P115" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="Q115" t="s">
-        <v>230</v>
-      </c>
-      <c r="R115" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R115" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S115" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
     </row>
     <row r="116">
@@ -7988,16 +8015,16 @@
         <v>45710.0</v>
       </c>
       <c r="J116" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K116" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L116" t="e">
         <v>#N/A</v>
       </c>
       <c r="M116" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="N116" t="e">
         <v>#N/A</v>
@@ -8006,16 +8033,16 @@
         <v>#N/A</v>
       </c>
       <c r="P116" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="Q116" t="s">
-        <v>230</v>
-      </c>
-      <c r="R116" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R116" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S116" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
     </row>
     <row r="117">
@@ -8047,16 +8074,16 @@
         <v>45710.0</v>
       </c>
       <c r="J117" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K117" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="L117" t="e">
         <v>#N/A</v>
       </c>
       <c r="M117" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="N117" t="e">
         <v>#N/A</v>
@@ -8065,16 +8092,16 @@
         <v>#N/A</v>
       </c>
       <c r="P117" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="Q117" t="s">
-        <v>230</v>
-      </c>
-      <c r="R117" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R117" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S117" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
     </row>
     <row r="118">
@@ -8106,16 +8133,16 @@
         <v>45710.0</v>
       </c>
       <c r="J118" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K118" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L118" t="e">
         <v>#N/A</v>
       </c>
       <c r="M118" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="N118" t="e">
         <v>#N/A</v>
@@ -8124,16 +8151,16 @@
         <v>#N/A</v>
       </c>
       <c r="P118" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="Q118" t="s">
-        <v>230</v>
-      </c>
-      <c r="R118" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R118" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S118" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="119">
@@ -8165,16 +8192,16 @@
         <v>45710.0</v>
       </c>
       <c r="J119" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K119" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L119" t="e">
         <v>#N/A</v>
       </c>
       <c r="M119" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="N119" t="e">
         <v>#N/A</v>
@@ -8183,13 +8210,13 @@
         <v>#N/A</v>
       </c>
       <c r="P119" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="Q119" t="s">
-        <v>230</v>
-      </c>
-      <c r="R119" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R119" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S119" t="s">
         <v>287</v>
@@ -8224,16 +8251,16 @@
         <v>45710.0</v>
       </c>
       <c r="J120" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K120" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L120" t="e">
         <v>#N/A</v>
       </c>
       <c r="M120" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="N120" t="e">
         <v>#N/A</v>
@@ -8242,16 +8269,16 @@
         <v>#N/A</v>
       </c>
       <c r="P120" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="Q120" t="s">
-        <v>230</v>
-      </c>
-      <c r="R120" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R120" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S120" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="121">
@@ -8283,16 +8310,16 @@
         <v>45710.0</v>
       </c>
       <c r="J121" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K121" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="L121" t="e">
         <v>#N/A</v>
       </c>
       <c r="M121" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="N121" t="e">
         <v>#N/A</v>
@@ -8301,16 +8328,16 @@
         <v>#N/A</v>
       </c>
       <c r="P121" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="Q121" t="s">
-        <v>230</v>
-      </c>
-      <c r="R121" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R121" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S121" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="122">
@@ -8342,16 +8369,16 @@
         <v>45714.0</v>
       </c>
       <c r="J122" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K122" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="L122" t="e">
         <v>#N/A</v>
       </c>
       <c r="M122" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="N122" t="e">
         <v>#N/A</v>
@@ -8360,16 +8387,16 @@
         <v>#N/A</v>
       </c>
       <c r="P122" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="Q122" t="s">
-        <v>230</v>
-      </c>
-      <c r="R122" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R122" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S122" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
     </row>
     <row r="123">
@@ -8401,16 +8428,16 @@
         <v>45714.0</v>
       </c>
       <c r="J123" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K123" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="L123" t="e">
         <v>#N/A</v>
       </c>
       <c r="M123" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="N123" t="e">
         <v>#N/A</v>
@@ -8419,16 +8446,16 @@
         <v>#N/A</v>
       </c>
       <c r="P123" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="Q123" t="s">
-        <v>230</v>
-      </c>
-      <c r="R123" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R123" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S123" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
     </row>
     <row r="124">
@@ -8460,16 +8487,16 @@
         <v>45714.0</v>
       </c>
       <c r="J124" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K124" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="L124" t="e">
         <v>#N/A</v>
       </c>
       <c r="M124" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="N124" t="e">
         <v>#N/A</v>
@@ -8478,16 +8505,16 @@
         <v>#N/A</v>
       </c>
       <c r="P124" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="Q124" t="s">
-        <v>230</v>
-      </c>
-      <c r="R124" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R124" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S124" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="125">
@@ -8519,16 +8546,16 @@
         <v>45714.0</v>
       </c>
       <c r="J125" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K125" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L125" t="e">
         <v>#N/A</v>
       </c>
       <c r="M125" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N125" t="e">
         <v>#N/A</v>
@@ -8537,16 +8564,16 @@
         <v>#N/A</v>
       </c>
       <c r="P125" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="Q125" t="s">
-        <v>230</v>
-      </c>
-      <c r="R125" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R125" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S125" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
     </row>
     <row r="126">
@@ -8578,16 +8605,16 @@
         <v>45714.0</v>
       </c>
       <c r="J126" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K126" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L126" t="e">
         <v>#N/A</v>
       </c>
       <c r="M126" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N126" t="e">
         <v>#N/A</v>
@@ -8596,16 +8623,16 @@
         <v>#N/A</v>
       </c>
       <c r="P126" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="Q126" t="s">
-        <v>230</v>
-      </c>
-      <c r="R126" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R126" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S126" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
     </row>
     <row r="127">
@@ -8637,16 +8664,16 @@
         <v>45714.0</v>
       </c>
       <c r="J127" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K127" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="L127" t="e">
         <v>#N/A</v>
       </c>
       <c r="M127" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="N127" t="e">
         <v>#N/A</v>
@@ -8655,16 +8682,16 @@
         <v>#N/A</v>
       </c>
       <c r="P127" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="Q127" t="s">
-        <v>230</v>
-      </c>
-      <c r="R127" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R127" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S127" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="128">
@@ -8696,16 +8723,16 @@
         <v>45717.0</v>
       </c>
       <c r="J128" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K128" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L128" t="e">
         <v>#N/A</v>
       </c>
       <c r="M128" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="N128" t="e">
         <v>#N/A</v>
@@ -8714,16 +8741,16 @@
         <v>#N/A</v>
       </c>
       <c r="P128" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="Q128" t="s">
-        <v>230</v>
-      </c>
-      <c r="R128" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R128" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S128" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
     </row>
     <row r="129">
@@ -8755,16 +8782,16 @@
         <v>45717.0</v>
       </c>
       <c r="J129" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K129" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="L129" t="e">
         <v>#N/A</v>
       </c>
       <c r="M129" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="N129" t="e">
         <v>#N/A</v>
@@ -8773,16 +8800,16 @@
         <v>#N/A</v>
       </c>
       <c r="P129" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="Q129" t="s">
-        <v>230</v>
-      </c>
-      <c r="R129" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R129" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S129" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
     </row>
     <row r="130">
@@ -8814,16 +8841,16 @@
         <v>45717.0</v>
       </c>
       <c r="J130" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K130" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="L130" t="e">
         <v>#N/A</v>
       </c>
       <c r="M130" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="N130" t="e">
         <v>#N/A</v>
@@ -8832,16 +8859,16 @@
         <v>#N/A</v>
       </c>
       <c r="P130" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="Q130" t="s">
-        <v>230</v>
-      </c>
-      <c r="R130" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R130" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S130" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
     </row>
     <row r="131">
@@ -8873,16 +8900,16 @@
         <v>45717.0</v>
       </c>
       <c r="J131" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K131" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="L131" t="e">
         <v>#N/A</v>
       </c>
       <c r="M131" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="N131" t="e">
         <v>#N/A</v>
@@ -8891,16 +8918,16 @@
         <v>#N/A</v>
       </c>
       <c r="P131" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="Q131" t="s">
-        <v>230</v>
-      </c>
-      <c r="R131" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R131" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S131" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
     </row>
     <row r="132">
@@ -8932,16 +8959,16 @@
         <v>45717.0</v>
       </c>
       <c r="J132" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K132" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L132" t="e">
         <v>#N/A</v>
       </c>
       <c r="M132" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="N132" t="e">
         <v>#N/A</v>
@@ -8950,16 +8977,16 @@
         <v>#N/A</v>
       </c>
       <c r="P132" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="Q132" t="s">
-        <v>230</v>
-      </c>
-      <c r="R132" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R132" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S132" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
     </row>
     <row r="133">
@@ -8991,16 +9018,16 @@
         <v>45717.0</v>
       </c>
       <c r="J133" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K133" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L133" t="e">
         <v>#N/A</v>
       </c>
       <c r="M133" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="N133" t="e">
         <v>#N/A</v>
@@ -9009,16 +9036,16 @@
         <v>#N/A</v>
       </c>
       <c r="P133" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="Q133" t="s">
-        <v>230</v>
-      </c>
-      <c r="R133" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R133" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S133" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
     </row>
     <row r="134">
@@ -9050,16 +9077,16 @@
         <v>45528.0</v>
       </c>
       <c r="J134" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K134" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L134" t="n">
         <v>2.0</v>
       </c>
       <c r="M134" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="N134" t="n">
         <v>2.0</v>
@@ -9068,16 +9095,16 @@
         <v>15710.0</v>
       </c>
       <c r="P134" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q134" t="s">
-        <v>230</v>
-      </c>
-      <c r="R134" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R134" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S134" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
     </row>
     <row r="135">
@@ -9109,16 +9136,16 @@
         <v>45528.0</v>
       </c>
       <c r="J135" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K135" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L135" t="n">
         <v>2.0</v>
       </c>
       <c r="M135" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="N135" t="n">
         <v>0.0</v>
@@ -9127,16 +9154,16 @@
         <v>7806.0</v>
       </c>
       <c r="P135" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q135" t="s">
-        <v>230</v>
-      </c>
-      <c r="R135" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R135" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S135" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
     </row>
     <row r="136">
@@ -9168,16 +9195,16 @@
         <v>45528.0</v>
       </c>
       <c r="J136" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K136" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="L136" t="n">
         <v>6.0</v>
       </c>
       <c r="M136" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N136" t="n">
         <v>0.0</v>
@@ -9186,16 +9213,16 @@
         <v>48832.0</v>
       </c>
       <c r="P136" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q136" t="s">
-        <v>230</v>
-      </c>
-      <c r="R136" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R136" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S136" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
     </row>
     <row r="137">
@@ -9227,16 +9254,16 @@
         <v>45529.0</v>
       </c>
       <c r="J137" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="K137" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="L137" t="n">
         <v>0.0</v>
       </c>
       <c r="M137" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="N137" t="n">
         <v>3.0</v>
@@ -9245,16 +9272,16 @@
         <v>6940.0</v>
       </c>
       <c r="P137" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q137" t="s">
-        <v>230</v>
-      </c>
-      <c r="R137" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R137" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S137" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
     </row>
     <row r="138">
@@ -9286,16 +9313,16 @@
         <v>45529.0</v>
       </c>
       <c r="J138" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K138" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="L138" t="n">
         <v>2.0</v>
       </c>
       <c r="M138" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="N138" t="n">
         <v>0.0</v>
@@ -9304,16 +9331,16 @@
         <v>16146.0</v>
       </c>
       <c r="P138" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q138" t="s">
-        <v>230</v>
-      </c>
-      <c r="R138" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R138" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S138" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
     </row>
     <row r="139">
@@ -9345,16 +9372,16 @@
         <v>45529.0</v>
       </c>
       <c r="J139" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K139" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="L139" t="n">
         <v>3.0</v>
       </c>
       <c r="M139" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="N139" t="n">
         <v>1.0</v>
@@ -9363,16 +9390,16 @@
         <v>6895.0</v>
       </c>
       <c r="P139" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q139" t="s">
-        <v>230</v>
-      </c>
-      <c r="R139" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R139" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S139" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
     </row>
     <row r="140">
@@ -9404,16 +9431,16 @@
         <v>45731.0</v>
       </c>
       <c r="J140" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K140" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="L140" t="e">
         <v>#N/A</v>
       </c>
       <c r="M140" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="N140" t="e">
         <v>#N/A</v>
@@ -9422,16 +9449,16 @@
         <v>#N/A</v>
       </c>
       <c r="P140" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="Q140" t="s">
-        <v>230</v>
-      </c>
-      <c r="R140" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R140" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S140" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
     </row>
     <row r="141">
@@ -9463,16 +9490,16 @@
         <v>45731.0</v>
       </c>
       <c r="J141" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K141" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L141" t="e">
         <v>#N/A</v>
       </c>
       <c r="M141" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="N141" t="e">
         <v>#N/A</v>
@@ -9481,16 +9508,16 @@
         <v>#N/A</v>
       </c>
       <c r="P141" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="Q141" t="s">
-        <v>230</v>
-      </c>
-      <c r="R141" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R141" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S141" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
     </row>
     <row r="142">
@@ -9522,16 +9549,16 @@
         <v>45731.0</v>
       </c>
       <c r="J142" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K142" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="L142" t="e">
         <v>#N/A</v>
       </c>
       <c r="M142" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="N142" t="e">
         <v>#N/A</v>
@@ -9540,16 +9567,16 @@
         <v>#N/A</v>
       </c>
       <c r="P142" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="Q142" t="s">
-        <v>230</v>
-      </c>
-      <c r="R142" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R142" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S142" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
     </row>
     <row r="143">
@@ -9581,16 +9608,16 @@
         <v>45731.0</v>
       </c>
       <c r="J143" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K143" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="L143" t="e">
         <v>#N/A</v>
       </c>
       <c r="M143" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N143" t="e">
         <v>#N/A</v>
@@ -9599,16 +9626,16 @@
         <v>#N/A</v>
       </c>
       <c r="P143" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="Q143" t="s">
-        <v>230</v>
-      </c>
-      <c r="R143" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R143" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S143" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
     </row>
     <row r="144">
@@ -9640,16 +9667,16 @@
         <v>45731.0</v>
       </c>
       <c r="J144" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K144" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="L144" t="e">
         <v>#N/A</v>
       </c>
       <c r="M144" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N144" t="e">
         <v>#N/A</v>
@@ -9658,16 +9685,16 @@
         <v>#N/A</v>
       </c>
       <c r="P144" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="Q144" t="s">
-        <v>230</v>
-      </c>
-      <c r="R144" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R144" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S144" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
     </row>
     <row r="145">
@@ -9699,16 +9726,16 @@
         <v>45731.0</v>
       </c>
       <c r="J145" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K145" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L145" t="e">
         <v>#N/A</v>
       </c>
       <c r="M145" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="N145" t="e">
         <v>#N/A</v>
@@ -9717,16 +9744,16 @@
         <v>#N/A</v>
       </c>
       <c r="P145" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="Q145" t="s">
-        <v>230</v>
-      </c>
-      <c r="R145" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R145" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S145" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
     </row>
     <row r="146">
@@ -9758,16 +9785,16 @@
         <v>45745.0</v>
       </c>
       <c r="J146" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K146" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L146" t="e">
         <v>#N/A</v>
       </c>
       <c r="M146" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="N146" t="e">
         <v>#N/A</v>
@@ -9776,16 +9803,16 @@
         <v>#N/A</v>
       </c>
       <c r="P146" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="Q146" t="s">
-        <v>230</v>
-      </c>
-      <c r="R146" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R146" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S146" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
     </row>
     <row r="147">
@@ -9817,16 +9844,16 @@
         <v>45745.0</v>
       </c>
       <c r="J147" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K147" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L147" t="e">
         <v>#N/A</v>
       </c>
       <c r="M147" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="N147" t="e">
         <v>#N/A</v>
@@ -9835,16 +9862,16 @@
         <v>#N/A</v>
       </c>
       <c r="P147" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="Q147" t="s">
-        <v>230</v>
-      </c>
-      <c r="R147" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R147" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S147" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
     </row>
     <row r="148">
@@ -9876,16 +9903,16 @@
         <v>45745.0</v>
       </c>
       <c r="J148" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K148" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="L148" t="e">
         <v>#N/A</v>
       </c>
       <c r="M148" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="N148" t="e">
         <v>#N/A</v>
@@ -9894,16 +9921,16 @@
         <v>#N/A</v>
       </c>
       <c r="P148" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="Q148" t="s">
-        <v>230</v>
-      </c>
-      <c r="R148" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R148" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S148" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
     </row>
     <row r="149">
@@ -9935,16 +9962,16 @@
         <v>45745.0</v>
       </c>
       <c r="J149" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K149" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="L149" t="e">
         <v>#N/A</v>
       </c>
       <c r="M149" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="N149" t="e">
         <v>#N/A</v>
@@ -9953,16 +9980,16 @@
         <v>#N/A</v>
       </c>
       <c r="P149" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="Q149" t="s">
-        <v>230</v>
-      </c>
-      <c r="R149" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R149" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S149" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
     </row>
     <row r="150">
@@ -9994,16 +10021,16 @@
         <v>45745.0</v>
       </c>
       <c r="J150" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K150" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L150" t="e">
         <v>#N/A</v>
       </c>
       <c r="M150" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="N150" t="e">
         <v>#N/A</v>
@@ -10012,16 +10039,16 @@
         <v>#N/A</v>
       </c>
       <c r="P150" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="Q150" t="s">
-        <v>230</v>
-      </c>
-      <c r="R150" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R150" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S150" t="s">
-        <v>319</v>
+        <v>292</v>
       </c>
     </row>
     <row r="151">
@@ -10053,16 +10080,16 @@
         <v>45745.0</v>
       </c>
       <c r="J151" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K151" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="L151" t="e">
         <v>#N/A</v>
       </c>
       <c r="M151" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="N151" t="e">
         <v>#N/A</v>
@@ -10071,16 +10098,16 @@
         <v>#N/A</v>
       </c>
       <c r="P151" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="Q151" t="s">
-        <v>230</v>
-      </c>
-      <c r="R151" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R151" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S151" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
     </row>
     <row r="152">
@@ -10112,16 +10139,16 @@
         <v>45752.0</v>
       </c>
       <c r="J152" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K152" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="L152" t="e">
         <v>#N/A</v>
       </c>
       <c r="M152" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N152" t="e">
         <v>#N/A</v>
@@ -10130,16 +10157,16 @@
         <v>#N/A</v>
       </c>
       <c r="P152" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="Q152" t="s">
-        <v>230</v>
-      </c>
-      <c r="R152" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R152" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S152" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
     </row>
     <row r="153">
@@ -10171,16 +10198,16 @@
         <v>45752.0</v>
       </c>
       <c r="J153" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K153" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L153" t="e">
         <v>#N/A</v>
       </c>
       <c r="M153" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="N153" t="e">
         <v>#N/A</v>
@@ -10189,16 +10216,16 @@
         <v>#N/A</v>
       </c>
       <c r="P153" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="Q153" t="s">
-        <v>230</v>
-      </c>
-      <c r="R153" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R153" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S153" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
     </row>
     <row r="154">
@@ -10230,16 +10257,16 @@
         <v>45752.0</v>
       </c>
       <c r="J154" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K154" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L154" t="e">
         <v>#N/A</v>
       </c>
       <c r="M154" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="N154" t="e">
         <v>#N/A</v>
@@ -10248,16 +10275,16 @@
         <v>#N/A</v>
       </c>
       <c r="P154" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="Q154" t="s">
-        <v>230</v>
-      </c>
-      <c r="R154" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R154" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S154" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
     </row>
     <row r="155">
@@ -10289,16 +10316,16 @@
         <v>45752.0</v>
       </c>
       <c r="J155" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K155" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="L155" t="e">
         <v>#N/A</v>
       </c>
       <c r="M155" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="N155" t="e">
         <v>#N/A</v>
@@ -10307,16 +10334,16 @@
         <v>#N/A</v>
       </c>
       <c r="P155" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="Q155" t="s">
-        <v>230</v>
-      </c>
-      <c r="R155" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R155" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S155" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
     </row>
     <row r="156">
@@ -10348,16 +10375,16 @@
         <v>45752.0</v>
       </c>
       <c r="J156" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K156" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L156" t="e">
         <v>#N/A</v>
       </c>
       <c r="M156" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="N156" t="e">
         <v>#N/A</v>
@@ -10366,16 +10393,16 @@
         <v>#N/A</v>
       </c>
       <c r="P156" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="Q156" t="s">
-        <v>230</v>
-      </c>
-      <c r="R156" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R156" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S156" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
     </row>
     <row r="157">
@@ -10407,16 +10434,16 @@
         <v>45752.0</v>
       </c>
       <c r="J157" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K157" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="L157" t="e">
         <v>#N/A</v>
       </c>
       <c r="M157" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="N157" t="e">
         <v>#N/A</v>
@@ -10425,16 +10452,16 @@
         <v>#N/A</v>
       </c>
       <c r="P157" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="Q157" t="s">
-        <v>230</v>
-      </c>
-      <c r="R157" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R157" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S157" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
     </row>
     <row r="158">
@@ -10466,16 +10493,16 @@
         <v>45759.0</v>
       </c>
       <c r="J158" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K158" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L158" t="e">
         <v>#N/A</v>
       </c>
       <c r="M158" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="N158" t="e">
         <v>#N/A</v>
@@ -10484,16 +10511,16 @@
         <v>#N/A</v>
       </c>
       <c r="P158" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="Q158" t="s">
-        <v>230</v>
-      </c>
-      <c r="R158" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R158" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S158" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="159">
@@ -10525,16 +10552,16 @@
         <v>45759.0</v>
       </c>
       <c r="J159" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K159" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="L159" t="e">
         <v>#N/A</v>
       </c>
       <c r="M159" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="N159" t="e">
         <v>#N/A</v>
@@ -10543,16 +10570,16 @@
         <v>#N/A</v>
       </c>
       <c r="P159" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="Q159" t="s">
-        <v>230</v>
-      </c>
-      <c r="R159" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R159" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S159" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
     </row>
     <row r="160">
@@ -10584,16 +10611,16 @@
         <v>45759.0</v>
       </c>
       <c r="J160" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K160" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="L160" t="e">
         <v>#N/A</v>
       </c>
       <c r="M160" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="N160" t="e">
         <v>#N/A</v>
@@ -10602,16 +10629,16 @@
         <v>#N/A</v>
       </c>
       <c r="P160" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="Q160" t="s">
-        <v>230</v>
-      </c>
-      <c r="R160" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R160" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S160" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
     </row>
     <row r="161">
@@ -10643,16 +10670,16 @@
         <v>45759.0</v>
       </c>
       <c r="J161" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K161" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L161" t="e">
         <v>#N/A</v>
       </c>
       <c r="M161" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="N161" t="e">
         <v>#N/A</v>
@@ -10661,16 +10688,16 @@
         <v>#N/A</v>
       </c>
       <c r="P161" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="Q161" t="s">
-        <v>230</v>
-      </c>
-      <c r="R161" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R161" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S161" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="162">
@@ -10702,16 +10729,16 @@
         <v>45759.0</v>
       </c>
       <c r="J162" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K162" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="L162" t="e">
         <v>#N/A</v>
       </c>
       <c r="M162" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="N162" t="e">
         <v>#N/A</v>
@@ -10720,16 +10747,16 @@
         <v>#N/A</v>
       </c>
       <c r="P162" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="Q162" t="s">
-        <v>230</v>
-      </c>
-      <c r="R162" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R162" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S162" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
     </row>
     <row r="163">
@@ -10761,16 +10788,16 @@
         <v>45759.0</v>
       </c>
       <c r="J163" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K163" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="L163" t="e">
         <v>#N/A</v>
       </c>
       <c r="M163" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N163" t="e">
         <v>#N/A</v>
@@ -10779,13 +10806,13 @@
         <v>#N/A</v>
       </c>
       <c r="P163" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="Q163" t="s">
-        <v>230</v>
-      </c>
-      <c r="R163" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R163" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S163" t="s">
         <v>288</v>
@@ -10820,16 +10847,16 @@
         <v>45535.0</v>
       </c>
       <c r="J164" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K164" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L164" t="n">
         <v>2.0</v>
       </c>
       <c r="M164" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="N164" t="n">
         <v>2.0</v>
@@ -10838,16 +10865,16 @@
         <v>5779.0</v>
       </c>
       <c r="P164" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q164" t="s">
-        <v>261</v>
-      </c>
-      <c r="R164" t="s">
-        <v>230</v>
+        <v>264</v>
+      </c>
+      <c r="R164" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S164" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
     </row>
     <row r="165">
@@ -10879,16 +10906,16 @@
         <v>45535.0</v>
       </c>
       <c r="J165" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K165" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L165" t="n">
         <v>1.0</v>
       </c>
       <c r="M165" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="N165" t="n">
         <v>2.0</v>
@@ -10897,16 +10924,16 @@
         <v>#N/A</v>
       </c>
       <c r="P165" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q165" t="s">
-        <v>262</v>
-      </c>
-      <c r="R165" t="s">
-        <v>230</v>
+        <v>265</v>
+      </c>
+      <c r="R165" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S165" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
     </row>
     <row r="166">
@@ -10941,13 +10968,13 @@
         <v>233</v>
       </c>
       <c r="K166" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L166" t="n">
         <v>0.0</v>
       </c>
       <c r="M166" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="N166" t="n">
         <v>1.0</v>
@@ -10956,16 +10983,16 @@
         <v>5480.0</v>
       </c>
       <c r="P166" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q166" t="s">
-        <v>263</v>
-      </c>
-      <c r="R166" t="s">
-        <v>230</v>
+        <v>266</v>
+      </c>
+      <c r="R166" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S166" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
     </row>
     <row r="167">
@@ -10997,16 +11024,16 @@
         <v>45536.0</v>
       </c>
       <c r="J167" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K167" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="L167" t="n">
         <v>3.0</v>
       </c>
       <c r="M167" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="N167" t="n">
         <v>0.0</v>
@@ -11015,16 +11042,16 @@
         <v>59612.0</v>
       </c>
       <c r="P167" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q167" t="s">
-        <v>264</v>
-      </c>
-      <c r="R167" t="s">
-        <v>230</v>
+        <v>267</v>
+      </c>
+      <c r="R167" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S167" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
     </row>
     <row r="168">
@@ -11056,16 +11083,16 @@
         <v>45536.0</v>
       </c>
       <c r="J168" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K168" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="L168" t="n">
         <v>0.0</v>
       </c>
       <c r="M168" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="N168" t="n">
         <v>1.0</v>
@@ -11074,16 +11101,16 @@
         <v>#N/A</v>
       </c>
       <c r="P168" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q168" t="s">
-        <v>265</v>
-      </c>
-      <c r="R168" t="s">
-        <v>230</v>
+        <v>268</v>
+      </c>
+      <c r="R168" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S168" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="169">
@@ -11115,16 +11142,16 @@
         <v>45536.0</v>
       </c>
       <c r="J169" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K169" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="L169" t="n">
         <v>1.0</v>
       </c>
       <c r="M169" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N169" t="n">
         <v>1.0</v>
@@ -11133,16 +11160,16 @@
         <v>7763.0</v>
       </c>
       <c r="P169" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q169" t="s">
-        <v>266</v>
-      </c>
-      <c r="R169" t="s">
-        <v>230</v>
+        <v>269</v>
+      </c>
+      <c r="R169" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S169" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
     </row>
     <row r="170">
@@ -11174,16 +11201,16 @@
         <v>45549.0</v>
       </c>
       <c r="J170" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K170" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="L170" t="n">
         <v>2.0</v>
       </c>
       <c r="M170" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="N170" t="n">
         <v>2.0</v>
@@ -11192,16 +11219,16 @@
         <v>6957.0</v>
       </c>
       <c r="P170" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q170" t="s">
-        <v>267</v>
-      </c>
-      <c r="R170" t="s">
-        <v>230</v>
+        <v>270</v>
+      </c>
+      <c r="R170" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S170" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
     </row>
     <row r="171">
@@ -11233,16 +11260,16 @@
         <v>45549.0</v>
       </c>
       <c r="J171" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K171" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="L171" t="n">
         <v>2.0</v>
       </c>
       <c r="M171" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="N171" t="n">
         <v>1.0</v>
@@ -11251,16 +11278,16 @@
         <v>17155.0</v>
       </c>
       <c r="P171" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q171" t="s">
-        <v>268</v>
-      </c>
-      <c r="R171" t="s">
-        <v>230</v>
+        <v>271</v>
+      </c>
+      <c r="R171" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S171" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="172">
@@ -11292,16 +11319,16 @@
         <v>45549.0</v>
       </c>
       <c r="J172" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K172" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L172" t="n">
         <v>2.0</v>
       </c>
       <c r="M172" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="N172" t="n">
         <v>0.0</v>
@@ -11310,16 +11337,16 @@
         <v>4068.0</v>
       </c>
       <c r="P172" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q172" t="s">
-        <v>269</v>
-      </c>
-      <c r="R172" t="s">
-        <v>230</v>
+        <v>272</v>
+      </c>
+      <c r="R172" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S172" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
     </row>
     <row r="173">
@@ -11351,16 +11378,16 @@
         <v>45549.0</v>
       </c>
       <c r="J173" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K173" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L173" t="n">
         <v>2.0</v>
       </c>
       <c r="M173" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="N173" t="n">
         <v>0.0</v>
@@ -11369,16 +11396,16 @@
         <v>15448.0</v>
       </c>
       <c r="P173" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q173" t="s">
-        <v>265</v>
-      </c>
-      <c r="R173" t="s">
-        <v>230</v>
+        <v>268</v>
+      </c>
+      <c r="R173" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S173" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
     </row>
     <row r="174">
@@ -11410,16 +11437,16 @@
         <v>45549.0</v>
       </c>
       <c r="J174" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K174" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="L174" t="n">
         <v>2.0</v>
       </c>
       <c r="M174" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="N174" t="n">
         <v>0.0</v>
@@ -11428,16 +11455,16 @@
         <v>#N/A</v>
       </c>
       <c r="P174" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q174" t="s">
-        <v>270</v>
-      </c>
-      <c r="R174" t="s">
-        <v>230</v>
+        <v>273</v>
+      </c>
+      <c r="R174" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S174" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="175">
@@ -11469,16 +11496,16 @@
         <v>45550.0</v>
       </c>
       <c r="J175" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="K175" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L175" t="n">
         <v>0.0</v>
       </c>
       <c r="M175" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="N175" t="n">
         <v>1.0</v>
@@ -11487,16 +11514,16 @@
         <v>#N/A</v>
       </c>
       <c r="P175" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q175" t="s">
-        <v>260</v>
-      </c>
-      <c r="R175" t="s">
-        <v>230</v>
+        <v>263</v>
+      </c>
+      <c r="R175" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S175" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
     </row>
     <row r="176">
@@ -11528,34 +11555,34 @@
         <v>45563.0</v>
       </c>
       <c r="J176" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K176" t="s">
-        <v>234</v>
-      </c>
-      <c r="L176" t="e">
-        <v>#N/A</v>
+        <v>236</v>
+      </c>
+      <c r="L176" t="n">
+        <v>1.0</v>
       </c>
       <c r="M176" t="s">
-        <v>241</v>
-      </c>
-      <c r="N176" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O176" t="e">
-        <v>#N/A</v>
+        <v>242</v>
+      </c>
+      <c r="N176" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O176" t="n">
+        <v>18399.0</v>
       </c>
       <c r="P176" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q176" t="s">
-        <v>230</v>
-      </c>
-      <c r="R176" t="s">
-        <v>230</v>
+        <v>265</v>
+      </c>
+      <c r="R176" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S176" t="s">
-        <v>334</v>
+        <v>373</v>
       </c>
     </row>
     <row r="177">
@@ -11587,34 +11614,34 @@
         <v>45563.0</v>
       </c>
       <c r="J177" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K177" t="s">
-        <v>242</v>
-      </c>
-      <c r="L177" t="e">
-        <v>#N/A</v>
+        <v>245</v>
+      </c>
+      <c r="L177" t="n">
+        <v>3.0</v>
       </c>
       <c r="M177" t="s">
-        <v>236</v>
-      </c>
-      <c r="N177" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O177" t="e">
-        <v>#N/A</v>
+        <v>238</v>
+      </c>
+      <c r="N177" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O177" t="n">
+        <v>6257.0</v>
       </c>
       <c r="P177" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q177" t="s">
-        <v>230</v>
-      </c>
-      <c r="R177" t="s">
-        <v>230</v>
+        <v>274</v>
+      </c>
+      <c r="R177" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S177" t="s">
-        <v>315</v>
+        <v>374</v>
       </c>
     </row>
     <row r="178">
@@ -11646,34 +11673,34 @@
         <v>45563.0</v>
       </c>
       <c r="J178" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K178" t="s">
-        <v>235</v>
-      </c>
-      <c r="L178" t="e">
-        <v>#N/A</v>
+        <v>237</v>
+      </c>
+      <c r="L178" t="n">
+        <v>2.0</v>
       </c>
       <c r="M178" t="s">
-        <v>237</v>
-      </c>
-      <c r="N178" t="e">
-        <v>#N/A</v>
+        <v>239</v>
+      </c>
+      <c r="N178" t="n">
+        <v>1.0</v>
       </c>
       <c r="O178" t="e">
         <v>#N/A</v>
       </c>
       <c r="P178" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q178" t="s">
-        <v>230</v>
-      </c>
-      <c r="R178" t="s">
-        <v>230</v>
+        <v>264</v>
+      </c>
+      <c r="R178" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S178" t="s">
-        <v>316</v>
+        <v>375</v>
       </c>
     </row>
     <row r="179">
@@ -11705,34 +11732,34 @@
         <v>45563.0</v>
       </c>
       <c r="J179" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K179" t="s">
-        <v>244</v>
-      </c>
-      <c r="L179" t="e">
-        <v>#N/A</v>
+        <v>246</v>
+      </c>
+      <c r="L179" t="n">
+        <v>1.0</v>
       </c>
       <c r="M179" t="s">
-        <v>240</v>
-      </c>
-      <c r="N179" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O179" t="e">
-        <v>#N/A</v>
+        <v>243</v>
+      </c>
+      <c r="N179" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="O179" t="n">
+        <v>9030.0</v>
       </c>
       <c r="P179" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q179" t="s">
-        <v>230</v>
-      </c>
-      <c r="R179" t="s">
-        <v>230</v>
+        <v>269</v>
+      </c>
+      <c r="R179" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S179" t="s">
-        <v>293</v>
+        <v>376</v>
       </c>
     </row>
     <row r="180">
@@ -11767,31 +11794,31 @@
         <v>233</v>
       </c>
       <c r="K180" t="s">
-        <v>239</v>
-      </c>
-      <c r="L180" t="e">
-        <v>#N/A</v>
+        <v>241</v>
+      </c>
+      <c r="L180" t="n">
+        <v>0.0</v>
       </c>
       <c r="M180" t="s">
-        <v>238</v>
-      </c>
-      <c r="N180" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O180" t="e">
-        <v>#N/A</v>
+        <v>240</v>
+      </c>
+      <c r="N180" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="O180" t="n">
+        <v>7036.0</v>
       </c>
       <c r="P180" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q180" t="s">
-        <v>230</v>
-      </c>
-      <c r="R180" t="s">
-        <v>230</v>
+        <v>263</v>
+      </c>
+      <c r="R180" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S180" t="s">
-        <v>332</v>
+        <v>377</v>
       </c>
     </row>
     <row r="181">
@@ -11823,34 +11850,34 @@
         <v>45564.0</v>
       </c>
       <c r="J181" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="K181" t="s">
-        <v>245</v>
-      </c>
-      <c r="L181" t="e">
-        <v>#N/A</v>
+        <v>247</v>
+      </c>
+      <c r="L181" t="n">
+        <v>1.0</v>
       </c>
       <c r="M181" t="s">
-        <v>243</v>
-      </c>
-      <c r="N181" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O181" t="e">
-        <v>#N/A</v>
+        <v>244</v>
+      </c>
+      <c r="N181" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O181" t="n">
+        <v>48217.0</v>
       </c>
       <c r="P181" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q181" t="s">
-        <v>230</v>
-      </c>
-      <c r="R181" t="s">
-        <v>230</v>
+        <v>268</v>
+      </c>
+      <c r="R181" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S181" t="s">
-        <v>348</v>
+        <v>378</v>
       </c>
     </row>
     <row r="182">
@@ -11882,16 +11909,16 @@
         <v>45570.0</v>
       </c>
       <c r="J182" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K182" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="L182" t="e">
         <v>#N/A</v>
       </c>
       <c r="M182" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="N182" t="e">
         <v>#N/A</v>
@@ -11900,16 +11927,16 @@
         <v>#N/A</v>
       </c>
       <c r="P182" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q182" t="s">
-        <v>230</v>
-      </c>
-      <c r="R182" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R182" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S182" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="183">
@@ -11941,16 +11968,16 @@
         <v>45570.0</v>
       </c>
       <c r="J183" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K183" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L183" t="e">
         <v>#N/A</v>
       </c>
       <c r="M183" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="N183" t="e">
         <v>#N/A</v>
@@ -11959,16 +11986,16 @@
         <v>#N/A</v>
       </c>
       <c r="P183" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q183" t="s">
-        <v>230</v>
-      </c>
-      <c r="R183" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R183" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S183" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
     </row>
     <row r="184">
@@ -12000,16 +12027,16 @@
         <v>45570.0</v>
       </c>
       <c r="J184" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K184" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L184" t="e">
         <v>#N/A</v>
       </c>
       <c r="M184" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="N184" t="e">
         <v>#N/A</v>
@@ -12018,16 +12045,16 @@
         <v>#N/A</v>
       </c>
       <c r="P184" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q184" t="s">
-        <v>230</v>
-      </c>
-      <c r="R184" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R184" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S184" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
     </row>
     <row r="185">
@@ -12059,16 +12086,16 @@
         <v>45571.0</v>
       </c>
       <c r="J185" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="K185" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L185" t="e">
         <v>#N/A</v>
       </c>
       <c r="M185" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="N185" t="e">
         <v>#N/A</v>
@@ -12077,16 +12104,16 @@
         <v>#N/A</v>
       </c>
       <c r="P185" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q185" t="s">
-        <v>230</v>
-      </c>
-      <c r="R185" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R185" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S185" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
     </row>
     <row r="186">
@@ -12118,16 +12145,16 @@
         <v>45571.0</v>
       </c>
       <c r="J186" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K186" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="L186" t="e">
         <v>#N/A</v>
       </c>
       <c r="M186" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="N186" t="e">
         <v>#N/A</v>
@@ -12136,16 +12163,16 @@
         <v>#N/A</v>
       </c>
       <c r="P186" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q186" t="s">
-        <v>230</v>
-      </c>
-      <c r="R186" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R186" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S186" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
     </row>
     <row r="187">
@@ -12177,16 +12204,16 @@
         <v>45571.0</v>
       </c>
       <c r="J187" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="K187" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="L187" t="e">
         <v>#N/A</v>
       </c>
       <c r="M187" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="N187" t="e">
         <v>#N/A</v>
@@ -12195,16 +12222,16 @@
         <v>#N/A</v>
       </c>
       <c r="P187" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q187" t="s">
-        <v>230</v>
-      </c>
-      <c r="R187" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R187" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S187" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
     </row>
     <row r="188">
@@ -12236,16 +12263,16 @@
         <v>45584.0</v>
       </c>
       <c r="J188" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K188" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="L188" t="e">
         <v>#N/A</v>
       </c>
       <c r="M188" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="N188" t="e">
         <v>#N/A</v>
@@ -12254,16 +12281,16 @@
         <v>#N/A</v>
       </c>
       <c r="P188" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q188" t="s">
-        <v>230</v>
-      </c>
-      <c r="R188" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R188" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S188" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="189">
@@ -12295,16 +12322,16 @@
         <v>45584.0</v>
       </c>
       <c r="J189" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K189" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L189" t="e">
         <v>#N/A</v>
       </c>
       <c r="M189" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N189" t="e">
         <v>#N/A</v>
@@ -12313,16 +12340,16 @@
         <v>#N/A</v>
       </c>
       <c r="P189" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q189" t="s">
-        <v>230</v>
-      </c>
-      <c r="R189" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R189" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S189" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
     </row>
     <row r="190">
@@ -12354,16 +12381,16 @@
         <v>45584.0</v>
       </c>
       <c r="J190" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K190" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="L190" t="e">
         <v>#N/A</v>
       </c>
       <c r="M190" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="N190" t="e">
         <v>#N/A</v>
@@ -12372,16 +12399,16 @@
         <v>#N/A</v>
       </c>
       <c r="P190" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q190" t="s">
-        <v>230</v>
-      </c>
-      <c r="R190" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R190" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S190" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
     </row>
     <row r="191">
@@ -12413,16 +12440,16 @@
         <v>45584.0</v>
       </c>
       <c r="J191" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K191" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="L191" t="e">
         <v>#N/A</v>
       </c>
       <c r="M191" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="N191" t="e">
         <v>#N/A</v>
@@ -12431,16 +12458,16 @@
         <v>#N/A</v>
       </c>
       <c r="P191" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q191" t="s">
-        <v>230</v>
-      </c>
-      <c r="R191" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R191" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S191" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="192">
@@ -12472,16 +12499,16 @@
         <v>45584.0</v>
       </c>
       <c r="J192" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K192" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L192" t="e">
         <v>#N/A</v>
       </c>
       <c r="M192" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N192" t="e">
         <v>#N/A</v>
@@ -12490,16 +12517,16 @@
         <v>#N/A</v>
       </c>
       <c r="P192" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q192" t="s">
-        <v>230</v>
-      </c>
-      <c r="R192" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R192" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S192" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
     </row>
     <row r="193">
@@ -12531,16 +12558,16 @@
         <v>45585.0</v>
       </c>
       <c r="J193" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="K193" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="L193" t="e">
         <v>#N/A</v>
       </c>
       <c r="M193" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="N193" t="e">
         <v>#N/A</v>
@@ -12549,16 +12576,16 @@
         <v>#N/A</v>
       </c>
       <c r="P193" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q193" t="s">
-        <v>230</v>
-      </c>
-      <c r="R193" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R193" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S193" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
     </row>
     <row r="194">
@@ -12590,16 +12617,16 @@
         <v>45591.0</v>
       </c>
       <c r="J194" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K194" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L194" t="e">
         <v>#N/A</v>
       </c>
       <c r="M194" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="N194" t="e">
         <v>#N/A</v>
@@ -12608,16 +12635,16 @@
         <v>#N/A</v>
       </c>
       <c r="P194" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q194" t="s">
-        <v>230</v>
-      </c>
-      <c r="R194" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R194" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S194" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
     </row>
     <row r="195">
@@ -12649,16 +12676,16 @@
         <v>45591.0</v>
       </c>
       <c r="J195" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K195" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L195" t="e">
         <v>#N/A</v>
       </c>
       <c r="M195" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="N195" t="e">
         <v>#N/A</v>
@@ -12667,16 +12694,16 @@
         <v>#N/A</v>
       </c>
       <c r="P195" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q195" t="s">
-        <v>230</v>
-      </c>
-      <c r="R195" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R195" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S195" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
     </row>
     <row r="196">
@@ -12711,13 +12738,13 @@
         <v>233</v>
       </c>
       <c r="K196" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="L196" t="e">
         <v>#N/A</v>
       </c>
       <c r="M196" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="N196" t="e">
         <v>#N/A</v>
@@ -12726,16 +12753,16 @@
         <v>#N/A</v>
       </c>
       <c r="P196" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q196" t="s">
-        <v>230</v>
-      </c>
-      <c r="R196" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R196" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S196" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
     </row>
     <row r="197">
@@ -12767,16 +12794,16 @@
         <v>45592.0</v>
       </c>
       <c r="J197" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="K197" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="L197" t="e">
         <v>#N/A</v>
       </c>
       <c r="M197" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="N197" t="e">
         <v>#N/A</v>
@@ -12785,16 +12812,16 @@
         <v>#N/A</v>
       </c>
       <c r="P197" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="Q197" t="s">
-        <v>230</v>
-      </c>
-      <c r="R197" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R197" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S197" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="198">
@@ -12826,16 +12853,16 @@
         <v>45592.0</v>
       </c>
       <c r="J198" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="K198" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="L198" t="e">
         <v>#N/A</v>
       </c>
       <c r="M198" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="N198" t="e">
         <v>#N/A</v>
@@ -12844,16 +12871,16 @@
         <v>#N/A</v>
       </c>
       <c r="P198" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q198" t="s">
-        <v>230</v>
-      </c>
-      <c r="R198" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R198" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S198" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
     </row>
     <row r="199">
@@ -12885,16 +12912,16 @@
         <v>45592.0</v>
       </c>
       <c r="J199" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K199" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="L199" t="e">
         <v>#N/A</v>
       </c>
       <c r="M199" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="N199" t="e">
         <v>#N/A</v>
@@ -12903,16 +12930,16 @@
         <v>#N/A</v>
       </c>
       <c r="P199" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q199" t="s">
-        <v>230</v>
-      </c>
-      <c r="R199" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="R199" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S199" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
     </row>
   </sheetData>

--- a/sc0_match_results.xlsx
+++ b/sc0_match_results.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2394" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2394" uniqueCount="396">
   <si>
     <t>Competition_Name</t>
   </si>
@@ -689,6 +689,9 @@
     <t>Thu</t>
   </si>
   <si>
+    <t>Fri</t>
+  </si>
+  <si>
     <t>12:30</t>
   </si>
   <si>
@@ -719,6 +722,9 @@
     <t>12:00</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>17:15</t>
   </si>
   <si>
@@ -797,9 +803,6 @@
     <t>Hampden Park</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Dan McFarlane</t>
   </si>
   <si>
@@ -839,6 +842,18 @@
     <t>Craig Napier</t>
   </si>
   <si>
+    <t>Ross Hardie</t>
+  </si>
+  <si>
+    <t>Kevin Clancy</t>
+  </si>
+  <si>
+    <t>David Dickinson</t>
+  </si>
+  <si>
+    <t>Steven McLean</t>
+  </si>
+  <si>
     <t>https://fbref.com/en/matches/2c1a3b4f/Heart-of-Midlothian-Rangers-August-3-2024-Scottish-Premiership</t>
   </si>
   <si>
@@ -1149,6 +1164,42 @@
   </si>
   <si>
     <t>https://fbref.com/en/matches/fdb926ed/Rangers-Hibernian-September-29-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/1bd44a80/St-Mirren-Dundee-United-October-5-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/91abdab9/Hibernian-Motherwell-October-5-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/b6b34b08/Dundee-Kilmarnock-October-5-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/519d3fb9/Ross-County-Celtic-October-6-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/1d50de86/Aberdeen-Heart-of-Midlothian-October-6-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/1b839ace/Rangers-St-Johnstone-October-6-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/168d4a08/Motherwell-Dundee-October-19-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/3bd671ec/St-Johnstone-Ross-County-October-19-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/3c3fa65d/Heart-of-Midlothian-St-Mirren-October-19-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/b89ef4e2/Celtic-Aberdeen-October-19-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/d4e66239/Dundee-United-Hibernian-October-19-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/62a8b15b/Kilmarnock-Rangers-October-20-2024-Scottish-Premiership</t>
   </si>
 </sst>
 </file>
@@ -1289,16 +1340,16 @@
         <v>45507.0</v>
       </c>
       <c r="J2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L2" t="n">
         <v>0.0</v>
       </c>
       <c r="M2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="N2" t="n">
         <v>0.0</v>
@@ -1307,16 +1358,16 @@
         <v>18478.0</v>
       </c>
       <c r="P2" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q2" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="R2" t="e">
         <v>#N/A</v>
       </c>
       <c r="S2" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="3">
@@ -1348,16 +1399,16 @@
         <v>45507.0</v>
       </c>
       <c r="J3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K3" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="L3" t="n">
         <v>0.0</v>
       </c>
       <c r="M3" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="N3" t="n">
         <v>0.0</v>
@@ -1366,16 +1417,16 @@
         <v>4353.0</v>
       </c>
       <c r="P3" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q3" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="R3" t="e">
         <v>#N/A</v>
       </c>
       <c r="S3" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
     </row>
     <row r="4">
@@ -1407,16 +1458,16 @@
         <v>45508.0</v>
       </c>
       <c r="J4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="K4" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="L4" t="n">
         <v>2.0</v>
       </c>
       <c r="M4" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="N4" t="n">
         <v>2.0</v>
@@ -1425,16 +1476,16 @@
         <v>12616.0</v>
       </c>
       <c r="P4" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q4" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="R4" t="e">
         <v>#N/A</v>
       </c>
       <c r="S4" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
     </row>
     <row r="5">
@@ -1466,16 +1517,16 @@
         <v>45508.0</v>
       </c>
       <c r="J5" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K5" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L5" t="n">
         <v>3.0</v>
       </c>
       <c r="M5" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="N5" t="n">
         <v>0.0</v>
@@ -1484,16 +1535,16 @@
         <v>6171.0</v>
       </c>
       <c r="P5" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q5" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="R5" t="e">
         <v>#N/A</v>
       </c>
       <c r="S5" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
     </row>
     <row r="6">
@@ -1525,16 +1576,16 @@
         <v>45508.0</v>
       </c>
       <c r="J6" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="K6" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="L6" t="n">
         <v>4.0</v>
       </c>
       <c r="M6" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="N6" t="n">
         <v>0.0</v>
@@ -1543,16 +1594,16 @@
         <v>#N/A</v>
       </c>
       <c r="P6" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q6" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="R6" t="e">
         <v>#N/A</v>
       </c>
       <c r="S6" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
     </row>
     <row r="7">
@@ -1584,16 +1635,16 @@
         <v>45509.0</v>
       </c>
       <c r="J7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="L7" t="n">
         <v>1.0</v>
       </c>
       <c r="M7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="N7" t="n">
         <v>2.0</v>
@@ -1602,16 +1653,16 @@
         <v>#N/A</v>
       </c>
       <c r="P7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q7" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="R7" t="e">
         <v>#N/A</v>
       </c>
       <c r="S7" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="8">
@@ -1643,16 +1694,16 @@
         <v>45595.0</v>
       </c>
       <c r="J8" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K8" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L8" t="e">
         <v>#N/A</v>
       </c>
       <c r="M8" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="N8" t="e">
         <v>#N/A</v>
@@ -1661,16 +1712,16 @@
         <v>#N/A</v>
       </c>
       <c r="P8" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q8" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="R8" t="e">
         <v>#N/A</v>
       </c>
       <c r="S8" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
     </row>
     <row r="9">
@@ -1702,16 +1753,16 @@
         <v>45595.0</v>
       </c>
       <c r="J9" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K9" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="L9" t="e">
         <v>#N/A</v>
       </c>
       <c r="M9" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="N9" t="e">
         <v>#N/A</v>
@@ -1720,16 +1771,16 @@
         <v>#N/A</v>
       </c>
       <c r="P9" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q9" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="R9" t="e">
         <v>#N/A</v>
       </c>
       <c r="S9" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="10">
@@ -1761,16 +1812,16 @@
         <v>45595.0</v>
       </c>
       <c r="J10" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K10" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="L10" t="e">
         <v>#N/A</v>
       </c>
       <c r="M10" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="N10" t="e">
         <v>#N/A</v>
@@ -1779,16 +1830,16 @@
         <v>#N/A</v>
       </c>
       <c r="P10" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q10" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="R10" t="e">
         <v>#N/A</v>
       </c>
       <c r="S10" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
     </row>
     <row r="11">
@@ -1820,16 +1871,16 @@
         <v>45595.0</v>
       </c>
       <c r="J11" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K11" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L11" t="e">
         <v>#N/A</v>
       </c>
       <c r="M11" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="N11" t="e">
         <v>#N/A</v>
@@ -1838,16 +1889,16 @@
         <v>#N/A</v>
       </c>
       <c r="P11" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q11" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="R11" t="e">
         <v>#N/A</v>
       </c>
       <c r="S11" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
     </row>
     <row r="12">
@@ -1879,16 +1930,16 @@
         <v>45595.0</v>
       </c>
       <c r="J12" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K12" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="L12" t="e">
         <v>#N/A</v>
       </c>
       <c r="M12" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="N12" t="e">
         <v>#N/A</v>
@@ -1897,16 +1948,16 @@
         <v>#N/A</v>
       </c>
       <c r="P12" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q12" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="R12" t="e">
         <v>#N/A</v>
       </c>
       <c r="S12" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
     </row>
     <row r="13">
@@ -1938,16 +1989,16 @@
         <v>45595.0</v>
       </c>
       <c r="J13" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K13" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="L13" t="e">
         <v>#N/A</v>
       </c>
       <c r="M13" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="N13" t="e">
         <v>#N/A</v>
@@ -1956,16 +2007,16 @@
         <v>#N/A</v>
       </c>
       <c r="P13" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q13" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="R13" t="e">
         <v>#N/A</v>
       </c>
       <c r="S13" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
     </row>
     <row r="14">
@@ -1997,16 +2048,16 @@
         <v>45598.0</v>
       </c>
       <c r="J14" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K14" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="L14" t="e">
         <v>#N/A</v>
       </c>
       <c r="M14" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="N14" t="e">
         <v>#N/A</v>
@@ -2015,16 +2066,16 @@
         <v>#N/A</v>
       </c>
       <c r="P14" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q14" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="R14" t="e">
         <v>#N/A</v>
       </c>
       <c r="S14" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
     </row>
     <row r="15">
@@ -2056,16 +2107,16 @@
         <v>45598.0</v>
       </c>
       <c r="J15" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K15" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L15" t="e">
         <v>#N/A</v>
       </c>
       <c r="M15" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="N15" t="e">
         <v>#N/A</v>
@@ -2074,16 +2125,16 @@
         <v>#N/A</v>
       </c>
       <c r="P15" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q15" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="R15" t="e">
         <v>#N/A</v>
       </c>
       <c r="S15" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
     </row>
     <row r="16">
@@ -2115,16 +2166,16 @@
         <v>45622.0</v>
       </c>
       <c r="J16" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K16" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L16" t="e">
         <v>#N/A</v>
       </c>
       <c r="M16" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="N16" t="e">
         <v>#N/A</v>
@@ -2133,16 +2184,16 @@
         <v>#N/A</v>
       </c>
       <c r="P16" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q16" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="R16" t="e">
         <v>#N/A</v>
       </c>
       <c r="S16" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
     </row>
     <row r="17">
@@ -2174,16 +2225,16 @@
         <v>45665.0</v>
       </c>
       <c r="J17" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K17" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="L17" t="e">
         <v>#N/A</v>
       </c>
       <c r="M17" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="N17" t="e">
         <v>#N/A</v>
@@ -2192,16 +2243,16 @@
         <v>#N/A</v>
       </c>
       <c r="P17" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q17" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="R17" t="e">
         <v>#N/A</v>
       </c>
       <c r="S17" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
     </row>
     <row r="18">
@@ -2233,17 +2284,17 @@
         <v>45665.0</v>
       </c>
       <c r="J18" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K18" t="s">
+        <v>242</v>
+      </c>
+      <c r="L18" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M18" t="s">
         <v>240</v>
       </c>
-      <c r="L18" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M18" t="s">
-        <v>238</v>
-      </c>
       <c r="N18" t="e">
         <v>#N/A</v>
       </c>
@@ -2251,16 +2302,16 @@
         <v>#N/A</v>
       </c>
       <c r="P18" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q18" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="R18" t="e">
         <v>#N/A</v>
       </c>
       <c r="S18" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
     </row>
     <row r="19">
@@ -2292,16 +2343,16 @@
         <v>45666.0</v>
       </c>
       <c r="J19" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K19" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="L19" t="e">
         <v>#N/A</v>
       </c>
       <c r="M19" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="N19" t="e">
         <v>#N/A</v>
@@ -2310,16 +2361,16 @@
         <v>#N/A</v>
       </c>
       <c r="P19" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q19" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="R19" t="e">
         <v>#N/A</v>
       </c>
       <c r="S19" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
     </row>
     <row r="20">
@@ -2351,16 +2402,16 @@
         <v>45605.0</v>
       </c>
       <c r="J20" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K20" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="L20" t="e">
         <v>#N/A</v>
       </c>
       <c r="M20" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="N20" t="e">
         <v>#N/A</v>
@@ -2369,16 +2420,16 @@
         <v>#N/A</v>
       </c>
       <c r="P20" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q20" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="R20" t="e">
         <v>#N/A</v>
       </c>
       <c r="S20" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
     </row>
     <row r="21">
@@ -2410,16 +2461,16 @@
         <v>45605.0</v>
       </c>
       <c r="J21" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K21" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="L21" t="e">
         <v>#N/A</v>
       </c>
       <c r="M21" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="N21" t="e">
         <v>#N/A</v>
@@ -2428,16 +2479,16 @@
         <v>#N/A</v>
       </c>
       <c r="P21" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q21" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="R21" t="e">
         <v>#N/A</v>
       </c>
       <c r="S21" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
     </row>
     <row r="22">
@@ -2469,16 +2520,16 @@
         <v>45605.0</v>
       </c>
       <c r="J22" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K22" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L22" t="e">
         <v>#N/A</v>
       </c>
       <c r="M22" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="N22" t="e">
         <v>#N/A</v>
@@ -2487,16 +2538,16 @@
         <v>#N/A</v>
       </c>
       <c r="P22" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q22" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="R22" t="e">
         <v>#N/A</v>
       </c>
       <c r="S22" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
     </row>
     <row r="23">
@@ -2528,16 +2579,16 @@
         <v>45605.0</v>
       </c>
       <c r="J23" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K23" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="L23" t="e">
         <v>#N/A</v>
       </c>
       <c r="M23" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="N23" t="e">
         <v>#N/A</v>
@@ -2546,16 +2597,16 @@
         <v>#N/A</v>
       </c>
       <c r="P23" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q23" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="R23" t="e">
         <v>#N/A</v>
       </c>
       <c r="S23" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
     </row>
     <row r="24">
@@ -2587,16 +2638,16 @@
         <v>45606.0</v>
       </c>
       <c r="J24" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K24" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="L24" t="e">
         <v>#N/A</v>
       </c>
       <c r="M24" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="N24" t="e">
         <v>#N/A</v>
@@ -2605,16 +2656,16 @@
         <v>#N/A</v>
       </c>
       <c r="P24" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q24" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="R24" t="e">
         <v>#N/A</v>
       </c>
       <c r="S24" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
     </row>
     <row r="25">
@@ -2646,16 +2697,16 @@
         <v>45606.0</v>
       </c>
       <c r="J25" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K25" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="L25" t="e">
         <v>#N/A</v>
       </c>
       <c r="M25" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="N25" t="e">
         <v>#N/A</v>
@@ -2664,16 +2715,16 @@
         <v>#N/A</v>
       </c>
       <c r="P25" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q25" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="R25" t="e">
         <v>#N/A</v>
       </c>
       <c r="S25" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
     </row>
     <row r="26">
@@ -2705,16 +2756,16 @@
         <v>45619.0</v>
       </c>
       <c r="J26" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K26" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L26" t="e">
         <v>#N/A</v>
       </c>
       <c r="M26" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="N26" t="e">
         <v>#N/A</v>
@@ -2723,16 +2774,16 @@
         <v>#N/A</v>
       </c>
       <c r="P26" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q26" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="R26" t="e">
         <v>#N/A</v>
       </c>
       <c r="S26" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
     </row>
     <row r="27">
@@ -2764,16 +2815,16 @@
         <v>45619.0</v>
       </c>
       <c r="J27" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K27" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="L27" t="e">
         <v>#N/A</v>
       </c>
       <c r="M27" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="N27" t="e">
         <v>#N/A</v>
@@ -2782,16 +2833,16 @@
         <v>#N/A</v>
       </c>
       <c r="P27" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q27" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="R27" t="e">
         <v>#N/A</v>
       </c>
       <c r="S27" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
     </row>
     <row r="28">
@@ -2823,16 +2874,16 @@
         <v>45619.0</v>
       </c>
       <c r="J28" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K28" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="L28" t="e">
         <v>#N/A</v>
       </c>
       <c r="M28" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="N28" t="e">
         <v>#N/A</v>
@@ -2841,16 +2892,16 @@
         <v>#N/A</v>
       </c>
       <c r="P28" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q28" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="R28" t="e">
         <v>#N/A</v>
       </c>
       <c r="S28" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
     </row>
     <row r="29">
@@ -2882,16 +2933,16 @@
         <v>45619.0</v>
       </c>
       <c r="J29" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K29" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="L29" t="e">
         <v>#N/A</v>
       </c>
       <c r="M29" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="N29" t="e">
         <v>#N/A</v>
@@ -2900,16 +2951,16 @@
         <v>#N/A</v>
       </c>
       <c r="P29" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q29" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="R29" t="e">
         <v>#N/A</v>
       </c>
       <c r="S29" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
     </row>
     <row r="30">
@@ -2941,17 +2992,17 @@
         <v>45619.0</v>
       </c>
       <c r="J30" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K30" t="s">
+        <v>248</v>
+      </c>
+      <c r="L30" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M30" t="s">
         <v>246</v>
       </c>
-      <c r="L30" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M30" t="s">
-        <v>244</v>
-      </c>
       <c r="N30" t="e">
         <v>#N/A</v>
       </c>
@@ -2959,16 +3010,16 @@
         <v>#N/A</v>
       </c>
       <c r="P30" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q30" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="R30" t="e">
         <v>#N/A</v>
       </c>
       <c r="S30" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
     </row>
     <row r="31">
@@ -3000,16 +3051,16 @@
         <v>45619.0</v>
       </c>
       <c r="J31" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K31" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L31" t="e">
         <v>#N/A</v>
       </c>
       <c r="M31" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="N31" t="e">
         <v>#N/A</v>
@@ -3018,16 +3069,16 @@
         <v>#N/A</v>
       </c>
       <c r="P31" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q31" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="R31" t="e">
         <v>#N/A</v>
       </c>
       <c r="S31" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
     </row>
     <row r="32">
@@ -3059,16 +3110,16 @@
         <v>45626.0</v>
       </c>
       <c r="J32" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K32" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="L32" t="e">
         <v>#N/A</v>
       </c>
       <c r="M32" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="N32" t="e">
         <v>#N/A</v>
@@ -3077,16 +3128,16 @@
         <v>#N/A</v>
       </c>
       <c r="P32" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q32" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="R32" t="e">
         <v>#N/A</v>
       </c>
       <c r="S32" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
     </row>
     <row r="33">
@@ -3118,16 +3169,16 @@
         <v>45626.0</v>
       </c>
       <c r="J33" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K33" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="L33" t="e">
         <v>#N/A</v>
       </c>
       <c r="M33" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="N33" t="e">
         <v>#N/A</v>
@@ -3136,16 +3187,16 @@
         <v>#N/A</v>
       </c>
       <c r="P33" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q33" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="R33" t="e">
         <v>#N/A</v>
       </c>
       <c r="S33" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
     </row>
     <row r="34">
@@ -3177,16 +3228,16 @@
         <v>45626.0</v>
       </c>
       <c r="J34" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K34" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="L34" t="e">
         <v>#N/A</v>
       </c>
       <c r="M34" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="N34" t="e">
         <v>#N/A</v>
@@ -3195,16 +3246,16 @@
         <v>#N/A</v>
       </c>
       <c r="P34" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q34" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="R34" t="e">
         <v>#N/A</v>
       </c>
       <c r="S34" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
     </row>
     <row r="35">
@@ -3236,16 +3287,16 @@
         <v>45626.0</v>
       </c>
       <c r="J35" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K35" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="L35" t="e">
         <v>#N/A</v>
       </c>
       <c r="M35" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="N35" t="e">
         <v>#N/A</v>
@@ -3254,16 +3305,16 @@
         <v>#N/A</v>
       </c>
       <c r="P35" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q35" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="R35" t="e">
         <v>#N/A</v>
       </c>
       <c r="S35" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
     </row>
     <row r="36">
@@ -3295,16 +3346,16 @@
         <v>45627.0</v>
       </c>
       <c r="J36" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K36" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="L36" t="e">
         <v>#N/A</v>
       </c>
       <c r="M36" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="N36" t="e">
         <v>#N/A</v>
@@ -3313,16 +3364,16 @@
         <v>#N/A</v>
       </c>
       <c r="P36" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q36" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="R36" t="e">
         <v>#N/A</v>
       </c>
       <c r="S36" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
     </row>
     <row r="37">
@@ -3354,16 +3405,16 @@
         <v>45627.0</v>
       </c>
       <c r="J37" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K37" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L37" t="e">
         <v>#N/A</v>
       </c>
       <c r="M37" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="N37" t="e">
         <v>#N/A</v>
@@ -3372,16 +3423,16 @@
         <v>#N/A</v>
       </c>
       <c r="P37" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q37" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="R37" t="e">
         <v>#N/A</v>
       </c>
       <c r="S37" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
     </row>
     <row r="38">
@@ -3413,16 +3464,16 @@
         <v>45556.0</v>
       </c>
       <c r="J38" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K38" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="L38" t="n">
         <v>3.0</v>
       </c>
       <c r="M38" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="N38" t="n">
         <v>3.0</v>
@@ -3431,16 +3482,16 @@
         <v>3063.0</v>
       </c>
       <c r="P38" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q38" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="R38" t="e">
         <v>#N/A</v>
       </c>
       <c r="S38" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
     </row>
     <row r="39">
@@ -3472,16 +3523,16 @@
         <v>45556.0</v>
       </c>
       <c r="J39" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K39" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L39" t="n">
         <v>2.0</v>
       </c>
       <c r="M39" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="N39" t="n">
         <v>1.0</v>
@@ -3490,16 +3541,16 @@
         <v>7341.0</v>
       </c>
       <c r="P39" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q39" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="R39" t="e">
         <v>#N/A</v>
       </c>
       <c r="S39" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
     </row>
     <row r="40">
@@ -3531,16 +3582,16 @@
         <v>45599.0</v>
       </c>
       <c r="J40" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K40" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L40" t="e">
         <v>#N/A</v>
       </c>
       <c r="M40" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="N40" t="e">
         <v>#N/A</v>
@@ -3549,16 +3600,16 @@
         <v>#N/A</v>
       </c>
       <c r="P40" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q40" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="R40" t="e">
         <v>#N/A</v>
       </c>
       <c r="S40" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
     </row>
     <row r="41">
@@ -3590,16 +3641,16 @@
         <v>45630.0</v>
       </c>
       <c r="J41" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K41" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="L41" t="e">
         <v>#N/A</v>
       </c>
       <c r="M41" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="N41" t="e">
         <v>#N/A</v>
@@ -3608,16 +3659,16 @@
         <v>#N/A</v>
       </c>
       <c r="P41" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q41" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="R41" t="e">
         <v>#N/A</v>
       </c>
       <c r="S41" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
     </row>
     <row r="42">
@@ -3649,17 +3700,17 @@
         <v>45630.0</v>
       </c>
       <c r="J42" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K42" t="s">
+        <v>249</v>
+      </c>
+      <c r="L42" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M42" t="s">
         <v>247</v>
       </c>
-      <c r="L42" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M42" t="s">
-        <v>245</v>
-      </c>
       <c r="N42" t="e">
         <v>#N/A</v>
       </c>
@@ -3667,16 +3718,16 @@
         <v>#N/A</v>
       </c>
       <c r="P42" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q42" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="R42" t="e">
         <v>#N/A</v>
       </c>
       <c r="S42" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
     </row>
     <row r="43">
@@ -3708,16 +3759,16 @@
         <v>45630.0</v>
       </c>
       <c r="J43" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K43" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="L43" t="e">
         <v>#N/A</v>
       </c>
       <c r="M43" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="N43" t="e">
         <v>#N/A</v>
@@ -3726,16 +3777,16 @@
         <v>#N/A</v>
       </c>
       <c r="P43" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q43" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="R43" t="e">
         <v>#N/A</v>
       </c>
       <c r="S43" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
     </row>
     <row r="44">
@@ -3767,16 +3818,16 @@
         <v>45633.0</v>
       </c>
       <c r="J44" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K44" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L44" t="e">
         <v>#N/A</v>
       </c>
       <c r="M44" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="N44" t="e">
         <v>#N/A</v>
@@ -3785,16 +3836,16 @@
         <v>#N/A</v>
       </c>
       <c r="P44" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q44" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="R44" t="e">
         <v>#N/A</v>
       </c>
       <c r="S44" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
     </row>
     <row r="45">
@@ -3826,16 +3877,16 @@
         <v>45633.0</v>
       </c>
       <c r="J45" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K45" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="L45" t="e">
         <v>#N/A</v>
       </c>
       <c r="M45" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="N45" t="e">
         <v>#N/A</v>
@@ -3844,16 +3895,16 @@
         <v>#N/A</v>
       </c>
       <c r="P45" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q45" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="R45" t="e">
         <v>#N/A</v>
       </c>
       <c r="S45" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
     </row>
     <row r="46">
@@ -3885,17 +3936,17 @@
         <v>45633.0</v>
       </c>
       <c r="J46" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K46" t="s">
+        <v>241</v>
+      </c>
+      <c r="L46" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M46" t="s">
         <v>239</v>
       </c>
-      <c r="L46" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M46" t="s">
-        <v>237</v>
-      </c>
       <c r="N46" t="e">
         <v>#N/A</v>
       </c>
@@ -3903,16 +3954,16 @@
         <v>#N/A</v>
       </c>
       <c r="P46" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q46" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="R46" t="e">
         <v>#N/A</v>
       </c>
       <c r="S46" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
     </row>
     <row r="47">
@@ -3944,17 +3995,17 @@
         <v>45633.0</v>
       </c>
       <c r="J47" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K47" t="s">
+        <v>245</v>
+      </c>
+      <c r="L47" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M47" t="s">
         <v>243</v>
       </c>
-      <c r="L47" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M47" t="s">
-        <v>241</v>
-      </c>
       <c r="N47" t="e">
         <v>#N/A</v>
       </c>
@@ -3962,16 +4013,16 @@
         <v>#N/A</v>
       </c>
       <c r="P47" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q47" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="R47" t="e">
         <v>#N/A</v>
       </c>
       <c r="S47" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
     </row>
     <row r="48">
@@ -4003,16 +4054,16 @@
         <v>45633.0</v>
       </c>
       <c r="J48" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K48" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="L48" t="e">
         <v>#N/A</v>
       </c>
       <c r="M48" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="N48" t="e">
         <v>#N/A</v>
@@ -4021,16 +4072,16 @@
         <v>#N/A</v>
       </c>
       <c r="P48" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q48" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="R48" t="e">
         <v>#N/A</v>
       </c>
       <c r="S48" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
     </row>
     <row r="49">
@@ -4062,16 +4113,16 @@
         <v>45634.0</v>
       </c>
       <c r="J49" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K49" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="L49" t="e">
         <v>#N/A</v>
       </c>
       <c r="M49" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="N49" t="e">
         <v>#N/A</v>
@@ -4080,16 +4131,16 @@
         <v>#N/A</v>
       </c>
       <c r="P49" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q49" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="R49" t="e">
         <v>#N/A</v>
       </c>
       <c r="S49" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
     </row>
     <row r="50">
@@ -4121,17 +4172,17 @@
         <v>45640.0</v>
       </c>
       <c r="J50" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K50" t="s">
+        <v>243</v>
+      </c>
+      <c r="L50" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M50" t="s">
         <v>241</v>
       </c>
-      <c r="L50" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M50" t="s">
-        <v>239</v>
-      </c>
       <c r="N50" t="e">
         <v>#N/A</v>
       </c>
@@ -4139,16 +4190,16 @@
         <v>#N/A</v>
       </c>
       <c r="P50" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q50" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="R50" t="e">
         <v>#N/A</v>
       </c>
       <c r="S50" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
     </row>
     <row r="51">
@@ -4180,16 +4231,16 @@
         <v>45640.0</v>
       </c>
       <c r="J51" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K51" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="L51" t="e">
         <v>#N/A</v>
       </c>
       <c r="M51" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="N51" t="e">
         <v>#N/A</v>
@@ -4198,16 +4249,16 @@
         <v>#N/A</v>
       </c>
       <c r="P51" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q51" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="R51" t="e">
         <v>#N/A</v>
       </c>
       <c r="S51" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="52">
@@ -4239,17 +4290,17 @@
         <v>45640.0</v>
       </c>
       <c r="J52" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K52" t="s">
+        <v>246</v>
+      </c>
+      <c r="L52" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M52" t="s">
         <v>244</v>
       </c>
-      <c r="L52" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M52" t="s">
-        <v>242</v>
-      </c>
       <c r="N52" t="e">
         <v>#N/A</v>
       </c>
@@ -4257,16 +4308,16 @@
         <v>#N/A</v>
       </c>
       <c r="P52" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q52" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="R52" t="e">
         <v>#N/A</v>
       </c>
       <c r="S52" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
     </row>
     <row r="53">
@@ -4298,16 +4349,16 @@
         <v>45640.0</v>
       </c>
       <c r="J53" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K53" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="L53" t="e">
         <v>#N/A</v>
       </c>
       <c r="M53" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="N53" t="e">
         <v>#N/A</v>
@@ -4316,16 +4367,16 @@
         <v>#N/A</v>
       </c>
       <c r="P53" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q53" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="R53" t="e">
         <v>#N/A</v>
       </c>
       <c r="S53" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
     </row>
     <row r="54">
@@ -4357,16 +4408,16 @@
         <v>45641.0</v>
       </c>
       <c r="J54" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="K54" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="L54" t="e">
         <v>#N/A</v>
       </c>
       <c r="M54" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="N54" t="e">
         <v>#N/A</v>
@@ -4375,16 +4426,16 @@
         <v>#N/A</v>
       </c>
       <c r="P54" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q54" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="R54" t="e">
         <v>#N/A</v>
       </c>
       <c r="S54" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
     </row>
     <row r="55">
@@ -4416,16 +4467,16 @@
         <v>45641.0</v>
       </c>
       <c r="J55" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="K55" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="L55" t="e">
         <v>#N/A</v>
       </c>
       <c r="M55" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="N55" t="e">
         <v>#N/A</v>
@@ -4434,16 +4485,16 @@
         <v>#N/A</v>
       </c>
       <c r="P55" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q55" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="R55" t="e">
         <v>#N/A</v>
       </c>
       <c r="S55" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
     </row>
     <row r="56">
@@ -4469,22 +4520,22 @@
         <v>35</v>
       </c>
       <c r="H56" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="I56" t="n" s="2">
-        <v>45634.0</v>
+        <v>45646.0</v>
       </c>
       <c r="J56" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="K56" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="L56" t="e">
         <v>#N/A</v>
       </c>
       <c r="M56" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="N56" t="e">
         <v>#N/A</v>
@@ -4493,16 +4544,16 @@
         <v>#N/A</v>
       </c>
       <c r="P56" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="Q56" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="R56" t="e">
         <v>#N/A</v>
       </c>
       <c r="S56" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
     </row>
     <row r="57">
@@ -4534,16 +4585,16 @@
         <v>45647.0</v>
       </c>
       <c r="J57" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K57" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="L57" t="e">
         <v>#N/A</v>
       </c>
       <c r="M57" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="N57" t="e">
         <v>#N/A</v>
@@ -4552,16 +4603,16 @@
         <v>#N/A</v>
       </c>
       <c r="P57" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="Q57" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="R57" t="e">
         <v>#N/A</v>
       </c>
       <c r="S57" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
     <row r="58">
@@ -4593,16 +4644,16 @@
         <v>45647.0</v>
       </c>
       <c r="J58" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K58" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="L58" t="e">
         <v>#N/A</v>
       </c>
       <c r="M58" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="N58" t="e">
         <v>#N/A</v>
@@ -4611,16 +4662,16 @@
         <v>#N/A</v>
       </c>
       <c r="P58" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="Q58" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="R58" t="e">
         <v>#N/A</v>
       </c>
       <c r="S58" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
     </row>
     <row r="59">
@@ -4652,16 +4703,16 @@
         <v>45647.0</v>
       </c>
       <c r="J59" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K59" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L59" t="e">
         <v>#N/A</v>
       </c>
       <c r="M59" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="N59" t="e">
         <v>#N/A</v>
@@ -4670,16 +4721,16 @@
         <v>#N/A</v>
       </c>
       <c r="P59" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q59" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="R59" t="e">
         <v>#N/A</v>
       </c>
       <c r="S59" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
     </row>
     <row r="60">
@@ -4705,22 +4756,22 @@
         <v>35</v>
       </c>
       <c r="H60" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I60" t="n" s="2">
-        <v>45647.0</v>
+        <v>45648.0</v>
       </c>
       <c r="J60" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="K60" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="L60" t="e">
         <v>#N/A</v>
       </c>
       <c r="M60" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="N60" t="e">
         <v>#N/A</v>
@@ -4729,16 +4780,16 @@
         <v>#N/A</v>
       </c>
       <c r="P60" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="Q60" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="R60" t="e">
         <v>#N/A</v>
       </c>
       <c r="S60" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
     </row>
     <row r="61">
@@ -4764,22 +4815,22 @@
         <v>35</v>
       </c>
       <c r="H61" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I61" t="n" s="2">
-        <v>45647.0</v>
+        <v>45648.0</v>
       </c>
       <c r="J61" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K61" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L61" t="e">
         <v>#N/A</v>
       </c>
       <c r="M61" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="N61" t="e">
         <v>#N/A</v>
@@ -4788,16 +4839,16 @@
         <v>#N/A</v>
       </c>
       <c r="P61" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q61" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="R61" t="e">
         <v>#N/A</v>
       </c>
       <c r="S61" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
     </row>
     <row r="62">
@@ -4829,16 +4880,16 @@
         <v>45652.0</v>
       </c>
       <c r="J62" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K62" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L62" t="e">
         <v>#N/A</v>
       </c>
       <c r="M62" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="N62" t="e">
         <v>#N/A</v>
@@ -4847,16 +4898,16 @@
         <v>#N/A</v>
       </c>
       <c r="P62" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q62" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="R62" t="e">
         <v>#N/A</v>
       </c>
       <c r="S62" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
     </row>
     <row r="63">
@@ -4888,16 +4939,16 @@
         <v>45652.0</v>
       </c>
       <c r="J63" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K63" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="L63" t="e">
         <v>#N/A</v>
       </c>
       <c r="M63" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="N63" t="e">
         <v>#N/A</v>
@@ -4906,16 +4957,16 @@
         <v>#N/A</v>
       </c>
       <c r="P63" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q63" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="R63" t="e">
         <v>#N/A</v>
       </c>
       <c r="S63" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
     </row>
     <row r="64">
@@ -4947,17 +4998,17 @@
         <v>45652.0</v>
       </c>
       <c r="J64" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K64" t="s">
+        <v>247</v>
+      </c>
+      <c r="L64" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M64" t="s">
         <v>245</v>
       </c>
-      <c r="L64" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M64" t="s">
-        <v>243</v>
-      </c>
       <c r="N64" t="e">
         <v>#N/A</v>
       </c>
@@ -4965,16 +5016,16 @@
         <v>#N/A</v>
       </c>
       <c r="P64" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q64" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="R64" t="e">
         <v>#N/A</v>
       </c>
       <c r="S64" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
     </row>
     <row r="65">
@@ -5006,16 +5057,16 @@
         <v>45652.0</v>
       </c>
       <c r="J65" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K65" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="L65" t="e">
         <v>#N/A</v>
       </c>
       <c r="M65" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="N65" t="e">
         <v>#N/A</v>
@@ -5024,16 +5075,16 @@
         <v>#N/A</v>
       </c>
       <c r="P65" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q65" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="R65" t="e">
         <v>#N/A</v>
       </c>
       <c r="S65" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
     </row>
     <row r="66">
@@ -5065,16 +5116,16 @@
         <v>45652.0</v>
       </c>
       <c r="J66" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K66" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="L66" t="e">
         <v>#N/A</v>
       </c>
       <c r="M66" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="N66" t="e">
         <v>#N/A</v>
@@ -5083,16 +5134,16 @@
         <v>#N/A</v>
       </c>
       <c r="P66" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q66" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="R66" t="e">
         <v>#N/A</v>
       </c>
       <c r="S66" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
     </row>
     <row r="67">
@@ -5124,16 +5175,16 @@
         <v>45652.0</v>
       </c>
       <c r="J67" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K67" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L67" t="e">
         <v>#N/A</v>
       </c>
       <c r="M67" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="N67" t="e">
         <v>#N/A</v>
@@ -5142,16 +5193,16 @@
         <v>#N/A</v>
       </c>
       <c r="P67" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q67" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="R67" t="e">
         <v>#N/A</v>
       </c>
       <c r="S67" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
     </row>
     <row r="68">
@@ -5183,16 +5234,16 @@
         <v>45514.0</v>
       </c>
       <c r="J68" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K68" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="L68" t="n">
         <v>1.0</v>
       </c>
       <c r="M68" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="N68" t="n">
         <v>1.0</v>
@@ -5201,16 +5252,16 @@
         <v>4169.0</v>
       </c>
       <c r="P68" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q68" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="R68" t="e">
         <v>#N/A</v>
       </c>
       <c r="S68" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
     </row>
     <row r="69">
@@ -5242,16 +5293,16 @@
         <v>45514.0</v>
       </c>
       <c r="J69" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K69" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="L69" t="n">
         <v>2.0</v>
       </c>
       <c r="M69" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="N69" t="n">
         <v>1.0</v>
@@ -5260,16 +5311,16 @@
         <v>48529.0</v>
       </c>
       <c r="P69" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q69" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="R69" t="e">
         <v>#N/A</v>
       </c>
       <c r="S69" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
     </row>
     <row r="70">
@@ -5301,16 +5352,16 @@
         <v>45514.0</v>
       </c>
       <c r="J70" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K70" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="L70" t="n">
         <v>3.0</v>
       </c>
       <c r="M70" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="N70" t="n">
         <v>1.0</v>
@@ -5319,16 +5370,16 @@
         <v>7266.0</v>
       </c>
       <c r="P70" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q70" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="R70" t="e">
         <v>#N/A</v>
       </c>
       <c r="S70" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
     </row>
     <row r="71">
@@ -5360,16 +5411,16 @@
         <v>45515.0</v>
       </c>
       <c r="J71" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K71" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L71" t="n">
         <v>0.0</v>
       </c>
       <c r="M71" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="N71" t="n">
         <v>2.0</v>
@@ -5378,16 +5429,16 @@
         <v>17918.0</v>
       </c>
       <c r="P71" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q71" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="R71" t="e">
         <v>#N/A</v>
       </c>
       <c r="S71" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
     </row>
     <row r="72">
@@ -5419,16 +5470,16 @@
         <v>45515.0</v>
       </c>
       <c r="J72" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K72" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="L72" t="n">
         <v>0.0</v>
       </c>
       <c r="M72" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="N72" t="n">
         <v>3.0</v>
@@ -5437,16 +5488,16 @@
         <v>4843.0</v>
       </c>
       <c r="P72" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q72" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="R72" t="e">
         <v>#N/A</v>
       </c>
       <c r="S72" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
     </row>
     <row r="73">
@@ -5478,16 +5529,16 @@
         <v>45515.0</v>
       </c>
       <c r="J73" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K73" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="L73" t="n">
         <v>3.0</v>
       </c>
       <c r="M73" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="N73" t="n">
         <v>1.0</v>
@@ -5496,16 +5547,16 @@
         <v>17057.0</v>
       </c>
       <c r="P73" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q73" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="R73" t="e">
         <v>#N/A</v>
       </c>
       <c r="S73" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
     </row>
     <row r="74">
@@ -5537,16 +5588,16 @@
         <v>45655.0</v>
       </c>
       <c r="J74" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K74" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="L74" t="e">
         <v>#N/A</v>
       </c>
       <c r="M74" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="N74" t="e">
         <v>#N/A</v>
@@ -5555,16 +5606,16 @@
         <v>#N/A</v>
       </c>
       <c r="P74" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q74" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="R74" t="e">
         <v>#N/A</v>
       </c>
       <c r="S74" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
     </row>
     <row r="75">
@@ -5596,16 +5647,16 @@
         <v>45655.0</v>
       </c>
       <c r="J75" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K75" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L75" t="e">
         <v>#N/A</v>
       </c>
       <c r="M75" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="N75" t="e">
         <v>#N/A</v>
@@ -5614,16 +5665,16 @@
         <v>#N/A</v>
       </c>
       <c r="P75" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q75" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="R75" t="e">
         <v>#N/A</v>
       </c>
       <c r="S75" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
     </row>
     <row r="76">
@@ -5655,16 +5706,16 @@
         <v>45655.0</v>
       </c>
       <c r="J76" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K76" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="L76" t="e">
         <v>#N/A</v>
       </c>
       <c r="M76" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="N76" t="e">
         <v>#N/A</v>
@@ -5673,16 +5724,16 @@
         <v>#N/A</v>
       </c>
       <c r="P76" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q76" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="R76" t="e">
         <v>#N/A</v>
       </c>
       <c r="S76" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
     </row>
     <row r="77">
@@ -5714,16 +5765,16 @@
         <v>45655.0</v>
       </c>
       <c r="J77" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K77" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="L77" t="e">
         <v>#N/A</v>
       </c>
       <c r="M77" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="N77" t="e">
         <v>#N/A</v>
@@ -5732,16 +5783,16 @@
         <v>#N/A</v>
       </c>
       <c r="P77" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q77" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="R77" t="e">
         <v>#N/A</v>
       </c>
       <c r="S77" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
     </row>
     <row r="78">
@@ -5773,16 +5824,16 @@
         <v>45655.0</v>
       </c>
       <c r="J78" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K78" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L78" t="e">
         <v>#N/A</v>
       </c>
       <c r="M78" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="N78" t="e">
         <v>#N/A</v>
@@ -5791,16 +5842,16 @@
         <v>#N/A</v>
       </c>
       <c r="P78" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q78" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="R78" t="e">
         <v>#N/A</v>
       </c>
       <c r="S78" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
     </row>
     <row r="79">
@@ -5832,16 +5883,16 @@
         <v>45655.0</v>
       </c>
       <c r="J79" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="K79" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="L79" t="e">
         <v>#N/A</v>
       </c>
       <c r="M79" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="N79" t="e">
         <v>#N/A</v>
@@ -5850,16 +5901,16 @@
         <v>#N/A</v>
       </c>
       <c r="P79" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q79" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="R79" t="e">
         <v>#N/A</v>
       </c>
       <c r="S79" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
     </row>
     <row r="80">
@@ -5891,16 +5942,16 @@
         <v>45659.0</v>
       </c>
       <c r="J80" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K80" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="L80" t="e">
         <v>#N/A</v>
       </c>
       <c r="M80" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="N80" t="e">
         <v>#N/A</v>
@@ -5909,16 +5960,16 @@
         <v>#N/A</v>
       </c>
       <c r="P80" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="Q80" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="R80" t="e">
         <v>#N/A</v>
       </c>
       <c r="S80" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
     </row>
     <row r="81">
@@ -5950,16 +6001,16 @@
         <v>45659.0</v>
       </c>
       <c r="J81" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K81" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="L81" t="e">
         <v>#N/A</v>
       </c>
       <c r="M81" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="N81" t="e">
         <v>#N/A</v>
@@ -5968,16 +6019,16 @@
         <v>#N/A</v>
       </c>
       <c r="P81" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="Q81" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="R81" t="e">
         <v>#N/A</v>
       </c>
       <c r="S81" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
     </row>
     <row r="82">
@@ -6009,16 +6060,16 @@
         <v>45659.0</v>
       </c>
       <c r="J82" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K82" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L82" t="e">
         <v>#N/A</v>
       </c>
       <c r="M82" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="N82" t="e">
         <v>#N/A</v>
@@ -6027,16 +6078,16 @@
         <v>#N/A</v>
       </c>
       <c r="P82" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="Q82" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="R82" t="e">
         <v>#N/A</v>
       </c>
       <c r="S82" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
     </row>
     <row r="83">
@@ -6068,16 +6119,16 @@
         <v>45659.0</v>
       </c>
       <c r="J83" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K83" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="L83" t="e">
         <v>#N/A</v>
       </c>
       <c r="M83" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="N83" t="e">
         <v>#N/A</v>
@@ -6086,16 +6137,16 @@
         <v>#N/A</v>
       </c>
       <c r="P83" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="Q83" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="R83" t="e">
         <v>#N/A</v>
       </c>
       <c r="S83" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
     </row>
     <row r="84">
@@ -6127,16 +6178,16 @@
         <v>45659.0</v>
       </c>
       <c r="J84" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K84" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="L84" t="e">
         <v>#N/A</v>
       </c>
       <c r="M84" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="N84" t="e">
         <v>#N/A</v>
@@ -6145,16 +6196,16 @@
         <v>#N/A</v>
       </c>
       <c r="P84" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="Q84" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="R84" t="e">
         <v>#N/A</v>
       </c>
       <c r="S84" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
     </row>
     <row r="85">
@@ -6186,16 +6237,16 @@
         <v>45659.0</v>
       </c>
       <c r="J85" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K85" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="L85" t="e">
         <v>#N/A</v>
       </c>
       <c r="M85" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="N85" t="e">
         <v>#N/A</v>
@@ -6204,16 +6255,16 @@
         <v>#N/A</v>
       </c>
       <c r="P85" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="Q85" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="R85" t="e">
         <v>#N/A</v>
       </c>
       <c r="S85" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
     </row>
     <row r="86">
@@ -6245,16 +6296,16 @@
         <v>45662.0</v>
       </c>
       <c r="J86" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K86" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="L86" t="e">
         <v>#N/A</v>
       </c>
       <c r="M86" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="N86" t="e">
         <v>#N/A</v>
@@ -6263,16 +6314,16 @@
         <v>#N/A</v>
       </c>
       <c r="P86" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="Q86" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="R86" t="e">
         <v>#N/A</v>
       </c>
       <c r="S86" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
     </row>
     <row r="87">
@@ -6304,17 +6355,17 @@
         <v>45662.0</v>
       </c>
       <c r="J87" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K87" t="s">
+        <v>240</v>
+      </c>
+      <c r="L87" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M87" t="s">
         <v>238</v>
       </c>
-      <c r="L87" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M87" t="s">
-        <v>236</v>
-      </c>
       <c r="N87" t="e">
         <v>#N/A</v>
       </c>
@@ -6322,16 +6373,16 @@
         <v>#N/A</v>
       </c>
       <c r="P87" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="Q87" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="R87" t="e">
         <v>#N/A</v>
       </c>
       <c r="S87" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
     </row>
     <row r="88">
@@ -6363,16 +6414,16 @@
         <v>45662.0</v>
       </c>
       <c r="J88" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K88" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="L88" t="e">
         <v>#N/A</v>
       </c>
       <c r="M88" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="N88" t="e">
         <v>#N/A</v>
@@ -6381,16 +6432,16 @@
         <v>#N/A</v>
       </c>
       <c r="P88" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="Q88" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="R88" t="e">
         <v>#N/A</v>
       </c>
       <c r="S88" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
     </row>
     <row r="89">
@@ -6422,16 +6473,16 @@
         <v>45662.0</v>
       </c>
       <c r="J89" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K89" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="L89" t="e">
         <v>#N/A</v>
       </c>
       <c r="M89" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="N89" t="e">
         <v>#N/A</v>
@@ -6440,16 +6491,16 @@
         <v>#N/A</v>
       </c>
       <c r="P89" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="Q89" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="R89" t="e">
         <v>#N/A</v>
       </c>
       <c r="S89" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
     </row>
     <row r="90">
@@ -6481,16 +6532,16 @@
         <v>45662.0</v>
       </c>
       <c r="J90" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K90" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L90" t="e">
         <v>#N/A</v>
       </c>
       <c r="M90" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="N90" t="e">
         <v>#N/A</v>
@@ -6499,16 +6550,16 @@
         <v>#N/A</v>
       </c>
       <c r="P90" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="Q90" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="R90" t="e">
         <v>#N/A</v>
       </c>
       <c r="S90" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
     </row>
     <row r="91">
@@ -6540,16 +6591,16 @@
         <v>45662.0</v>
       </c>
       <c r="J91" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K91" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="L91" t="e">
         <v>#N/A</v>
       </c>
       <c r="M91" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="N91" t="e">
         <v>#N/A</v>
@@ -6558,16 +6609,16 @@
         <v>#N/A</v>
       </c>
       <c r="P91" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="Q91" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="R91" t="e">
         <v>#N/A</v>
       </c>
       <c r="S91" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
     </row>
     <row r="92">
@@ -6599,16 +6650,16 @@
         <v>45599.0</v>
       </c>
       <c r="J92" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K92" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="L92" t="e">
         <v>#N/A</v>
       </c>
       <c r="M92" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="N92" t="e">
         <v>#N/A</v>
@@ -6617,16 +6668,16 @@
         <v>#N/A</v>
       </c>
       <c r="P92" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q92" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="R92" t="e">
         <v>#N/A</v>
       </c>
       <c r="S92" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
     </row>
     <row r="93">
@@ -6658,17 +6709,17 @@
         <v>45668.0</v>
       </c>
       <c r="J93" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K93" t="s">
+        <v>244</v>
+      </c>
+      <c r="L93" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M93" t="s">
         <v>242</v>
       </c>
-      <c r="L93" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M93" t="s">
-        <v>240</v>
-      </c>
       <c r="N93" t="e">
         <v>#N/A</v>
       </c>
@@ -6676,16 +6727,16 @@
         <v>#N/A</v>
       </c>
       <c r="P93" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="Q93" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="R93" t="e">
         <v>#N/A</v>
       </c>
       <c r="S93" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
     </row>
     <row r="94">
@@ -6717,16 +6768,16 @@
         <v>45668.0</v>
       </c>
       <c r="J94" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K94" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="L94" t="e">
         <v>#N/A</v>
       </c>
       <c r="M94" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="N94" t="e">
         <v>#N/A</v>
@@ -6735,16 +6786,16 @@
         <v>#N/A</v>
       </c>
       <c r="P94" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="Q94" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="R94" t="e">
         <v>#N/A</v>
       </c>
       <c r="S94" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
     </row>
     <row r="95">
@@ -6776,16 +6827,16 @@
         <v>45668.0</v>
       </c>
       <c r="J95" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K95" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="L95" t="e">
         <v>#N/A</v>
       </c>
       <c r="M95" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="N95" t="e">
         <v>#N/A</v>
@@ -6794,16 +6845,16 @@
         <v>#N/A</v>
       </c>
       <c r="P95" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="Q95" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="R95" t="e">
         <v>#N/A</v>
       </c>
       <c r="S95" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
     </row>
     <row r="96">
@@ -6835,16 +6886,16 @@
         <v>45668.0</v>
       </c>
       <c r="J96" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K96" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L96" t="e">
         <v>#N/A</v>
       </c>
       <c r="M96" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="N96" t="e">
         <v>#N/A</v>
@@ -6853,16 +6904,16 @@
         <v>#N/A</v>
       </c>
       <c r="P96" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="Q96" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="R96" t="e">
         <v>#N/A</v>
       </c>
       <c r="S96" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
     </row>
     <row r="97">
@@ -6894,16 +6945,16 @@
         <v>45668.0</v>
       </c>
       <c r="J97" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K97" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L97" t="e">
         <v>#N/A</v>
       </c>
       <c r="M97" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="N97" t="e">
         <v>#N/A</v>
@@ -6912,16 +6963,16 @@
         <v>#N/A</v>
       </c>
       <c r="P97" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="Q97" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="R97" t="e">
         <v>#N/A</v>
       </c>
       <c r="S97" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
     </row>
     <row r="98">
@@ -6953,16 +7004,16 @@
         <v>45682.0</v>
       </c>
       <c r="J98" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K98" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="L98" t="e">
         <v>#N/A</v>
       </c>
       <c r="M98" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="N98" t="e">
         <v>#N/A</v>
@@ -6971,16 +7022,16 @@
         <v>#N/A</v>
       </c>
       <c r="P98" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="Q98" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="R98" t="e">
         <v>#N/A</v>
       </c>
       <c r="S98" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
     </row>
     <row r="99">
@@ -7012,16 +7063,16 @@
         <v>45682.0</v>
       </c>
       <c r="J99" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K99" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="L99" t="e">
         <v>#N/A</v>
       </c>
       <c r="M99" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="N99" t="e">
         <v>#N/A</v>
@@ -7030,16 +7081,16 @@
         <v>#N/A</v>
       </c>
       <c r="P99" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="Q99" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="R99" t="e">
         <v>#N/A</v>
       </c>
       <c r="S99" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
     </row>
     <row r="100">
@@ -7071,16 +7122,16 @@
         <v>45682.0</v>
       </c>
       <c r="J100" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K100" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="L100" t="e">
         <v>#N/A</v>
       </c>
       <c r="M100" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="N100" t="e">
         <v>#N/A</v>
@@ -7089,16 +7140,16 @@
         <v>#N/A</v>
       </c>
       <c r="P100" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="Q100" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="R100" t="e">
         <v>#N/A</v>
       </c>
       <c r="S100" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="101">
@@ -7130,16 +7181,16 @@
         <v>45682.0</v>
       </c>
       <c r="J101" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K101" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="L101" t="e">
         <v>#N/A</v>
       </c>
       <c r="M101" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="N101" t="e">
         <v>#N/A</v>
@@ -7148,16 +7199,16 @@
         <v>#N/A</v>
       </c>
       <c r="P101" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="Q101" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="R101" t="e">
         <v>#N/A</v>
       </c>
       <c r="S101" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
     </row>
     <row r="102">
@@ -7189,16 +7240,16 @@
         <v>45682.0</v>
       </c>
       <c r="J102" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K102" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="L102" t="e">
         <v>#N/A</v>
       </c>
       <c r="M102" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="N102" t="e">
         <v>#N/A</v>
@@ -7207,16 +7258,16 @@
         <v>#N/A</v>
       </c>
       <c r="P102" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="Q102" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="R102" t="e">
         <v>#N/A</v>
       </c>
       <c r="S102" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
     </row>
     <row r="103">
@@ -7248,16 +7299,16 @@
         <v>45682.0</v>
       </c>
       <c r="J103" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K103" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L103" t="e">
         <v>#N/A</v>
       </c>
       <c r="M103" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="N103" t="e">
         <v>#N/A</v>
@@ -7266,16 +7317,16 @@
         <v>#N/A</v>
       </c>
       <c r="P103" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="Q103" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="R103" t="e">
         <v>#N/A</v>
       </c>
       <c r="S103" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
     </row>
     <row r="104">
@@ -7307,16 +7358,16 @@
         <v>45689.0</v>
       </c>
       <c r="J104" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K104" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L104" t="e">
         <v>#N/A</v>
       </c>
       <c r="M104" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="N104" t="e">
         <v>#N/A</v>
@@ -7325,16 +7376,16 @@
         <v>#N/A</v>
       </c>
       <c r="P104" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="Q104" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="R104" t="e">
         <v>#N/A</v>
       </c>
       <c r="S104" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
     </row>
     <row r="105">
@@ -7366,16 +7417,16 @@
         <v>45689.0</v>
       </c>
       <c r="J105" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K105" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="L105" t="e">
         <v>#N/A</v>
       </c>
       <c r="M105" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="N105" t="e">
         <v>#N/A</v>
@@ -7384,16 +7435,16 @@
         <v>#N/A</v>
       </c>
       <c r="P105" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="Q105" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="R105" t="e">
         <v>#N/A</v>
       </c>
       <c r="S105" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
     </row>
     <row r="106">
@@ -7425,16 +7476,16 @@
         <v>45689.0</v>
       </c>
       <c r="J106" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K106" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L106" t="e">
         <v>#N/A</v>
       </c>
       <c r="M106" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="N106" t="e">
         <v>#N/A</v>
@@ -7443,16 +7494,16 @@
         <v>#N/A</v>
       </c>
       <c r="P106" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="Q106" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="R106" t="e">
         <v>#N/A</v>
       </c>
       <c r="S106" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
     </row>
     <row r="107">
@@ -7484,16 +7535,16 @@
         <v>45689.0</v>
       </c>
       <c r="J107" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K107" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="L107" t="e">
         <v>#N/A</v>
       </c>
       <c r="M107" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="N107" t="e">
         <v>#N/A</v>
@@ -7502,16 +7553,16 @@
         <v>#N/A</v>
       </c>
       <c r="P107" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="Q107" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="R107" t="e">
         <v>#N/A</v>
       </c>
       <c r="S107" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
     </row>
     <row r="108">
@@ -7543,16 +7594,16 @@
         <v>45689.0</v>
       </c>
       <c r="J108" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K108" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="L108" t="e">
         <v>#N/A</v>
       </c>
       <c r="M108" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="N108" t="e">
         <v>#N/A</v>
@@ -7561,16 +7612,16 @@
         <v>#N/A</v>
       </c>
       <c r="P108" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="Q108" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="R108" t="e">
         <v>#N/A</v>
       </c>
       <c r="S108" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
     </row>
     <row r="109">
@@ -7602,16 +7653,16 @@
         <v>45689.0</v>
       </c>
       <c r="J109" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K109" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="L109" t="e">
         <v>#N/A</v>
       </c>
       <c r="M109" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="N109" t="e">
         <v>#N/A</v>
@@ -7620,16 +7671,16 @@
         <v>#N/A</v>
       </c>
       <c r="P109" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="Q109" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="R109" t="e">
         <v>#N/A</v>
       </c>
       <c r="S109" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
     </row>
     <row r="110">
@@ -7661,17 +7712,17 @@
         <v>45703.0</v>
       </c>
       <c r="J110" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K110" t="s">
+        <v>242</v>
+      </c>
+      <c r="L110" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M110" t="s">
         <v>240</v>
       </c>
-      <c r="L110" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M110" t="s">
-        <v>238</v>
-      </c>
       <c r="N110" t="e">
         <v>#N/A</v>
       </c>
@@ -7679,16 +7730,16 @@
         <v>#N/A</v>
       </c>
       <c r="P110" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="Q110" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="R110" t="e">
         <v>#N/A</v>
       </c>
       <c r="S110" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
     </row>
     <row r="111">
@@ -7720,16 +7771,16 @@
         <v>45703.0</v>
       </c>
       <c r="J111" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K111" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="L111" t="e">
         <v>#N/A</v>
       </c>
       <c r="M111" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="N111" t="e">
         <v>#N/A</v>
@@ -7738,16 +7789,16 @@
         <v>#N/A</v>
       </c>
       <c r="P111" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="Q111" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="R111" t="e">
         <v>#N/A</v>
       </c>
       <c r="S111" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
     </row>
     <row r="112">
@@ -7779,16 +7830,16 @@
         <v>45703.0</v>
       </c>
       <c r="J112" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K112" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L112" t="e">
         <v>#N/A</v>
       </c>
       <c r="M112" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="N112" t="e">
         <v>#N/A</v>
@@ -7797,16 +7848,16 @@
         <v>#N/A</v>
       </c>
       <c r="P112" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="Q112" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="R112" t="e">
         <v>#N/A</v>
       </c>
       <c r="S112" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
     </row>
     <row r="113">
@@ -7838,16 +7889,16 @@
         <v>45703.0</v>
       </c>
       <c r="J113" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K113" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="L113" t="e">
         <v>#N/A</v>
       </c>
       <c r="M113" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="N113" t="e">
         <v>#N/A</v>
@@ -7856,16 +7907,16 @@
         <v>#N/A</v>
       </c>
       <c r="P113" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="Q113" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="R113" t="e">
         <v>#N/A</v>
       </c>
       <c r="S113" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
     </row>
     <row r="114">
@@ -7897,16 +7948,16 @@
         <v>45703.0</v>
       </c>
       <c r="J114" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K114" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="L114" t="e">
         <v>#N/A</v>
       </c>
       <c r="M114" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="N114" t="e">
         <v>#N/A</v>
@@ -7915,16 +7966,16 @@
         <v>#N/A</v>
       </c>
       <c r="P114" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="Q114" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="R114" t="e">
         <v>#N/A</v>
       </c>
       <c r="S114" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
     </row>
     <row r="115">
@@ -7956,16 +8007,16 @@
         <v>45703.0</v>
       </c>
       <c r="J115" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K115" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L115" t="e">
         <v>#N/A</v>
       </c>
       <c r="M115" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="N115" t="e">
         <v>#N/A</v>
@@ -7974,16 +8025,16 @@
         <v>#N/A</v>
       </c>
       <c r="P115" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="Q115" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="R115" t="e">
         <v>#N/A</v>
       </c>
       <c r="S115" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
     </row>
     <row r="116">
@@ -8015,16 +8066,16 @@
         <v>45710.0</v>
       </c>
       <c r="J116" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K116" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L116" t="e">
         <v>#N/A</v>
       </c>
       <c r="M116" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="N116" t="e">
         <v>#N/A</v>
@@ -8033,16 +8084,16 @@
         <v>#N/A</v>
       </c>
       <c r="P116" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="Q116" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="R116" t="e">
         <v>#N/A</v>
       </c>
       <c r="S116" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
     </row>
     <row r="117">
@@ -8074,16 +8125,16 @@
         <v>45710.0</v>
       </c>
       <c r="J117" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K117" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="L117" t="e">
         <v>#N/A</v>
       </c>
       <c r="M117" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="N117" t="e">
         <v>#N/A</v>
@@ -8092,16 +8143,16 @@
         <v>#N/A</v>
       </c>
       <c r="P117" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="Q117" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="R117" t="e">
         <v>#N/A</v>
       </c>
       <c r="S117" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
     </row>
     <row r="118">
@@ -8133,16 +8184,16 @@
         <v>45710.0</v>
       </c>
       <c r="J118" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K118" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="L118" t="e">
         <v>#N/A</v>
       </c>
       <c r="M118" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="N118" t="e">
         <v>#N/A</v>
@@ -8151,16 +8202,16 @@
         <v>#N/A</v>
       </c>
       <c r="P118" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="Q118" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="R118" t="e">
         <v>#N/A</v>
       </c>
       <c r="S118" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
     </row>
     <row r="119">
@@ -8192,16 +8243,16 @@
         <v>45710.0</v>
       </c>
       <c r="J119" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K119" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="L119" t="e">
         <v>#N/A</v>
       </c>
       <c r="M119" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="N119" t="e">
         <v>#N/A</v>
@@ -8210,16 +8261,16 @@
         <v>#N/A</v>
       </c>
       <c r="P119" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="Q119" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="R119" t="e">
         <v>#N/A</v>
       </c>
       <c r="S119" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
     </row>
     <row r="120">
@@ -8251,16 +8302,16 @@
         <v>45710.0</v>
       </c>
       <c r="J120" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K120" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="L120" t="e">
         <v>#N/A</v>
       </c>
       <c r="M120" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="N120" t="e">
         <v>#N/A</v>
@@ -8269,16 +8320,16 @@
         <v>#N/A</v>
       </c>
       <c r="P120" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="Q120" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="R120" t="e">
         <v>#N/A</v>
       </c>
       <c r="S120" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
     </row>
     <row r="121">
@@ -8310,16 +8361,16 @@
         <v>45710.0</v>
       </c>
       <c r="J121" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K121" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="L121" t="e">
         <v>#N/A</v>
       </c>
       <c r="M121" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="N121" t="e">
         <v>#N/A</v>
@@ -8328,16 +8379,16 @@
         <v>#N/A</v>
       </c>
       <c r="P121" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="Q121" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="R121" t="e">
         <v>#N/A</v>
       </c>
       <c r="S121" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
     </row>
     <row r="122">
@@ -8369,16 +8420,16 @@
         <v>45714.0</v>
       </c>
       <c r="J122" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K122" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="L122" t="e">
         <v>#N/A</v>
       </c>
       <c r="M122" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="N122" t="e">
         <v>#N/A</v>
@@ -8387,16 +8438,16 @@
         <v>#N/A</v>
       </c>
       <c r="P122" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="Q122" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="R122" t="e">
         <v>#N/A</v>
       </c>
       <c r="S122" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
     </row>
     <row r="123">
@@ -8428,16 +8479,16 @@
         <v>45714.0</v>
       </c>
       <c r="J123" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K123" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L123" t="e">
         <v>#N/A</v>
       </c>
       <c r="M123" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="N123" t="e">
         <v>#N/A</v>
@@ -8446,16 +8497,16 @@
         <v>#N/A</v>
       </c>
       <c r="P123" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="Q123" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="R123" t="e">
         <v>#N/A</v>
       </c>
       <c r="S123" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
     </row>
     <row r="124">
@@ -8487,16 +8538,16 @@
         <v>45714.0</v>
       </c>
       <c r="J124" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K124" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="L124" t="e">
         <v>#N/A</v>
       </c>
       <c r="M124" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="N124" t="e">
         <v>#N/A</v>
@@ -8505,16 +8556,16 @@
         <v>#N/A</v>
       </c>
       <c r="P124" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="Q124" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="R124" t="e">
         <v>#N/A</v>
       </c>
       <c r="S124" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
     </row>
     <row r="125">
@@ -8546,16 +8597,16 @@
         <v>45714.0</v>
       </c>
       <c r="J125" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K125" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="L125" t="e">
         <v>#N/A</v>
       </c>
       <c r="M125" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="N125" t="e">
         <v>#N/A</v>
@@ -8564,16 +8615,16 @@
         <v>#N/A</v>
       </c>
       <c r="P125" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="Q125" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="R125" t="e">
         <v>#N/A</v>
       </c>
       <c r="S125" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
     </row>
     <row r="126">
@@ -8605,16 +8656,16 @@
         <v>45714.0</v>
       </c>
       <c r="J126" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K126" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="L126" t="e">
         <v>#N/A</v>
       </c>
       <c r="M126" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="N126" t="e">
         <v>#N/A</v>
@@ -8623,16 +8674,16 @@
         <v>#N/A</v>
       </c>
       <c r="P126" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="Q126" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="R126" t="e">
         <v>#N/A</v>
       </c>
       <c r="S126" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
     </row>
     <row r="127">
@@ -8664,16 +8715,16 @@
         <v>45714.0</v>
       </c>
       <c r="J127" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K127" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="L127" t="e">
         <v>#N/A</v>
       </c>
       <c r="M127" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="N127" t="e">
         <v>#N/A</v>
@@ -8682,16 +8733,16 @@
         <v>#N/A</v>
       </c>
       <c r="P127" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="Q127" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="R127" t="e">
         <v>#N/A</v>
       </c>
       <c r="S127" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
     </row>
     <row r="128">
@@ -8723,16 +8774,16 @@
         <v>45717.0</v>
       </c>
       <c r="J128" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K128" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L128" t="e">
         <v>#N/A</v>
       </c>
       <c r="M128" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="N128" t="e">
         <v>#N/A</v>
@@ -8741,16 +8792,16 @@
         <v>#N/A</v>
       </c>
       <c r="P128" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="Q128" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="R128" t="e">
         <v>#N/A</v>
       </c>
       <c r="S128" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
     </row>
     <row r="129">
@@ -8782,16 +8833,16 @@
         <v>45717.0</v>
       </c>
       <c r="J129" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K129" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="L129" t="e">
         <v>#N/A</v>
       </c>
       <c r="M129" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="N129" t="e">
         <v>#N/A</v>
@@ -8800,16 +8851,16 @@
         <v>#N/A</v>
       </c>
       <c r="P129" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="Q129" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="R129" t="e">
         <v>#N/A</v>
       </c>
       <c r="S129" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
     </row>
     <row r="130">
@@ -8841,16 +8892,16 @@
         <v>45717.0</v>
       </c>
       <c r="J130" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K130" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L130" t="e">
         <v>#N/A</v>
       </c>
       <c r="M130" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="N130" t="e">
         <v>#N/A</v>
@@ -8859,16 +8910,16 @@
         <v>#N/A</v>
       </c>
       <c r="P130" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="Q130" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="R130" t="e">
         <v>#N/A</v>
       </c>
       <c r="S130" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
     </row>
     <row r="131">
@@ -8900,16 +8951,16 @@
         <v>45717.0</v>
       </c>
       <c r="J131" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K131" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="L131" t="e">
         <v>#N/A</v>
       </c>
       <c r="M131" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="N131" t="e">
         <v>#N/A</v>
@@ -8918,16 +8969,16 @@
         <v>#N/A</v>
       </c>
       <c r="P131" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="Q131" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="R131" t="e">
         <v>#N/A</v>
       </c>
       <c r="S131" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
     </row>
     <row r="132">
@@ -8959,16 +9010,16 @@
         <v>45717.0</v>
       </c>
       <c r="J132" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K132" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="L132" t="e">
         <v>#N/A</v>
       </c>
       <c r="M132" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="N132" t="e">
         <v>#N/A</v>
@@ -8977,16 +9028,16 @@
         <v>#N/A</v>
       </c>
       <c r="P132" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="Q132" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="R132" t="e">
         <v>#N/A</v>
       </c>
       <c r="S132" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
     </row>
     <row r="133">
@@ -9018,16 +9069,16 @@
         <v>45717.0</v>
       </c>
       <c r="J133" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K133" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="L133" t="e">
         <v>#N/A</v>
       </c>
       <c r="M133" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="N133" t="e">
         <v>#N/A</v>
@@ -9036,16 +9087,16 @@
         <v>#N/A</v>
       </c>
       <c r="P133" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="Q133" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="R133" t="e">
         <v>#N/A</v>
       </c>
       <c r="S133" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
     </row>
     <row r="134">
@@ -9077,16 +9128,16 @@
         <v>45528.0</v>
       </c>
       <c r="J134" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K134" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L134" t="n">
         <v>2.0</v>
       </c>
       <c r="M134" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="N134" t="n">
         <v>2.0</v>
@@ -9095,16 +9146,16 @@
         <v>15710.0</v>
       </c>
       <c r="P134" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q134" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="R134" t="e">
         <v>#N/A</v>
       </c>
       <c r="S134" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
     </row>
     <row r="135">
@@ -9136,16 +9187,16 @@
         <v>45528.0</v>
       </c>
       <c r="J135" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K135" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="L135" t="n">
         <v>2.0</v>
       </c>
       <c r="M135" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="N135" t="n">
         <v>0.0</v>
@@ -9154,16 +9205,16 @@
         <v>7806.0</v>
       </c>
       <c r="P135" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q135" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="R135" t="e">
         <v>#N/A</v>
       </c>
       <c r="S135" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
     </row>
     <row r="136">
@@ -9195,16 +9246,16 @@
         <v>45528.0</v>
       </c>
       <c r="J136" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K136" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="L136" t="n">
         <v>6.0</v>
       </c>
       <c r="M136" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="N136" t="n">
         <v>0.0</v>
@@ -9213,16 +9264,16 @@
         <v>48832.0</v>
       </c>
       <c r="P136" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q136" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="R136" t="e">
         <v>#N/A</v>
       </c>
       <c r="S136" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
     </row>
     <row r="137">
@@ -9254,16 +9305,16 @@
         <v>45529.0</v>
       </c>
       <c r="J137" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K137" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L137" t="n">
         <v>0.0</v>
       </c>
       <c r="M137" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="N137" t="n">
         <v>3.0</v>
@@ -9272,16 +9323,16 @@
         <v>6940.0</v>
       </c>
       <c r="P137" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q137" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="R137" t="e">
         <v>#N/A</v>
       </c>
       <c r="S137" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
     </row>
     <row r="138">
@@ -9313,16 +9364,16 @@
         <v>45529.0</v>
       </c>
       <c r="J138" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K138" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="L138" t="n">
         <v>2.0</v>
       </c>
       <c r="M138" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="N138" t="n">
         <v>0.0</v>
@@ -9331,16 +9382,16 @@
         <v>16146.0</v>
       </c>
       <c r="P138" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q138" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="R138" t="e">
         <v>#N/A</v>
       </c>
       <c r="S138" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
     </row>
     <row r="139">
@@ -9372,16 +9423,16 @@
         <v>45529.0</v>
       </c>
       <c r="J139" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K139" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="L139" t="n">
         <v>3.0</v>
       </c>
       <c r="M139" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="N139" t="n">
         <v>1.0</v>
@@ -9390,16 +9441,16 @@
         <v>6895.0</v>
       </c>
       <c r="P139" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q139" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="R139" t="e">
         <v>#N/A</v>
       </c>
       <c r="S139" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
     </row>
     <row r="140">
@@ -9431,16 +9482,16 @@
         <v>45731.0</v>
       </c>
       <c r="J140" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K140" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="L140" t="e">
         <v>#N/A</v>
       </c>
       <c r="M140" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="N140" t="e">
         <v>#N/A</v>
@@ -9449,16 +9500,16 @@
         <v>#N/A</v>
       </c>
       <c r="P140" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="Q140" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="R140" t="e">
         <v>#N/A</v>
       </c>
       <c r="S140" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
     </row>
     <row r="141">
@@ -9490,16 +9541,16 @@
         <v>45731.0</v>
       </c>
       <c r="J141" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K141" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="L141" t="e">
         <v>#N/A</v>
       </c>
       <c r="M141" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="N141" t="e">
         <v>#N/A</v>
@@ -9508,16 +9559,16 @@
         <v>#N/A</v>
       </c>
       <c r="P141" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="Q141" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="R141" t="e">
         <v>#N/A</v>
       </c>
       <c r="S141" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
     </row>
     <row r="142">
@@ -9549,16 +9600,16 @@
         <v>45731.0</v>
       </c>
       <c r="J142" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K142" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="L142" t="e">
         <v>#N/A</v>
       </c>
       <c r="M142" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="N142" t="e">
         <v>#N/A</v>
@@ -9567,16 +9618,16 @@
         <v>#N/A</v>
       </c>
       <c r="P142" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="Q142" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="R142" t="e">
         <v>#N/A</v>
       </c>
       <c r="S142" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
     </row>
     <row r="143">
@@ -9608,16 +9659,16 @@
         <v>45731.0</v>
       </c>
       <c r="J143" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K143" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="L143" t="e">
         <v>#N/A</v>
       </c>
       <c r="M143" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="N143" t="e">
         <v>#N/A</v>
@@ -9626,16 +9677,16 @@
         <v>#N/A</v>
       </c>
       <c r="P143" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="Q143" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="R143" t="e">
         <v>#N/A</v>
       </c>
       <c r="S143" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
     </row>
     <row r="144">
@@ -9667,16 +9718,16 @@
         <v>45731.0</v>
       </c>
       <c r="J144" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K144" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L144" t="e">
         <v>#N/A</v>
       </c>
       <c r="M144" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="N144" t="e">
         <v>#N/A</v>
@@ -9685,16 +9736,16 @@
         <v>#N/A</v>
       </c>
       <c r="P144" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="Q144" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="R144" t="e">
         <v>#N/A</v>
       </c>
       <c r="S144" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
     </row>
     <row r="145">
@@ -9726,16 +9777,16 @@
         <v>45731.0</v>
       </c>
       <c r="J145" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K145" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="L145" t="e">
         <v>#N/A</v>
       </c>
       <c r="M145" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="N145" t="e">
         <v>#N/A</v>
@@ -9744,16 +9795,16 @@
         <v>#N/A</v>
       </c>
       <c r="P145" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="Q145" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="R145" t="e">
         <v>#N/A</v>
       </c>
       <c r="S145" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
     </row>
     <row r="146">
@@ -9785,16 +9836,16 @@
         <v>45745.0</v>
       </c>
       <c r="J146" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K146" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L146" t="e">
         <v>#N/A</v>
       </c>
       <c r="M146" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="N146" t="e">
         <v>#N/A</v>
@@ -9803,16 +9854,16 @@
         <v>#N/A</v>
       </c>
       <c r="P146" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="Q146" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="R146" t="e">
         <v>#N/A</v>
       </c>
       <c r="S146" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
     </row>
     <row r="147">
@@ -9844,16 +9895,16 @@
         <v>45745.0</v>
       </c>
       <c r="J147" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K147" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="L147" t="e">
         <v>#N/A</v>
       </c>
       <c r="M147" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="N147" t="e">
         <v>#N/A</v>
@@ -9862,16 +9913,16 @@
         <v>#N/A</v>
       </c>
       <c r="P147" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="Q147" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="R147" t="e">
         <v>#N/A</v>
       </c>
       <c r="S147" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
     </row>
     <row r="148">
@@ -9903,16 +9954,16 @@
         <v>45745.0</v>
       </c>
       <c r="J148" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K148" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L148" t="e">
         <v>#N/A</v>
       </c>
       <c r="M148" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="N148" t="e">
         <v>#N/A</v>
@@ -9921,16 +9972,16 @@
         <v>#N/A</v>
       </c>
       <c r="P148" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="Q148" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="R148" t="e">
         <v>#N/A</v>
       </c>
       <c r="S148" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
     </row>
     <row r="149">
@@ -9962,16 +10013,16 @@
         <v>45745.0</v>
       </c>
       <c r="J149" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K149" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="L149" t="e">
         <v>#N/A</v>
       </c>
       <c r="M149" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="N149" t="e">
         <v>#N/A</v>
@@ -9980,16 +10031,16 @@
         <v>#N/A</v>
       </c>
       <c r="P149" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="Q149" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="R149" t="e">
         <v>#N/A</v>
       </c>
       <c r="S149" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
     </row>
     <row r="150">
@@ -10021,16 +10072,16 @@
         <v>45745.0</v>
       </c>
       <c r="J150" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K150" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="L150" t="e">
         <v>#N/A</v>
       </c>
       <c r="M150" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="N150" t="e">
         <v>#N/A</v>
@@ -10039,16 +10090,16 @@
         <v>#N/A</v>
       </c>
       <c r="P150" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="Q150" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="R150" t="e">
         <v>#N/A</v>
       </c>
       <c r="S150" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
     </row>
     <row r="151">
@@ -10080,16 +10131,16 @@
         <v>45745.0</v>
       </c>
       <c r="J151" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K151" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="L151" t="e">
         <v>#N/A</v>
       </c>
       <c r="M151" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="N151" t="e">
         <v>#N/A</v>
@@ -10098,16 +10149,16 @@
         <v>#N/A</v>
       </c>
       <c r="P151" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="Q151" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="R151" t="e">
         <v>#N/A</v>
       </c>
       <c r="S151" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
     </row>
     <row r="152">
@@ -10139,16 +10190,16 @@
         <v>45752.0</v>
       </c>
       <c r="J152" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K152" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="L152" t="e">
         <v>#N/A</v>
       </c>
       <c r="M152" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="N152" t="e">
         <v>#N/A</v>
@@ -10157,16 +10208,16 @@
         <v>#N/A</v>
       </c>
       <c r="P152" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="Q152" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="R152" t="e">
         <v>#N/A</v>
       </c>
       <c r="S152" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
     </row>
     <row r="153">
@@ -10198,16 +10249,16 @@
         <v>45752.0</v>
       </c>
       <c r="J153" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K153" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="L153" t="e">
         <v>#N/A</v>
       </c>
       <c r="M153" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="N153" t="e">
         <v>#N/A</v>
@@ -10216,16 +10267,16 @@
         <v>#N/A</v>
       </c>
       <c r="P153" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="Q153" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="R153" t="e">
         <v>#N/A</v>
       </c>
       <c r="S153" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
     </row>
     <row r="154">
@@ -10257,16 +10308,16 @@
         <v>45752.0</v>
       </c>
       <c r="J154" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K154" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="L154" t="e">
         <v>#N/A</v>
       </c>
       <c r="M154" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="N154" t="e">
         <v>#N/A</v>
@@ -10275,16 +10326,16 @@
         <v>#N/A</v>
       </c>
       <c r="P154" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="Q154" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="R154" t="e">
         <v>#N/A</v>
       </c>
       <c r="S154" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
     </row>
     <row r="155">
@@ -10316,16 +10367,16 @@
         <v>45752.0</v>
       </c>
       <c r="J155" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K155" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L155" t="e">
         <v>#N/A</v>
       </c>
       <c r="M155" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="N155" t="e">
         <v>#N/A</v>
@@ -10334,16 +10385,16 @@
         <v>#N/A</v>
       </c>
       <c r="P155" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="Q155" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="R155" t="e">
         <v>#N/A</v>
       </c>
       <c r="S155" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
     </row>
     <row r="156">
@@ -10375,16 +10426,16 @@
         <v>45752.0</v>
       </c>
       <c r="J156" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K156" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="L156" t="e">
         <v>#N/A</v>
       </c>
       <c r="M156" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="N156" t="e">
         <v>#N/A</v>
@@ -10393,16 +10444,16 @@
         <v>#N/A</v>
       </c>
       <c r="P156" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="Q156" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="R156" t="e">
         <v>#N/A</v>
       </c>
       <c r="S156" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
     </row>
     <row r="157">
@@ -10434,16 +10485,16 @@
         <v>45752.0</v>
       </c>
       <c r="J157" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K157" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="L157" t="e">
         <v>#N/A</v>
       </c>
       <c r="M157" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="N157" t="e">
         <v>#N/A</v>
@@ -10452,16 +10503,16 @@
         <v>#N/A</v>
       </c>
       <c r="P157" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="Q157" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="R157" t="e">
         <v>#N/A</v>
       </c>
       <c r="S157" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
     </row>
     <row r="158">
@@ -10493,16 +10544,16 @@
         <v>45759.0</v>
       </c>
       <c r="J158" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K158" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L158" t="e">
         <v>#N/A</v>
       </c>
       <c r="M158" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="N158" t="e">
         <v>#N/A</v>
@@ -10511,16 +10562,16 @@
         <v>#N/A</v>
       </c>
       <c r="P158" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="Q158" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="R158" t="e">
         <v>#N/A</v>
       </c>
       <c r="S158" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
     </row>
     <row r="159">
@@ -10552,16 +10603,16 @@
         <v>45759.0</v>
       </c>
       <c r="J159" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K159" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="L159" t="e">
         <v>#N/A</v>
       </c>
       <c r="M159" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="N159" t="e">
         <v>#N/A</v>
@@ -10570,16 +10621,16 @@
         <v>#N/A</v>
       </c>
       <c r="P159" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="Q159" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="R159" t="e">
         <v>#N/A</v>
       </c>
       <c r="S159" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
     </row>
     <row r="160">
@@ -10611,16 +10662,16 @@
         <v>45759.0</v>
       </c>
       <c r="J160" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K160" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="L160" t="e">
         <v>#N/A</v>
       </c>
       <c r="M160" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="N160" t="e">
         <v>#N/A</v>
@@ -10629,16 +10680,16 @@
         <v>#N/A</v>
       </c>
       <c r="P160" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="Q160" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="R160" t="e">
         <v>#N/A</v>
       </c>
       <c r="S160" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
     </row>
     <row r="161">
@@ -10670,16 +10721,16 @@
         <v>45759.0</v>
       </c>
       <c r="J161" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K161" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="L161" t="e">
         <v>#N/A</v>
       </c>
       <c r="M161" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="N161" t="e">
         <v>#N/A</v>
@@ -10688,16 +10739,16 @@
         <v>#N/A</v>
       </c>
       <c r="P161" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="Q161" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="R161" t="e">
         <v>#N/A</v>
       </c>
       <c r="S161" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
     </row>
     <row r="162">
@@ -10729,16 +10780,16 @@
         <v>45759.0</v>
       </c>
       <c r="J162" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K162" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="L162" t="e">
         <v>#N/A</v>
       </c>
       <c r="M162" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="N162" t="e">
         <v>#N/A</v>
@@ -10747,16 +10798,16 @@
         <v>#N/A</v>
       </c>
       <c r="P162" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="Q162" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="R162" t="e">
         <v>#N/A</v>
       </c>
       <c r="S162" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
     </row>
     <row r="163">
@@ -10788,16 +10839,16 @@
         <v>45759.0</v>
       </c>
       <c r="J163" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K163" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L163" t="e">
         <v>#N/A</v>
       </c>
       <c r="M163" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="N163" t="e">
         <v>#N/A</v>
@@ -10806,16 +10857,16 @@
         <v>#N/A</v>
       </c>
       <c r="P163" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="Q163" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="R163" t="e">
         <v>#N/A</v>
       </c>
       <c r="S163" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
     </row>
     <row r="164">
@@ -10847,16 +10898,16 @@
         <v>45535.0</v>
       </c>
       <c r="J164" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K164" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="L164" t="n">
         <v>2.0</v>
       </c>
       <c r="M164" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="N164" t="n">
         <v>2.0</v>
@@ -10865,16 +10916,16 @@
         <v>5779.0</v>
       </c>
       <c r="P164" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q164" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="R164" t="e">
         <v>#N/A</v>
       </c>
       <c r="S164" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
     </row>
     <row r="165">
@@ -10906,16 +10957,16 @@
         <v>45535.0</v>
       </c>
       <c r="J165" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K165" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="L165" t="n">
         <v>1.0</v>
       </c>
       <c r="M165" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="N165" t="n">
         <v>2.0</v>
@@ -10924,16 +10975,16 @@
         <v>#N/A</v>
       </c>
       <c r="P165" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q165" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="R165" t="e">
         <v>#N/A</v>
       </c>
       <c r="S165" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
     </row>
     <row r="166">
@@ -10965,16 +11016,16 @@
         <v>45535.0</v>
       </c>
       <c r="J166" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K166" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="L166" t="n">
         <v>0.0</v>
       </c>
       <c r="M166" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="N166" t="n">
         <v>1.0</v>
@@ -10983,16 +11034,16 @@
         <v>5480.0</v>
       </c>
       <c r="P166" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q166" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="R166" t="e">
         <v>#N/A</v>
       </c>
       <c r="S166" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
     </row>
     <row r="167">
@@ -11024,16 +11075,16 @@
         <v>45536.0</v>
       </c>
       <c r="J167" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K167" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="L167" t="n">
         <v>3.0</v>
       </c>
       <c r="M167" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="N167" t="n">
         <v>0.0</v>
@@ -11042,16 +11093,16 @@
         <v>59612.0</v>
       </c>
       <c r="P167" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q167" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="R167" t="e">
         <v>#N/A</v>
       </c>
       <c r="S167" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
     </row>
     <row r="168">
@@ -11083,16 +11134,16 @@
         <v>45536.0</v>
       </c>
       <c r="J168" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K168" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L168" t="n">
         <v>0.0</v>
       </c>
       <c r="M168" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="N168" t="n">
         <v>1.0</v>
@@ -11101,16 +11152,16 @@
         <v>#N/A</v>
       </c>
       <c r="P168" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q168" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="R168" t="e">
         <v>#N/A</v>
       </c>
       <c r="S168" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
     </row>
     <row r="169">
@@ -11142,16 +11193,16 @@
         <v>45536.0</v>
       </c>
       <c r="J169" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K169" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="L169" t="n">
         <v>1.0</v>
       </c>
       <c r="M169" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="N169" t="n">
         <v>1.0</v>
@@ -11160,16 +11211,16 @@
         <v>7763.0</v>
       </c>
       <c r="P169" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q169" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="R169" t="e">
         <v>#N/A</v>
       </c>
       <c r="S169" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
     </row>
     <row r="170">
@@ -11201,16 +11252,16 @@
         <v>45549.0</v>
       </c>
       <c r="J170" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K170" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L170" t="n">
         <v>2.0</v>
       </c>
       <c r="M170" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="N170" t="n">
         <v>2.0</v>
@@ -11219,16 +11270,16 @@
         <v>6957.0</v>
       </c>
       <c r="P170" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q170" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="R170" t="e">
         <v>#N/A</v>
       </c>
       <c r="S170" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
     </row>
     <row r="171">
@@ -11260,16 +11311,16 @@
         <v>45549.0</v>
       </c>
       <c r="J171" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K171" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="L171" t="n">
         <v>2.0</v>
       </c>
       <c r="M171" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="N171" t="n">
         <v>1.0</v>
@@ -11278,16 +11329,16 @@
         <v>17155.0</v>
       </c>
       <c r="P171" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q171" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="R171" t="e">
         <v>#N/A</v>
       </c>
       <c r="S171" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
     </row>
     <row r="172">
@@ -11319,16 +11370,16 @@
         <v>45549.0</v>
       </c>
       <c r="J172" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K172" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="L172" t="n">
         <v>2.0</v>
       </c>
       <c r="M172" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="N172" t="n">
         <v>0.0</v>
@@ -11337,16 +11388,16 @@
         <v>4068.0</v>
       </c>
       <c r="P172" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q172" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="R172" t="e">
         <v>#N/A</v>
       </c>
       <c r="S172" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
     </row>
     <row r="173">
@@ -11378,16 +11429,16 @@
         <v>45549.0</v>
       </c>
       <c r="J173" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K173" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L173" t="n">
         <v>2.0</v>
       </c>
       <c r="M173" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="N173" t="n">
         <v>0.0</v>
@@ -11396,16 +11447,16 @@
         <v>15448.0</v>
       </c>
       <c r="P173" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q173" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="R173" t="e">
         <v>#N/A</v>
       </c>
       <c r="S173" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
     </row>
     <row r="174">
@@ -11437,16 +11488,16 @@
         <v>45549.0</v>
       </c>
       <c r="J174" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K174" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="L174" t="n">
         <v>2.0</v>
       </c>
       <c r="M174" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="N174" t="n">
         <v>0.0</v>
@@ -11455,16 +11506,16 @@
         <v>#N/A</v>
       </c>
       <c r="P174" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q174" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="R174" t="e">
         <v>#N/A</v>
       </c>
       <c r="S174" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
     </row>
     <row r="175">
@@ -11496,16 +11547,16 @@
         <v>45550.0</v>
       </c>
       <c r="J175" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K175" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="L175" t="n">
         <v>0.0</v>
       </c>
       <c r="M175" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="N175" t="n">
         <v>1.0</v>
@@ -11514,16 +11565,16 @@
         <v>#N/A</v>
       </c>
       <c r="P175" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q175" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="R175" t="e">
         <v>#N/A</v>
       </c>
       <c r="S175" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
     </row>
     <row r="176">
@@ -11555,16 +11606,16 @@
         <v>45563.0</v>
       </c>
       <c r="J176" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K176" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L176" t="n">
         <v>1.0</v>
       </c>
       <c r="M176" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="N176" t="n">
         <v>1.0</v>
@@ -11573,16 +11624,16 @@
         <v>18399.0</v>
       </c>
       <c r="P176" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q176" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="R176" t="e">
         <v>#N/A</v>
       </c>
       <c r="S176" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
     </row>
     <row r="177">
@@ -11614,16 +11665,16 @@
         <v>45563.0</v>
       </c>
       <c r="J177" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K177" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="L177" t="n">
         <v>3.0</v>
       </c>
       <c r="M177" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="N177" t="n">
         <v>3.0</v>
@@ -11632,16 +11683,16 @@
         <v>6257.0</v>
       </c>
       <c r="P177" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q177" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="R177" t="e">
         <v>#N/A</v>
       </c>
       <c r="S177" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
     </row>
     <row r="178">
@@ -11673,16 +11724,16 @@
         <v>45563.0</v>
       </c>
       <c r="J178" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K178" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="L178" t="n">
         <v>2.0</v>
       </c>
       <c r="M178" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="N178" t="n">
         <v>1.0</v>
@@ -11691,16 +11742,16 @@
         <v>#N/A</v>
       </c>
       <c r="P178" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q178" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="R178" t="e">
         <v>#N/A</v>
       </c>
       <c r="S178" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
     </row>
     <row r="179">
@@ -11732,16 +11783,16 @@
         <v>45563.0</v>
       </c>
       <c r="J179" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K179" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="L179" t="n">
         <v>1.0</v>
       </c>
       <c r="M179" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="N179" t="n">
         <v>2.0</v>
@@ -11750,16 +11801,16 @@
         <v>9030.0</v>
       </c>
       <c r="P179" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q179" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="R179" t="e">
         <v>#N/A</v>
       </c>
       <c r="S179" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
     </row>
     <row r="180">
@@ -11791,16 +11842,16 @@
         <v>45563.0</v>
       </c>
       <c r="J180" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K180" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="L180" t="n">
         <v>0.0</v>
       </c>
       <c r="M180" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="N180" t="n">
         <v>6.0</v>
@@ -11809,16 +11860,16 @@
         <v>7036.0</v>
       </c>
       <c r="P180" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q180" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="R180" t="e">
         <v>#N/A</v>
       </c>
       <c r="S180" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
     </row>
     <row r="181">
@@ -11850,16 +11901,16 @@
         <v>45564.0</v>
       </c>
       <c r="J181" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K181" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="L181" t="n">
         <v>1.0</v>
       </c>
       <c r="M181" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="N181" t="n">
         <v>0.0</v>
@@ -11868,16 +11919,16 @@
         <v>48217.0</v>
       </c>
       <c r="P181" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q181" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="R181" t="e">
         <v>#N/A</v>
       </c>
       <c r="S181" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
     </row>
     <row r="182">
@@ -11909,34 +11960,34 @@
         <v>45570.0</v>
       </c>
       <c r="J182" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K182" t="s">
-        <v>239</v>
-      </c>
-      <c r="L182" t="e">
-        <v>#N/A</v>
+        <v>241</v>
+      </c>
+      <c r="L182" t="n">
+        <v>0.0</v>
       </c>
       <c r="M182" t="s">
-        <v>238</v>
-      </c>
-      <c r="N182" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O182" t="e">
-        <v>#N/A</v>
+        <v>240</v>
+      </c>
+      <c r="N182" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O182" t="n">
+        <v>17106.0</v>
       </c>
       <c r="P182" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q182" t="s">
-        <v>261</v>
+        <v>276</v>
       </c>
       <c r="R182" t="e">
         <v>#N/A</v>
       </c>
       <c r="S182" t="s">
-        <v>308</v>
+        <v>384</v>
       </c>
     </row>
     <row r="183">
@@ -11968,34 +12019,34 @@
         <v>45570.0</v>
       </c>
       <c r="J183" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K183" t="s">
-        <v>244</v>
-      </c>
-      <c r="L183" t="e">
-        <v>#N/A</v>
+        <v>246</v>
+      </c>
+      <c r="L183" t="n">
+        <v>1.0</v>
       </c>
       <c r="M183" t="s">
-        <v>237</v>
-      </c>
-      <c r="N183" t="e">
-        <v>#N/A</v>
+        <v>239</v>
+      </c>
+      <c r="N183" t="n">
+        <v>2.0</v>
       </c>
       <c r="O183" t="e">
         <v>#N/A</v>
       </c>
       <c r="P183" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q183" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="R183" t="e">
         <v>#N/A</v>
       </c>
       <c r="S183" t="s">
-        <v>307</v>
+        <v>385</v>
       </c>
     </row>
     <row r="184">
@@ -12027,34 +12078,34 @@
         <v>45570.0</v>
       </c>
       <c r="J184" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K184" t="s">
-        <v>246</v>
-      </c>
-      <c r="L184" t="e">
-        <v>#N/A</v>
+        <v>248</v>
+      </c>
+      <c r="L184" t="n">
+        <v>2.0</v>
       </c>
       <c r="M184" t="s">
-        <v>245</v>
-      </c>
-      <c r="N184" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O184" t="e">
-        <v>#N/A</v>
+        <v>247</v>
+      </c>
+      <c r="N184" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O184" t="n">
+        <v>5316.0</v>
       </c>
       <c r="P184" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q184" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="R184" t="e">
         <v>#N/A</v>
       </c>
       <c r="S184" t="s">
-        <v>305</v>
+        <v>386</v>
       </c>
     </row>
     <row r="185">
@@ -12086,34 +12137,34 @@
         <v>45571.0</v>
       </c>
       <c r="J185" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K185" t="s">
+        <v>244</v>
+      </c>
+      <c r="L185" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M185" t="s">
         <v>242</v>
       </c>
-      <c r="L185" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M185" t="s">
-        <v>240</v>
-      </c>
-      <c r="N185" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O185" t="e">
-        <v>#N/A</v>
+      <c r="N185" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="O185" t="n">
+        <v>6372.0</v>
       </c>
       <c r="P185" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q185" t="s">
-        <v>261</v>
+        <v>277</v>
       </c>
       <c r="R185" t="e">
         <v>#N/A</v>
       </c>
       <c r="S185" t="s">
-        <v>306</v>
+        <v>387</v>
       </c>
     </row>
     <row r="186">
@@ -12145,34 +12196,34 @@
         <v>45571.0</v>
       </c>
       <c r="J186" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K186" t="s">
-        <v>243</v>
-      </c>
-      <c r="L186" t="e">
-        <v>#N/A</v>
+        <v>245</v>
+      </c>
+      <c r="L186" t="n">
+        <v>3.0</v>
       </c>
       <c r="M186" t="s">
-        <v>236</v>
-      </c>
-      <c r="N186" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O186" t="e">
-        <v>#N/A</v>
+        <v>238</v>
+      </c>
+      <c r="N186" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="O186" t="n">
+        <v>19175.0</v>
       </c>
       <c r="P186" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q186" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="R186" t="e">
         <v>#N/A</v>
       </c>
       <c r="S186" t="s">
-        <v>310</v>
+        <v>388</v>
       </c>
     </row>
     <row r="187">
@@ -12204,34 +12255,34 @@
         <v>45571.0</v>
       </c>
       <c r="J187" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K187" t="s">
-        <v>247</v>
-      </c>
-      <c r="L187" t="e">
-        <v>#N/A</v>
+        <v>249</v>
+      </c>
+      <c r="L187" t="n">
+        <v>2.0</v>
       </c>
       <c r="M187" t="s">
-        <v>241</v>
-      </c>
-      <c r="N187" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O187" t="e">
-        <v>#N/A</v>
+        <v>243</v>
+      </c>
+      <c r="N187" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O187" t="n">
+        <v>44744.0</v>
       </c>
       <c r="P187" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q187" t="s">
-        <v>261</v>
+        <v>278</v>
       </c>
       <c r="R187" t="e">
         <v>#N/A</v>
       </c>
       <c r="S187" t="s">
-        <v>309</v>
+        <v>389</v>
       </c>
     </row>
     <row r="188">
@@ -12263,34 +12314,34 @@
         <v>45584.0</v>
       </c>
       <c r="J188" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K188" t="s">
-        <v>237</v>
-      </c>
-      <c r="L188" t="e">
-        <v>#N/A</v>
+        <v>239</v>
+      </c>
+      <c r="L188" t="n">
+        <v>0.0</v>
       </c>
       <c r="M188" t="s">
-        <v>246</v>
-      </c>
-      <c r="N188" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O188" t="e">
-        <v>#N/A</v>
+        <v>248</v>
+      </c>
+      <c r="N188" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O188" t="n">
+        <v>5084.0</v>
       </c>
       <c r="P188" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q188" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="R188" t="e">
         <v>#N/A</v>
       </c>
       <c r="S188" t="s">
-        <v>314</v>
+        <v>390</v>
       </c>
     </row>
     <row r="189">
@@ -12322,34 +12373,34 @@
         <v>45584.0</v>
       </c>
       <c r="J189" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K189" t="s">
-        <v>241</v>
-      </c>
-      <c r="L189" t="e">
-        <v>#N/A</v>
+        <v>243</v>
+      </c>
+      <c r="L189" t="n">
+        <v>3.0</v>
       </c>
       <c r="M189" t="s">
-        <v>242</v>
-      </c>
-      <c r="N189" t="e">
-        <v>#N/A</v>
+        <v>244</v>
+      </c>
+      <c r="N189" t="n">
+        <v>0.0</v>
       </c>
       <c r="O189" t="e">
         <v>#N/A</v>
       </c>
       <c r="P189" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q189" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="R189" t="e">
         <v>#N/A</v>
       </c>
       <c r="S189" t="s">
-        <v>354</v>
+        <v>391</v>
       </c>
     </row>
     <row r="190">
@@ -12381,34 +12432,34 @@
         <v>45584.0</v>
       </c>
       <c r="J190" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K190" t="s">
-        <v>236</v>
-      </c>
-      <c r="L190" t="e">
-        <v>#N/A</v>
+        <v>238</v>
+      </c>
+      <c r="L190" t="n">
+        <v>4.0</v>
       </c>
       <c r="M190" t="s">
-        <v>239</v>
-      </c>
-      <c r="N190" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O190" t="e">
-        <v>#N/A</v>
+        <v>241</v>
+      </c>
+      <c r="N190" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O190" t="n">
+        <v>18757.0</v>
       </c>
       <c r="P190" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q190" t="s">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="R190" t="e">
         <v>#N/A</v>
       </c>
       <c r="S190" t="s">
-        <v>353</v>
+        <v>392</v>
       </c>
     </row>
     <row r="191">
@@ -12440,34 +12491,34 @@
         <v>45584.0</v>
       </c>
       <c r="J191" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K191" t="s">
-        <v>240</v>
-      </c>
-      <c r="L191" t="e">
-        <v>#N/A</v>
+        <v>242</v>
+      </c>
+      <c r="L191" t="n">
+        <v>2.0</v>
       </c>
       <c r="M191" t="s">
-        <v>243</v>
-      </c>
-      <c r="N191" t="e">
-        <v>#N/A</v>
+        <v>245</v>
+      </c>
+      <c r="N191" t="n">
+        <v>2.0</v>
       </c>
       <c r="O191" t="e">
         <v>#N/A</v>
       </c>
       <c r="P191" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q191" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="R191" t="e">
         <v>#N/A</v>
       </c>
       <c r="S191" t="s">
-        <v>316</v>
+        <v>393</v>
       </c>
     </row>
     <row r="192">
@@ -12499,34 +12550,34 @@
         <v>45584.0</v>
       </c>
       <c r="J192" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K192" t="s">
-        <v>238</v>
-      </c>
-      <c r="L192" t="e">
-        <v>#N/A</v>
+        <v>240</v>
+      </c>
+      <c r="L192" t="n">
+        <v>3.0</v>
       </c>
       <c r="M192" t="s">
-        <v>244</v>
-      </c>
-      <c r="N192" t="e">
-        <v>#N/A</v>
+        <v>246</v>
+      </c>
+      <c r="N192" t="n">
+        <v>2.0</v>
       </c>
       <c r="O192" t="e">
         <v>#N/A</v>
       </c>
       <c r="P192" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q192" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="R192" t="e">
         <v>#N/A</v>
       </c>
       <c r="S192" t="s">
-        <v>313</v>
+        <v>394</v>
       </c>
     </row>
     <row r="193">
@@ -12558,34 +12609,34 @@
         <v>45585.0</v>
       </c>
       <c r="J193" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K193" t="s">
-        <v>245</v>
-      </c>
-      <c r="L193" t="e">
-        <v>#N/A</v>
+        <v>247</v>
+      </c>
+      <c r="L193" t="n">
+        <v>1.0</v>
       </c>
       <c r="M193" t="s">
-        <v>247</v>
-      </c>
-      <c r="N193" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O193" t="e">
-        <v>#N/A</v>
+        <v>249</v>
+      </c>
+      <c r="N193" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O193" t="n">
+        <v>8924.0</v>
       </c>
       <c r="P193" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q193" t="s">
-        <v>261</v>
+        <v>279</v>
       </c>
       <c r="R193" t="e">
         <v>#N/A</v>
       </c>
       <c r="S193" t="s">
-        <v>315</v>
+        <v>395</v>
       </c>
     </row>
     <row r="194">
@@ -12617,16 +12668,16 @@
         <v>45591.0</v>
       </c>
       <c r="J194" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K194" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="L194" t="e">
         <v>#N/A</v>
       </c>
       <c r="M194" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="N194" t="e">
         <v>#N/A</v>
@@ -12635,16 +12686,16 @@
         <v>#N/A</v>
       </c>
       <c r="P194" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q194" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="R194" t="e">
         <v>#N/A</v>
       </c>
       <c r="S194" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
     </row>
     <row r="195">
@@ -12676,16 +12727,16 @@
         <v>45591.0</v>
       </c>
       <c r="J195" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K195" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="L195" t="e">
         <v>#N/A</v>
       </c>
       <c r="M195" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="N195" t="e">
         <v>#N/A</v>
@@ -12694,16 +12745,16 @@
         <v>#N/A</v>
       </c>
       <c r="P195" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q195" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="R195" t="e">
         <v>#N/A</v>
       </c>
       <c r="S195" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
     </row>
     <row r="196">
@@ -12735,16 +12786,16 @@
         <v>45591.0</v>
       </c>
       <c r="J196" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="K196" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="L196" t="e">
         <v>#N/A</v>
       </c>
       <c r="M196" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="N196" t="e">
         <v>#N/A</v>
@@ -12753,16 +12804,16 @@
         <v>#N/A</v>
       </c>
       <c r="P196" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q196" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="R196" t="e">
         <v>#N/A</v>
       </c>
       <c r="S196" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
     </row>
     <row r="197">
@@ -12794,16 +12845,16 @@
         <v>45592.0</v>
       </c>
       <c r="J197" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K197" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L197" t="e">
         <v>#N/A</v>
       </c>
       <c r="M197" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="N197" t="e">
         <v>#N/A</v>
@@ -12812,16 +12863,16 @@
         <v>#N/A</v>
       </c>
       <c r="P197" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q197" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="R197" t="e">
         <v>#N/A</v>
       </c>
       <c r="S197" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
     </row>
     <row r="198">
@@ -12853,16 +12904,16 @@
         <v>45592.0</v>
       </c>
       <c r="J198" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K198" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="L198" t="e">
         <v>#N/A</v>
       </c>
       <c r="M198" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="N198" t="e">
         <v>#N/A</v>
@@ -12871,16 +12922,16 @@
         <v>#N/A</v>
       </c>
       <c r="P198" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q198" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="R198" t="e">
         <v>#N/A</v>
       </c>
       <c r="S198" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
     </row>
     <row r="199">
@@ -12912,16 +12963,16 @@
         <v>45592.0</v>
       </c>
       <c r="J199" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K199" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="L199" t="e">
         <v>#N/A</v>
       </c>
       <c r="M199" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="N199" t="e">
         <v>#N/A</v>
@@ -12930,16 +12981,16 @@
         <v>#N/A</v>
       </c>
       <c r="P199" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q199" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="R199" t="e">
         <v>#N/A</v>
       </c>
       <c r="S199" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
     </row>
   </sheetData>

--- a/sc0_match_results.xlsx
+++ b/sc0_match_results.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2394" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2394" uniqueCount="412">
   <si>
     <t>Competition_Name</t>
   </si>
@@ -803,24 +803,39 @@
     <t>Hampden Park</t>
   </si>
   <si>
+    <t>Euan Anderson</t>
+  </si>
+  <si>
+    <t>Ross Hardie</t>
+  </si>
+  <si>
+    <t>Grant Irvine</t>
+  </si>
+  <si>
+    <t>Steven McLean</t>
+  </si>
+  <si>
+    <t>Lloyd Wilson</t>
+  </si>
+  <si>
+    <t>John Beaton</t>
+  </si>
+  <si>
+    <t>Chris Graham</t>
+  </si>
+  <si>
+    <t>Don Robertson</t>
+  </si>
+  <si>
     <t>Dan McFarlane</t>
   </si>
   <si>
-    <t>Don Robertson</t>
-  </si>
-  <si>
-    <t>Lloyd Wilson</t>
+    <t>Colin Steven</t>
   </si>
   <si>
     <t>Iain Snedden</t>
   </si>
   <si>
-    <t>Euan Anderson</t>
-  </si>
-  <si>
-    <t>John Beaton</t>
-  </si>
-  <si>
     <t>Nick Walsh</t>
   </si>
   <si>
@@ -830,30 +845,15 @@
     <t>Matthew MacDermid</t>
   </si>
   <si>
-    <t>Chris Graham</t>
-  </si>
-  <si>
-    <t>Grant Irvine</t>
-  </si>
-  <si>
-    <t>Colin Steven</t>
-  </si>
-  <si>
     <t>Craig Napier</t>
   </si>
   <si>
-    <t>Ross Hardie</t>
-  </si>
-  <si>
     <t>Kevin Clancy</t>
   </si>
   <si>
     <t>David Dickinson</t>
   </si>
   <si>
-    <t>Steven McLean</t>
-  </si>
-  <si>
     <t>https://fbref.com/en/matches/2c1a3b4f/Heart-of-Midlothian-Rangers-August-3-2024-Scottish-Premiership</t>
   </si>
   <si>
@@ -872,228 +872,258 @@
     <t>https://fbref.com/en/matches/e6554fa2/St-Johnstone-Aberdeen-August-5-2024-Scottish-Premiership</t>
   </si>
   <si>
+    <t>https://fbref.com/en/matches/243c9ff0/Heart-of-Midlothian-Kilmarnock-October-30-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/5e06d4fa/Celtic-Dundee-October-30-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/9066db1d/Ross-County-Hibernian-October-30-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/b8e6969e/St-Mirren-St-Johnstone-October-30-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/fb394c66/Dundee-United-Motherwell-October-30-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/2bc330fa/Aberdeen-Rangers-October-30-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/8bbb8de8/St-Johnstone-Heart-of-Midlothian-November-2-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/a4bf38d9/St-Mirren-Ross-County-November-2-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/f3aacc58/8bbab7cf/Hibernian-vs-Aberdeen-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/9d04848a/25f1fd26/Motherwell-vs-Kilmarnock-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e986ece7/b81aa4fa/Dundee-United-vs-Celtic-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/86b7acd2/00032902/Rangers-vs-Dundee-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/dd289621/9d04848a/St-Johnstone-vs-Motherwell-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e986ece7/a5298e9f/Dundee-United-vs-Ross-County-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/f3aacc58/3568ad4c/Hibernian-vs-St-Mirren-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/8bbab7cf/00032902/Aberdeen-vs-Dundee-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/b81aa4fa/25f1fd26/Celtic-vs-Kilmarnock-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/86b7acd2/7c77b0bc/Rangers-vs-Heart-of-Midlothian-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/8bbab7cf/3568ad4c/Aberdeen-vs-St-Mirren-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e986ece7/86b7acd2/Dundee-United-vs-Rangers-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/dd289621/25f1fd26/St-Johnstone-vs-Kilmarnock-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/a5298e9f/9d04848a/Ross-County-vs-Motherwell-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/f3aacc58/00032902/Hibernian-vs-Dundee-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/b81aa4fa/7c77b0bc/Celtic-vs-Heart-of-Midlothian-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/25f1fd26/00032902/Kilmarnock-vs-Dundee-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/b81aa4fa/a5298e9f/Celtic-vs-Ross-County-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/f3aacc58/9d04848a/Hibernian-vs-Motherwell-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e986ece7/3568ad4c/Dundee-United-vs-St-Mirren-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/dd289621/86b7acd2/St-Johnstone-vs-Rangers-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/8bbab7cf/7c77b0bc/Aberdeen-vs-Heart-of-Midlothian-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/c7993ddd/Ross-County-St-Johnstone-September-21-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/eca23e74/St-Mirren-Heart-of-Midlothian-September-21-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/836d1bf4/Hibernian-Dundee-United-November-3-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/9d04848a/00032902/Motherwell-vs-Dundee-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/86b7acd2/25f1fd26/Rangers-vs-Kilmarnock-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/b81aa4fa/8bbab7cf/Celtic-vs-Aberdeen-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/7c77b0bc/00032902/Heart-of-Midlothian-vs-Dundee-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e986ece7/25f1fd26/Dundee-United-vs-Kilmarnock-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/9d04848a/3568ad4c/Motherwell-vs-St-Mirren-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/dd289621/8bbab7cf/St-Johnstone-vs-Aberdeen-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/f3aacc58/b81aa4fa/Hibernian-vs-Celtic-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/a5298e9f/86b7acd2/Ross-County-vs-Rangers-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/dd289621/3568ad4c/St-Johnstone-vs-St-Mirren-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/b81aa4fa/00032902/Celtic-vs-Dundee-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/f3aacc58/a5298e9f/Hibernian-vs-Ross-County-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e986ece7/9d04848a/Dundee-United-vs-Motherwell-History</t>
+  </si>
+  <si>
     <t>https://fbref.com/en/stathead/matchup/teams/7c77b0bc/25f1fd26/Heart-of-Midlothian-vs-Kilmarnock-History</t>
   </si>
   <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/b81aa4fa/00032902/Celtic-vs-Dundee-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/f3aacc58/a5298e9f/Hibernian-vs-Ross-County-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/dd289621/3568ad4c/St-Johnstone-vs-St-Mirren-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e986ece7/9d04848a/Dundee-United-vs-Motherwell-History</t>
-  </si>
-  <si>
     <t>https://fbref.com/en/stathead/matchup/teams/8bbab7cf/86b7acd2/Aberdeen-vs-Rangers-History</t>
   </si>
   <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/a5298e9f/3568ad4c/Ross-County-vs-St-Mirren-History</t>
+  </si>
+  <si>
     <t>https://fbref.com/en/stathead/matchup/teams/dd289621/7c77b0bc/St-Johnstone-vs-Heart-of-Midlothian-History</t>
   </si>
   <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/a5298e9f/3568ad4c/Ross-County-vs-St-Mirren-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/f3aacc58/8bbab7cf/Hibernian-vs-Aberdeen-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/9d04848a/25f1fd26/Motherwell-vs-Kilmarnock-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e986ece7/b81aa4fa/Dundee-United-vs-Celtic-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/86b7acd2/00032902/Rangers-vs-Dundee-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/dd289621/9d04848a/St-Johnstone-vs-Motherwell-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e986ece7/a5298e9f/Dundee-United-vs-Ross-County-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/f3aacc58/3568ad4c/Hibernian-vs-St-Mirren-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/8bbab7cf/00032902/Aberdeen-vs-Dundee-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/b81aa4fa/25f1fd26/Celtic-vs-Kilmarnock-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/86b7acd2/7c77b0bc/Rangers-vs-Heart-of-Midlothian-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/8bbab7cf/3568ad4c/Aberdeen-vs-St-Mirren-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e986ece7/86b7acd2/Dundee-United-vs-Rangers-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/dd289621/25f1fd26/St-Johnstone-vs-Kilmarnock-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/a5298e9f/9d04848a/Ross-County-vs-Motherwell-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/f3aacc58/00032902/Hibernian-vs-Dundee-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/b81aa4fa/7c77b0bc/Celtic-vs-Heart-of-Midlothian-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/25f1fd26/00032902/Kilmarnock-vs-Dundee-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/b81aa4fa/a5298e9f/Celtic-vs-Ross-County-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/f3aacc58/9d04848a/Hibernian-vs-Motherwell-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e986ece7/3568ad4c/Dundee-United-vs-St-Mirren-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/dd289621/86b7acd2/St-Johnstone-vs-Rangers-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/8bbab7cf/7c77b0bc/Aberdeen-vs-Heart-of-Midlothian-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/c7993ddd/Ross-County-St-Johnstone-September-21-2024-Scottish-Premiership</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/eca23e74/St-Mirren-Heart-of-Midlothian-September-21-2024-Scottish-Premiership</t>
+    <t>https://fbref.com/en/stathead/matchup/teams/f3aacc58/7c77b0bc/Hibernian-vs-Heart-of-Midlothian-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e986ece7/dd289621/Dundee-United-vs-St-Johnstone-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/8bbab7cf/25f1fd26/Aberdeen-vs-Kilmarnock-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/b81aa4fa/9d04848a/Celtic-vs-Motherwell-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/a5298e9f/00032902/Ross-County-vs-Dundee-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/86b7acd2/3568ad4c/Rangers-vs-St-Mirren-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/3f458af7/Ross-County-Dundee-United-August-10-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/786d4564/Rangers-Motherwell-August-10-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/87de27b0/Dundee-Heart-of-Midlothian-August-10-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/efe8de9a/Hibernian-Celtic-August-11-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/84bfadff/Kilmarnock-St-Johnstone-August-11-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/bc2858bb/Aberdeen-St-Mirren-August-11-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/dd289621/b81aa4fa/St-Johnstone-vs-Celtic-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/3568ad4c/00032902/St-Mirren-vs-Dundee-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/a5298e9f/7c77b0bc/Ross-County-vs-Heart-of-Midlothian-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/9d04848a/86b7acd2/Motherwell-vs-Rangers-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/f3aacc58/25f1fd26/Hibernian-vs-Kilmarnock-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e986ece7/8bbab7cf/Dundee-United-vs-Aberdeen-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/b81aa4fa/86b7acd2/Old-Firm-Derby-Celtic-vs-Rangers-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/f3aacc58/dd289621/Hibernian-vs-St-Johnstone-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/9d04848a/7c77b0bc/Motherwell-vs-Heart-of-Midlothian-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/a5298e9f/8bbab7cf/Ross-County-vs-Aberdeen-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/3568ad4c/25f1fd26/St-Mirren-vs-Kilmarnock-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e986ece7/00032902/Dundee-United-vs-Dundee-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/b81aa4fa/3568ad4c/Celtic-vs-St-Mirren-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e986ece7/7c77b0bc/Dundee-United-vs-Heart-of-Midlothian-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/dd289621/00032902/St-Johnstone-vs-Dundee-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/9d04848a/8bbab7cf/Motherwell-vs-Aberdeen-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/f3aacc58/86b7acd2/Hibernian-vs-Rangers-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/a5298e9f/25f1fd26/Ross-County-vs-Kilmarnock-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/c1b32f12/Dundee-Kilmarnock-November-3-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/7c77b0bc/3568ad4c/Heart-of-Midlothian-vs-St-Mirren-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/dd289621/a5298e9f/St-Johnstone-vs-Ross-County-History</t>
   </si>
   <si>
     <t>https://fbref.com/en/stathead/matchup/teams/f3aacc58/e986ece7/Hibernian-vs-Dundee-United-History</t>
   </si>
   <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/9d04848a/00032902/Motherwell-vs-Dundee-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/86b7acd2/25f1fd26/Rangers-vs-Kilmarnock-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/b81aa4fa/8bbab7cf/Celtic-vs-Aberdeen-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/7c77b0bc/00032902/Heart-of-Midlothian-vs-Dundee-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e986ece7/25f1fd26/Dundee-United-vs-Kilmarnock-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/9d04848a/3568ad4c/Motherwell-vs-St-Mirren-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/dd289621/8bbab7cf/St-Johnstone-vs-Aberdeen-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/f3aacc58/b81aa4fa/Hibernian-vs-Celtic-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/a5298e9f/86b7acd2/Ross-County-vs-Rangers-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/f3aacc58/7c77b0bc/Hibernian-vs-Heart-of-Midlothian-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e986ece7/dd289621/Dundee-United-vs-St-Johnstone-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/8bbab7cf/25f1fd26/Aberdeen-vs-Kilmarnock-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/b81aa4fa/9d04848a/Celtic-vs-Motherwell-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/a5298e9f/00032902/Ross-County-vs-Dundee-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/86b7acd2/3568ad4c/Rangers-vs-St-Mirren-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/3f458af7/Ross-County-Dundee-United-August-10-2024-Scottish-Premiership</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/786d4564/Rangers-Motherwell-August-10-2024-Scottish-Premiership</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/87de27b0/Dundee-Heart-of-Midlothian-August-10-2024-Scottish-Premiership</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/efe8de9a/Hibernian-Celtic-August-11-2024-Scottish-Premiership</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/84bfadff/Kilmarnock-St-Johnstone-August-11-2024-Scottish-Premiership</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/bc2858bb/Aberdeen-St-Mirren-August-11-2024-Scottish-Premiership</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/dd289621/b81aa4fa/St-Johnstone-vs-Celtic-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/3568ad4c/00032902/St-Mirren-vs-Dundee-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/a5298e9f/7c77b0bc/Ross-County-vs-Heart-of-Midlothian-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/9d04848a/86b7acd2/Motherwell-vs-Rangers-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/f3aacc58/25f1fd26/Hibernian-vs-Kilmarnock-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e986ece7/8bbab7cf/Dundee-United-vs-Aberdeen-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/b81aa4fa/86b7acd2/Old-Firm-Derby-Celtic-vs-Rangers-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/f3aacc58/dd289621/Hibernian-vs-St-Johnstone-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/9d04848a/7c77b0bc/Motherwell-vs-Heart-of-Midlothian-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/a5298e9f/8bbab7cf/Ross-County-vs-Aberdeen-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/3568ad4c/25f1fd26/St-Mirren-vs-Kilmarnock-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e986ece7/00032902/Dundee-United-vs-Dundee-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/b81aa4fa/3568ad4c/Celtic-vs-St-Mirren-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e986ece7/7c77b0bc/Dundee-United-vs-Heart-of-Midlothian-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/dd289621/00032902/St-Johnstone-vs-Dundee-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/9d04848a/8bbab7cf/Motherwell-vs-Aberdeen-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/f3aacc58/86b7acd2/Hibernian-vs-Rangers-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/a5298e9f/25f1fd26/Ross-County-vs-Kilmarnock-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/7c77b0bc/3568ad4c/Heart-of-Midlothian-vs-St-Mirren-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/dd289621/a5298e9f/St-Johnstone-vs-Ross-County-History</t>
-  </si>
-  <si>
     <t>https://fbref.com/en/matches/94ab474a/Hibernian-Dundee-August-24-2024-Scottish-Premiership</t>
   </si>
   <si>
@@ -1200,6 +1230,24 @@
   </si>
   <si>
     <t>https://fbref.com/en/matches/62a8b15b/Kilmarnock-Rangers-October-20-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/18f3e515/Dundee-St-Johnstone-October-26-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/d1729397/Ross-County-Kilmarnock-October-26-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/41db5901/Aberdeen-Dundee-United-October-26-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/ecf8e68d/Hibernian-Heart-of-Midlothian-October-27-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/010d7a20/Rangers-St-Mirren-October-27-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/a3103c61/Motherwell-Celtic-October-27-2024-Scottish-Premiership</t>
   </si>
 </sst>
 </file>
@@ -1699,23 +1747,23 @@
       <c r="K8" t="s">
         <v>238</v>
       </c>
-      <c r="L8" t="e">
-        <v>#N/A</v>
+      <c r="L8" t="n">
+        <v>1.0</v>
       </c>
       <c r="M8" t="s">
         <v>247</v>
       </c>
-      <c r="N8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O8" t="e">
-        <v>#N/A</v>
+      <c r="N8" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>18402.0</v>
       </c>
       <c r="P8" t="s">
         <v>250</v>
       </c>
       <c r="Q8" t="s">
-        <v>236</v>
+        <v>263</v>
       </c>
       <c r="R8" t="e">
         <v>#N/A</v>
@@ -1758,14 +1806,14 @@
       <c r="K9" t="s">
         <v>242</v>
       </c>
-      <c r="L9" t="e">
-        <v>#N/A</v>
+      <c r="L9" t="n">
+        <v>2.0</v>
       </c>
       <c r="M9" t="s">
         <v>248</v>
       </c>
-      <c r="N9" t="e">
-        <v>#N/A</v>
+      <c r="N9" t="n">
+        <v>0.0</v>
       </c>
       <c r="O9" t="e">
         <v>#N/A</v>
@@ -1774,7 +1822,7 @@
         <v>254</v>
       </c>
       <c r="Q9" t="s">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="R9" t="e">
         <v>#N/A</v>
@@ -1817,23 +1865,23 @@
       <c r="K10" t="s">
         <v>244</v>
       </c>
-      <c r="L10" t="e">
-        <v>#N/A</v>
+      <c r="L10" t="n">
+        <v>0.0</v>
       </c>
       <c r="M10" t="s">
         <v>246</v>
       </c>
-      <c r="N10" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O10" t="e">
-        <v>#N/A</v>
+      <c r="N10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>3468.0</v>
       </c>
       <c r="P10" t="s">
         <v>256</v>
       </c>
       <c r="Q10" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="R10" t="e">
         <v>#N/A</v>
@@ -1876,23 +1924,23 @@
       <c r="K11" t="s">
         <v>241</v>
       </c>
-      <c r="L11" t="e">
-        <v>#N/A</v>
+      <c r="L11" t="n">
+        <v>3.0</v>
       </c>
       <c r="M11" t="s">
         <v>243</v>
       </c>
-      <c r="N11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O11" t="e">
-        <v>#N/A</v>
+      <c r="N11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>6042.0</v>
       </c>
       <c r="P11" t="s">
         <v>253</v>
       </c>
       <c r="Q11" t="s">
-        <v>236</v>
+        <v>266</v>
       </c>
       <c r="R11" t="e">
         <v>#N/A</v>
@@ -1935,23 +1983,23 @@
       <c r="K12" t="s">
         <v>240</v>
       </c>
-      <c r="L12" t="e">
-        <v>#N/A</v>
+      <c r="L12" t="n">
+        <v>1.0</v>
       </c>
       <c r="M12" t="s">
         <v>239</v>
       </c>
-      <c r="N12" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O12" t="e">
-        <v>#N/A</v>
+      <c r="N12" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>8415.0</v>
       </c>
       <c r="P12" t="s">
         <v>252</v>
       </c>
       <c r="Q12" t="s">
-        <v>236</v>
+        <v>267</v>
       </c>
       <c r="R12" t="e">
         <v>#N/A</v>
@@ -1994,23 +2042,23 @@
       <c r="K13" t="s">
         <v>245</v>
       </c>
-      <c r="L13" t="e">
-        <v>#N/A</v>
+      <c r="L13" t="n">
+        <v>2.0</v>
       </c>
       <c r="M13" t="s">
         <v>249</v>
       </c>
-      <c r="N13" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O13" t="e">
-        <v>#N/A</v>
+      <c r="N13" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>19274.0</v>
       </c>
       <c r="P13" t="s">
         <v>257</v>
       </c>
       <c r="Q13" t="s">
-        <v>236</v>
+        <v>268</v>
       </c>
       <c r="R13" t="e">
         <v>#N/A</v>
@@ -2053,23 +2101,23 @@
       <c r="K14" t="s">
         <v>243</v>
       </c>
-      <c r="L14" t="e">
-        <v>#N/A</v>
+      <c r="L14" t="n">
+        <v>1.0</v>
       </c>
       <c r="M14" t="s">
         <v>238</v>
       </c>
-      <c r="N14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O14" t="e">
-        <v>#N/A</v>
+      <c r="N14" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>5917.0</v>
       </c>
       <c r="P14" t="s">
         <v>255</v>
       </c>
       <c r="Q14" t="s">
-        <v>236</v>
+        <v>269</v>
       </c>
       <c r="R14" t="e">
         <v>#N/A</v>
@@ -2112,23 +2160,23 @@
       <c r="K15" t="s">
         <v>241</v>
       </c>
-      <c r="L15" t="e">
-        <v>#N/A</v>
+      <c r="L15" t="n">
+        <v>0.0</v>
       </c>
       <c r="M15" t="s">
         <v>244</v>
       </c>
-      <c r="N15" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O15" t="e">
-        <v>#N/A</v>
+      <c r="N15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>6142.0</v>
       </c>
       <c r="P15" t="s">
         <v>253</v>
       </c>
       <c r="Q15" t="s">
-        <v>236</v>
+        <v>270</v>
       </c>
       <c r="R15" t="e">
         <v>#N/A</v>
@@ -3485,7 +3533,7 @@
         <v>256</v>
       </c>
       <c r="Q38" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="R38" t="e">
         <v>#N/A</v>
@@ -3544,7 +3592,7 @@
         <v>253</v>
       </c>
       <c r="Q39" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="R39" t="e">
         <v>#N/A</v>
@@ -3587,23 +3635,23 @@
       <c r="K40" t="s">
         <v>246</v>
       </c>
-      <c r="L40" t="e">
-        <v>#N/A</v>
+      <c r="L40" t="n">
+        <v>1.0</v>
       </c>
       <c r="M40" t="s">
         <v>240</v>
       </c>
-      <c r="N40" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O40" t="e">
-        <v>#N/A</v>
+      <c r="N40" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>15454.0</v>
       </c>
       <c r="P40" t="s">
         <v>258</v>
       </c>
       <c r="Q40" t="s">
-        <v>236</v>
+        <v>272</v>
       </c>
       <c r="R40" t="e">
         <v>#N/A</v>
@@ -4199,7 +4247,7 @@
         <v>#N/A</v>
       </c>
       <c r="S50" t="s">
-        <v>289</v>
+        <v>328</v>
       </c>
     </row>
     <row r="51">
@@ -4258,7 +4306,7 @@
         <v>#N/A</v>
       </c>
       <c r="S51" t="s">
-        <v>287</v>
+        <v>329</v>
       </c>
     </row>
     <row r="52">
@@ -4317,7 +4365,7 @@
         <v>#N/A</v>
       </c>
       <c r="S52" t="s">
-        <v>288</v>
+        <v>330</v>
       </c>
     </row>
     <row r="53">
@@ -4376,7 +4424,7 @@
         <v>#N/A</v>
       </c>
       <c r="S53" t="s">
-        <v>290</v>
+        <v>331</v>
       </c>
     </row>
     <row r="54">
@@ -4435,7 +4483,7 @@
         <v>#N/A</v>
       </c>
       <c r="S54" t="s">
-        <v>286</v>
+        <v>332</v>
       </c>
     </row>
     <row r="55">
@@ -4494,7 +4542,7 @@
         <v>#N/A</v>
       </c>
       <c r="S55" t="s">
-        <v>291</v>
+        <v>333</v>
       </c>
     </row>
     <row r="56">
@@ -4730,7 +4778,7 @@
         <v>#N/A</v>
       </c>
       <c r="S59" t="s">
-        <v>293</v>
+        <v>334</v>
       </c>
     </row>
     <row r="60">
@@ -4848,7 +4896,7 @@
         <v>#N/A</v>
       </c>
       <c r="S61" t="s">
-        <v>292</v>
+        <v>335</v>
       </c>
     </row>
     <row r="62">
@@ -4907,7 +4955,7 @@
         <v>#N/A</v>
       </c>
       <c r="S62" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
     </row>
     <row r="63">
@@ -4966,7 +5014,7 @@
         <v>#N/A</v>
       </c>
       <c r="S63" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
     </row>
     <row r="64">
@@ -5025,7 +5073,7 @@
         <v>#N/A</v>
       </c>
       <c r="S64" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
     </row>
     <row r="65">
@@ -5084,7 +5132,7 @@
         <v>#N/A</v>
       </c>
       <c r="S65" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
     </row>
     <row r="66">
@@ -5143,7 +5191,7 @@
         <v>#N/A</v>
       </c>
       <c r="S66" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
     </row>
     <row r="67">
@@ -5202,7 +5250,7 @@
         <v>#N/A</v>
       </c>
       <c r="S67" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
     </row>
     <row r="68">
@@ -5261,7 +5309,7 @@
         <v>#N/A</v>
       </c>
       <c r="S68" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
     </row>
     <row r="69">
@@ -5320,7 +5368,7 @@
         <v>#N/A</v>
       </c>
       <c r="S69" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
     </row>
     <row r="70">
@@ -5379,7 +5427,7 @@
         <v>#N/A</v>
       </c>
       <c r="S70" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
     </row>
     <row r="71">
@@ -5438,7 +5486,7 @@
         <v>#N/A</v>
       </c>
       <c r="S71" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
     </row>
     <row r="72">
@@ -5497,7 +5545,7 @@
         <v>#N/A</v>
       </c>
       <c r="S72" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
     </row>
     <row r="73">
@@ -5556,7 +5604,7 @@
         <v>#N/A</v>
       </c>
       <c r="S73" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
     </row>
     <row r="74">
@@ -5615,7 +5663,7 @@
         <v>#N/A</v>
       </c>
       <c r="S74" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
     </row>
     <row r="75">
@@ -5674,7 +5722,7 @@
         <v>#N/A</v>
       </c>
       <c r="S75" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
     </row>
     <row r="76">
@@ -5733,7 +5781,7 @@
         <v>#N/A</v>
       </c>
       <c r="S76" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
     </row>
     <row r="77">
@@ -5792,7 +5840,7 @@
         <v>#N/A</v>
       </c>
       <c r="S77" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
     </row>
     <row r="78">
@@ -5851,7 +5899,7 @@
         <v>#N/A</v>
       </c>
       <c r="S78" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
     </row>
     <row r="79">
@@ -5910,7 +5958,7 @@
         <v>#N/A</v>
       </c>
       <c r="S79" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
     </row>
     <row r="80">
@@ -5969,7 +6017,7 @@
         <v>#N/A</v>
       </c>
       <c r="S80" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
     </row>
     <row r="81">
@@ -6028,7 +6076,7 @@
         <v>#N/A</v>
       </c>
       <c r="S81" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
     </row>
     <row r="82">
@@ -6087,7 +6135,7 @@
         <v>#N/A</v>
       </c>
       <c r="S82" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
     </row>
     <row r="83">
@@ -6146,7 +6194,7 @@
         <v>#N/A</v>
       </c>
       <c r="S83" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
     </row>
     <row r="84">
@@ -6205,7 +6253,7 @@
         <v>#N/A</v>
       </c>
       <c r="S84" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
     </row>
     <row r="85">
@@ -6264,7 +6312,7 @@
         <v>#N/A</v>
       </c>
       <c r="S85" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
     </row>
     <row r="86">
@@ -6323,7 +6371,7 @@
         <v>#N/A</v>
       </c>
       <c r="S86" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
     </row>
     <row r="87">
@@ -6382,7 +6430,7 @@
         <v>#N/A</v>
       </c>
       <c r="S87" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
     </row>
     <row r="88">
@@ -6441,7 +6489,7 @@
         <v>#N/A</v>
       </c>
       <c r="S88" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
     </row>
     <row r="89">
@@ -6500,7 +6548,7 @@
         <v>#N/A</v>
       </c>
       <c r="S89" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
     </row>
     <row r="90">
@@ -6559,7 +6607,7 @@
         <v>#N/A</v>
       </c>
       <c r="S90" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
     </row>
     <row r="91">
@@ -6618,7 +6666,7 @@
         <v>#N/A</v>
       </c>
       <c r="S91" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
     </row>
     <row r="92">
@@ -6655,29 +6703,29 @@
       <c r="K92" t="s">
         <v>248</v>
       </c>
-      <c r="L92" t="e">
-        <v>#N/A</v>
+      <c r="L92" t="n">
+        <v>3.0</v>
       </c>
       <c r="M92" t="s">
         <v>247</v>
       </c>
-      <c r="N92" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O92" t="e">
-        <v>#N/A</v>
+      <c r="N92" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="O92" t="n">
+        <v>5014.0</v>
       </c>
       <c r="P92" t="s">
         <v>260</v>
       </c>
       <c r="Q92" t="s">
-        <v>236</v>
+        <v>271</v>
       </c>
       <c r="R92" t="e">
         <v>#N/A</v>
       </c>
       <c r="S92" t="s">
-        <v>310</v>
+        <v>366</v>
       </c>
     </row>
     <row r="93">
@@ -7090,7 +7138,7 @@
         <v>#N/A</v>
       </c>
       <c r="S99" t="s">
-        <v>288</v>
+        <v>330</v>
       </c>
     </row>
     <row r="100">
@@ -7149,7 +7197,7 @@
         <v>#N/A</v>
       </c>
       <c r="S100" t="s">
-        <v>287</v>
+        <v>329</v>
       </c>
     </row>
     <row r="101">
@@ -7326,7 +7374,7 @@
         <v>#N/A</v>
       </c>
       <c r="S103" t="s">
-        <v>286</v>
+        <v>332</v>
       </c>
     </row>
     <row r="104">
@@ -7385,7 +7433,7 @@
         <v>#N/A</v>
       </c>
       <c r="S104" t="s">
-        <v>289</v>
+        <v>328</v>
       </c>
     </row>
     <row r="105">
@@ -7621,7 +7669,7 @@
         <v>#N/A</v>
       </c>
       <c r="S108" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
     </row>
     <row r="109">
@@ -8152,7 +8200,7 @@
         <v>#N/A</v>
       </c>
       <c r="S117" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
     </row>
     <row r="118">
@@ -8211,7 +8259,7 @@
         <v>#N/A</v>
       </c>
       <c r="S118" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
     </row>
     <row r="119">
@@ -8270,7 +8318,7 @@
         <v>#N/A</v>
       </c>
       <c r="S119" t="s">
-        <v>292</v>
+        <v>335</v>
       </c>
     </row>
     <row r="120">
@@ -8329,7 +8377,7 @@
         <v>#N/A</v>
       </c>
       <c r="S120" t="s">
-        <v>290</v>
+        <v>331</v>
       </c>
     </row>
     <row r="121">
@@ -8388,7 +8436,7 @@
         <v>#N/A</v>
       </c>
       <c r="S121" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
     </row>
     <row r="122">
@@ -8506,7 +8554,7 @@
         <v>#N/A</v>
       </c>
       <c r="S123" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
     </row>
     <row r="124">
@@ -8624,7 +8672,7 @@
         <v>#N/A</v>
       </c>
       <c r="S125" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
     </row>
     <row r="126">
@@ -8683,7 +8731,7 @@
         <v>#N/A</v>
       </c>
       <c r="S126" t="s">
-        <v>318</v>
+        <v>369</v>
       </c>
     </row>
     <row r="127">
@@ -8801,7 +8849,7 @@
         <v>#N/A</v>
       </c>
       <c r="S128" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
     </row>
     <row r="129">
@@ -8860,7 +8908,7 @@
         <v>#N/A</v>
       </c>
       <c r="S129" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
     </row>
     <row r="130">
@@ -8919,7 +8967,7 @@
         <v>#N/A</v>
       </c>
       <c r="S130" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
     </row>
     <row r="131">
@@ -8978,7 +9026,7 @@
         <v>#N/A</v>
       </c>
       <c r="S131" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
     </row>
     <row r="132">
@@ -9037,7 +9085,7 @@
         <v>#N/A</v>
       </c>
       <c r="S132" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
     </row>
     <row r="133">
@@ -9096,7 +9144,7 @@
         <v>#N/A</v>
       </c>
       <c r="S133" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
     </row>
     <row r="134">
@@ -9155,7 +9203,7 @@
         <v>#N/A</v>
       </c>
       <c r="S134" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
     </row>
     <row r="135">
@@ -9214,7 +9262,7 @@
         <v>#N/A</v>
       </c>
       <c r="S135" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
     </row>
     <row r="136">
@@ -9273,7 +9321,7 @@
         <v>#N/A</v>
       </c>
       <c r="S136" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="137">
@@ -9332,7 +9380,7 @@
         <v>#N/A</v>
       </c>
       <c r="S137" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
     </row>
     <row r="138">
@@ -9391,7 +9439,7 @@
         <v>#N/A</v>
       </c>
       <c r="S138" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
     </row>
     <row r="139">
@@ -9450,7 +9498,7 @@
         <v>#N/A</v>
       </c>
       <c r="S139" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
     </row>
     <row r="140">
@@ -9627,7 +9675,7 @@
         <v>#N/A</v>
       </c>
       <c r="S142" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
     </row>
     <row r="143">
@@ -9686,7 +9734,7 @@
         <v>#N/A</v>
       </c>
       <c r="S143" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
     </row>
     <row r="144">
@@ -9745,7 +9793,7 @@
         <v>#N/A</v>
       </c>
       <c r="S144" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
     </row>
     <row r="145">
@@ -9804,7 +9852,7 @@
         <v>#N/A</v>
       </c>
       <c r="S145" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
     </row>
     <row r="146">
@@ -9863,7 +9911,7 @@
         <v>#N/A</v>
       </c>
       <c r="S146" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
     </row>
     <row r="147">
@@ -9981,7 +10029,7 @@
         <v>#N/A</v>
       </c>
       <c r="S148" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
     </row>
     <row r="149">
@@ -10040,7 +10088,7 @@
         <v>#N/A</v>
       </c>
       <c r="S149" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
     </row>
     <row r="150">
@@ -10217,7 +10265,7 @@
         <v>#N/A</v>
       </c>
       <c r="S152" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
     </row>
     <row r="153">
@@ -10276,7 +10324,7 @@
         <v>#N/A</v>
       </c>
       <c r="S153" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
     </row>
     <row r="154">
@@ -10335,7 +10383,7 @@
         <v>#N/A</v>
       </c>
       <c r="S154" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
     </row>
     <row r="155">
@@ -10394,7 +10442,7 @@
         <v>#N/A</v>
       </c>
       <c r="S155" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
     </row>
     <row r="156">
@@ -10453,7 +10501,7 @@
         <v>#N/A</v>
       </c>
       <c r="S156" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
     </row>
     <row r="157">
@@ -10630,7 +10678,7 @@
         <v>#N/A</v>
       </c>
       <c r="S159" t="s">
-        <v>291</v>
+        <v>333</v>
       </c>
     </row>
     <row r="160">
@@ -10689,7 +10737,7 @@
         <v>#N/A</v>
       </c>
       <c r="S160" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
     </row>
     <row r="161">
@@ -10748,7 +10796,7 @@
         <v>#N/A</v>
       </c>
       <c r="S161" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
     </row>
     <row r="162">
@@ -10866,7 +10914,7 @@
         <v>#N/A</v>
       </c>
       <c r="S163" t="s">
-        <v>293</v>
+        <v>334</v>
       </c>
     </row>
     <row r="164">
@@ -10919,13 +10967,13 @@
         <v>260</v>
       </c>
       <c r="Q164" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="R164" t="e">
         <v>#N/A</v>
       </c>
       <c r="S164" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
     </row>
     <row r="165">
@@ -10978,13 +11026,13 @@
         <v>255</v>
       </c>
       <c r="Q165" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="R165" t="e">
         <v>#N/A</v>
       </c>
       <c r="S165" t="s">
-        <v>367</v>
+        <v>377</v>
       </c>
     </row>
     <row r="166">
@@ -11037,13 +11085,13 @@
         <v>256</v>
       </c>
       <c r="Q166" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="R166" t="e">
         <v>#N/A</v>
       </c>
       <c r="S166" t="s">
-        <v>368</v>
+        <v>378</v>
       </c>
     </row>
     <row r="167">
@@ -11102,7 +11150,7 @@
         <v>#N/A</v>
       </c>
       <c r="S167" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
     </row>
     <row r="168">
@@ -11155,13 +11203,13 @@
         <v>250</v>
       </c>
       <c r="Q168" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="R168" t="e">
         <v>#N/A</v>
       </c>
       <c r="S168" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
     </row>
     <row r="169">
@@ -11214,13 +11262,13 @@
         <v>259</v>
       </c>
       <c r="Q169" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="R169" t="e">
         <v>#N/A</v>
       </c>
       <c r="S169" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
     </row>
     <row r="170">
@@ -11273,13 +11321,13 @@
         <v>253</v>
       </c>
       <c r="Q170" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="R170" t="e">
         <v>#N/A</v>
       </c>
       <c r="S170" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
     </row>
     <row r="171">
@@ -11332,13 +11380,13 @@
         <v>257</v>
       </c>
       <c r="Q171" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="R171" t="e">
         <v>#N/A</v>
       </c>
       <c r="S171" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
     </row>
     <row r="172">
@@ -11391,13 +11439,13 @@
         <v>256</v>
       </c>
       <c r="Q172" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="R172" t="e">
         <v>#N/A</v>
       </c>
       <c r="S172" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
     </row>
     <row r="173">
@@ -11450,13 +11498,13 @@
         <v>258</v>
       </c>
       <c r="Q173" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="R173" t="e">
         <v>#N/A</v>
       </c>
       <c r="S173" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
     </row>
     <row r="174">
@@ -11509,13 +11557,13 @@
         <v>254</v>
       </c>
       <c r="Q174" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="R174" t="e">
         <v>#N/A</v>
       </c>
       <c r="S174" t="s">
-        <v>376</v>
+        <v>386</v>
       </c>
     </row>
     <row r="175">
@@ -11568,13 +11616,13 @@
         <v>252</v>
       </c>
       <c r="Q175" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="R175" t="e">
         <v>#N/A</v>
       </c>
       <c r="S175" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
     </row>
     <row r="176">
@@ -11627,13 +11675,13 @@
         <v>250</v>
       </c>
       <c r="Q176" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="R176" t="e">
         <v>#N/A</v>
       </c>
       <c r="S176" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
     </row>
     <row r="177">
@@ -11686,13 +11734,13 @@
         <v>259</v>
       </c>
       <c r="Q177" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="R177" t="e">
         <v>#N/A</v>
       </c>
       <c r="S177" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
     </row>
     <row r="178">
@@ -11745,13 +11793,13 @@
         <v>251</v>
       </c>
       <c r="Q178" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="R178" t="e">
         <v>#N/A</v>
       </c>
       <c r="S178" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
     </row>
     <row r="179">
@@ -11804,13 +11852,13 @@
         <v>260</v>
       </c>
       <c r="Q179" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="R179" t="e">
         <v>#N/A</v>
       </c>
       <c r="S179" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
     </row>
     <row r="180">
@@ -11863,13 +11911,13 @@
         <v>255</v>
       </c>
       <c r="Q180" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="R180" t="e">
         <v>#N/A</v>
       </c>
       <c r="S180" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
     </row>
     <row r="181">
@@ -11922,13 +11970,13 @@
         <v>261</v>
       </c>
       <c r="Q181" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="R181" t="e">
         <v>#N/A</v>
       </c>
       <c r="S181" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
     </row>
     <row r="182">
@@ -11981,13 +12029,13 @@
         <v>253</v>
       </c>
       <c r="Q182" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="R182" t="e">
         <v>#N/A</v>
       </c>
       <c r="S182" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
     </row>
     <row r="183">
@@ -12040,13 +12088,13 @@
         <v>258</v>
       </c>
       <c r="Q183" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="R183" t="e">
         <v>#N/A</v>
       </c>
       <c r="S183" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
     </row>
     <row r="184">
@@ -12099,13 +12147,13 @@
         <v>260</v>
       </c>
       <c r="Q184" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="R184" t="e">
         <v>#N/A</v>
       </c>
       <c r="S184" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
     </row>
     <row r="185">
@@ -12158,13 +12206,13 @@
         <v>256</v>
       </c>
       <c r="Q185" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="R185" t="e">
         <v>#N/A</v>
       </c>
       <c r="S185" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
     </row>
     <row r="186">
@@ -12223,7 +12271,7 @@
         <v>#N/A</v>
       </c>
       <c r="S186" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
     </row>
     <row r="187">
@@ -12276,13 +12324,13 @@
         <v>261</v>
       </c>
       <c r="Q187" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="R187" t="e">
         <v>#N/A</v>
       </c>
       <c r="S187" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
     </row>
     <row r="188">
@@ -12335,13 +12383,13 @@
         <v>251</v>
       </c>
       <c r="Q188" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="R188" t="e">
         <v>#N/A</v>
       </c>
       <c r="S188" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
     </row>
     <row r="189">
@@ -12400,7 +12448,7 @@
         <v>#N/A</v>
       </c>
       <c r="S189" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
     </row>
     <row r="190">
@@ -12453,13 +12501,13 @@
         <v>250</v>
       </c>
       <c r="Q190" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="R190" t="e">
         <v>#N/A</v>
       </c>
       <c r="S190" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
     </row>
     <row r="191">
@@ -12512,13 +12560,13 @@
         <v>254</v>
       </c>
       <c r="Q191" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="R191" t="e">
         <v>#N/A</v>
       </c>
       <c r="S191" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
     </row>
     <row r="192">
@@ -12571,13 +12619,13 @@
         <v>252</v>
       </c>
       <c r="Q192" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="R192" t="e">
         <v>#N/A</v>
       </c>
       <c r="S192" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
     </row>
     <row r="193">
@@ -12630,13 +12678,13 @@
         <v>259</v>
       </c>
       <c r="Q193" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="R193" t="e">
         <v>#N/A</v>
       </c>
       <c r="S193" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
     </row>
     <row r="194">
@@ -12673,29 +12721,29 @@
       <c r="K194" t="s">
         <v>248</v>
       </c>
-      <c r="L194" t="e">
-        <v>#N/A</v>
+      <c r="L194" t="n">
+        <v>1.0</v>
       </c>
       <c r="M194" t="s">
         <v>243</v>
       </c>
-      <c r="N194" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O194" t="e">
-        <v>#N/A</v>
+      <c r="N194" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="O194" t="n">
+        <v>6548.0</v>
       </c>
       <c r="P194" t="s">
         <v>260</v>
       </c>
       <c r="Q194" t="s">
-        <v>236</v>
+        <v>278</v>
       </c>
       <c r="R194" t="e">
         <v>#N/A</v>
       </c>
       <c r="S194" t="s">
-        <v>354</v>
+        <v>406</v>
       </c>
     </row>
     <row r="195">
@@ -12732,14 +12780,14 @@
       <c r="K195" t="s">
         <v>244</v>
       </c>
-      <c r="L195" t="e">
-        <v>#N/A</v>
+      <c r="L195" t="n">
+        <v>2.0</v>
       </c>
       <c r="M195" t="s">
         <v>247</v>
       </c>
-      <c r="N195" t="e">
-        <v>#N/A</v>
+      <c r="N195" t="n">
+        <v>1.0</v>
       </c>
       <c r="O195" t="e">
         <v>#N/A</v>
@@ -12748,13 +12796,13 @@
         <v>256</v>
       </c>
       <c r="Q195" t="s">
-        <v>236</v>
+        <v>276</v>
       </c>
       <c r="R195" t="e">
         <v>#N/A</v>
       </c>
       <c r="S195" t="s">
-        <v>357</v>
+        <v>407</v>
       </c>
     </row>
     <row r="196">
@@ -12791,29 +12839,29 @@
       <c r="K196" t="s">
         <v>245</v>
       </c>
-      <c r="L196" t="e">
-        <v>#N/A</v>
+      <c r="L196" t="n">
+        <v>1.0</v>
       </c>
       <c r="M196" t="s">
         <v>240</v>
       </c>
-      <c r="N196" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O196" t="e">
-        <v>#N/A</v>
+      <c r="N196" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O196" t="n">
+        <v>19274.0</v>
       </c>
       <c r="P196" t="s">
         <v>257</v>
       </c>
       <c r="Q196" t="s">
-        <v>236</v>
+        <v>266</v>
       </c>
       <c r="R196" t="e">
         <v>#N/A</v>
       </c>
       <c r="S196" t="s">
-        <v>345</v>
+        <v>408</v>
       </c>
     </row>
     <row r="197">
@@ -12850,29 +12898,29 @@
       <c r="K197" t="s">
         <v>246</v>
       </c>
-      <c r="L197" t="e">
-        <v>#N/A</v>
+      <c r="L197" t="n">
+        <v>1.0</v>
       </c>
       <c r="M197" t="s">
         <v>238</v>
       </c>
-      <c r="N197" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O197" t="e">
-        <v>#N/A</v>
+      <c r="N197" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O197" t="n">
+        <v>20011.0</v>
       </c>
       <c r="P197" t="s">
         <v>258</v>
       </c>
       <c r="Q197" t="s">
-        <v>236</v>
+        <v>270</v>
       </c>
       <c r="R197" t="e">
         <v>#N/A</v>
       </c>
       <c r="S197" t="s">
-        <v>328</v>
+        <v>409</v>
       </c>
     </row>
     <row r="198">
@@ -12909,29 +12957,29 @@
       <c r="K198" t="s">
         <v>249</v>
       </c>
-      <c r="L198" t="e">
-        <v>#N/A</v>
+      <c r="L198" t="n">
+        <v>2.0</v>
       </c>
       <c r="M198" t="s">
         <v>241</v>
       </c>
-      <c r="N198" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O198" t="e">
-        <v>#N/A</v>
+      <c r="N198" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O198" t="n">
+        <v>48859.0</v>
       </c>
       <c r="P198" t="s">
         <v>261</v>
       </c>
       <c r="Q198" t="s">
-        <v>236</v>
+        <v>275</v>
       </c>
       <c r="R198" t="e">
         <v>#N/A</v>
       </c>
       <c r="S198" t="s">
-        <v>333</v>
+        <v>410</v>
       </c>
     </row>
     <row r="199">
@@ -12968,29 +13016,29 @@
       <c r="K199" t="s">
         <v>239</v>
       </c>
-      <c r="L199" t="e">
-        <v>#N/A</v>
+      <c r="L199" t="n">
+        <v>0.0</v>
       </c>
       <c r="M199" t="s">
         <v>242</v>
       </c>
-      <c r="N199" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O199" t="e">
-        <v>#N/A</v>
+      <c r="N199" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O199" t="n">
+        <v>8692.0</v>
       </c>
       <c r="P199" t="s">
         <v>251</v>
       </c>
       <c r="Q199" t="s">
-        <v>236</v>
+        <v>279</v>
       </c>
       <c r="R199" t="e">
         <v>#N/A</v>
       </c>
       <c r="S199" t="s">
-        <v>331</v>
+        <v>411</v>
       </c>
     </row>
   </sheetData>

--- a/sc0_match_results.xlsx
+++ b/sc0_match_results.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2394" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2394" uniqueCount="446">
   <si>
     <t>Competition_Name</t>
   </si>
@@ -716,93 +716,102 @@
     <t>17:00</t>
   </si>
   <si>
+    <t>15:45</t>
+  </si>
+  <si>
+    <t>16:00</t>
+  </si>
+  <si>
     <t>17:45</t>
   </si>
   <si>
     <t>12:00</t>
   </si>
   <si>
+    <t>17:15</t>
+  </si>
+  <si>
+    <t>14:30</t>
+  </si>
+  <si>
+    <t>Hearts</t>
+  </si>
+  <si>
+    <t>Motherwell</t>
+  </si>
+  <si>
+    <t>Dundee United</t>
+  </si>
+  <si>
+    <t>St Mirren</t>
+  </si>
+  <si>
+    <t>Celtic</t>
+  </si>
+  <si>
+    <t>St Johnstone</t>
+  </si>
+  <si>
+    <t>Ross County</t>
+  </si>
+  <si>
+    <t>Aberdeen</t>
+  </si>
+  <si>
+    <t>Hibernian</t>
+  </si>
+  <si>
+    <t>Kilmarnock</t>
+  </si>
+  <si>
+    <t>Dundee</t>
+  </si>
+  <si>
+    <t>Rangers</t>
+  </si>
+  <si>
+    <t>Tynecastle Stadium</t>
+  </si>
+  <si>
+    <t>Fir Park</t>
+  </si>
+  <si>
+    <t>Tannadice Park</t>
+  </si>
+  <si>
+    <t>The Simple Digital Arena</t>
+  </si>
+  <si>
+    <t>Celtic Park</t>
+  </si>
+  <si>
+    <t>McDiarmid Park</t>
+  </si>
+  <si>
+    <t>Global Energy Stadium</t>
+  </si>
+  <si>
+    <t>Pittodrie Stadium</t>
+  </si>
+  <si>
+    <t>Easter Road Stadium</t>
+  </si>
+  <si>
+    <t>BBSP Stadium, Rugby Park</t>
+  </si>
+  <si>
+    <t>Kilmac Stadium at Dens Park</t>
+  </si>
+  <si>
+    <t>Ibrox Stadium</t>
+  </si>
+  <si>
+    <t>Hampden Park</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>17:15</t>
-  </si>
-  <si>
-    <t>Hearts</t>
-  </si>
-  <si>
-    <t>Motherwell</t>
-  </si>
-  <si>
-    <t>Dundee United</t>
-  </si>
-  <si>
-    <t>St Mirren</t>
-  </si>
-  <si>
-    <t>Celtic</t>
-  </si>
-  <si>
-    <t>St Johnstone</t>
-  </si>
-  <si>
-    <t>Ross County</t>
-  </si>
-  <si>
-    <t>Aberdeen</t>
-  </si>
-  <si>
-    <t>Hibernian</t>
-  </si>
-  <si>
-    <t>Kilmarnock</t>
-  </si>
-  <si>
-    <t>Dundee</t>
-  </si>
-  <si>
-    <t>Rangers</t>
-  </si>
-  <si>
-    <t>Tynecastle Stadium</t>
-  </si>
-  <si>
-    <t>Fir Park</t>
-  </si>
-  <si>
-    <t>Tannadice Park</t>
-  </si>
-  <si>
-    <t>The Simple Digital Arena</t>
-  </si>
-  <si>
-    <t>Celtic Park</t>
-  </si>
-  <si>
-    <t>McDiarmid Park</t>
-  </si>
-  <si>
-    <t>Global Energy Stadium</t>
-  </si>
-  <si>
-    <t>Pittodrie Stadium</t>
-  </si>
-  <si>
-    <t>Easter Road Stadium</t>
-  </si>
-  <si>
-    <t>BBSP Stadium, Rugby Park</t>
-  </si>
-  <si>
-    <t>Kilmac Stadium at Dens Park</t>
-  </si>
-  <si>
-    <t>Ibrox Stadium</t>
-  </si>
-  <si>
-    <t>Hampden Park</t>
-  </si>
-  <si>
     <t>Euan Anderson</t>
   </si>
   <si>
@@ -827,33 +836,33 @@
     <t>Don Robertson</t>
   </si>
   <si>
+    <t>Calum Scott</t>
+  </si>
+  <si>
+    <t>Iain Snedden</t>
+  </si>
+  <si>
+    <t>David Dickinson</t>
+  </si>
+  <si>
+    <t>Nick Walsh</t>
+  </si>
+  <si>
+    <t>Matthew MacDermid</t>
+  </si>
+  <si>
+    <t>Kevin Clancy</t>
+  </si>
+  <si>
     <t>Dan McFarlane</t>
   </si>
   <si>
     <t>Colin Steven</t>
   </si>
   <si>
-    <t>Iain Snedden</t>
-  </si>
-  <si>
-    <t>Nick Walsh</t>
-  </si>
-  <si>
-    <t>Calum Scott</t>
-  </si>
-  <si>
-    <t>Matthew MacDermid</t>
-  </si>
-  <si>
     <t>Craig Napier</t>
   </si>
   <si>
-    <t>Kevin Clancy</t>
-  </si>
-  <si>
-    <t>David Dickinson</t>
-  </si>
-  <si>
     <t>https://fbref.com/en/matches/2c1a3b4f/Heart-of-Midlothian-Rangers-August-3-2024-Scottish-Premiership</t>
   </si>
   <si>
@@ -896,250 +905,343 @@
     <t>https://fbref.com/en/matches/a4bf38d9/St-Mirren-Ross-County-November-2-2024-Scottish-Premiership</t>
   </si>
   <si>
+    <t>https://fbref.com/en/matches/7b93868a/Hibernian-Aberdeen-November-26-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/9d04848a/25f1fd26/Motherwell-vs-Kilmarnock-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e986ece7/b81aa4fa/Dundee-United-vs-Celtic-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/86b7acd2/00032902/Rangers-vs-Dundee-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/0ca6d764/Motherwell-St-Johnstone-November-9-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/37bdcada/Dundee-United-Ross-County-November-9-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/8fb2341b/Hibernian-St-Mirren-November-9-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/fddc2b46/Aberdeen-Dundee-November-9-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/6516043c/Kilmarnock-Celtic-November-10-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/ea1763a1/Rangers-Heart-of-Midlothian-November-10-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/2599fc31/St-Johnstone-Kilmarnock-November-23-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/4c5a8bca/Ross-County-Motherwell-November-23-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/1aaa7ff5/Rangers-Dundee-United-November-23-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/02a66349/St-Mirren-Aberdeen-November-23-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/6b29cde7/Dundee-Hibernian-November-23-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/40327842/Heart-of-Midlothian-Celtic-November-23-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/2316c31e/Kilmarnock-Dundee-November-30-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/4c74869f/Celtic-Ross-County-November-30-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/984b304b/Motherwell-Hibernian-November-30-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/e61740ec/Dundee-United-St-Mirren-November-30-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/32ef90a0/St-Johnstone-Rangers-December-1-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/d458bfa7/Heart-of-Midlothian-Aberdeen-December-1-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/c7993ddd/Ross-County-St-Johnstone-September-21-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/eca23e74/St-Mirren-Heart-of-Midlothian-September-21-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/836d1bf4/Hibernian-Dundee-United-November-3-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/c8ca48b7/Dundee-Motherwell-December-4-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/f63926a0/Rangers-Kilmarnock-December-4-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/5b3864df/Aberdeen-Celtic-December-4-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/32dd944a/Heart-of-Midlothian-Dundee-December-7-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/912d8208/Dundee-United-Kilmarnock-December-7-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/bc87d012/St-Mirren-Motherwell-December-7-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/d042afb3/Aberdeen-St-Johnstone-December-7-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/da6ed2c3/Celtic-Hibernian-December-7-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/33bc939b/Ross-County-Rangers-December-8-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/1ebb323f/St-Johnstone-St-Mirren-December-14-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/7c8f9957/Hibernian-Ross-County-December-14-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/94d0e535/Motherwell-Dundee-United-December-14-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/660023b3/Kilmarnock-Heart-of-Midlothian-December-15-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/b81aa4fa/00032902/Celtic-vs-Dundee-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/8bbab7cf/86b7acd2/Aberdeen-vs-Rangers-History</t>
+  </si>
+  <si>
     <t>https://fbref.com/en/stathead/matchup/teams/f3aacc58/8bbab7cf/Hibernian-vs-Aberdeen-History</t>
   </si>
   <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/9d04848a/25f1fd26/Motherwell-vs-Kilmarnock-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e986ece7/b81aa4fa/Dundee-United-vs-Celtic-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/86b7acd2/00032902/Rangers-vs-Dundee-History</t>
+    <t>https://fbref.com/en/stathead/matchup/teams/a5298e9f/3568ad4c/Ross-County-vs-St-Mirren-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/dd289621/7c77b0bc/St-Johnstone-vs-Heart-of-Midlothian-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/f3aacc58/7c77b0bc/Hibernian-vs-Heart-of-Midlothian-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e986ece7/dd289621/Dundee-United-vs-St-Johnstone-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/8bbab7cf/25f1fd26/Aberdeen-vs-Kilmarnock-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/b81aa4fa/9d04848a/Celtic-vs-Motherwell-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/a5298e9f/00032902/Ross-County-vs-Dundee-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/86b7acd2/3568ad4c/Rangers-vs-St-Mirren-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/3f458af7/Ross-County-Dundee-United-August-10-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/786d4564/Rangers-Motherwell-August-10-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/87de27b0/Dundee-Heart-of-Midlothian-August-10-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/efe8de9a/Hibernian-Celtic-August-11-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/84bfadff/Kilmarnock-St-Johnstone-August-11-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/bc2858bb/Aberdeen-St-Mirren-August-11-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/dd289621/b81aa4fa/St-Johnstone-vs-Celtic-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/3568ad4c/00032902/St-Mirren-vs-Dundee-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/a5298e9f/7c77b0bc/Ross-County-vs-Heart-of-Midlothian-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/9d04848a/86b7acd2/Motherwell-vs-Rangers-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/f3aacc58/25f1fd26/Hibernian-vs-Kilmarnock-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e986ece7/8bbab7cf/Dundee-United-vs-Aberdeen-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/b81aa4fa/86b7acd2/Old-Firm-Derby-Celtic-vs-Rangers-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/f3aacc58/dd289621/Hibernian-vs-St-Johnstone-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/9d04848a/7c77b0bc/Motherwell-vs-Heart-of-Midlothian-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/a5298e9f/8bbab7cf/Ross-County-vs-Aberdeen-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/3568ad4c/25f1fd26/St-Mirren-vs-Kilmarnock-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e986ece7/00032902/Dundee-United-vs-Dundee-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/f3aacc58/86b7acd2/Hibernian-vs-Rangers-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/9d04848a/8bbab7cf/Motherwell-vs-Aberdeen-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/b81aa4fa/3568ad4c/Celtic-vs-St-Mirren-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e986ece7/7c77b0bc/Dundee-United-vs-Heart-of-Midlothian-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/dd289621/00032902/St-Johnstone-vs-Dundee-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/a5298e9f/25f1fd26/Ross-County-vs-Kilmarnock-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/c1b32f12/Dundee-Kilmarnock-November-3-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/b81aa4fa/a5298e9f/Celtic-vs-Ross-County-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e986ece7/3568ad4c/Dundee-United-vs-St-Mirren-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/f3aacc58/9d04848a/Hibernian-vs-Motherwell-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/8bbab7cf/7c77b0bc/Aberdeen-vs-Heart-of-Midlothian-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/dd289621/86b7acd2/St-Johnstone-vs-Rangers-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/f3aacc58/a5298e9f/Hibernian-vs-Ross-County-History</t>
   </si>
   <si>
     <t>https://fbref.com/en/stathead/matchup/teams/dd289621/9d04848a/St-Johnstone-vs-Motherwell-History</t>
   </si>
   <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/8bbab7cf/3568ad4c/Aberdeen-vs-St-Mirren-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/7c77b0bc/25f1fd26/Heart-of-Midlothian-vs-Kilmarnock-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e986ece7/86b7acd2/Dundee-United-vs-Rangers-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/dd289621/3568ad4c/St-Johnstone-vs-St-Mirren-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/7c77b0bc/00032902/Heart-of-Midlothian-vs-Dundee-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e986ece7/25f1fd26/Dundee-United-vs-Kilmarnock-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/a5298e9f/86b7acd2/Ross-County-vs-Rangers-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/8bbab7cf/00032902/Aberdeen-vs-Dundee-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/f3aacc58/3568ad4c/Hibernian-vs-St-Mirren-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/a5298e9f/9d04848a/Ross-County-vs-Motherwell-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/dd289621/25f1fd26/St-Johnstone-vs-Kilmarnock-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/86b7acd2/7c77b0bc/Rangers-vs-Heart-of-Midlothian-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/f3aacc58/b81aa4fa/Hibernian-vs-Celtic-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e986ece7/9d04848a/Dundee-United-vs-Motherwell-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/86b7acd2/25f1fd26/Rangers-vs-Kilmarnock-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/7c77b0bc/3568ad4c/Heart-of-Midlothian-vs-St-Mirren-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/b81aa4fa/8bbab7cf/Celtic-vs-Aberdeen-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/dd289621/a5298e9f/St-Johnstone-vs-Ross-County-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/f3aacc58/e986ece7/Hibernian-vs-Dundee-United-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/9d04848a/00032902/Motherwell-vs-Dundee-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/94ab474a/Hibernian-Dundee-August-24-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/a3caa8a4/Dundee-United-St-Johnstone-August-24-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/eaa7195c/Rangers-Ross-County-August-24-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/9dc2d830/St-Mirren-Celtic-August-25-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/7df69c15/Aberdeen-Kilmarnock-August-25-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/a0f450ae/Motherwell-Heart-of-Midlothian-August-25-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/9d04848a/3568ad4c/Motherwell-vs-St-Mirren-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/dd289621/8bbab7cf/St-Johnstone-vs-Aberdeen-History</t>
+  </si>
+  <si>
     <t>https://fbref.com/en/stathead/matchup/teams/e986ece7/a5298e9f/Dundee-United-vs-Ross-County-History</t>
   </si>
   <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/f3aacc58/3568ad4c/Hibernian-vs-St-Mirren-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/8bbab7cf/00032902/Aberdeen-vs-Dundee-History</t>
+    <t>https://fbref.com/en/stathead/matchup/teams/b81aa4fa/7c77b0bc/Celtic-vs-Heart-of-Midlothian-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/f3aacc58/00032902/Hibernian-vs-Dundee-History</t>
   </si>
   <si>
     <t>https://fbref.com/en/stathead/matchup/teams/b81aa4fa/25f1fd26/Celtic-vs-Kilmarnock-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/86b7acd2/7c77b0bc/Rangers-vs-Heart-of-Midlothian-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/8bbab7cf/3568ad4c/Aberdeen-vs-St-Mirren-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e986ece7/86b7acd2/Dundee-United-vs-Rangers-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/dd289621/25f1fd26/St-Johnstone-vs-Kilmarnock-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/a5298e9f/9d04848a/Ross-County-vs-Motherwell-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/f3aacc58/00032902/Hibernian-vs-Dundee-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/b81aa4fa/7c77b0bc/Celtic-vs-Heart-of-Midlothian-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/25f1fd26/00032902/Kilmarnock-vs-Dundee-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/b81aa4fa/a5298e9f/Celtic-vs-Ross-County-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/f3aacc58/9d04848a/Hibernian-vs-Motherwell-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e986ece7/3568ad4c/Dundee-United-vs-St-Mirren-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/dd289621/86b7acd2/St-Johnstone-vs-Rangers-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/8bbab7cf/7c77b0bc/Aberdeen-vs-Heart-of-Midlothian-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/c7993ddd/Ross-County-St-Johnstone-September-21-2024-Scottish-Premiership</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/eca23e74/St-Mirren-Heart-of-Midlothian-September-21-2024-Scottish-Premiership</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/836d1bf4/Hibernian-Dundee-United-November-3-2024-Scottish-Premiership</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/9d04848a/00032902/Motherwell-vs-Dundee-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/86b7acd2/25f1fd26/Rangers-vs-Kilmarnock-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/b81aa4fa/8bbab7cf/Celtic-vs-Aberdeen-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/7c77b0bc/00032902/Heart-of-Midlothian-vs-Dundee-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e986ece7/25f1fd26/Dundee-United-vs-Kilmarnock-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/9d04848a/3568ad4c/Motherwell-vs-St-Mirren-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/dd289621/8bbab7cf/St-Johnstone-vs-Aberdeen-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/f3aacc58/b81aa4fa/Hibernian-vs-Celtic-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/a5298e9f/86b7acd2/Ross-County-vs-Rangers-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/dd289621/3568ad4c/St-Johnstone-vs-St-Mirren-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/b81aa4fa/00032902/Celtic-vs-Dundee-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/f3aacc58/a5298e9f/Hibernian-vs-Ross-County-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e986ece7/9d04848a/Dundee-United-vs-Motherwell-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/7c77b0bc/25f1fd26/Heart-of-Midlothian-vs-Kilmarnock-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/8bbab7cf/86b7acd2/Aberdeen-vs-Rangers-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/a5298e9f/3568ad4c/Ross-County-vs-St-Mirren-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/dd289621/7c77b0bc/St-Johnstone-vs-Heart-of-Midlothian-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/f3aacc58/7c77b0bc/Hibernian-vs-Heart-of-Midlothian-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e986ece7/dd289621/Dundee-United-vs-St-Johnstone-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/8bbab7cf/25f1fd26/Aberdeen-vs-Kilmarnock-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/b81aa4fa/9d04848a/Celtic-vs-Motherwell-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/a5298e9f/00032902/Ross-County-vs-Dundee-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/86b7acd2/3568ad4c/Rangers-vs-St-Mirren-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/3f458af7/Ross-County-Dundee-United-August-10-2024-Scottish-Premiership</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/786d4564/Rangers-Motherwell-August-10-2024-Scottish-Premiership</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/87de27b0/Dundee-Heart-of-Midlothian-August-10-2024-Scottish-Premiership</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/efe8de9a/Hibernian-Celtic-August-11-2024-Scottish-Premiership</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/84bfadff/Kilmarnock-St-Johnstone-August-11-2024-Scottish-Premiership</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/bc2858bb/Aberdeen-St-Mirren-August-11-2024-Scottish-Premiership</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/dd289621/b81aa4fa/St-Johnstone-vs-Celtic-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/3568ad4c/00032902/St-Mirren-vs-Dundee-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/a5298e9f/7c77b0bc/Ross-County-vs-Heart-of-Midlothian-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/9d04848a/86b7acd2/Motherwell-vs-Rangers-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/f3aacc58/25f1fd26/Hibernian-vs-Kilmarnock-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e986ece7/8bbab7cf/Dundee-United-vs-Aberdeen-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/b81aa4fa/86b7acd2/Old-Firm-Derby-Celtic-vs-Rangers-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/f3aacc58/dd289621/Hibernian-vs-St-Johnstone-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/9d04848a/7c77b0bc/Motherwell-vs-Heart-of-Midlothian-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/a5298e9f/8bbab7cf/Ross-County-vs-Aberdeen-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/3568ad4c/25f1fd26/St-Mirren-vs-Kilmarnock-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e986ece7/00032902/Dundee-United-vs-Dundee-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/b81aa4fa/3568ad4c/Celtic-vs-St-Mirren-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e986ece7/7c77b0bc/Dundee-United-vs-Heart-of-Midlothian-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/dd289621/00032902/St-Johnstone-vs-Dundee-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/9d04848a/8bbab7cf/Motherwell-vs-Aberdeen-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/f3aacc58/86b7acd2/Hibernian-vs-Rangers-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/a5298e9f/25f1fd26/Ross-County-vs-Kilmarnock-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/c1b32f12/Dundee-Kilmarnock-November-3-2024-Scottish-Premiership</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/7c77b0bc/3568ad4c/Heart-of-Midlothian-vs-St-Mirren-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/dd289621/a5298e9f/St-Johnstone-vs-Ross-County-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/f3aacc58/e986ece7/Hibernian-vs-Dundee-United-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/94ab474a/Hibernian-Dundee-August-24-2024-Scottish-Premiership</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/a3caa8a4/Dundee-United-St-Johnstone-August-24-2024-Scottish-Premiership</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/eaa7195c/Rangers-Ross-County-August-24-2024-Scottish-Premiership</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/9dc2d830/St-Mirren-Celtic-August-25-2024-Scottish-Premiership</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/7df69c15/Aberdeen-Kilmarnock-August-25-2024-Scottish-Premiership</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/a0f450ae/Motherwell-Heart-of-Midlothian-August-25-2024-Scottish-Premiership</t>
   </si>
   <si>
     <t>https://fbref.com/en/matches/30131e2c/Dundee-St-Mirren-August-31-2024-Scottish-Premiership</t>
@@ -1391,13 +1493,13 @@
         <v>226</v>
       </c>
       <c r="K2" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="L2" t="n">
         <v>0.0</v>
       </c>
       <c r="M2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="N2" t="n">
         <v>0.0</v>
@@ -1406,16 +1508,16 @@
         <v>18478.0</v>
       </c>
       <c r="P2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q2" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="R2" t="e">
         <v>#N/A</v>
       </c>
       <c r="S2" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
     </row>
     <row r="3">
@@ -1450,13 +1552,13 @@
         <v>227</v>
       </c>
       <c r="K3" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L3" t="n">
         <v>0.0</v>
       </c>
       <c r="M3" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="N3" t="n">
         <v>0.0</v>
@@ -1465,16 +1567,16 @@
         <v>4353.0</v>
       </c>
       <c r="P3" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q3" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="R3" t="e">
         <v>#N/A</v>
       </c>
       <c r="S3" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="4">
@@ -1509,13 +1611,13 @@
         <v>228</v>
       </c>
       <c r="K4" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="L4" t="n">
         <v>2.0</v>
       </c>
       <c r="M4" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="N4" t="n">
         <v>2.0</v>
@@ -1524,16 +1626,16 @@
         <v>12616.0</v>
       </c>
       <c r="P4" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q4" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="R4" t="e">
         <v>#N/A</v>
       </c>
       <c r="S4" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="5">
@@ -1568,13 +1670,13 @@
         <v>227</v>
       </c>
       <c r="K5" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="L5" t="n">
         <v>3.0</v>
       </c>
       <c r="M5" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="N5" t="n">
         <v>0.0</v>
@@ -1583,16 +1685,16 @@
         <v>6171.0</v>
       </c>
       <c r="P5" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q5" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="R5" t="e">
         <v>#N/A</v>
       </c>
       <c r="S5" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
     </row>
     <row r="6">
@@ -1627,13 +1729,13 @@
         <v>229</v>
       </c>
       <c r="K6" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="L6" t="n">
         <v>4.0</v>
       </c>
       <c r="M6" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="N6" t="n">
         <v>0.0</v>
@@ -1642,16 +1744,16 @@
         <v>#N/A</v>
       </c>
       <c r="P6" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q6" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="R6" t="e">
         <v>#N/A</v>
       </c>
       <c r="S6" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
     </row>
     <row r="7">
@@ -1686,13 +1788,13 @@
         <v>230</v>
       </c>
       <c r="K7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="L7" t="n">
         <v>1.0</v>
       </c>
       <c r="M7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="N7" t="n">
         <v>2.0</v>
@@ -1701,16 +1803,16 @@
         <v>#N/A</v>
       </c>
       <c r="P7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q7" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="R7" t="e">
         <v>#N/A</v>
       </c>
       <c r="S7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
     </row>
     <row r="8">
@@ -1745,13 +1847,13 @@
         <v>231</v>
       </c>
       <c r="K8" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="L8" t="n">
         <v>1.0</v>
       </c>
       <c r="M8" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="N8" t="n">
         <v>2.0</v>
@@ -1760,16 +1862,16 @@
         <v>18402.0</v>
       </c>
       <c r="P8" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q8" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="R8" t="e">
         <v>#N/A</v>
       </c>
       <c r="S8" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="9">
@@ -1804,13 +1906,13 @@
         <v>231</v>
       </c>
       <c r="K9" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="L9" t="n">
         <v>2.0</v>
       </c>
       <c r="M9" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="N9" t="n">
         <v>0.0</v>
@@ -1819,16 +1921,16 @@
         <v>#N/A</v>
       </c>
       <c r="P9" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q9" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="R9" t="e">
         <v>#N/A</v>
       </c>
       <c r="S9" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="10">
@@ -1863,13 +1965,13 @@
         <v>231</v>
       </c>
       <c r="K10" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L10" t="n">
         <v>0.0</v>
       </c>
       <c r="M10" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="N10" t="n">
         <v>0.0</v>
@@ -1878,16 +1980,16 @@
         <v>3468.0</v>
       </c>
       <c r="P10" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q10" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="R10" t="e">
         <v>#N/A</v>
       </c>
       <c r="S10" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
     </row>
     <row r="11">
@@ -1922,13 +2024,13 @@
         <v>231</v>
       </c>
       <c r="K11" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="L11" t="n">
         <v>3.0</v>
       </c>
       <c r="M11" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="N11" t="n">
         <v>1.0</v>
@@ -1937,16 +2039,16 @@
         <v>6042.0</v>
       </c>
       <c r="P11" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q11" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="R11" t="e">
         <v>#N/A</v>
       </c>
       <c r="S11" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="12">
@@ -1981,13 +2083,13 @@
         <v>231</v>
       </c>
       <c r="K12" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="L12" t="n">
         <v>1.0</v>
       </c>
       <c r="M12" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="N12" t="n">
         <v>2.0</v>
@@ -1996,16 +2098,16 @@
         <v>8415.0</v>
       </c>
       <c r="P12" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q12" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="R12" t="e">
         <v>#N/A</v>
       </c>
       <c r="S12" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
     </row>
     <row r="13">
@@ -2040,13 +2142,13 @@
         <v>230</v>
       </c>
       <c r="K13" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="L13" t="n">
         <v>2.0</v>
       </c>
       <c r="M13" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="N13" t="n">
         <v>1.0</v>
@@ -2055,16 +2157,16 @@
         <v>19274.0</v>
       </c>
       <c r="P13" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q13" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="R13" t="e">
         <v>#N/A</v>
       </c>
       <c r="S13" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
     <row r="14">
@@ -2099,13 +2201,13 @@
         <v>227</v>
       </c>
       <c r="K14" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="L14" t="n">
         <v>1.0</v>
       </c>
       <c r="M14" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="N14" t="n">
         <v>2.0</v>
@@ -2114,16 +2216,16 @@
         <v>5917.0</v>
       </c>
       <c r="P14" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q14" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="R14" t="e">
         <v>#N/A</v>
       </c>
       <c r="S14" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="15">
@@ -2158,13 +2260,13 @@
         <v>227</v>
       </c>
       <c r="K15" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="L15" t="n">
         <v>0.0</v>
       </c>
       <c r="M15" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="N15" t="n">
         <v>0.0</v>
@@ -2173,16 +2275,16 @@
         <v>6142.0</v>
       </c>
       <c r="P15" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q15" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="R15" t="e">
         <v>#N/A</v>
       </c>
       <c r="S15" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="16">
@@ -2217,31 +2319,31 @@
         <v>231</v>
       </c>
       <c r="K16" t="s">
-        <v>246</v>
-      </c>
-      <c r="L16" t="e">
-        <v>#N/A</v>
+        <v>248</v>
+      </c>
+      <c r="L16" t="n">
+        <v>3.0</v>
       </c>
       <c r="M16" t="s">
-        <v>245</v>
-      </c>
-      <c r="N16" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O16" t="e">
-        <v>#N/A</v>
+        <v>247</v>
+      </c>
+      <c r="N16" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>15845.0</v>
       </c>
       <c r="P16" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q16" t="s">
-        <v>236</v>
+        <v>274</v>
       </c>
       <c r="R16" t="e">
         <v>#N/A</v>
       </c>
       <c r="S16" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
     </row>
     <row r="17">
@@ -2276,13 +2378,13 @@
         <v>231</v>
       </c>
       <c r="K17" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="L17" t="e">
         <v>#N/A</v>
       </c>
       <c r="M17" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="N17" t="e">
         <v>#N/A</v>
@@ -2291,16 +2393,16 @@
         <v>#N/A</v>
       </c>
       <c r="P17" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q17" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="R17" t="e">
         <v>#N/A</v>
       </c>
       <c r="S17" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="18">
@@ -2335,14 +2437,14 @@
         <v>231</v>
       </c>
       <c r="K18" t="s">
+        <v>244</v>
+      </c>
+      <c r="L18" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M18" t="s">
         <v>242</v>
       </c>
-      <c r="L18" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M18" t="s">
-        <v>240</v>
-      </c>
       <c r="N18" t="e">
         <v>#N/A</v>
       </c>
@@ -2350,16 +2452,16 @@
         <v>#N/A</v>
       </c>
       <c r="P18" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q18" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="R18" t="e">
         <v>#N/A</v>
       </c>
       <c r="S18" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="19">
@@ -2394,13 +2496,13 @@
         <v>230</v>
       </c>
       <c r="K19" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="L19" t="e">
         <v>#N/A</v>
       </c>
       <c r="M19" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="N19" t="e">
         <v>#N/A</v>
@@ -2409,16 +2511,16 @@
         <v>#N/A</v>
       </c>
       <c r="P19" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q19" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="R19" t="e">
         <v>#N/A</v>
       </c>
       <c r="S19" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
     </row>
     <row r="20">
@@ -2453,31 +2555,31 @@
         <v>227</v>
       </c>
       <c r="K20" t="s">
-        <v>239</v>
-      </c>
-      <c r="L20" t="e">
-        <v>#N/A</v>
+        <v>241</v>
+      </c>
+      <c r="L20" t="n">
+        <v>2.0</v>
       </c>
       <c r="M20" t="s">
-        <v>243</v>
-      </c>
-      <c r="N20" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O20" t="e">
-        <v>#N/A</v>
+        <v>245</v>
+      </c>
+      <c r="N20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>4306.0</v>
       </c>
       <c r="P20" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q20" t="s">
-        <v>236</v>
+        <v>267</v>
       </c>
       <c r="R20" t="e">
         <v>#N/A</v>
       </c>
       <c r="S20" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="21">
@@ -2512,31 +2614,31 @@
         <v>227</v>
       </c>
       <c r="K21" t="s">
-        <v>240</v>
-      </c>
-      <c r="L21" t="e">
-        <v>#N/A</v>
+        <v>242</v>
+      </c>
+      <c r="L21" t="n">
+        <v>3.0</v>
       </c>
       <c r="M21" t="s">
-        <v>244</v>
-      </c>
-      <c r="N21" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O21" t="e">
-        <v>#N/A</v>
+        <v>246</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>8349.0</v>
       </c>
       <c r="P21" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q21" t="s">
-        <v>236</v>
+        <v>271</v>
       </c>
       <c r="R21" t="e">
         <v>#N/A</v>
       </c>
       <c r="S21" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
     </row>
     <row r="22">
@@ -2571,31 +2673,31 @@
         <v>227</v>
       </c>
       <c r="K22" t="s">
-        <v>246</v>
-      </c>
-      <c r="L22" t="e">
-        <v>#N/A</v>
+        <v>248</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1.0</v>
       </c>
       <c r="M22" t="s">
-        <v>241</v>
-      </c>
-      <c r="N22" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O22" t="e">
-        <v>#N/A</v>
+        <v>243</v>
+      </c>
+      <c r="N22" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>15594.0</v>
       </c>
       <c r="P22" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q22" t="s">
-        <v>236</v>
+        <v>275</v>
       </c>
       <c r="R22" t="e">
         <v>#N/A</v>
       </c>
       <c r="S22" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="23">
@@ -2630,31 +2732,31 @@
         <v>232</v>
       </c>
       <c r="K23" t="s">
-        <v>245</v>
-      </c>
-      <c r="L23" t="e">
-        <v>#N/A</v>
+        <v>247</v>
+      </c>
+      <c r="L23" t="n">
+        <v>4.0</v>
       </c>
       <c r="M23" t="s">
-        <v>248</v>
-      </c>
-      <c r="N23" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O23" t="e">
-        <v>#N/A</v>
+        <v>250</v>
+      </c>
+      <c r="N23" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>19274.0</v>
       </c>
       <c r="P23" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q23" t="s">
-        <v>236</v>
+        <v>276</v>
       </c>
       <c r="R23" t="e">
         <v>#N/A</v>
       </c>
       <c r="S23" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="24">
@@ -2689,31 +2791,31 @@
         <v>227</v>
       </c>
       <c r="K24" t="s">
-        <v>247</v>
-      </c>
-      <c r="L24" t="e">
-        <v>#N/A</v>
+        <v>249</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.0</v>
       </c>
       <c r="M24" t="s">
-        <v>242</v>
-      </c>
-      <c r="N24" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O24" t="e">
-        <v>#N/A</v>
+        <v>244</v>
+      </c>
+      <c r="N24" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>8657.0</v>
       </c>
       <c r="P24" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q24" t="s">
-        <v>236</v>
+        <v>277</v>
       </c>
       <c r="R24" t="e">
         <v>#N/A</v>
       </c>
       <c r="S24" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
     </row>
     <row r="25">
@@ -2748,31 +2850,31 @@
         <v>233</v>
       </c>
       <c r="K25" t="s">
-        <v>249</v>
-      </c>
-      <c r="L25" t="e">
-        <v>#N/A</v>
+        <v>251</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1.0</v>
       </c>
       <c r="M25" t="s">
-        <v>238</v>
-      </c>
-      <c r="N25" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O25" t="e">
-        <v>#N/A</v>
+        <v>240</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>48254.0</v>
       </c>
       <c r="P25" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q25" t="s">
-        <v>236</v>
+        <v>278</v>
       </c>
       <c r="R25" t="e">
         <v>#N/A</v>
       </c>
       <c r="S25" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
     </row>
     <row r="26">
@@ -2807,31 +2909,31 @@
         <v>227</v>
       </c>
       <c r="K26" t="s">
-        <v>241</v>
-      </c>
-      <c r="L26" t="e">
-        <v>#N/A</v>
+        <v>245</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1.0</v>
       </c>
       <c r="M26" t="s">
-        <v>245</v>
-      </c>
-      <c r="N26" t="e">
-        <v>#N/A</v>
+        <v>249</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.0</v>
       </c>
       <c r="O26" t="e">
         <v>#N/A</v>
       </c>
       <c r="P26" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="Q26" t="s">
-        <v>236</v>
+        <v>275</v>
       </c>
       <c r="R26" t="e">
         <v>#N/A</v>
       </c>
       <c r="S26" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
     </row>
     <row r="27">
@@ -2866,31 +2968,31 @@
         <v>227</v>
       </c>
       <c r="K27" t="s">
-        <v>249</v>
-      </c>
-      <c r="L27" t="e">
-        <v>#N/A</v>
+        <v>246</v>
+      </c>
+      <c r="L27" t="n">
+        <v>2.0</v>
       </c>
       <c r="M27" t="s">
-        <v>240</v>
-      </c>
-      <c r="N27" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O27" t="e">
-        <v>#N/A</v>
+        <v>241</v>
+      </c>
+      <c r="N27" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>3410.0</v>
       </c>
       <c r="P27" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="Q27" t="s">
-        <v>236</v>
+        <v>272</v>
       </c>
       <c r="R27" t="e">
         <v>#N/A</v>
       </c>
       <c r="S27" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="28">
@@ -2922,34 +3024,34 @@
         <v>45619.0</v>
       </c>
       <c r="J28" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="K28" t="s">
-        <v>243</v>
-      </c>
-      <c r="L28" t="e">
-        <v>#N/A</v>
+        <v>251</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1.0</v>
       </c>
       <c r="M28" t="s">
-        <v>247</v>
-      </c>
-      <c r="N28" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O28" t="e">
-        <v>#N/A</v>
+        <v>242</v>
+      </c>
+      <c r="N28" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>47714.0</v>
       </c>
       <c r="P28" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="Q28" t="s">
-        <v>236</v>
+        <v>273</v>
       </c>
       <c r="R28" t="e">
         <v>#N/A</v>
       </c>
       <c r="S28" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
     </row>
     <row r="29">
@@ -2981,34 +3083,34 @@
         <v>45619.0</v>
       </c>
       <c r="J29" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="K29" t="s">
-        <v>244</v>
-      </c>
-      <c r="L29" t="e">
-        <v>#N/A</v>
+        <v>243</v>
+      </c>
+      <c r="L29" t="n">
+        <v>2.0</v>
       </c>
       <c r="M29" t="s">
-        <v>239</v>
-      </c>
-      <c r="N29" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O29" t="e">
-        <v>#N/A</v>
+        <v>247</v>
+      </c>
+      <c r="N29" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>7533.0</v>
       </c>
       <c r="P29" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="Q29" t="s">
-        <v>236</v>
+        <v>271</v>
       </c>
       <c r="R29" t="e">
         <v>#N/A</v>
       </c>
       <c r="S29" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
     </row>
     <row r="30">
@@ -3040,34 +3142,34 @@
         <v>45619.0</v>
       </c>
       <c r="J30" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="K30" t="s">
+        <v>250</v>
+      </c>
+      <c r="L30" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="M30" t="s">
         <v>248</v>
       </c>
-      <c r="L30" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M30" t="s">
-        <v>246</v>
-      </c>
-      <c r="N30" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O30" t="e">
-        <v>#N/A</v>
+      <c r="N30" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>5310.0</v>
       </c>
       <c r="P30" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q30" t="s">
-        <v>236</v>
+        <v>277</v>
       </c>
       <c r="R30" t="e">
         <v>#N/A</v>
       </c>
       <c r="S30" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="31">
@@ -3102,31 +3204,31 @@
         <v>231</v>
       </c>
       <c r="K31" t="s">
-        <v>238</v>
-      </c>
-      <c r="L31" t="e">
-        <v>#N/A</v>
+        <v>240</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1.0</v>
       </c>
       <c r="M31" t="s">
-        <v>242</v>
-      </c>
-      <c r="N31" t="e">
-        <v>#N/A</v>
+        <v>244</v>
+      </c>
+      <c r="N31" t="n">
+        <v>4.0</v>
       </c>
       <c r="O31" t="e">
         <v>#N/A</v>
       </c>
       <c r="P31" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q31" t="s">
-        <v>236</v>
+        <v>269</v>
       </c>
       <c r="R31" t="e">
         <v>#N/A</v>
       </c>
       <c r="S31" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
     </row>
     <row r="32">
@@ -3161,31 +3263,31 @@
         <v>227</v>
       </c>
       <c r="K32" t="s">
-        <v>247</v>
-      </c>
-      <c r="L32" t="e">
-        <v>#N/A</v>
+        <v>249</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1.0</v>
       </c>
       <c r="M32" t="s">
-        <v>248</v>
-      </c>
-      <c r="N32" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O32" t="e">
-        <v>#N/A</v>
+        <v>250</v>
+      </c>
+      <c r="N32" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>5454.0</v>
       </c>
       <c r="P32" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q32" t="s">
-        <v>236</v>
+        <v>267</v>
       </c>
       <c r="R32" t="e">
         <v>#N/A</v>
       </c>
       <c r="S32" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
     </row>
     <row r="33">
@@ -3220,31 +3322,31 @@
         <v>227</v>
       </c>
       <c r="K33" t="s">
-        <v>242</v>
-      </c>
-      <c r="L33" t="e">
-        <v>#N/A</v>
+        <v>244</v>
+      </c>
+      <c r="L33" t="n">
+        <v>5.0</v>
       </c>
       <c r="M33" t="s">
-        <v>244</v>
-      </c>
-      <c r="N33" t="e">
-        <v>#N/A</v>
+        <v>246</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.0</v>
       </c>
       <c r="O33" t="e">
         <v>#N/A</v>
       </c>
       <c r="P33" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q33" t="s">
-        <v>236</v>
+        <v>274</v>
       </c>
       <c r="R33" t="e">
         <v>#N/A</v>
       </c>
       <c r="S33" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="34">
@@ -3279,31 +3381,31 @@
         <v>227</v>
       </c>
       <c r="K34" t="s">
-        <v>239</v>
-      </c>
-      <c r="L34" t="e">
-        <v>#N/A</v>
+        <v>241</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.0</v>
       </c>
       <c r="M34" t="s">
-        <v>246</v>
-      </c>
-      <c r="N34" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O34" t="e">
-        <v>#N/A</v>
+        <v>248</v>
+      </c>
+      <c r="N34" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>5212.0</v>
       </c>
       <c r="P34" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q34" t="s">
-        <v>236</v>
+        <v>268</v>
       </c>
       <c r="R34" t="e">
         <v>#N/A</v>
       </c>
       <c r="S34" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
     </row>
     <row r="35">
@@ -3338,31 +3440,31 @@
         <v>227</v>
       </c>
       <c r="K35" t="s">
-        <v>240</v>
-      </c>
-      <c r="L35" t="e">
-        <v>#N/A</v>
+        <v>242</v>
+      </c>
+      <c r="L35" t="n">
+        <v>2.0</v>
       </c>
       <c r="M35" t="s">
-        <v>241</v>
-      </c>
-      <c r="N35" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O35" t="e">
-        <v>#N/A</v>
+        <v>243</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>8868.0</v>
       </c>
       <c r="P35" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q35" t="s">
-        <v>236</v>
+        <v>278</v>
       </c>
       <c r="R35" t="e">
         <v>#N/A</v>
       </c>
       <c r="S35" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="36">
@@ -3394,34 +3496,34 @@
         <v>45627.0</v>
       </c>
       <c r="J36" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="K36" t="s">
-        <v>243</v>
-      </c>
-      <c r="L36" t="e">
-        <v>#N/A</v>
+        <v>245</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.0</v>
       </c>
       <c r="M36" t="s">
-        <v>249</v>
-      </c>
-      <c r="N36" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O36" t="e">
-        <v>#N/A</v>
+        <v>251</v>
+      </c>
+      <c r="N36" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>7446.0</v>
       </c>
       <c r="P36" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q36" t="s">
-        <v>236</v>
+        <v>269</v>
       </c>
       <c r="R36" t="e">
         <v>#N/A</v>
       </c>
       <c r="S36" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="37">
@@ -3456,31 +3558,31 @@
         <v>227</v>
       </c>
       <c r="K37" t="s">
-        <v>238</v>
-      </c>
-      <c r="L37" t="e">
-        <v>#N/A</v>
+        <v>240</v>
+      </c>
+      <c r="L37" t="n">
+        <v>1.0</v>
       </c>
       <c r="M37" t="s">
-        <v>245</v>
-      </c>
-      <c r="N37" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O37" t="e">
-        <v>#N/A</v>
+        <v>247</v>
+      </c>
+      <c r="N37" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>18810.0</v>
       </c>
       <c r="P37" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q37" t="s">
-        <v>236</v>
+        <v>279</v>
       </c>
       <c r="R37" t="e">
         <v>#N/A</v>
       </c>
       <c r="S37" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
     </row>
     <row r="38">
@@ -3515,13 +3617,13 @@
         <v>227</v>
       </c>
       <c r="K38" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L38" t="n">
         <v>3.0</v>
       </c>
       <c r="M38" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="N38" t="n">
         <v>3.0</v>
@@ -3530,16 +3632,16 @@
         <v>3063.0</v>
       </c>
       <c r="P38" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q38" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="R38" t="e">
         <v>#N/A</v>
       </c>
       <c r="S38" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
     </row>
     <row r="39">
@@ -3574,13 +3676,13 @@
         <v>227</v>
       </c>
       <c r="K39" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="L39" t="n">
         <v>2.0</v>
       </c>
       <c r="M39" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="N39" t="n">
         <v>1.0</v>
@@ -3589,16 +3691,16 @@
         <v>7341.0</v>
       </c>
       <c r="P39" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q39" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="R39" t="e">
         <v>#N/A</v>
       </c>
       <c r="S39" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
     </row>
     <row r="40">
@@ -3633,13 +3735,13 @@
         <v>227</v>
       </c>
       <c r="K40" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="L40" t="n">
         <v>1.0</v>
       </c>
       <c r="M40" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="N40" t="n">
         <v>1.0</v>
@@ -3648,16 +3750,16 @@
         <v>15454.0</v>
       </c>
       <c r="P40" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q40" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="R40" t="e">
         <v>#N/A</v>
       </c>
       <c r="S40" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
     </row>
     <row r="41">
@@ -3692,31 +3794,31 @@
         <v>231</v>
       </c>
       <c r="K41" t="s">
-        <v>248</v>
-      </c>
-      <c r="L41" t="e">
-        <v>#N/A</v>
+        <v>250</v>
+      </c>
+      <c r="L41" t="n">
+        <v>4.0</v>
       </c>
       <c r="M41" t="s">
-        <v>239</v>
-      </c>
-      <c r="N41" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O41" t="e">
-        <v>#N/A</v>
+        <v>241</v>
+      </c>
+      <c r="N41" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>5381.0</v>
       </c>
       <c r="P41" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q41" t="s">
-        <v>236</v>
+        <v>271</v>
       </c>
       <c r="R41" t="e">
         <v>#N/A</v>
       </c>
       <c r="S41" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
     </row>
     <row r="42">
@@ -3751,31 +3853,31 @@
         <v>231</v>
       </c>
       <c r="K42" t="s">
+        <v>251</v>
+      </c>
+      <c r="L42" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="M42" t="s">
         <v>249</v>
       </c>
-      <c r="L42" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M42" t="s">
-        <v>247</v>
-      </c>
-      <c r="N42" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O42" t="e">
-        <v>#N/A</v>
+      <c r="N42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>44188.0</v>
       </c>
       <c r="P42" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q42" t="s">
-        <v>236</v>
+        <v>277</v>
       </c>
       <c r="R42" t="e">
         <v>#N/A</v>
       </c>
       <c r="S42" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
     </row>
     <row r="43">
@@ -3810,31 +3912,31 @@
         <v>230</v>
       </c>
       <c r="K43" t="s">
-        <v>245</v>
-      </c>
-      <c r="L43" t="e">
-        <v>#N/A</v>
+        <v>247</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0.0</v>
       </c>
       <c r="M43" t="s">
-        <v>242</v>
-      </c>
-      <c r="N43" t="e">
-        <v>#N/A</v>
+        <v>244</v>
+      </c>
+      <c r="N43" t="n">
+        <v>1.0</v>
       </c>
       <c r="O43" t="e">
         <v>#N/A</v>
       </c>
       <c r="P43" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q43" t="s">
-        <v>236</v>
+        <v>273</v>
       </c>
       <c r="R43" t="e">
         <v>#N/A</v>
       </c>
       <c r="S43" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="44">
@@ -3869,31 +3971,31 @@
         <v>227</v>
       </c>
       <c r="K44" t="s">
-        <v>238</v>
-      </c>
-      <c r="L44" t="e">
-        <v>#N/A</v>
+        <v>240</v>
+      </c>
+      <c r="L44" t="n">
+        <v>2.0</v>
       </c>
       <c r="M44" t="s">
-        <v>248</v>
-      </c>
-      <c r="N44" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O44" t="e">
-        <v>#N/A</v>
+        <v>250</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>18737.0</v>
       </c>
       <c r="P44" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q44" t="s">
-        <v>236</v>
+        <v>281</v>
       </c>
       <c r="R44" t="e">
         <v>#N/A</v>
       </c>
       <c r="S44" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="45">
@@ -3928,31 +4030,31 @@
         <v>227</v>
       </c>
       <c r="K45" t="s">
-        <v>240</v>
-      </c>
-      <c r="L45" t="e">
-        <v>#N/A</v>
+        <v>242</v>
+      </c>
+      <c r="L45" t="n">
+        <v>1.0</v>
       </c>
       <c r="M45" t="s">
-        <v>247</v>
-      </c>
-      <c r="N45" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O45" t="e">
-        <v>#N/A</v>
+        <v>249</v>
+      </c>
+      <c r="N45" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>8402.0</v>
       </c>
       <c r="P45" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q45" t="s">
-        <v>236</v>
+        <v>269</v>
       </c>
       <c r="R45" t="e">
         <v>#N/A</v>
       </c>
       <c r="S45" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
     </row>
     <row r="46">
@@ -3987,31 +4089,31 @@
         <v>227</v>
       </c>
       <c r="K46" t="s">
+        <v>243</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M46" t="s">
         <v>241</v>
       </c>
-      <c r="L46" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M46" t="s">
-        <v>239</v>
-      </c>
-      <c r="N46" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O46" t="e">
-        <v>#N/A</v>
+      <c r="N46" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>6111.0</v>
       </c>
       <c r="P46" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q46" t="s">
-        <v>236</v>
+        <v>280</v>
       </c>
       <c r="R46" t="e">
         <v>#N/A</v>
       </c>
       <c r="S46" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
     </row>
     <row r="47">
@@ -4046,31 +4148,31 @@
         <v>227</v>
       </c>
       <c r="K47" t="s">
+        <v>247</v>
+      </c>
+      <c r="L47" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M47" t="s">
         <v>245</v>
       </c>
-      <c r="L47" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M47" t="s">
-        <v>243</v>
-      </c>
-      <c r="N47" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O47" t="e">
-        <v>#N/A</v>
+      <c r="N47" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O47" t="n">
+        <v>15880.0</v>
       </c>
       <c r="P47" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q47" t="s">
-        <v>236</v>
+        <v>267</v>
       </c>
       <c r="R47" t="e">
         <v>#N/A</v>
       </c>
       <c r="S47" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
     </row>
     <row r="48">
@@ -4105,31 +4207,31 @@
         <v>227</v>
       </c>
       <c r="K48" t="s">
-        <v>242</v>
-      </c>
-      <c r="L48" t="e">
-        <v>#N/A</v>
+        <v>244</v>
+      </c>
+      <c r="L48" t="n">
+        <v>3.0</v>
       </c>
       <c r="M48" t="s">
-        <v>246</v>
-      </c>
-      <c r="N48" t="e">
-        <v>#N/A</v>
+        <v>248</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.0</v>
       </c>
       <c r="O48" t="e">
         <v>#N/A</v>
       </c>
       <c r="P48" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q48" t="s">
-        <v>236</v>
+        <v>272</v>
       </c>
       <c r="R48" t="e">
         <v>#N/A</v>
       </c>
       <c r="S48" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
     </row>
     <row r="49">
@@ -4161,34 +4263,34 @@
         <v>45634.0</v>
       </c>
       <c r="J49" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="K49" t="s">
-        <v>244</v>
-      </c>
-      <c r="L49" t="e">
-        <v>#N/A</v>
+        <v>246</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0.0</v>
       </c>
       <c r="M49" t="s">
-        <v>249</v>
-      </c>
-      <c r="N49" t="e">
-        <v>#N/A</v>
+        <v>251</v>
+      </c>
+      <c r="N49" t="n">
+        <v>3.0</v>
       </c>
       <c r="O49" t="e">
         <v>#N/A</v>
       </c>
       <c r="P49" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q49" t="s">
-        <v>236</v>
+        <v>279</v>
       </c>
       <c r="R49" t="e">
         <v>#N/A</v>
       </c>
       <c r="S49" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
     </row>
     <row r="50">
@@ -4223,31 +4325,31 @@
         <v>227</v>
       </c>
       <c r="K50" t="s">
+        <v>245</v>
+      </c>
+      <c r="L50" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="M50" t="s">
         <v>243</v>
       </c>
-      <c r="L50" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M50" t="s">
-        <v>241</v>
-      </c>
-      <c r="N50" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O50" t="e">
-        <v>#N/A</v>
+      <c r="N50" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O50" t="n">
+        <v>4001.0</v>
       </c>
       <c r="P50" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q50" t="s">
-        <v>236</v>
+        <v>266</v>
       </c>
       <c r="R50" t="e">
         <v>#N/A</v>
       </c>
       <c r="S50" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
     <row r="51">
@@ -4284,29 +4386,29 @@
       <c r="K51" t="s">
         <v>248</v>
       </c>
-      <c r="L51" t="e">
-        <v>#N/A</v>
+      <c r="L51" t="n">
+        <v>3.0</v>
       </c>
       <c r="M51" t="s">
-        <v>242</v>
-      </c>
-      <c r="N51" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O51" t="e">
-        <v>#N/A</v>
+        <v>246</v>
+      </c>
+      <c r="N51" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O51" t="n">
+        <v>14885.0</v>
       </c>
       <c r="P51" t="s">
         <v>260</v>
       </c>
       <c r="Q51" t="s">
-        <v>236</v>
+        <v>270</v>
       </c>
       <c r="R51" t="e">
         <v>#N/A</v>
       </c>
       <c r="S51" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
     </row>
     <row r="52">
@@ -4341,31 +4443,31 @@
         <v>227</v>
       </c>
       <c r="K52" t="s">
-        <v>246</v>
-      </c>
-      <c r="L52" t="e">
-        <v>#N/A</v>
+        <v>241</v>
+      </c>
+      <c r="L52" t="n">
+        <v>4.0</v>
       </c>
       <c r="M52" t="s">
-        <v>244</v>
-      </c>
-      <c r="N52" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O52" t="e">
-        <v>#N/A</v>
+        <v>242</v>
+      </c>
+      <c r="N52" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O52" t="n">
+        <v>4473.0</v>
       </c>
       <c r="P52" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="Q52" t="s">
-        <v>236</v>
+        <v>277</v>
       </c>
       <c r="R52" t="e">
         <v>#N/A</v>
       </c>
       <c r="S52" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
     </row>
     <row r="53">
@@ -4391,40 +4493,40 @@
         <v>34</v>
       </c>
       <c r="H53" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I53" t="n" s="2">
-        <v>45640.0</v>
+        <v>45641.0</v>
       </c>
       <c r="J53" t="s">
         <v>227</v>
       </c>
       <c r="K53" t="s">
-        <v>239</v>
-      </c>
-      <c r="L53" t="e">
-        <v>#N/A</v>
+        <v>249</v>
+      </c>
+      <c r="L53" t="n">
+        <v>1.0</v>
       </c>
       <c r="M53" t="s">
         <v>240</v>
       </c>
-      <c r="N53" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O53" t="e">
-        <v>#N/A</v>
+      <c r="N53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O53" t="n">
+        <v>5474.0</v>
       </c>
       <c r="P53" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="Q53" t="s">
-        <v>236</v>
+        <v>273</v>
       </c>
       <c r="R53" t="e">
         <v>#N/A</v>
       </c>
       <c r="S53" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
     </row>
     <row r="54">
@@ -4450,22 +4552,22 @@
         <v>34</v>
       </c>
       <c r="H54" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="I54" t="n" s="2">
-        <v>45641.0</v>
+        <v>45671.0</v>
       </c>
       <c r="J54" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="K54" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="L54" t="e">
         <v>#N/A</v>
       </c>
       <c r="M54" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="N54" t="e">
         <v>#N/A</v>
@@ -4474,16 +4576,16 @@
         <v>#N/A</v>
       </c>
       <c r="P54" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q54" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="R54" t="e">
         <v>#N/A</v>
       </c>
       <c r="S54" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
     </row>
     <row r="55">
@@ -4509,22 +4611,22 @@
         <v>34</v>
       </c>
       <c r="H55" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="I55" t="n" s="2">
-        <v>45641.0</v>
+        <v>45672.0</v>
       </c>
       <c r="J55" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="K55" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="L55" t="e">
         <v>#N/A</v>
       </c>
       <c r="M55" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="N55" t="e">
         <v>#N/A</v>
@@ -4533,16 +4635,16 @@
         <v>#N/A</v>
       </c>
       <c r="P55" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q55" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="R55" t="e">
         <v>#N/A</v>
       </c>
       <c r="S55" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
     </row>
     <row r="56">
@@ -4577,13 +4679,13 @@
         <v>231</v>
       </c>
       <c r="K56" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L56" t="e">
         <v>#N/A</v>
       </c>
       <c r="M56" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="N56" t="e">
         <v>#N/A</v>
@@ -4592,16 +4694,16 @@
         <v>#N/A</v>
       </c>
       <c r="P56" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q56" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="R56" t="e">
         <v>#N/A</v>
       </c>
       <c r="S56" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="57">
@@ -4636,13 +4738,13 @@
         <v>227</v>
       </c>
       <c r="K57" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="L57" t="e">
         <v>#N/A</v>
       </c>
       <c r="M57" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="N57" t="e">
         <v>#N/A</v>
@@ -4651,16 +4753,16 @@
         <v>#N/A</v>
       </c>
       <c r="P57" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q57" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="R57" t="e">
         <v>#N/A</v>
       </c>
       <c r="S57" t="s">
-        <v>294</v>
+        <v>337</v>
       </c>
     </row>
     <row r="58">
@@ -4695,13 +4797,13 @@
         <v>227</v>
       </c>
       <c r="K58" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="L58" t="e">
         <v>#N/A</v>
       </c>
       <c r="M58" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="N58" t="e">
         <v>#N/A</v>
@@ -4710,16 +4812,16 @@
         <v>#N/A</v>
       </c>
       <c r="P58" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q58" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="R58" t="e">
         <v>#N/A</v>
       </c>
       <c r="S58" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
     </row>
     <row r="59">
@@ -4754,13 +4856,13 @@
         <v>227</v>
       </c>
       <c r="K59" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L59" t="e">
         <v>#N/A</v>
       </c>
       <c r="M59" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="N59" t="e">
         <v>#N/A</v>
@@ -4769,16 +4871,16 @@
         <v>#N/A</v>
       </c>
       <c r="P59" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q59" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="R59" t="e">
         <v>#N/A</v>
       </c>
       <c r="S59" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
     </row>
     <row r="60">
@@ -4810,16 +4912,16 @@
         <v>45648.0</v>
       </c>
       <c r="J60" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="K60" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="L60" t="e">
         <v>#N/A</v>
       </c>
       <c r="M60" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="N60" t="e">
         <v>#N/A</v>
@@ -4828,16 +4930,16 @@
         <v>#N/A</v>
       </c>
       <c r="P60" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q60" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="R60" t="e">
         <v>#N/A</v>
       </c>
       <c r="S60" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="61">
@@ -4872,13 +4974,13 @@
         <v>227</v>
       </c>
       <c r="K61" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="L61" t="e">
         <v>#N/A</v>
       </c>
       <c r="M61" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="N61" t="e">
         <v>#N/A</v>
@@ -4887,16 +4989,16 @@
         <v>#N/A</v>
       </c>
       <c r="P61" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q61" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="R61" t="e">
         <v>#N/A</v>
       </c>
       <c r="S61" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
     </row>
     <row r="62">
@@ -4931,13 +5033,13 @@
         <v>226</v>
       </c>
       <c r="K62" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="L62" t="e">
         <v>#N/A</v>
       </c>
       <c r="M62" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="N62" t="e">
         <v>#N/A</v>
@@ -4946,16 +5048,16 @@
         <v>#N/A</v>
       </c>
       <c r="P62" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q62" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="R62" t="e">
         <v>#N/A</v>
       </c>
       <c r="S62" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
     </row>
     <row r="63">
@@ -4990,13 +5092,13 @@
         <v>227</v>
       </c>
       <c r="K63" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="L63" t="e">
         <v>#N/A</v>
       </c>
       <c r="M63" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="N63" t="e">
         <v>#N/A</v>
@@ -5005,16 +5107,16 @@
         <v>#N/A</v>
       </c>
       <c r="P63" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q63" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="R63" t="e">
         <v>#N/A</v>
       </c>
       <c r="S63" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
     </row>
     <row r="64">
@@ -5049,14 +5151,14 @@
         <v>227</v>
       </c>
       <c r="K64" t="s">
+        <v>249</v>
+      </c>
+      <c r="L64" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M64" t="s">
         <v>247</v>
       </c>
-      <c r="L64" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M64" t="s">
-        <v>245</v>
-      </c>
       <c r="N64" t="e">
         <v>#N/A</v>
       </c>
@@ -5064,16 +5166,16 @@
         <v>#N/A</v>
       </c>
       <c r="P64" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q64" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="R64" t="e">
         <v>#N/A</v>
       </c>
       <c r="S64" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
     </row>
     <row r="65">
@@ -5108,13 +5210,13 @@
         <v>227</v>
       </c>
       <c r="K65" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="L65" t="e">
         <v>#N/A</v>
       </c>
       <c r="M65" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="N65" t="e">
         <v>#N/A</v>
@@ -5123,16 +5225,16 @@
         <v>#N/A</v>
       </c>
       <c r="P65" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q65" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="R65" t="e">
         <v>#N/A</v>
       </c>
       <c r="S65" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
     </row>
     <row r="66">
@@ -5167,13 +5269,13 @@
         <v>227</v>
       </c>
       <c r="K66" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="L66" t="e">
         <v>#N/A</v>
       </c>
       <c r="M66" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="N66" t="e">
         <v>#N/A</v>
@@ -5182,16 +5284,16 @@
         <v>#N/A</v>
       </c>
       <c r="P66" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q66" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="R66" t="e">
         <v>#N/A</v>
       </c>
       <c r="S66" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
     </row>
     <row r="67">
@@ -5223,16 +5325,16 @@
         <v>45652.0</v>
       </c>
       <c r="J67" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="K67" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="L67" t="e">
         <v>#N/A</v>
       </c>
       <c r="M67" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="N67" t="e">
         <v>#N/A</v>
@@ -5241,16 +5343,16 @@
         <v>#N/A</v>
       </c>
       <c r="P67" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q67" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="R67" t="e">
         <v>#N/A</v>
       </c>
       <c r="S67" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
     </row>
     <row r="68">
@@ -5285,13 +5387,13 @@
         <v>227</v>
       </c>
       <c r="K68" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L68" t="n">
         <v>1.0</v>
       </c>
       <c r="M68" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="N68" t="n">
         <v>1.0</v>
@@ -5300,16 +5402,16 @@
         <v>4169.0</v>
       </c>
       <c r="P68" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q68" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="R68" t="e">
         <v>#N/A</v>
       </c>
       <c r="S68" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
     </row>
     <row r="69">
@@ -5344,13 +5446,13 @@
         <v>227</v>
       </c>
       <c r="K69" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="L69" t="n">
         <v>2.0</v>
       </c>
       <c r="M69" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="N69" t="n">
         <v>1.0</v>
@@ -5359,16 +5461,16 @@
         <v>48529.0</v>
       </c>
       <c r="P69" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q69" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="R69" t="e">
         <v>#N/A</v>
       </c>
       <c r="S69" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
     </row>
     <row r="70">
@@ -5403,13 +5505,13 @@
         <v>232</v>
       </c>
       <c r="K70" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="L70" t="n">
         <v>3.0</v>
       </c>
       <c r="M70" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="N70" t="n">
         <v>1.0</v>
@@ -5418,16 +5520,16 @@
         <v>7266.0</v>
       </c>
       <c r="P70" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q70" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="R70" t="e">
         <v>#N/A</v>
       </c>
       <c r="S70" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
     </row>
     <row r="71">
@@ -5462,13 +5564,13 @@
         <v>226</v>
       </c>
       <c r="K71" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="L71" t="n">
         <v>0.0</v>
       </c>
       <c r="M71" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="N71" t="n">
         <v>2.0</v>
@@ -5477,16 +5579,16 @@
         <v>17918.0</v>
       </c>
       <c r="P71" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q71" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="R71" t="e">
         <v>#N/A</v>
       </c>
       <c r="S71" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
     </row>
     <row r="72">
@@ -5521,13 +5623,13 @@
         <v>227</v>
       </c>
       <c r="K72" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="L72" t="n">
         <v>0.0</v>
       </c>
       <c r="M72" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="N72" t="n">
         <v>3.0</v>
@@ -5536,16 +5638,16 @@
         <v>4843.0</v>
       </c>
       <c r="P72" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q72" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="R72" t="e">
         <v>#N/A</v>
       </c>
       <c r="S72" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
     <row r="73">
@@ -5580,13 +5682,13 @@
         <v>227</v>
       </c>
       <c r="K73" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="L73" t="n">
         <v>3.0</v>
       </c>
       <c r="M73" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="N73" t="n">
         <v>1.0</v>
@@ -5595,16 +5697,16 @@
         <v>17057.0</v>
       </c>
       <c r="P73" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q73" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="R73" t="e">
         <v>#N/A</v>
       </c>
       <c r="S73" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="74">
@@ -5639,13 +5741,13 @@
         <v>227</v>
       </c>
       <c r="K74" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="L74" t="e">
         <v>#N/A</v>
       </c>
       <c r="M74" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="N74" t="e">
         <v>#N/A</v>
@@ -5654,16 +5756,16 @@
         <v>#N/A</v>
       </c>
       <c r="P74" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q74" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="R74" t="e">
         <v>#N/A</v>
       </c>
       <c r="S74" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
     </row>
     <row r="75">
@@ -5698,13 +5800,13 @@
         <v>227</v>
       </c>
       <c r="K75" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="L75" t="e">
         <v>#N/A</v>
       </c>
       <c r="M75" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="N75" t="e">
         <v>#N/A</v>
@@ -5713,16 +5815,16 @@
         <v>#N/A</v>
       </c>
       <c r="P75" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q75" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="R75" t="e">
         <v>#N/A</v>
       </c>
       <c r="S75" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
     </row>
     <row r="76">
@@ -5757,13 +5859,13 @@
         <v>227</v>
       </c>
       <c r="K76" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L76" t="e">
         <v>#N/A</v>
       </c>
       <c r="M76" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="N76" t="e">
         <v>#N/A</v>
@@ -5772,16 +5874,16 @@
         <v>#N/A</v>
       </c>
       <c r="P76" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q76" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="R76" t="e">
         <v>#N/A</v>
       </c>
       <c r="S76" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
     </row>
     <row r="77">
@@ -5816,13 +5918,13 @@
         <v>227</v>
       </c>
       <c r="K77" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L77" t="e">
         <v>#N/A</v>
       </c>
       <c r="M77" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="N77" t="e">
         <v>#N/A</v>
@@ -5831,16 +5933,16 @@
         <v>#N/A</v>
       </c>
       <c r="P77" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q77" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="R77" t="e">
         <v>#N/A</v>
       </c>
       <c r="S77" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
     </row>
     <row r="78">
@@ -5875,13 +5977,13 @@
         <v>227</v>
       </c>
       <c r="K78" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="L78" t="e">
         <v>#N/A</v>
       </c>
       <c r="M78" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="N78" t="e">
         <v>#N/A</v>
@@ -5890,16 +5992,16 @@
         <v>#N/A</v>
       </c>
       <c r="P78" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q78" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="R78" t="e">
         <v>#N/A</v>
       </c>
       <c r="S78" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
     </row>
     <row r="79">
@@ -5931,16 +6033,16 @@
         <v>45655.0</v>
       </c>
       <c r="J79" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="K79" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="L79" t="e">
         <v>#N/A</v>
       </c>
       <c r="M79" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="N79" t="e">
         <v>#N/A</v>
@@ -5949,16 +6051,16 @@
         <v>#N/A</v>
       </c>
       <c r="P79" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q79" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="R79" t="e">
         <v>#N/A</v>
       </c>
       <c r="S79" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
     </row>
     <row r="80">
@@ -5993,13 +6095,13 @@
         <v>227</v>
       </c>
       <c r="K80" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="L80" t="e">
         <v>#N/A</v>
       </c>
       <c r="M80" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="N80" t="e">
         <v>#N/A</v>
@@ -6008,16 +6110,16 @@
         <v>#N/A</v>
       </c>
       <c r="P80" t="s">
-        <v>236</v>
+        <v>263</v>
       </c>
       <c r="Q80" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="R80" t="e">
         <v>#N/A</v>
       </c>
       <c r="S80" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
     </row>
     <row r="81">
@@ -6052,13 +6154,13 @@
         <v>227</v>
       </c>
       <c r="K81" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="L81" t="e">
         <v>#N/A</v>
       </c>
       <c r="M81" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="N81" t="e">
         <v>#N/A</v>
@@ -6067,16 +6169,16 @@
         <v>#N/A</v>
       </c>
       <c r="P81" t="s">
-        <v>236</v>
+        <v>257</v>
       </c>
       <c r="Q81" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="R81" t="e">
         <v>#N/A</v>
       </c>
       <c r="S81" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
     </row>
     <row r="82">
@@ -6111,13 +6213,13 @@
         <v>227</v>
       </c>
       <c r="K82" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="L82" t="e">
         <v>#N/A</v>
       </c>
       <c r="M82" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="N82" t="e">
         <v>#N/A</v>
@@ -6126,16 +6228,16 @@
         <v>#N/A</v>
       </c>
       <c r="P82" t="s">
-        <v>236</v>
+        <v>252</v>
       </c>
       <c r="Q82" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="R82" t="e">
         <v>#N/A</v>
       </c>
       <c r="S82" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
     </row>
     <row r="83">
@@ -6170,13 +6272,13 @@
         <v>227</v>
       </c>
       <c r="K83" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="L83" t="e">
         <v>#N/A</v>
       </c>
       <c r="M83" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="N83" t="e">
         <v>#N/A</v>
@@ -6185,16 +6287,16 @@
         <v>#N/A</v>
       </c>
       <c r="P83" t="s">
-        <v>236</v>
+        <v>259</v>
       </c>
       <c r="Q83" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="R83" t="e">
         <v>#N/A</v>
       </c>
       <c r="S83" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
     </row>
     <row r="84">
@@ -6229,13 +6331,13 @@
         <v>227</v>
       </c>
       <c r="K84" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="L84" t="e">
         <v>#N/A</v>
       </c>
       <c r="M84" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="N84" t="e">
         <v>#N/A</v>
@@ -6244,16 +6346,16 @@
         <v>#N/A</v>
       </c>
       <c r="P84" t="s">
-        <v>236</v>
+        <v>261</v>
       </c>
       <c r="Q84" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="R84" t="e">
         <v>#N/A</v>
       </c>
       <c r="S84" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
     </row>
     <row r="85">
@@ -6288,13 +6390,13 @@
         <v>232</v>
       </c>
       <c r="K85" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="L85" t="e">
         <v>#N/A</v>
       </c>
       <c r="M85" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="N85" t="e">
         <v>#N/A</v>
@@ -6303,16 +6405,16 @@
         <v>#N/A</v>
       </c>
       <c r="P85" t="s">
-        <v>236</v>
+        <v>262</v>
       </c>
       <c r="Q85" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="R85" t="e">
         <v>#N/A</v>
       </c>
       <c r="S85" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
     </row>
     <row r="86">
@@ -6344,16 +6446,16 @@
         <v>45662.0</v>
       </c>
       <c r="J86" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="K86" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="L86" t="e">
         <v>#N/A</v>
       </c>
       <c r="M86" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="N86" t="e">
         <v>#N/A</v>
@@ -6362,16 +6464,16 @@
         <v>#N/A</v>
       </c>
       <c r="P86" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="Q86" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="R86" t="e">
         <v>#N/A</v>
       </c>
       <c r="S86" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
     </row>
     <row r="87">
@@ -6403,16 +6505,16 @@
         <v>45662.0</v>
       </c>
       <c r="J87" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="K87" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L87" t="e">
         <v>#N/A</v>
       </c>
       <c r="M87" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="N87" t="e">
         <v>#N/A</v>
@@ -6421,16 +6523,16 @@
         <v>#N/A</v>
       </c>
       <c r="P87" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="Q87" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="R87" t="e">
         <v>#N/A</v>
       </c>
       <c r="S87" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
     </row>
     <row r="88">
@@ -6465,14 +6567,14 @@
         <v>227</v>
       </c>
       <c r="K88" t="s">
+        <v>244</v>
+      </c>
+      <c r="L88" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M88" t="s">
         <v>243</v>
       </c>
-      <c r="L88" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M88" t="s">
-        <v>248</v>
-      </c>
       <c r="N88" t="e">
         <v>#N/A</v>
       </c>
@@ -6480,16 +6582,16 @@
         <v>#N/A</v>
       </c>
       <c r="P88" t="s">
-        <v>236</v>
+        <v>256</v>
       </c>
       <c r="Q88" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="R88" t="e">
         <v>#N/A</v>
       </c>
       <c r="S88" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
     </row>
     <row r="89">
@@ -6524,13 +6626,13 @@
         <v>227</v>
       </c>
       <c r="K89" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="L89" t="e">
         <v>#N/A</v>
       </c>
       <c r="M89" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="N89" t="e">
         <v>#N/A</v>
@@ -6539,16 +6641,16 @@
         <v>#N/A</v>
       </c>
       <c r="P89" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
       <c r="Q89" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="R89" t="e">
         <v>#N/A</v>
       </c>
       <c r="S89" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
     </row>
     <row r="90">
@@ -6583,13 +6685,13 @@
         <v>227</v>
       </c>
       <c r="K90" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="L90" t="e">
         <v>#N/A</v>
       </c>
       <c r="M90" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N90" t="e">
         <v>#N/A</v>
@@ -6598,16 +6700,16 @@
         <v>#N/A</v>
       </c>
       <c r="P90" t="s">
-        <v>236</v>
+        <v>257</v>
       </c>
       <c r="Q90" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="R90" t="e">
         <v>#N/A</v>
       </c>
       <c r="S90" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
     </row>
     <row r="91">
@@ -6642,13 +6744,13 @@
         <v>227</v>
       </c>
       <c r="K91" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="L91" t="e">
         <v>#N/A</v>
       </c>
       <c r="M91" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="N91" t="e">
         <v>#N/A</v>
@@ -6657,16 +6759,16 @@
         <v>#N/A</v>
       </c>
       <c r="P91" t="s">
-        <v>236</v>
+        <v>261</v>
       </c>
       <c r="Q91" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="R91" t="e">
         <v>#N/A</v>
       </c>
       <c r="S91" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
     </row>
     <row r="92">
@@ -6701,13 +6803,13 @@
         <v>227</v>
       </c>
       <c r="K92" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="L92" t="n">
         <v>3.0</v>
       </c>
       <c r="M92" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="N92" t="n">
         <v>2.0</v>
@@ -6716,16 +6818,16 @@
         <v>5014.0</v>
       </c>
       <c r="P92" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q92" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="R92" t="e">
         <v>#N/A</v>
       </c>
       <c r="S92" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
     </row>
     <row r="93">
@@ -6757,17 +6859,17 @@
         <v>45668.0</v>
       </c>
       <c r="J93" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K93" t="s">
+        <v>246</v>
+      </c>
+      <c r="L93" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M93" t="s">
         <v>244</v>
       </c>
-      <c r="L93" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M93" t="s">
-        <v>242</v>
-      </c>
       <c r="N93" t="e">
         <v>#N/A</v>
       </c>
@@ -6775,16 +6877,16 @@
         <v>#N/A</v>
       </c>
       <c r="P93" t="s">
-        <v>236</v>
+        <v>258</v>
       </c>
       <c r="Q93" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="R93" t="e">
         <v>#N/A</v>
       </c>
       <c r="S93" t="s">
-        <v>311</v>
+        <v>371</v>
       </c>
     </row>
     <row r="94">
@@ -6819,13 +6921,13 @@
         <v>227</v>
       </c>
       <c r="K94" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="L94" t="e">
         <v>#N/A</v>
       </c>
       <c r="M94" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="N94" t="e">
         <v>#N/A</v>
@@ -6834,16 +6936,16 @@
         <v>#N/A</v>
       </c>
       <c r="P94" t="s">
-        <v>236</v>
+        <v>255</v>
       </c>
       <c r="Q94" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="R94" t="e">
         <v>#N/A</v>
       </c>
       <c r="S94" t="s">
-        <v>315</v>
+        <v>372</v>
       </c>
     </row>
     <row r="95">
@@ -6878,13 +6980,13 @@
         <v>227</v>
       </c>
       <c r="K95" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="L95" t="e">
         <v>#N/A</v>
       </c>
       <c r="M95" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="N95" t="e">
         <v>#N/A</v>
@@ -6893,16 +6995,16 @@
         <v>#N/A</v>
       </c>
       <c r="P95" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="Q95" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="R95" t="e">
         <v>#N/A</v>
       </c>
       <c r="S95" t="s">
-        <v>314</v>
+        <v>373</v>
       </c>
     </row>
     <row r="96">
@@ -6928,16 +7030,16 @@
         <v>40</v>
       </c>
       <c r="H96" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I96" t="n" s="2">
-        <v>45668.0</v>
+        <v>45669.0</v>
       </c>
       <c r="J96" t="s">
         <v>227</v>
       </c>
       <c r="K96" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="L96" t="e">
         <v>#N/A</v>
@@ -6952,16 +7054,16 @@
         <v>#N/A</v>
       </c>
       <c r="P96" t="s">
-        <v>236</v>
+        <v>259</v>
       </c>
       <c r="Q96" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="R96" t="e">
         <v>#N/A</v>
       </c>
       <c r="S96" t="s">
-        <v>313</v>
+        <v>374</v>
       </c>
     </row>
     <row r="97">
@@ -6987,22 +7089,22 @@
         <v>40</v>
       </c>
       <c r="H97" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I97" t="n" s="2">
-        <v>45668.0</v>
+        <v>45669.0</v>
       </c>
       <c r="J97" t="s">
         <v>227</v>
       </c>
       <c r="K97" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="L97" t="e">
         <v>#N/A</v>
       </c>
       <c r="M97" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="N97" t="e">
         <v>#N/A</v>
@@ -7011,16 +7113,16 @@
         <v>#N/A</v>
       </c>
       <c r="P97" t="s">
-        <v>236</v>
+        <v>263</v>
       </c>
       <c r="Q97" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="R97" t="e">
         <v>#N/A</v>
       </c>
       <c r="S97" t="s">
-        <v>312</v>
+        <v>375</v>
       </c>
     </row>
     <row r="98">
@@ -7055,13 +7157,13 @@
         <v>227</v>
       </c>
       <c r="K98" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="L98" t="e">
         <v>#N/A</v>
       </c>
       <c r="M98" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="N98" t="e">
         <v>#N/A</v>
@@ -7070,16 +7172,16 @@
         <v>#N/A</v>
       </c>
       <c r="P98" t="s">
-        <v>236</v>
+        <v>258</v>
       </c>
       <c r="Q98" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="R98" t="e">
         <v>#N/A</v>
       </c>
       <c r="S98" t="s">
-        <v>305</v>
+        <v>376</v>
       </c>
     </row>
     <row r="99">
@@ -7120,7 +7222,7 @@
         <v>#N/A</v>
       </c>
       <c r="M99" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="N99" t="e">
         <v>#N/A</v>
@@ -7129,16 +7231,16 @@
         <v>#N/A</v>
       </c>
       <c r="P99" t="s">
-        <v>236</v>
+        <v>256</v>
       </c>
       <c r="Q99" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="R99" t="e">
         <v>#N/A</v>
       </c>
       <c r="S99" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
     </row>
     <row r="100">
@@ -7173,13 +7275,13 @@
         <v>227</v>
       </c>
       <c r="K100" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="L100" t="e">
         <v>#N/A</v>
       </c>
       <c r="M100" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="N100" t="e">
         <v>#N/A</v>
@@ -7188,16 +7290,16 @@
         <v>#N/A</v>
       </c>
       <c r="P100" t="s">
-        <v>236</v>
+        <v>257</v>
       </c>
       <c r="Q100" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="R100" t="e">
         <v>#N/A</v>
       </c>
       <c r="S100" t="s">
-        <v>329</v>
+        <v>377</v>
       </c>
     </row>
     <row r="101">
@@ -7232,14 +7334,14 @@
         <v>227</v>
       </c>
       <c r="K101" t="s">
+        <v>247</v>
+      </c>
+      <c r="L101" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M101" t="s">
         <v>243</v>
       </c>
-      <c r="L101" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M101" t="s">
-        <v>239</v>
-      </c>
       <c r="N101" t="e">
         <v>#N/A</v>
       </c>
@@ -7247,16 +7349,16 @@
         <v>#N/A</v>
       </c>
       <c r="P101" t="s">
-        <v>236</v>
+        <v>259</v>
       </c>
       <c r="Q101" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="R101" t="e">
         <v>#N/A</v>
       </c>
       <c r="S101" t="s">
-        <v>298</v>
+        <v>378</v>
       </c>
     </row>
     <row r="102">
@@ -7291,13 +7393,13 @@
         <v>227</v>
       </c>
       <c r="K102" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="L102" t="e">
         <v>#N/A</v>
       </c>
       <c r="M102" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="N102" t="e">
         <v>#N/A</v>
@@ -7306,16 +7408,16 @@
         <v>#N/A</v>
       </c>
       <c r="P102" t="s">
-        <v>236</v>
+        <v>252</v>
       </c>
       <c r="Q102" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="R102" t="e">
         <v>#N/A</v>
       </c>
       <c r="S102" t="s">
-        <v>304</v>
+        <v>379</v>
       </c>
     </row>
     <row r="103">
@@ -7341,22 +7443,22 @@
         <v>41</v>
       </c>
       <c r="H103" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I103" t="n" s="2">
-        <v>45682.0</v>
+        <v>45683.0</v>
       </c>
       <c r="J103" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="K103" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="L103" t="e">
         <v>#N/A</v>
       </c>
       <c r="M103" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="N103" t="e">
         <v>#N/A</v>
@@ -7365,16 +7467,16 @@
         <v>#N/A</v>
       </c>
       <c r="P103" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
       <c r="Q103" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="R103" t="e">
         <v>#N/A</v>
       </c>
       <c r="S103" t="s">
-        <v>332</v>
+        <v>380</v>
       </c>
     </row>
     <row r="104">
@@ -7409,13 +7511,13 @@
         <v>227</v>
       </c>
       <c r="K104" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="L104" t="e">
         <v>#N/A</v>
       </c>
       <c r="M104" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="N104" t="e">
         <v>#N/A</v>
@@ -7424,16 +7526,16 @@
         <v>#N/A</v>
       </c>
       <c r="P104" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="Q104" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="R104" t="e">
         <v>#N/A</v>
       </c>
       <c r="S104" t="s">
-        <v>328</v>
+        <v>381</v>
       </c>
     </row>
     <row r="105">
@@ -7468,13 +7570,13 @@
         <v>227</v>
       </c>
       <c r="K105" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="L105" t="e">
         <v>#N/A</v>
       </c>
       <c r="M105" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="N105" t="e">
         <v>#N/A</v>
@@ -7483,16 +7585,16 @@
         <v>#N/A</v>
       </c>
       <c r="P105" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="Q105" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="R105" t="e">
         <v>#N/A</v>
       </c>
       <c r="S105" t="s">
-        <v>322</v>
+        <v>382</v>
       </c>
     </row>
     <row r="106">
@@ -7527,13 +7629,13 @@
         <v>227</v>
       </c>
       <c r="K106" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="L106" t="e">
         <v>#N/A</v>
       </c>
       <c r="M106" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="N106" t="e">
         <v>#N/A</v>
@@ -7542,16 +7644,16 @@
         <v>#N/A</v>
       </c>
       <c r="P106" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="Q106" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="R106" t="e">
         <v>#N/A</v>
       </c>
       <c r="S106" t="s">
-        <v>294</v>
+        <v>337</v>
       </c>
     </row>
     <row r="107">
@@ -7586,13 +7688,13 @@
         <v>227</v>
       </c>
       <c r="K107" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="L107" t="e">
         <v>#N/A</v>
       </c>
       <c r="M107" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="N107" t="e">
         <v>#N/A</v>
@@ -7601,16 +7703,16 @@
         <v>#N/A</v>
       </c>
       <c r="P107" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="Q107" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="R107" t="e">
         <v>#N/A</v>
       </c>
       <c r="S107" t="s">
-        <v>323</v>
+        <v>383</v>
       </c>
     </row>
     <row r="108">
@@ -7645,13 +7747,13 @@
         <v>227</v>
       </c>
       <c r="K108" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L108" t="e">
         <v>#N/A</v>
       </c>
       <c r="M108" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="N108" t="e">
         <v>#N/A</v>
@@ -7660,16 +7762,16 @@
         <v>#N/A</v>
       </c>
       <c r="P108" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="Q108" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="R108" t="e">
         <v>#N/A</v>
       </c>
       <c r="S108" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
     </row>
     <row r="109">
@@ -7704,13 +7806,13 @@
         <v>227</v>
       </c>
       <c r="K109" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="L109" t="e">
         <v>#N/A</v>
       </c>
       <c r="M109" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="N109" t="e">
         <v>#N/A</v>
@@ -7719,16 +7821,16 @@
         <v>#N/A</v>
       </c>
       <c r="P109" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="Q109" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="R109" t="e">
         <v>#N/A</v>
       </c>
       <c r="S109" t="s">
-        <v>327</v>
+        <v>384</v>
       </c>
     </row>
     <row r="110">
@@ -7763,14 +7865,14 @@
         <v>227</v>
       </c>
       <c r="K110" t="s">
+        <v>244</v>
+      </c>
+      <c r="L110" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M110" t="s">
         <v>242</v>
       </c>
-      <c r="L110" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M110" t="s">
-        <v>240</v>
-      </c>
       <c r="N110" t="e">
         <v>#N/A</v>
       </c>
@@ -7778,16 +7880,16 @@
         <v>#N/A</v>
       </c>
       <c r="P110" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="Q110" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="R110" t="e">
         <v>#N/A</v>
       </c>
       <c r="S110" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="111">
@@ -7822,13 +7924,13 @@
         <v>227</v>
       </c>
       <c r="K111" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="L111" t="e">
         <v>#N/A</v>
       </c>
       <c r="M111" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="N111" t="e">
         <v>#N/A</v>
@@ -7837,16 +7939,16 @@
         <v>#N/A</v>
       </c>
       <c r="P111" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="Q111" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="R111" t="e">
         <v>#N/A</v>
       </c>
       <c r="S111" t="s">
-        <v>301</v>
+        <v>385</v>
       </c>
     </row>
     <row r="112">
@@ -7881,13 +7983,13 @@
         <v>227</v>
       </c>
       <c r="K112" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="L112" t="e">
         <v>#N/A</v>
       </c>
       <c r="M112" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="N112" t="e">
         <v>#N/A</v>
@@ -7896,16 +7998,16 @@
         <v>#N/A</v>
       </c>
       <c r="P112" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="Q112" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="R112" t="e">
         <v>#N/A</v>
       </c>
       <c r="S112" t="s">
-        <v>300</v>
+        <v>386</v>
       </c>
     </row>
     <row r="113">
@@ -7940,13 +8042,13 @@
         <v>227</v>
       </c>
       <c r="K113" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L113" t="e">
         <v>#N/A</v>
       </c>
       <c r="M113" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="N113" t="e">
         <v>#N/A</v>
@@ -7955,16 +8057,16 @@
         <v>#N/A</v>
       </c>
       <c r="P113" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="Q113" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="R113" t="e">
         <v>#N/A</v>
       </c>
       <c r="S113" t="s">
-        <v>307</v>
+        <v>387</v>
       </c>
     </row>
     <row r="114">
@@ -7999,13 +8101,13 @@
         <v>227</v>
       </c>
       <c r="K114" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="L114" t="e">
         <v>#N/A</v>
       </c>
       <c r="M114" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="N114" t="e">
         <v>#N/A</v>
@@ -8014,16 +8116,16 @@
         <v>#N/A</v>
       </c>
       <c r="P114" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="Q114" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="R114" t="e">
         <v>#N/A</v>
       </c>
       <c r="S114" t="s">
-        <v>306</v>
+        <v>388</v>
       </c>
     </row>
     <row r="115">
@@ -8058,13 +8160,13 @@
         <v>227</v>
       </c>
       <c r="K115" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="L115" t="e">
         <v>#N/A</v>
       </c>
       <c r="M115" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="N115" t="e">
         <v>#N/A</v>
@@ -8073,16 +8175,16 @@
         <v>#N/A</v>
       </c>
       <c r="P115" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="Q115" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="R115" t="e">
         <v>#N/A</v>
       </c>
       <c r="S115" t="s">
-        <v>303</v>
+        <v>389</v>
       </c>
     </row>
     <row r="116">
@@ -8117,13 +8219,13 @@
         <v>227</v>
       </c>
       <c r="K116" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="L116" t="e">
         <v>#N/A</v>
       </c>
       <c r="M116" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="N116" t="e">
         <v>#N/A</v>
@@ -8132,16 +8234,16 @@
         <v>#N/A</v>
       </c>
       <c r="P116" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="Q116" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="R116" t="e">
         <v>#N/A</v>
       </c>
       <c r="S116" t="s">
-        <v>326</v>
+        <v>390</v>
       </c>
     </row>
     <row r="117">
@@ -8176,13 +8278,13 @@
         <v>227</v>
       </c>
       <c r="K117" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="L117" t="e">
         <v>#N/A</v>
       </c>
       <c r="M117" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="N117" t="e">
         <v>#N/A</v>
@@ -8191,16 +8293,16 @@
         <v>#N/A</v>
       </c>
       <c r="P117" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="Q117" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="R117" t="e">
         <v>#N/A</v>
       </c>
       <c r="S117" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
     </row>
     <row r="118">
@@ -8235,13 +8337,13 @@
         <v>227</v>
       </c>
       <c r="K118" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L118" t="e">
         <v>#N/A</v>
       </c>
       <c r="M118" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="N118" t="e">
         <v>#N/A</v>
@@ -8250,16 +8352,16 @@
         <v>#N/A</v>
       </c>
       <c r="P118" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="Q118" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="R118" t="e">
         <v>#N/A</v>
       </c>
       <c r="S118" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
     </row>
     <row r="119">
@@ -8294,13 +8396,13 @@
         <v>227</v>
       </c>
       <c r="K119" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="L119" t="e">
         <v>#N/A</v>
       </c>
       <c r="M119" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="N119" t="e">
         <v>#N/A</v>
@@ -8309,16 +8411,16 @@
         <v>#N/A</v>
       </c>
       <c r="P119" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="Q119" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="R119" t="e">
         <v>#N/A</v>
       </c>
       <c r="S119" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
     </row>
     <row r="120">
@@ -8353,13 +8455,13 @@
         <v>227</v>
       </c>
       <c r="K120" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="L120" t="e">
         <v>#N/A</v>
       </c>
       <c r="M120" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="N120" t="e">
         <v>#N/A</v>
@@ -8368,16 +8470,16 @@
         <v>#N/A</v>
       </c>
       <c r="P120" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="Q120" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="R120" t="e">
         <v>#N/A</v>
       </c>
       <c r="S120" t="s">
-        <v>331</v>
+        <v>391</v>
       </c>
     </row>
     <row r="121">
@@ -8412,13 +8514,13 @@
         <v>227</v>
       </c>
       <c r="K121" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="L121" t="e">
         <v>#N/A</v>
       </c>
       <c r="M121" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="N121" t="e">
         <v>#N/A</v>
@@ -8427,16 +8529,16 @@
         <v>#N/A</v>
       </c>
       <c r="P121" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="Q121" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="R121" t="e">
         <v>#N/A</v>
       </c>
       <c r="S121" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
     </row>
     <row r="122">
@@ -8471,13 +8573,13 @@
         <v>231</v>
       </c>
       <c r="K122" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="L122" t="e">
         <v>#N/A</v>
       </c>
       <c r="M122" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="N122" t="e">
         <v>#N/A</v>
@@ -8486,16 +8588,16 @@
         <v>#N/A</v>
       </c>
       <c r="P122" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="Q122" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="R122" t="e">
         <v>#N/A</v>
       </c>
       <c r="S122" t="s">
-        <v>320</v>
+        <v>392</v>
       </c>
     </row>
     <row r="123">
@@ -8530,13 +8632,13 @@
         <v>231</v>
       </c>
       <c r="K123" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="L123" t="e">
         <v>#N/A</v>
       </c>
       <c r="M123" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="N123" t="e">
         <v>#N/A</v>
@@ -8545,16 +8647,16 @@
         <v>#N/A</v>
       </c>
       <c r="P123" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="Q123" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="R123" t="e">
         <v>#N/A</v>
       </c>
       <c r="S123" t="s">
-        <v>367</v>
+        <v>393</v>
       </c>
     </row>
     <row r="124">
@@ -8589,13 +8691,13 @@
         <v>231</v>
       </c>
       <c r="K124" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="L124" t="e">
         <v>#N/A</v>
       </c>
       <c r="M124" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="N124" t="e">
         <v>#N/A</v>
@@ -8604,16 +8706,16 @@
         <v>#N/A</v>
       </c>
       <c r="P124" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="Q124" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="R124" t="e">
         <v>#N/A</v>
       </c>
       <c r="S124" t="s">
-        <v>321</v>
+        <v>394</v>
       </c>
     </row>
     <row r="125">
@@ -8648,13 +8750,13 @@
         <v>231</v>
       </c>
       <c r="K125" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="L125" t="e">
         <v>#N/A</v>
       </c>
       <c r="M125" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="N125" t="e">
         <v>#N/A</v>
@@ -8663,16 +8765,16 @@
         <v>#N/A</v>
       </c>
       <c r="P125" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="Q125" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="R125" t="e">
         <v>#N/A</v>
       </c>
       <c r="S125" t="s">
-        <v>368</v>
+        <v>395</v>
       </c>
     </row>
     <row r="126">
@@ -8707,13 +8809,13 @@
         <v>231</v>
       </c>
       <c r="K126" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="L126" t="e">
         <v>#N/A</v>
       </c>
       <c r="M126" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="N126" t="e">
         <v>#N/A</v>
@@ -8722,16 +8824,16 @@
         <v>#N/A</v>
       </c>
       <c r="P126" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="Q126" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="R126" t="e">
         <v>#N/A</v>
       </c>
       <c r="S126" t="s">
-        <v>369</v>
+        <v>396</v>
       </c>
     </row>
     <row r="127">
@@ -8766,13 +8868,13 @@
         <v>231</v>
       </c>
       <c r="K127" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L127" t="e">
         <v>#N/A</v>
       </c>
       <c r="M127" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="N127" t="e">
         <v>#N/A</v>
@@ -8781,16 +8883,16 @@
         <v>#N/A</v>
       </c>
       <c r="P127" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="Q127" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="R127" t="e">
         <v>#N/A</v>
       </c>
       <c r="S127" t="s">
-        <v>319</v>
+        <v>397</v>
       </c>
     </row>
     <row r="128">
@@ -8825,13 +8927,13 @@
         <v>227</v>
       </c>
       <c r="K128" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="L128" t="e">
         <v>#N/A</v>
       </c>
       <c r="M128" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="N128" t="e">
         <v>#N/A</v>
@@ -8840,16 +8942,16 @@
         <v>#N/A</v>
       </c>
       <c r="P128" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="Q128" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="R128" t="e">
         <v>#N/A</v>
       </c>
       <c r="S128" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
     </row>
     <row r="129">
@@ -8884,13 +8986,13 @@
         <v>227</v>
       </c>
       <c r="K129" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="L129" t="e">
         <v>#N/A</v>
       </c>
       <c r="M129" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="N129" t="e">
         <v>#N/A</v>
@@ -8899,16 +9001,16 @@
         <v>#N/A</v>
       </c>
       <c r="P129" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="Q129" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="R129" t="e">
         <v>#N/A</v>
       </c>
       <c r="S129" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
     </row>
     <row r="130">
@@ -8943,13 +9045,13 @@
         <v>227</v>
       </c>
       <c r="K130" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="L130" t="e">
         <v>#N/A</v>
       </c>
       <c r="M130" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="N130" t="e">
         <v>#N/A</v>
@@ -8958,16 +9060,16 @@
         <v>#N/A</v>
       </c>
       <c r="P130" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="Q130" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="R130" t="e">
         <v>#N/A</v>
       </c>
       <c r="S130" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
     </row>
     <row r="131">
@@ -9002,13 +9104,13 @@
         <v>227</v>
       </c>
       <c r="K131" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="L131" t="e">
         <v>#N/A</v>
       </c>
       <c r="M131" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="N131" t="e">
         <v>#N/A</v>
@@ -9017,16 +9119,16 @@
         <v>#N/A</v>
       </c>
       <c r="P131" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="Q131" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="R131" t="e">
         <v>#N/A</v>
       </c>
       <c r="S131" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
     </row>
     <row r="132">
@@ -9061,13 +9163,13 @@
         <v>227</v>
       </c>
       <c r="K132" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="L132" t="e">
         <v>#N/A</v>
       </c>
       <c r="M132" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="N132" t="e">
         <v>#N/A</v>
@@ -9076,16 +9178,16 @@
         <v>#N/A</v>
       </c>
       <c r="P132" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="Q132" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="R132" t="e">
         <v>#N/A</v>
       </c>
       <c r="S132" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
     </row>
     <row r="133">
@@ -9120,13 +9222,13 @@
         <v>227</v>
       </c>
       <c r="K133" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L133" t="e">
         <v>#N/A</v>
       </c>
       <c r="M133" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="N133" t="e">
         <v>#N/A</v>
@@ -9135,16 +9237,16 @@
         <v>#N/A</v>
       </c>
       <c r="P133" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="Q133" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="R133" t="e">
         <v>#N/A</v>
       </c>
       <c r="S133" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
     </row>
     <row r="134">
@@ -9179,13 +9281,13 @@
         <v>227</v>
       </c>
       <c r="K134" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="L134" t="n">
         <v>2.0</v>
       </c>
       <c r="M134" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="N134" t="n">
         <v>2.0</v>
@@ -9194,16 +9296,16 @@
         <v>15710.0</v>
       </c>
       <c r="P134" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q134" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="R134" t="e">
         <v>#N/A</v>
       </c>
       <c r="S134" t="s">
-        <v>370</v>
+        <v>398</v>
       </c>
     </row>
     <row r="135">
@@ -9238,13 +9340,13 @@
         <v>227</v>
       </c>
       <c r="K135" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="L135" t="n">
         <v>2.0</v>
       </c>
       <c r="M135" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="N135" t="n">
         <v>0.0</v>
@@ -9253,16 +9355,16 @@
         <v>7806.0</v>
       </c>
       <c r="P135" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q135" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="R135" t="e">
         <v>#N/A</v>
       </c>
       <c r="S135" t="s">
-        <v>371</v>
+        <v>399</v>
       </c>
     </row>
     <row r="136">
@@ -9297,13 +9399,13 @@
         <v>227</v>
       </c>
       <c r="K136" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="L136" t="n">
         <v>6.0</v>
       </c>
       <c r="M136" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="N136" t="n">
         <v>0.0</v>
@@ -9312,16 +9414,16 @@
         <v>48832.0</v>
       </c>
       <c r="P136" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q136" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="R136" t="e">
         <v>#N/A</v>
       </c>
       <c r="S136" t="s">
-        <v>372</v>
+        <v>400</v>
       </c>
     </row>
     <row r="137">
@@ -9353,16 +9455,16 @@
         <v>45529.0</v>
       </c>
       <c r="J137" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="K137" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="L137" t="n">
         <v>0.0</v>
       </c>
       <c r="M137" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="N137" t="n">
         <v>3.0</v>
@@ -9371,16 +9473,16 @@
         <v>6940.0</v>
       </c>
       <c r="P137" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q137" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="R137" t="e">
         <v>#N/A</v>
       </c>
       <c r="S137" t="s">
-        <v>373</v>
+        <v>401</v>
       </c>
     </row>
     <row r="138">
@@ -9415,13 +9517,13 @@
         <v>227</v>
       </c>
       <c r="K138" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="L138" t="n">
         <v>2.0</v>
       </c>
       <c r="M138" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="N138" t="n">
         <v>0.0</v>
@@ -9430,16 +9532,16 @@
         <v>16146.0</v>
       </c>
       <c r="P138" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q138" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="R138" t="e">
         <v>#N/A</v>
       </c>
       <c r="S138" t="s">
-        <v>374</v>
+        <v>402</v>
       </c>
     </row>
     <row r="139">
@@ -9474,13 +9576,13 @@
         <v>227</v>
       </c>
       <c r="K139" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L139" t="n">
         <v>3.0</v>
       </c>
       <c r="M139" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="N139" t="n">
         <v>1.0</v>
@@ -9489,16 +9591,16 @@
         <v>6895.0</v>
       </c>
       <c r="P139" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q139" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="R139" t="e">
         <v>#N/A</v>
       </c>
       <c r="S139" t="s">
-        <v>375</v>
+        <v>403</v>
       </c>
     </row>
     <row r="140">
@@ -9533,13 +9635,13 @@
         <v>227</v>
       </c>
       <c r="K140" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L140" t="e">
         <v>#N/A</v>
       </c>
       <c r="M140" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="N140" t="e">
         <v>#N/A</v>
@@ -9548,16 +9650,16 @@
         <v>#N/A</v>
       </c>
       <c r="P140" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="Q140" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="R140" t="e">
         <v>#N/A</v>
       </c>
       <c r="S140" t="s">
-        <v>324</v>
+        <v>404</v>
       </c>
     </row>
     <row r="141">
@@ -9592,13 +9694,13 @@
         <v>227</v>
       </c>
       <c r="K141" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="L141" t="e">
         <v>#N/A</v>
       </c>
       <c r="M141" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="N141" t="e">
         <v>#N/A</v>
@@ -9607,16 +9709,16 @@
         <v>#N/A</v>
       </c>
       <c r="P141" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="Q141" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="R141" t="e">
         <v>#N/A</v>
       </c>
       <c r="S141" t="s">
-        <v>325</v>
+        <v>405</v>
       </c>
     </row>
     <row r="142">
@@ -9651,13 +9753,13 @@
         <v>227</v>
       </c>
       <c r="K142" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="L142" t="e">
         <v>#N/A</v>
       </c>
       <c r="M142" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="N142" t="e">
         <v>#N/A</v>
@@ -9666,16 +9768,16 @@
         <v>#N/A</v>
       </c>
       <c r="P142" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="Q142" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="R142" t="e">
         <v>#N/A</v>
       </c>
       <c r="S142" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
     </row>
     <row r="143">
@@ -9710,13 +9812,13 @@
         <v>227</v>
       </c>
       <c r="K143" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="L143" t="e">
         <v>#N/A</v>
       </c>
       <c r="M143" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="N143" t="e">
         <v>#N/A</v>
@@ -9725,16 +9827,16 @@
         <v>#N/A</v>
       </c>
       <c r="P143" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="Q143" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="R143" t="e">
         <v>#N/A</v>
       </c>
       <c r="S143" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
     </row>
     <row r="144">
@@ -9769,13 +9871,13 @@
         <v>227</v>
       </c>
       <c r="K144" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="L144" t="e">
         <v>#N/A</v>
       </c>
       <c r="M144" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="N144" t="e">
         <v>#N/A</v>
@@ -9784,16 +9886,16 @@
         <v>#N/A</v>
       </c>
       <c r="P144" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="Q144" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="R144" t="e">
         <v>#N/A</v>
       </c>
       <c r="S144" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
     </row>
     <row r="145">
@@ -9828,13 +9930,13 @@
         <v>227</v>
       </c>
       <c r="K145" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="L145" t="e">
         <v>#N/A</v>
       </c>
       <c r="M145" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="N145" t="e">
         <v>#N/A</v>
@@ -9843,16 +9945,16 @@
         <v>#N/A</v>
       </c>
       <c r="P145" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="Q145" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="R145" t="e">
         <v>#N/A</v>
       </c>
       <c r="S145" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
     </row>
     <row r="146">
@@ -9887,13 +9989,13 @@
         <v>227</v>
       </c>
       <c r="K146" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="L146" t="e">
         <v>#N/A</v>
       </c>
       <c r="M146" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="N146" t="e">
         <v>#N/A</v>
@@ -9902,16 +10004,16 @@
         <v>#N/A</v>
       </c>
       <c r="P146" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="Q146" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="R146" t="e">
         <v>#N/A</v>
       </c>
       <c r="S146" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
     </row>
     <row r="147">
@@ -9946,13 +10048,13 @@
         <v>227</v>
       </c>
       <c r="K147" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L147" t="e">
         <v>#N/A</v>
       </c>
       <c r="M147" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="N147" t="e">
         <v>#N/A</v>
@@ -9961,16 +10063,16 @@
         <v>#N/A</v>
       </c>
       <c r="P147" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="Q147" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="R147" t="e">
         <v>#N/A</v>
       </c>
       <c r="S147" t="s">
-        <v>299</v>
+        <v>406</v>
       </c>
     </row>
     <row r="148">
@@ -10005,13 +10107,13 @@
         <v>227</v>
       </c>
       <c r="K148" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="L148" t="e">
         <v>#N/A</v>
       </c>
       <c r="M148" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="N148" t="e">
         <v>#N/A</v>
@@ -10020,16 +10122,16 @@
         <v>#N/A</v>
       </c>
       <c r="P148" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="Q148" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="R148" t="e">
         <v>#N/A</v>
       </c>
       <c r="S148" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
     </row>
     <row r="149">
@@ -10064,13 +10166,13 @@
         <v>227</v>
       </c>
       <c r="K149" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="L149" t="e">
         <v>#N/A</v>
       </c>
       <c r="M149" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="N149" t="e">
         <v>#N/A</v>
@@ -10079,16 +10181,16 @@
         <v>#N/A</v>
       </c>
       <c r="P149" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="Q149" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="R149" t="e">
         <v>#N/A</v>
       </c>
       <c r="S149" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="150">
@@ -10123,13 +10225,13 @@
         <v>227</v>
       </c>
       <c r="K150" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="L150" t="e">
         <v>#N/A</v>
       </c>
       <c r="M150" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="N150" t="e">
         <v>#N/A</v>
@@ -10138,16 +10240,16 @@
         <v>#N/A</v>
       </c>
       <c r="P150" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="Q150" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="R150" t="e">
         <v>#N/A</v>
       </c>
       <c r="S150" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
     </row>
     <row r="151">
@@ -10182,13 +10284,13 @@
         <v>227</v>
       </c>
       <c r="K151" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="L151" t="e">
         <v>#N/A</v>
       </c>
       <c r="M151" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="N151" t="e">
         <v>#N/A</v>
@@ -10197,16 +10299,16 @@
         <v>#N/A</v>
       </c>
       <c r="P151" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="Q151" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="R151" t="e">
         <v>#N/A</v>
       </c>
       <c r="S151" t="s">
-        <v>309</v>
+        <v>407</v>
       </c>
     </row>
     <row r="152">
@@ -10241,13 +10343,13 @@
         <v>227</v>
       </c>
       <c r="K152" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="L152" t="e">
         <v>#N/A</v>
       </c>
       <c r="M152" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="N152" t="e">
         <v>#N/A</v>
@@ -10256,10 +10358,10 @@
         <v>#N/A</v>
       </c>
       <c r="P152" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="Q152" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="R152" t="e">
         <v>#N/A</v>
@@ -10300,13 +10402,13 @@
         <v>227</v>
       </c>
       <c r="K153" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="L153" t="e">
         <v>#N/A</v>
       </c>
       <c r="M153" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="N153" t="e">
         <v>#N/A</v>
@@ -10315,16 +10417,16 @@
         <v>#N/A</v>
       </c>
       <c r="P153" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="Q153" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="R153" t="e">
         <v>#N/A</v>
       </c>
       <c r="S153" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
     </row>
     <row r="154">
@@ -10359,13 +10461,13 @@
         <v>227</v>
       </c>
       <c r="K154" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L154" t="e">
         <v>#N/A</v>
       </c>
       <c r="M154" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="N154" t="e">
         <v>#N/A</v>
@@ -10374,16 +10476,16 @@
         <v>#N/A</v>
       </c>
       <c r="P154" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="Q154" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="R154" t="e">
         <v>#N/A</v>
       </c>
       <c r="S154" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
     </row>
     <row r="155">
@@ -10418,13 +10520,13 @@
         <v>227</v>
       </c>
       <c r="K155" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="L155" t="e">
         <v>#N/A</v>
       </c>
       <c r="M155" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="N155" t="e">
         <v>#N/A</v>
@@ -10433,16 +10535,16 @@
         <v>#N/A</v>
       </c>
       <c r="P155" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="Q155" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="R155" t="e">
         <v>#N/A</v>
       </c>
       <c r="S155" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
     </row>
     <row r="156">
@@ -10477,13 +10579,13 @@
         <v>227</v>
       </c>
       <c r="K156" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="L156" t="e">
         <v>#N/A</v>
       </c>
       <c r="M156" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="N156" t="e">
         <v>#N/A</v>
@@ -10492,16 +10594,16 @@
         <v>#N/A</v>
       </c>
       <c r="P156" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="Q156" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="R156" t="e">
         <v>#N/A</v>
       </c>
       <c r="S156" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
     </row>
     <row r="157">
@@ -10536,13 +10638,13 @@
         <v>227</v>
       </c>
       <c r="K157" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="L157" t="e">
         <v>#N/A</v>
       </c>
       <c r="M157" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="N157" t="e">
         <v>#N/A</v>
@@ -10551,16 +10653,16 @@
         <v>#N/A</v>
       </c>
       <c r="P157" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="Q157" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="R157" t="e">
         <v>#N/A</v>
       </c>
       <c r="S157" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="158">
@@ -10595,13 +10697,13 @@
         <v>227</v>
       </c>
       <c r="K158" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="L158" t="e">
         <v>#N/A</v>
       </c>
       <c r="M158" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="N158" t="e">
         <v>#N/A</v>
@@ -10610,16 +10712,16 @@
         <v>#N/A</v>
       </c>
       <c r="P158" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="Q158" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="R158" t="e">
         <v>#N/A</v>
       </c>
       <c r="S158" t="s">
-        <v>308</v>
+        <v>408</v>
       </c>
     </row>
     <row r="159">
@@ -10654,13 +10756,13 @@
         <v>227</v>
       </c>
       <c r="K159" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="L159" t="e">
         <v>#N/A</v>
       </c>
       <c r="M159" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="N159" t="e">
         <v>#N/A</v>
@@ -10669,16 +10771,16 @@
         <v>#N/A</v>
       </c>
       <c r="P159" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="Q159" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="R159" t="e">
         <v>#N/A</v>
       </c>
       <c r="S159" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
     </row>
     <row r="160">
@@ -10713,13 +10815,13 @@
         <v>227</v>
       </c>
       <c r="K160" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L160" t="e">
         <v>#N/A</v>
       </c>
       <c r="M160" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="N160" t="e">
         <v>#N/A</v>
@@ -10728,16 +10830,16 @@
         <v>#N/A</v>
       </c>
       <c r="P160" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="Q160" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="R160" t="e">
         <v>#N/A</v>
       </c>
       <c r="S160" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
     </row>
     <row r="161">
@@ -10772,13 +10874,13 @@
         <v>227</v>
       </c>
       <c r="K161" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="L161" t="e">
         <v>#N/A</v>
       </c>
       <c r="M161" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="N161" t="e">
         <v>#N/A</v>
@@ -10787,16 +10889,16 @@
         <v>#N/A</v>
       </c>
       <c r="P161" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="Q161" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="R161" t="e">
         <v>#N/A</v>
       </c>
       <c r="S161" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
     </row>
     <row r="162">
@@ -10831,13 +10933,13 @@
         <v>227</v>
       </c>
       <c r="K162" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="L162" t="e">
         <v>#N/A</v>
       </c>
       <c r="M162" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="N162" t="e">
         <v>#N/A</v>
@@ -10846,16 +10948,16 @@
         <v>#N/A</v>
       </c>
       <c r="P162" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="Q162" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="R162" t="e">
         <v>#N/A</v>
       </c>
       <c r="S162" t="s">
-        <v>302</v>
+        <v>409</v>
       </c>
     </row>
     <row r="163">
@@ -10890,13 +10992,13 @@
         <v>227</v>
       </c>
       <c r="K163" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="L163" t="e">
         <v>#N/A</v>
       </c>
       <c r="M163" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="N163" t="e">
         <v>#N/A</v>
@@ -10905,16 +11007,16 @@
         <v>#N/A</v>
       </c>
       <c r="P163" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="Q163" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="R163" t="e">
         <v>#N/A</v>
       </c>
       <c r="S163" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
     </row>
     <row r="164">
@@ -10949,13 +11051,13 @@
         <v>227</v>
       </c>
       <c r="K164" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="L164" t="n">
         <v>2.0</v>
       </c>
       <c r="M164" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="N164" t="n">
         <v>2.0</v>
@@ -10964,16 +11066,16 @@
         <v>5779.0</v>
       </c>
       <c r="P164" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q164" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="R164" t="e">
         <v>#N/A</v>
       </c>
       <c r="S164" t="s">
-        <v>376</v>
+        <v>410</v>
       </c>
     </row>
     <row r="165">
@@ -11008,13 +11110,13 @@
         <v>227</v>
       </c>
       <c r="K165" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="L165" t="n">
         <v>1.0</v>
       </c>
       <c r="M165" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="N165" t="n">
         <v>2.0</v>
@@ -11023,16 +11125,16 @@
         <v>#N/A</v>
       </c>
       <c r="P165" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q165" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="R165" t="e">
         <v>#N/A</v>
       </c>
       <c r="S165" t="s">
-        <v>377</v>
+        <v>411</v>
       </c>
     </row>
     <row r="166">
@@ -11064,16 +11166,16 @@
         <v>45535.0</v>
       </c>
       <c r="J166" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="K166" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L166" t="n">
         <v>0.0</v>
       </c>
       <c r="M166" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="N166" t="n">
         <v>1.0</v>
@@ -11082,16 +11184,16 @@
         <v>5480.0</v>
       </c>
       <c r="P166" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q166" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="R166" t="e">
         <v>#N/A</v>
       </c>
       <c r="S166" t="s">
-        <v>378</v>
+        <v>412</v>
       </c>
     </row>
     <row r="167">
@@ -11126,13 +11228,13 @@
         <v>226</v>
       </c>
       <c r="K167" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="L167" t="n">
         <v>3.0</v>
       </c>
       <c r="M167" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="N167" t="n">
         <v>0.0</v>
@@ -11141,16 +11243,16 @@
         <v>59612.0</v>
       </c>
       <c r="P167" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q167" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="R167" t="e">
         <v>#N/A</v>
       </c>
       <c r="S167" t="s">
-        <v>379</v>
+        <v>413</v>
       </c>
     </row>
     <row r="168">
@@ -11185,13 +11287,13 @@
         <v>227</v>
       </c>
       <c r="K168" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="L168" t="n">
         <v>0.0</v>
       </c>
       <c r="M168" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="N168" t="n">
         <v>1.0</v>
@@ -11200,16 +11302,16 @@
         <v>#N/A</v>
       </c>
       <c r="P168" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q168" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="R168" t="e">
         <v>#N/A</v>
       </c>
       <c r="S168" t="s">
-        <v>380</v>
+        <v>414</v>
       </c>
     </row>
     <row r="169">
@@ -11244,13 +11346,13 @@
         <v>227</v>
       </c>
       <c r="K169" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="L169" t="n">
         <v>1.0</v>
       </c>
       <c r="M169" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="N169" t="n">
         <v>1.0</v>
@@ -11259,16 +11361,16 @@
         <v>7763.0</v>
       </c>
       <c r="P169" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q169" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="R169" t="e">
         <v>#N/A</v>
       </c>
       <c r="S169" t="s">
-        <v>381</v>
+        <v>415</v>
       </c>
     </row>
     <row r="170">
@@ -11303,13 +11405,13 @@
         <v>227</v>
       </c>
       <c r="K170" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="L170" t="n">
         <v>2.0</v>
       </c>
       <c r="M170" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="N170" t="n">
         <v>2.0</v>
@@ -11318,16 +11420,16 @@
         <v>6957.0</v>
       </c>
       <c r="P170" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q170" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="R170" t="e">
         <v>#N/A</v>
       </c>
       <c r="S170" t="s">
-        <v>382</v>
+        <v>416</v>
       </c>
     </row>
     <row r="171">
@@ -11362,13 +11464,13 @@
         <v>227</v>
       </c>
       <c r="K171" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="L171" t="n">
         <v>2.0</v>
       </c>
       <c r="M171" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="N171" t="n">
         <v>1.0</v>
@@ -11377,16 +11479,16 @@
         <v>17155.0</v>
       </c>
       <c r="P171" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q171" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="R171" t="e">
         <v>#N/A</v>
       </c>
       <c r="S171" t="s">
-        <v>383</v>
+        <v>417</v>
       </c>
     </row>
     <row r="172">
@@ -11421,13 +11523,13 @@
         <v>227</v>
       </c>
       <c r="K172" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L172" t="n">
         <v>2.0</v>
       </c>
       <c r="M172" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="N172" t="n">
         <v>0.0</v>
@@ -11436,16 +11538,16 @@
         <v>4068.0</v>
       </c>
       <c r="P172" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q172" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="R172" t="e">
         <v>#N/A</v>
       </c>
       <c r="S172" t="s">
-        <v>384</v>
+        <v>418</v>
       </c>
     </row>
     <row r="173">
@@ -11480,13 +11582,13 @@
         <v>227</v>
       </c>
       <c r="K173" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="L173" t="n">
         <v>2.0</v>
       </c>
       <c r="M173" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="N173" t="n">
         <v>0.0</v>
@@ -11495,16 +11597,16 @@
         <v>15448.0</v>
       </c>
       <c r="P173" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q173" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="R173" t="e">
         <v>#N/A</v>
       </c>
       <c r="S173" t="s">
-        <v>385</v>
+        <v>419</v>
       </c>
     </row>
     <row r="174">
@@ -11539,13 +11641,13 @@
         <v>227</v>
       </c>
       <c r="K174" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="L174" t="n">
         <v>2.0</v>
       </c>
       <c r="M174" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="N174" t="n">
         <v>0.0</v>
@@ -11554,16 +11656,16 @@
         <v>#N/A</v>
       </c>
       <c r="P174" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q174" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="R174" t="e">
         <v>#N/A</v>
       </c>
       <c r="S174" t="s">
-        <v>386</v>
+        <v>420</v>
       </c>
     </row>
     <row r="175">
@@ -11595,16 +11697,16 @@
         <v>45550.0</v>
       </c>
       <c r="J175" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="K175" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="L175" t="n">
         <v>0.0</v>
       </c>
       <c r="M175" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="N175" t="n">
         <v>1.0</v>
@@ -11613,16 +11715,16 @@
         <v>#N/A</v>
       </c>
       <c r="P175" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q175" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="R175" t="e">
         <v>#N/A</v>
       </c>
       <c r="S175" t="s">
-        <v>387</v>
+        <v>421</v>
       </c>
     </row>
     <row r="176">
@@ -11657,13 +11759,13 @@
         <v>227</v>
       </c>
       <c r="K176" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="L176" t="n">
         <v>1.0</v>
       </c>
       <c r="M176" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="N176" t="n">
         <v>1.0</v>
@@ -11672,16 +11774,16 @@
         <v>18399.0</v>
       </c>
       <c r="P176" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q176" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="R176" t="e">
         <v>#N/A</v>
       </c>
       <c r="S176" t="s">
-        <v>388</v>
+        <v>422</v>
       </c>
     </row>
     <row r="177">
@@ -11716,13 +11818,13 @@
         <v>227</v>
       </c>
       <c r="K177" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="L177" t="n">
         <v>3.0</v>
       </c>
       <c r="M177" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="N177" t="n">
         <v>3.0</v>
@@ -11731,16 +11833,16 @@
         <v>6257.0</v>
       </c>
       <c r="P177" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q177" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="R177" t="e">
         <v>#N/A</v>
       </c>
       <c r="S177" t="s">
-        <v>389</v>
+        <v>423</v>
       </c>
     </row>
     <row r="178">
@@ -11775,13 +11877,13 @@
         <v>227</v>
       </c>
       <c r="K178" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L178" t="n">
         <v>2.0</v>
       </c>
       <c r="M178" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="N178" t="n">
         <v>1.0</v>
@@ -11790,16 +11892,16 @@
         <v>#N/A</v>
       </c>
       <c r="P178" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q178" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="R178" t="e">
         <v>#N/A</v>
       </c>
       <c r="S178" t="s">
-        <v>390</v>
+        <v>424</v>
       </c>
     </row>
     <row r="179">
@@ -11834,13 +11936,13 @@
         <v>227</v>
       </c>
       <c r="K179" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="L179" t="n">
         <v>1.0</v>
       </c>
       <c r="M179" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="N179" t="n">
         <v>2.0</v>
@@ -11849,16 +11951,16 @@
         <v>9030.0</v>
       </c>
       <c r="P179" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q179" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="R179" t="e">
         <v>#N/A</v>
       </c>
       <c r="S179" t="s">
-        <v>391</v>
+        <v>425</v>
       </c>
     </row>
     <row r="180">
@@ -11890,16 +11992,16 @@
         <v>45563.0</v>
       </c>
       <c r="J180" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="K180" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="L180" t="n">
         <v>0.0</v>
       </c>
       <c r="M180" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="N180" t="n">
         <v>6.0</v>
@@ -11908,16 +12010,16 @@
         <v>7036.0</v>
       </c>
       <c r="P180" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q180" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="R180" t="e">
         <v>#N/A</v>
       </c>
       <c r="S180" t="s">
-        <v>392</v>
+        <v>426</v>
       </c>
     </row>
     <row r="181">
@@ -11949,16 +12051,16 @@
         <v>45564.0</v>
       </c>
       <c r="J181" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="K181" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="L181" t="n">
         <v>1.0</v>
       </c>
       <c r="M181" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="N181" t="n">
         <v>0.0</v>
@@ -11967,16 +12069,16 @@
         <v>48217.0</v>
       </c>
       <c r="P181" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q181" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="R181" t="e">
         <v>#N/A</v>
       </c>
       <c r="S181" t="s">
-        <v>393</v>
+        <v>427</v>
       </c>
     </row>
     <row r="182">
@@ -12011,13 +12113,13 @@
         <v>227</v>
       </c>
       <c r="K182" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="L182" t="n">
         <v>0.0</v>
       </c>
       <c r="M182" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="N182" t="n">
         <v>1.0</v>
@@ -12026,16 +12128,16 @@
         <v>17106.0</v>
       </c>
       <c r="P182" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q182" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="R182" t="e">
         <v>#N/A</v>
       </c>
       <c r="S182" t="s">
-        <v>394</v>
+        <v>428</v>
       </c>
     </row>
     <row r="183">
@@ -12070,13 +12172,13 @@
         <v>227</v>
       </c>
       <c r="K183" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="L183" t="n">
         <v>1.0</v>
       </c>
       <c r="M183" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="N183" t="n">
         <v>2.0</v>
@@ -12085,16 +12187,16 @@
         <v>#N/A</v>
       </c>
       <c r="P183" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q183" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="R183" t="e">
         <v>#N/A</v>
       </c>
       <c r="S183" t="s">
-        <v>395</v>
+        <v>429</v>
       </c>
     </row>
     <row r="184">
@@ -12129,13 +12231,13 @@
         <v>227</v>
       </c>
       <c r="K184" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="L184" t="n">
         <v>2.0</v>
       </c>
       <c r="M184" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="N184" t="n">
         <v>3.0</v>
@@ -12144,16 +12246,16 @@
         <v>5316.0</v>
       </c>
       <c r="P184" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q184" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="R184" t="e">
         <v>#N/A</v>
       </c>
       <c r="S184" t="s">
-        <v>396</v>
+        <v>430</v>
       </c>
     </row>
     <row r="185">
@@ -12185,16 +12287,16 @@
         <v>45571.0</v>
       </c>
       <c r="J185" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="K185" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L185" t="n">
         <v>1.0</v>
       </c>
       <c r="M185" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="N185" t="n">
         <v>2.0</v>
@@ -12203,16 +12305,16 @@
         <v>6372.0</v>
       </c>
       <c r="P185" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q185" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="R185" t="e">
         <v>#N/A</v>
       </c>
       <c r="S185" t="s">
-        <v>397</v>
+        <v>431</v>
       </c>
     </row>
     <row r="186">
@@ -12247,13 +12349,13 @@
         <v>227</v>
       </c>
       <c r="K186" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="L186" t="n">
         <v>3.0</v>
       </c>
       <c r="M186" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="N186" t="n">
         <v>2.0</v>
@@ -12262,16 +12364,16 @@
         <v>19175.0</v>
       </c>
       <c r="P186" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q186" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="R186" t="e">
         <v>#N/A</v>
       </c>
       <c r="S186" t="s">
-        <v>398</v>
+        <v>432</v>
       </c>
     </row>
     <row r="187">
@@ -12306,13 +12408,13 @@
         <v>230</v>
       </c>
       <c r="K187" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="L187" t="n">
         <v>2.0</v>
       </c>
       <c r="M187" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="N187" t="n">
         <v>0.0</v>
@@ -12321,16 +12423,16 @@
         <v>44744.0</v>
       </c>
       <c r="P187" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q187" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="R187" t="e">
         <v>#N/A</v>
       </c>
       <c r="S187" t="s">
-        <v>399</v>
+        <v>433</v>
       </c>
     </row>
     <row r="188">
@@ -12365,13 +12467,13 @@
         <v>227</v>
       </c>
       <c r="K188" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L188" t="n">
         <v>0.0</v>
       </c>
       <c r="M188" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="N188" t="n">
         <v>1.0</v>
@@ -12380,16 +12482,16 @@
         <v>5084.0</v>
       </c>
       <c r="P188" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q188" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="R188" t="e">
         <v>#N/A</v>
       </c>
       <c r="S188" t="s">
-        <v>400</v>
+        <v>434</v>
       </c>
     </row>
     <row r="189">
@@ -12424,13 +12526,13 @@
         <v>227</v>
       </c>
       <c r="K189" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="L189" t="n">
         <v>3.0</v>
       </c>
       <c r="M189" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="N189" t="n">
         <v>0.0</v>
@@ -12439,16 +12541,16 @@
         <v>#N/A</v>
       </c>
       <c r="P189" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q189" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="R189" t="e">
         <v>#N/A</v>
       </c>
       <c r="S189" t="s">
-        <v>401</v>
+        <v>435</v>
       </c>
     </row>
     <row r="190">
@@ -12483,13 +12585,13 @@
         <v>227</v>
       </c>
       <c r="K190" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="L190" t="n">
         <v>4.0</v>
       </c>
       <c r="M190" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="N190" t="n">
         <v>0.0</v>
@@ -12498,16 +12600,16 @@
         <v>18757.0</v>
       </c>
       <c r="P190" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q190" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="R190" t="e">
         <v>#N/A</v>
       </c>
       <c r="S190" t="s">
-        <v>402</v>
+        <v>436</v>
       </c>
     </row>
     <row r="191">
@@ -12542,13 +12644,13 @@
         <v>227</v>
       </c>
       <c r="K191" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="L191" t="n">
         <v>2.0</v>
       </c>
       <c r="M191" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="N191" t="n">
         <v>2.0</v>
@@ -12557,16 +12659,16 @@
         <v>#N/A</v>
       </c>
       <c r="P191" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q191" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="R191" t="e">
         <v>#N/A</v>
       </c>
       <c r="S191" t="s">
-        <v>403</v>
+        <v>437</v>
       </c>
     </row>
     <row r="192">
@@ -12601,13 +12703,13 @@
         <v>227</v>
       </c>
       <c r="K192" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="L192" t="n">
         <v>3.0</v>
       </c>
       <c r="M192" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="N192" t="n">
         <v>2.0</v>
@@ -12616,16 +12718,16 @@
         <v>#N/A</v>
       </c>
       <c r="P192" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q192" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="R192" t="e">
         <v>#N/A</v>
       </c>
       <c r="S192" t="s">
-        <v>404</v>
+        <v>438</v>
       </c>
     </row>
     <row r="193">
@@ -12657,16 +12759,16 @@
         <v>45585.0</v>
       </c>
       <c r="J193" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="K193" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="L193" t="n">
         <v>1.0</v>
       </c>
       <c r="M193" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="N193" t="n">
         <v>0.0</v>
@@ -12675,16 +12777,16 @@
         <v>8924.0</v>
       </c>
       <c r="P193" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q193" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="R193" t="e">
         <v>#N/A</v>
       </c>
       <c r="S193" t="s">
-        <v>405</v>
+        <v>439</v>
       </c>
     </row>
     <row r="194">
@@ -12719,13 +12821,13 @@
         <v>227</v>
       </c>
       <c r="K194" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="L194" t="n">
         <v>1.0</v>
       </c>
       <c r="M194" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="N194" t="n">
         <v>2.0</v>
@@ -12734,16 +12836,16 @@
         <v>6548.0</v>
       </c>
       <c r="P194" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q194" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="R194" t="e">
         <v>#N/A</v>
       </c>
       <c r="S194" t="s">
-        <v>406</v>
+        <v>440</v>
       </c>
     </row>
     <row r="195">
@@ -12778,13 +12880,13 @@
         <v>227</v>
       </c>
       <c r="K195" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L195" t="n">
         <v>2.0</v>
       </c>
       <c r="M195" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="N195" t="n">
         <v>1.0</v>
@@ -12793,16 +12895,16 @@
         <v>#N/A</v>
       </c>
       <c r="P195" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q195" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="R195" t="e">
         <v>#N/A</v>
       </c>
       <c r="S195" t="s">
-        <v>407</v>
+        <v>441</v>
       </c>
     </row>
     <row r="196">
@@ -12837,13 +12939,13 @@
         <v>232</v>
       </c>
       <c r="K196" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="L196" t="n">
         <v>1.0</v>
       </c>
       <c r="M196" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="N196" t="n">
         <v>0.0</v>
@@ -12852,16 +12954,16 @@
         <v>19274.0</v>
       </c>
       <c r="P196" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q196" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="R196" t="e">
         <v>#N/A</v>
       </c>
       <c r="S196" t="s">
-        <v>408</v>
+        <v>442</v>
       </c>
     </row>
     <row r="197">
@@ -12893,16 +12995,16 @@
         <v>45592.0</v>
       </c>
       <c r="J197" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="K197" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="L197" t="n">
         <v>1.0</v>
       </c>
       <c r="M197" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="N197" t="n">
         <v>1.0</v>
@@ -12911,16 +13013,16 @@
         <v>20011.0</v>
       </c>
       <c r="P197" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q197" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="R197" t="e">
         <v>#N/A</v>
       </c>
       <c r="S197" t="s">
-        <v>409</v>
+        <v>443</v>
       </c>
     </row>
     <row r="198">
@@ -12955,13 +13057,13 @@
         <v>227</v>
       </c>
       <c r="K198" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="L198" t="n">
         <v>2.0</v>
       </c>
       <c r="M198" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="N198" t="n">
         <v>1.0</v>
@@ -12970,16 +13072,16 @@
         <v>48859.0</v>
       </c>
       <c r="P198" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q198" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="R198" t="e">
         <v>#N/A</v>
       </c>
       <c r="S198" t="s">
-        <v>410</v>
+        <v>444</v>
       </c>
     </row>
     <row r="199">
@@ -13014,13 +13116,13 @@
         <v>227</v>
       </c>
       <c r="K199" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L199" t="n">
         <v>0.0</v>
       </c>
       <c r="M199" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="N199" t="n">
         <v>3.0</v>
@@ -13029,16 +13131,16 @@
         <v>8692.0</v>
       </c>
       <c r="P199" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q199" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="R199" t="e">
         <v>#N/A</v>
       </c>
       <c r="S199" t="s">
-        <v>411</v>
+        <v>445</v>
       </c>
     </row>
   </sheetData>

--- a/sc0_match_results.xlsx
+++ b/sc0_match_results.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2394" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2394" uniqueCount="482">
   <si>
     <t>Competition_Name</t>
   </si>
@@ -734,6 +734,9 @@
     <t>14:30</t>
   </si>
   <si>
+    <t>14:00</t>
+  </si>
+  <si>
     <t>Hearts</t>
   </si>
   <si>
@@ -776,7 +779,7 @@
     <t>Fir Park</t>
   </si>
   <si>
-    <t>Tannadice Park</t>
+    <t>CalForth Construction Arena at Tannadice...</t>
   </si>
   <si>
     <t>The Simple Digital Arena</t>
@@ -812,6 +815,12 @@
     <t/>
   </si>
   <si>
+    <t>Don Robertson</t>
+  </si>
+  <si>
+    <t>Kevin Clancy</t>
+  </si>
+  <si>
     <t>Euan Anderson</t>
   </si>
   <si>
@@ -833,9 +842,6 @@
     <t>Chris Graham</t>
   </si>
   <si>
-    <t>Don Robertson</t>
-  </si>
-  <si>
     <t>Calum Scott</t>
   </si>
   <si>
@@ -851,9 +857,6 @@
     <t>Matthew MacDermid</t>
   </si>
   <si>
-    <t>Kevin Clancy</t>
-  </si>
-  <si>
     <t>Dan McFarlane</t>
   </si>
   <si>
@@ -908,340 +911,445 @@
     <t>https://fbref.com/en/matches/7b93868a/Hibernian-Aberdeen-November-26-2024-Scottish-Premiership</t>
   </si>
   <si>
+    <t>https://fbref.com/en/matches/308f66e0/Kilmarnock-Motherwell-January-8-2025-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/3da36d25/Celtic-Dundee-United-January-8-2025-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/9b632d5a/Dundee-Rangers-January-9-2025-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/0ca6d764/Motherwell-St-Johnstone-November-9-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/37bdcada/Dundee-United-Ross-County-November-9-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/8fb2341b/Hibernian-St-Mirren-November-9-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/fddc2b46/Aberdeen-Dundee-November-9-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/6516043c/Kilmarnock-Celtic-November-10-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/ea1763a1/Rangers-Heart-of-Midlothian-November-10-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/2599fc31/St-Johnstone-Kilmarnock-November-23-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/4c5a8bca/Ross-County-Motherwell-November-23-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/1aaa7ff5/Rangers-Dundee-United-November-23-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/02a66349/St-Mirren-Aberdeen-November-23-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/6b29cde7/Dundee-Hibernian-November-23-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/40327842/Heart-of-Midlothian-Celtic-November-23-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/2316c31e/Kilmarnock-Dundee-November-30-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/4c74869f/Celtic-Ross-County-November-30-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/984b304b/Motherwell-Hibernian-November-30-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/e61740ec/Dundee-United-St-Mirren-November-30-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/32ef90a0/St-Johnstone-Rangers-December-1-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/d458bfa7/Heart-of-Midlothian-Aberdeen-December-1-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/c7993ddd/Ross-County-St-Johnstone-September-21-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/eca23e74/St-Mirren-Heart-of-Midlothian-September-21-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/836d1bf4/Hibernian-Dundee-United-November-3-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/c8ca48b7/Dundee-Motherwell-December-4-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/f63926a0/Rangers-Kilmarnock-December-4-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/5b3864df/Aberdeen-Celtic-December-4-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/32dd944a/Heart-of-Midlothian-Dundee-December-7-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/912d8208/Dundee-United-Kilmarnock-December-7-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/bc87d012/St-Mirren-Motherwell-December-7-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/d042afb3/Aberdeen-St-Johnstone-December-7-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/da6ed2c3/Celtic-Hibernian-December-7-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/33bc939b/Ross-County-Rangers-December-8-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/1ebb323f/St-Johnstone-St-Mirren-December-14-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/7c8f9957/Hibernian-Ross-County-December-14-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/94d0e535/Motherwell-Dundee-United-December-14-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/660023b3/Kilmarnock-Heart-of-Midlothian-December-15-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/615ed3c7/Dundee-Celtic-January-14-2025-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/ac81a486/Rangers-Aberdeen-January-15-2025-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/61d10da7/Motherwell-Kilmarnock-December-20-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/a03f638c/Aberdeen-Hibernian-December-21-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/da9f30c3/Rangers-Dundee-December-21-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/ebf92363/Ross-County-St-Mirren-December-21-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/4eb31d30/Dundee-United-Celtic-December-22-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/fd30c2c8/Heart-of-Midlothian-St-Johnstone-December-22-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/5f32bc59/Heart-of-Midlothian-Hibernian-December-26-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/2d98e4f1/St-Johnstone-Dundee-United-December-26-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/377cdd1e/Kilmarnock-Aberdeen-December-26-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/3d045017/Celtic-Motherwell-December-26-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/fa3d2759/Dundee-Ross-County-December-26-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/e532f712/St-Mirren-Rangers-December-26-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/3f458af7/Ross-County-Dundee-United-August-10-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/786d4564/Rangers-Motherwell-August-10-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/87de27b0/Dundee-Heart-of-Midlothian-August-10-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/efe8de9a/Hibernian-Celtic-August-11-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/84bfadff/Kilmarnock-St-Johnstone-August-11-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/bc2858bb/Aberdeen-St-Mirren-August-11-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/190fc5ef/Celtic-St-Johnstone-December-29-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/7c89743b/St-Mirren-Dundee-December-29-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/7e37ddf0/Ross-County-Heart-of-Midlothian-December-29-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/88614304/Motherwell-Rangers-December-29-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/9d62990c/Hibernian-Kilmarnock-December-29-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/e83b0ccb/Dundee-United-Aberdeen-December-29-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/05f4ed4c/Old-Firm-Derby-Rangers-Celtic-January-2-2025-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/840ef9c9/St-Johnstone-Hibernian-January-2-2025-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/940ef160/Heart-of-Midlothian-Motherwell-January-2-2025-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/cea70176/Aberdeen-Ross-County-January-2-2025-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/e9c07aa0/Kilmarnock-St-Mirren-January-2-2025-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/372f087d/Dundee-Dundee-United-January-2-2025-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/ea44287b/Hibernian-Rangers-January-5-2025-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/e6e0081b/Motherwell-Aberdeen-January-5-2025-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/1c66a7c9/Celtic-St-Mirren-January-5-2025-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/57e8c0b0/Dundee-United-Heart-of-Midlothian-January-5-2025-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/9b7e92cb/St-Johnstone-Dundee-January-5-2025-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/edbffc0c/Kilmarnock-Ross-County-January-5-2025-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/c1b32f12/Dundee-Kilmarnock-November-3-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/152af068/Ross-County-Celtic-January-11-2025-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/aaca1e27/St-Mirren-Dundee-United-January-11-2025-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/e2a8d725/Hibernian-Motherwell-January-11-2025-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/78f14c19/Aberdeen-Heart-of-Midlothian-January-12-2025-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/a02065d3/Rangers-St-Johnstone-January-12-2025-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/3637272e/Ross-County-Hibernian-January-25-2025-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/90014a11/St-Johnstone-Motherwell-January-25-2025-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/d79cd451/Aberdeen-St-Mirren-January-25-2025-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/e531ac9a/Heart-of-Midlothian-Kilmarnock-January-25-2025-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/30670ab2/Dundee-United-Rangers-January-26-2025-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/66f78d4e/Celtic-Dundee-February-5-2025-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/0757dc49/St-Mirren-St-Johnstone-February-1-2025-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/300f7d2e/Dundee-Heart-of-Midlothian-February-1-2025-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/3ad7bc5e/Hibernian-Aberdeen-February-1-2025-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/8cd0becf/Kilmarnock-Dundee-United-February-1-2025-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/8fdc1242/Motherwell-Celtic-February-2-2025-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/a56e29c2/Rangers-Ross-County-February-2-2025-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/6a1f684d/Celtic-Dundee-United-February-15-2025-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/6ec02fb0/Dundee-Aberdeen-February-15-2025-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/d0ae9d90/Motherwell-Ross-County-February-15-2025-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/d5d17424/Kilmarnock-St-Johnstone-February-15-2025-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/ec8d1ecf/Heart-of-Midlothian-Rangers-February-16-2025-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/82221e6e/St-Mirren-Hibernian-February-16-2025-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/0b62e5ac/Hibernian-Celtic-February-22-2025-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/3755a2f2/Rangers-St-Mirren-February-22-2025-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/a4110188/Ross-County-Dundee-February-22-2025-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/cb800241/Dundee-United-Motherwell-February-22-2025-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/ea261585/Aberdeen-Kilmarnock-February-22-2025-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/baa42a3b/St-Johnstone-Heart-of-Midlothian-February-23-2025-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/45ca22a8/Celtic-Aberdeen-February-25-2025-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/3080b5be/Heart-of-Midlothian-St-Mirren-February-26-2025-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/594a122d/St-Johnstone-Ross-County-February-26-2025-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/b3ab6338/Dundee-United-Hibernian-February-26-2025-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/c138d483/Motherwell-Dundee-February-26-2025-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/1e557ac5/Kilmarnock-Rangers-February-26-2025-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/50f69ff9/Rangers-Motherwell-March-1-2025-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/bd56f1be/Dundee-St-Johnstone-March-1-2025-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/ea15fb4e/Ross-County-Kilmarnock-March-1-2025-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/5dd5b07f/St-Mirren-Celtic-March-1-2025-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/f3aacc58/7c77b0bc/Hibernian-vs-Heart-of-Midlothian-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e986ece7/8bbab7cf/Dundee-United-vs-Aberdeen-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/94ab474a/Hibernian-Dundee-August-24-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/a3caa8a4/Dundee-United-St-Johnstone-August-24-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/eaa7195c/Rangers-Ross-County-August-24-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/9dc2d830/St-Mirren-Celtic-August-25-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/7df69c15/Aberdeen-Kilmarnock-August-25-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/a0f450ae/Motherwell-Heart-of-Midlothian-August-25-2024-Scottish-Premiership</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/9d04848a/3568ad4c/Motherwell-vs-St-Mirren-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/dd289621/8bbab7cf/St-Johnstone-vs-Aberdeen-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/f3aacc58/25f1fd26/Hibernian-vs-Kilmarnock-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/a5298e9f/7c77b0bc/Ross-County-vs-Heart-of-Midlothian-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/b81aa4fa/86b7acd2/Old-Firm-Derby-Celtic-vs-Rangers-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e986ece7/00032902/Dundee-United-vs-Dundee-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/f3aacc58/dd289621/Hibernian-vs-St-Johnstone-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e986ece7/a5298e9f/Dundee-United-vs-Ross-County-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/3568ad4c/25f1fd26/St-Mirren-vs-Kilmarnock-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/9d04848a/8bbab7cf/Motherwell-vs-Aberdeen-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/86b7acd2/00032902/Rangers-vs-Dundee-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/b81aa4fa/7c77b0bc/Celtic-vs-Heart-of-Midlothian-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/f3aacc58/86b7acd2/Hibernian-vs-Rangers-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/dd289621/b81aa4fa/St-Johnstone-vs-Celtic-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/a5298e9f/8bbab7cf/Ross-County-vs-Aberdeen-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e986ece7/7c77b0bc/Dundee-United-vs-Heart-of-Midlothian-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/3568ad4c/00032902/St-Mirren-vs-Dundee-History</t>
+  </si>
+  <si>
     <t>https://fbref.com/en/stathead/matchup/teams/9d04848a/25f1fd26/Motherwell-vs-Kilmarnock-History</t>
   </si>
   <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e986ece7/b81aa4fa/Dundee-United-vs-Celtic-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/86b7acd2/00032902/Rangers-vs-Dundee-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/0ca6d764/Motherwell-St-Johnstone-November-9-2024-Scottish-Premiership</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/37bdcada/Dundee-United-Ross-County-November-9-2024-Scottish-Premiership</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/8fb2341b/Hibernian-St-Mirren-November-9-2024-Scottish-Premiership</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/fddc2b46/Aberdeen-Dundee-November-9-2024-Scottish-Premiership</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/6516043c/Kilmarnock-Celtic-November-10-2024-Scottish-Premiership</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/ea1763a1/Rangers-Heart-of-Midlothian-November-10-2024-Scottish-Premiership</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/2599fc31/St-Johnstone-Kilmarnock-November-23-2024-Scottish-Premiership</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/4c5a8bca/Ross-County-Motherwell-November-23-2024-Scottish-Premiership</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/1aaa7ff5/Rangers-Dundee-United-November-23-2024-Scottish-Premiership</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/02a66349/St-Mirren-Aberdeen-November-23-2024-Scottish-Premiership</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/6b29cde7/Dundee-Hibernian-November-23-2024-Scottish-Premiership</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/40327842/Heart-of-Midlothian-Celtic-November-23-2024-Scottish-Premiership</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/2316c31e/Kilmarnock-Dundee-November-30-2024-Scottish-Premiership</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/4c74869f/Celtic-Ross-County-November-30-2024-Scottish-Premiership</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/984b304b/Motherwell-Hibernian-November-30-2024-Scottish-Premiership</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/e61740ec/Dundee-United-St-Mirren-November-30-2024-Scottish-Premiership</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/32ef90a0/St-Johnstone-Rangers-December-1-2024-Scottish-Premiership</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/d458bfa7/Heart-of-Midlothian-Aberdeen-December-1-2024-Scottish-Premiership</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/c7993ddd/Ross-County-St-Johnstone-September-21-2024-Scottish-Premiership</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/eca23e74/St-Mirren-Heart-of-Midlothian-September-21-2024-Scottish-Premiership</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/836d1bf4/Hibernian-Dundee-United-November-3-2024-Scottish-Premiership</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/c8ca48b7/Dundee-Motherwell-December-4-2024-Scottish-Premiership</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/f63926a0/Rangers-Kilmarnock-December-4-2024-Scottish-Premiership</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/5b3864df/Aberdeen-Celtic-December-4-2024-Scottish-Premiership</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/32dd944a/Heart-of-Midlothian-Dundee-December-7-2024-Scottish-Premiership</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/912d8208/Dundee-United-Kilmarnock-December-7-2024-Scottish-Premiership</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/bc87d012/St-Mirren-Motherwell-December-7-2024-Scottish-Premiership</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/d042afb3/Aberdeen-St-Johnstone-December-7-2024-Scottish-Premiership</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/da6ed2c3/Celtic-Hibernian-December-7-2024-Scottish-Premiership</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/33bc939b/Ross-County-Rangers-December-8-2024-Scottish-Premiership</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/1ebb323f/St-Johnstone-St-Mirren-December-14-2024-Scottish-Premiership</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/7c8f9957/Hibernian-Ross-County-December-14-2024-Scottish-Premiership</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/94d0e535/Motherwell-Dundee-United-December-14-2024-Scottish-Premiership</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/660023b3/Kilmarnock-Heart-of-Midlothian-December-15-2024-Scottish-Premiership</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/b81aa4fa/00032902/Celtic-vs-Dundee-History</t>
+    <t>https://fbref.com/en/stathead/matchup/teams/f3aacc58/00032902/Hibernian-vs-Dundee-History</t>
   </si>
   <si>
     <t>https://fbref.com/en/stathead/matchup/teams/8bbab7cf/86b7acd2/Aberdeen-vs-Rangers-History</t>
   </si>
   <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/f3aacc58/8bbab7cf/Hibernian-vs-Aberdeen-History</t>
+    <t>https://fbref.com/en/stathead/matchup/teams/9d04848a/7c77b0bc/Motherwell-vs-Heart-of-Midlothian-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e986ece7/dd289621/Dundee-United-vs-St-Johnstone-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/b81aa4fa/25f1fd26/Celtic-vs-Kilmarnock-History</t>
   </si>
   <si>
     <t>https://fbref.com/en/stathead/matchup/teams/a5298e9f/3568ad4c/Ross-County-vs-St-Mirren-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/dd289621/7c77b0bc/St-Johnstone-vs-Heart-of-Midlothian-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/f3aacc58/7c77b0bc/Hibernian-vs-Heart-of-Midlothian-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e986ece7/dd289621/Dundee-United-vs-St-Johnstone-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/8bbab7cf/25f1fd26/Aberdeen-vs-Kilmarnock-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/b81aa4fa/9d04848a/Celtic-vs-Motherwell-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/a5298e9f/00032902/Ross-County-vs-Dundee-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/86b7acd2/3568ad4c/Rangers-vs-St-Mirren-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/3f458af7/Ross-County-Dundee-United-August-10-2024-Scottish-Premiership</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/786d4564/Rangers-Motherwell-August-10-2024-Scottish-Premiership</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/87de27b0/Dundee-Heart-of-Midlothian-August-10-2024-Scottish-Premiership</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/efe8de9a/Hibernian-Celtic-August-11-2024-Scottish-Premiership</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/84bfadff/Kilmarnock-St-Johnstone-August-11-2024-Scottish-Premiership</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/bc2858bb/Aberdeen-St-Mirren-August-11-2024-Scottish-Premiership</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/dd289621/b81aa4fa/St-Johnstone-vs-Celtic-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/3568ad4c/00032902/St-Mirren-vs-Dundee-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/a5298e9f/7c77b0bc/Ross-County-vs-Heart-of-Midlothian-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/9d04848a/86b7acd2/Motherwell-vs-Rangers-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/f3aacc58/25f1fd26/Hibernian-vs-Kilmarnock-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e986ece7/8bbab7cf/Dundee-United-vs-Aberdeen-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/b81aa4fa/86b7acd2/Old-Firm-Derby-Celtic-vs-Rangers-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/f3aacc58/dd289621/Hibernian-vs-St-Johnstone-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/9d04848a/7c77b0bc/Motherwell-vs-Heart-of-Midlothian-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/a5298e9f/8bbab7cf/Ross-County-vs-Aberdeen-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/3568ad4c/25f1fd26/St-Mirren-vs-Kilmarnock-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e986ece7/00032902/Dundee-United-vs-Dundee-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/f3aacc58/86b7acd2/Hibernian-vs-Rangers-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/9d04848a/8bbab7cf/Motherwell-vs-Aberdeen-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/b81aa4fa/3568ad4c/Celtic-vs-St-Mirren-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e986ece7/7c77b0bc/Dundee-United-vs-Heart-of-Midlothian-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/dd289621/00032902/St-Johnstone-vs-Dundee-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/a5298e9f/25f1fd26/Ross-County-vs-Kilmarnock-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/c1b32f12/Dundee-Kilmarnock-November-3-2024-Scottish-Premiership</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/b81aa4fa/a5298e9f/Celtic-vs-Ross-County-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e986ece7/3568ad4c/Dundee-United-vs-St-Mirren-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/f3aacc58/9d04848a/Hibernian-vs-Motherwell-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/8bbab7cf/7c77b0bc/Aberdeen-vs-Heart-of-Midlothian-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/dd289621/86b7acd2/St-Johnstone-vs-Rangers-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/f3aacc58/a5298e9f/Hibernian-vs-Ross-County-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/dd289621/9d04848a/St-Johnstone-vs-Motherwell-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/8bbab7cf/3568ad4c/Aberdeen-vs-St-Mirren-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/7c77b0bc/25f1fd26/Heart-of-Midlothian-vs-Kilmarnock-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e986ece7/86b7acd2/Dundee-United-vs-Rangers-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/dd289621/3568ad4c/St-Johnstone-vs-St-Mirren-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/7c77b0bc/00032902/Heart-of-Midlothian-vs-Dundee-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e986ece7/25f1fd26/Dundee-United-vs-Kilmarnock-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/a5298e9f/86b7acd2/Ross-County-vs-Rangers-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/8bbab7cf/00032902/Aberdeen-vs-Dundee-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/f3aacc58/3568ad4c/Hibernian-vs-St-Mirren-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/a5298e9f/9d04848a/Ross-County-vs-Motherwell-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/dd289621/25f1fd26/St-Johnstone-vs-Kilmarnock-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/86b7acd2/7c77b0bc/Rangers-vs-Heart-of-Midlothian-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/f3aacc58/b81aa4fa/Hibernian-vs-Celtic-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e986ece7/9d04848a/Dundee-United-vs-Motherwell-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/86b7acd2/25f1fd26/Rangers-vs-Kilmarnock-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/7c77b0bc/3568ad4c/Heart-of-Midlothian-vs-St-Mirren-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/b81aa4fa/8bbab7cf/Celtic-vs-Aberdeen-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/dd289621/a5298e9f/St-Johnstone-vs-Ross-County-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/f3aacc58/e986ece7/Hibernian-vs-Dundee-United-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/9d04848a/00032902/Motherwell-vs-Dundee-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/94ab474a/Hibernian-Dundee-August-24-2024-Scottish-Premiership</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/a3caa8a4/Dundee-United-St-Johnstone-August-24-2024-Scottish-Premiership</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/eaa7195c/Rangers-Ross-County-August-24-2024-Scottish-Premiership</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/9dc2d830/St-Mirren-Celtic-August-25-2024-Scottish-Premiership</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/7df69c15/Aberdeen-Kilmarnock-August-25-2024-Scottish-Premiership</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/a0f450ae/Motherwell-Heart-of-Midlothian-August-25-2024-Scottish-Premiership</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/9d04848a/3568ad4c/Motherwell-vs-St-Mirren-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/dd289621/8bbab7cf/St-Johnstone-vs-Aberdeen-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e986ece7/a5298e9f/Dundee-United-vs-Ross-County-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/b81aa4fa/7c77b0bc/Celtic-vs-Heart-of-Midlothian-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/f3aacc58/00032902/Hibernian-vs-Dundee-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/b81aa4fa/25f1fd26/Celtic-vs-Kilmarnock-History</t>
   </si>
   <si>
     <t>https://fbref.com/en/matches/30131e2c/Dundee-St-Mirren-August-31-2024-Scottish-Premiership</t>
@@ -1493,13 +1601,13 @@
         <v>226</v>
       </c>
       <c r="K2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L2" t="n">
         <v>0.0</v>
       </c>
       <c r="M2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N2" t="n">
         <v>0.0</v>
@@ -1508,16 +1616,16 @@
         <v>18478.0</v>
       </c>
       <c r="P2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="R2" t="e">
         <v>#N/A</v>
       </c>
       <c r="S2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="3">
@@ -1552,13 +1660,13 @@
         <v>227</v>
       </c>
       <c r="K3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L3" t="n">
         <v>0.0</v>
       </c>
       <c r="M3" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N3" t="n">
         <v>0.0</v>
@@ -1567,16 +1675,16 @@
         <v>4353.0</v>
       </c>
       <c r="P3" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q3" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="R3" t="e">
         <v>#N/A</v>
       </c>
       <c r="S3" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="4">
@@ -1611,13 +1719,13 @@
         <v>228</v>
       </c>
       <c r="K4" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L4" t="n">
         <v>2.0</v>
       </c>
       <c r="M4" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N4" t="n">
         <v>2.0</v>
@@ -1626,16 +1734,16 @@
         <v>12616.0</v>
       </c>
       <c r="P4" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q4" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="R4" t="e">
         <v>#N/A</v>
       </c>
       <c r="S4" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="5">
@@ -1670,13 +1778,13 @@
         <v>227</v>
       </c>
       <c r="K5" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L5" t="n">
         <v>3.0</v>
       </c>
       <c r="M5" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="N5" t="n">
         <v>0.0</v>
@@ -1685,16 +1793,16 @@
         <v>6171.0</v>
       </c>
       <c r="P5" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q5" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="R5" t="e">
         <v>#N/A</v>
       </c>
       <c r="S5" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="6">
@@ -1729,31 +1837,31 @@
         <v>229</v>
       </c>
       <c r="K6" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L6" t="n">
         <v>4.0</v>
       </c>
       <c r="M6" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N6" t="n">
         <v>0.0</v>
       </c>
-      <c r="O6" t="e">
-        <v>#N/A</v>
+      <c r="O6" t="n">
+        <v>58712.0</v>
       </c>
       <c r="P6" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q6" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="R6" t="e">
         <v>#N/A</v>
       </c>
       <c r="S6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="7">
@@ -1788,31 +1896,31 @@
         <v>230</v>
       </c>
       <c r="K7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L7" t="n">
         <v>1.0</v>
       </c>
       <c r="M7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="N7" t="n">
         <v>2.0</v>
       </c>
-      <c r="O7" t="e">
-        <v>#N/A</v>
+      <c r="O7" t="n">
+        <v>9203.0</v>
       </c>
       <c r="P7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="R7" t="e">
         <v>#N/A</v>
       </c>
       <c r="S7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="8">
@@ -1847,13 +1955,13 @@
         <v>231</v>
       </c>
       <c r="K8" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L8" t="n">
         <v>1.0</v>
       </c>
       <c r="M8" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N8" t="n">
         <v>2.0</v>
@@ -1862,16 +1970,16 @@
         <v>18402.0</v>
       </c>
       <c r="P8" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q8" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="R8" t="e">
         <v>#N/A</v>
       </c>
       <c r="S8" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="9">
@@ -1906,31 +2014,31 @@
         <v>231</v>
       </c>
       <c r="K9" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L9" t="n">
         <v>2.0</v>
       </c>
       <c r="M9" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N9" t="n">
         <v>0.0</v>
       </c>
-      <c r="O9" t="e">
-        <v>#N/A</v>
+      <c r="O9" t="n">
+        <v>58751.0</v>
       </c>
       <c r="P9" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q9" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="R9" t="e">
         <v>#N/A</v>
       </c>
       <c r="S9" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="10">
@@ -1965,13 +2073,13 @@
         <v>231</v>
       </c>
       <c r="K10" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L10" t="n">
         <v>0.0</v>
       </c>
       <c r="M10" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="N10" t="n">
         <v>0.0</v>
@@ -1980,16 +2088,16 @@
         <v>3468.0</v>
       </c>
       <c r="P10" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q10" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="R10" t="e">
         <v>#N/A</v>
       </c>
       <c r="S10" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="11">
@@ -2024,13 +2132,13 @@
         <v>231</v>
       </c>
       <c r="K11" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L11" t="n">
         <v>3.0</v>
       </c>
       <c r="M11" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="N11" t="n">
         <v>1.0</v>
@@ -2039,16 +2147,16 @@
         <v>6042.0</v>
       </c>
       <c r="P11" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q11" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="R11" t="e">
         <v>#N/A</v>
       </c>
       <c r="S11" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="12">
@@ -2083,13 +2191,13 @@
         <v>231</v>
       </c>
       <c r="K12" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L12" t="n">
         <v>1.0</v>
       </c>
       <c r="M12" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N12" t="n">
         <v>2.0</v>
@@ -2098,16 +2206,16 @@
         <v>8415.0</v>
       </c>
       <c r="P12" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q12" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="R12" t="e">
         <v>#N/A</v>
       </c>
       <c r="S12" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="13">
@@ -2142,13 +2250,13 @@
         <v>230</v>
       </c>
       <c r="K13" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L13" t="n">
         <v>2.0</v>
       </c>
       <c r="M13" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N13" t="n">
         <v>1.0</v>
@@ -2157,16 +2265,16 @@
         <v>19274.0</v>
       </c>
       <c r="P13" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q13" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="R13" t="e">
         <v>#N/A</v>
       </c>
       <c r="S13" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="14">
@@ -2201,13 +2309,13 @@
         <v>227</v>
       </c>
       <c r="K14" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L14" t="n">
         <v>1.0</v>
       </c>
       <c r="M14" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N14" t="n">
         <v>2.0</v>
@@ -2216,16 +2324,16 @@
         <v>5917.0</v>
       </c>
       <c r="P14" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q14" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="R14" t="e">
         <v>#N/A</v>
       </c>
       <c r="S14" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="15">
@@ -2260,13 +2368,13 @@
         <v>227</v>
       </c>
       <c r="K15" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L15" t="n">
         <v>0.0</v>
       </c>
       <c r="M15" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N15" t="n">
         <v>0.0</v>
@@ -2275,16 +2383,16 @@
         <v>6142.0</v>
       </c>
       <c r="P15" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q15" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="R15" t="e">
         <v>#N/A</v>
       </c>
       <c r="S15" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="16">
@@ -2319,13 +2427,13 @@
         <v>231</v>
       </c>
       <c r="K16" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L16" t="n">
         <v>3.0</v>
       </c>
       <c r="M16" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="N16" t="n">
         <v>3.0</v>
@@ -2334,16 +2442,16 @@
         <v>15845.0</v>
       </c>
       <c r="P16" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q16" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="R16" t="e">
         <v>#N/A</v>
       </c>
       <c r="S16" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="17">
@@ -2378,31 +2486,31 @@
         <v>231</v>
       </c>
       <c r="K17" t="s">
-        <v>249</v>
-      </c>
-      <c r="L17" t="e">
-        <v>#N/A</v>
+        <v>250</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.0</v>
       </c>
       <c r="M17" t="s">
-        <v>241</v>
-      </c>
-      <c r="N17" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O17" t="e">
-        <v>#N/A</v>
+        <v>242</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>4601.0</v>
       </c>
       <c r="P17" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q17" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="R17" t="e">
         <v>#N/A</v>
       </c>
       <c r="S17" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="18">
@@ -2437,31 +2545,31 @@
         <v>231</v>
       </c>
       <c r="K18" t="s">
-        <v>244</v>
-      </c>
-      <c r="L18" t="e">
-        <v>#N/A</v>
+        <v>245</v>
+      </c>
+      <c r="L18" t="n">
+        <v>2.0</v>
       </c>
       <c r="M18" t="s">
-        <v>242</v>
-      </c>
-      <c r="N18" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O18" t="e">
-        <v>#N/A</v>
+        <v>243</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>28647.0</v>
       </c>
       <c r="P18" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q18" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="R18" t="e">
         <v>#N/A</v>
       </c>
       <c r="S18" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="19">
@@ -2496,31 +2604,31 @@
         <v>230</v>
       </c>
       <c r="K19" t="s">
-        <v>250</v>
-      </c>
-      <c r="L19" t="e">
-        <v>#N/A</v>
+        <v>251</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.0</v>
       </c>
       <c r="M19" t="s">
-        <v>251</v>
-      </c>
-      <c r="N19" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O19" t="e">
-        <v>#N/A</v>
+        <v>252</v>
+      </c>
+      <c r="N19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>8606.0</v>
       </c>
       <c r="P19" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q19" t="s">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="R19" t="e">
         <v>#N/A</v>
       </c>
       <c r="S19" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="20">
@@ -2555,13 +2663,13 @@
         <v>227</v>
       </c>
       <c r="K20" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L20" t="n">
         <v>2.0</v>
       </c>
       <c r="M20" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="N20" t="n">
         <v>1.0</v>
@@ -2570,16 +2678,16 @@
         <v>4306.0</v>
       </c>
       <c r="P20" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q20" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="R20" t="e">
         <v>#N/A</v>
       </c>
       <c r="S20" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="21">
@@ -2614,13 +2722,13 @@
         <v>227</v>
       </c>
       <c r="K21" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L21" t="n">
         <v>3.0</v>
       </c>
       <c r="M21" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N21" t="n">
         <v>0.0</v>
@@ -2629,16 +2737,16 @@
         <v>8349.0</v>
       </c>
       <c r="P21" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q21" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="R21" t="e">
         <v>#N/A</v>
       </c>
       <c r="S21" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="22">
@@ -2673,13 +2781,13 @@
         <v>227</v>
       </c>
       <c r="K22" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L22" t="n">
         <v>1.0</v>
       </c>
       <c r="M22" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N22" t="n">
         <v>2.0</v>
@@ -2688,16 +2796,16 @@
         <v>15594.0</v>
       </c>
       <c r="P22" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q22" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="R22" t="e">
         <v>#N/A</v>
       </c>
       <c r="S22" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="23">
@@ -2732,13 +2840,13 @@
         <v>232</v>
       </c>
       <c r="K23" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L23" t="n">
         <v>4.0</v>
       </c>
       <c r="M23" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N23" t="n">
         <v>1.0</v>
@@ -2747,16 +2855,16 @@
         <v>19274.0</v>
       </c>
       <c r="P23" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q23" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="R23" t="e">
         <v>#N/A</v>
       </c>
       <c r="S23" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="24">
@@ -2791,13 +2899,13 @@
         <v>227</v>
       </c>
       <c r="K24" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L24" t="n">
         <v>0.0</v>
       </c>
       <c r="M24" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N24" t="n">
         <v>2.0</v>
@@ -2806,16 +2914,16 @@
         <v>8657.0</v>
       </c>
       <c r="P24" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q24" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="R24" t="e">
         <v>#N/A</v>
       </c>
       <c r="S24" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="25">
@@ -2850,13 +2958,13 @@
         <v>233</v>
       </c>
       <c r="K25" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L25" t="n">
         <v>1.0</v>
       </c>
       <c r="M25" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N25" t="n">
         <v>0.0</v>
@@ -2865,16 +2973,16 @@
         <v>48254.0</v>
       </c>
       <c r="P25" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q25" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="R25" t="e">
         <v>#N/A</v>
       </c>
       <c r="S25" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="26">
@@ -2909,31 +3017,31 @@
         <v>227</v>
       </c>
       <c r="K26" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L26" t="n">
         <v>1.0</v>
       </c>
       <c r="M26" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N26" t="n">
         <v>0.0</v>
       </c>
-      <c r="O26" t="e">
-        <v>#N/A</v>
+      <c r="O26" t="n">
+        <v>1872.0</v>
       </c>
       <c r="P26" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q26" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="R26" t="e">
         <v>#N/A</v>
       </c>
       <c r="S26" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="27">
@@ -2968,13 +3076,13 @@
         <v>227</v>
       </c>
       <c r="K27" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L27" t="n">
         <v>2.0</v>
       </c>
       <c r="M27" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N27" t="n">
         <v>1.0</v>
@@ -2983,16 +3091,16 @@
         <v>3410.0</v>
       </c>
       <c r="P27" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q27" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="R27" t="e">
         <v>#N/A</v>
       </c>
       <c r="S27" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="28">
@@ -3027,13 +3135,13 @@
         <v>234</v>
       </c>
       <c r="K28" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L28" t="n">
         <v>1.0</v>
       </c>
       <c r="M28" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N28" t="n">
         <v>1.0</v>
@@ -3042,16 +3150,16 @@
         <v>47714.0</v>
       </c>
       <c r="P28" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q28" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="R28" t="e">
         <v>#N/A</v>
       </c>
       <c r="S28" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="29">
@@ -3086,13 +3194,13 @@
         <v>235</v>
       </c>
       <c r="K29" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L29" t="n">
         <v>2.0</v>
       </c>
       <c r="M29" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="N29" t="n">
         <v>1.0</v>
@@ -3101,16 +3209,16 @@
         <v>7533.0</v>
       </c>
       <c r="P29" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q29" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="R29" t="e">
         <v>#N/A</v>
       </c>
       <c r="S29" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="30">
@@ -3145,13 +3253,13 @@
         <v>236</v>
       </c>
       <c r="K30" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L30" t="n">
         <v>4.0</v>
       </c>
       <c r="M30" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="N30" t="n">
         <v>1.0</v>
@@ -3160,16 +3268,16 @@
         <v>5310.0</v>
       </c>
       <c r="P30" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q30" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="R30" t="e">
         <v>#N/A</v>
       </c>
       <c r="S30" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="31">
@@ -3204,31 +3312,31 @@
         <v>231</v>
       </c>
       <c r="K31" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L31" t="n">
         <v>1.0</v>
       </c>
       <c r="M31" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N31" t="n">
         <v>4.0</v>
       </c>
-      <c r="O31" t="e">
-        <v>#N/A</v>
+      <c r="O31" t="n">
+        <v>5310.0</v>
       </c>
       <c r="P31" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q31" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="R31" t="e">
         <v>#N/A</v>
       </c>
       <c r="S31" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="32">
@@ -3263,13 +3371,13 @@
         <v>227</v>
       </c>
       <c r="K32" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L32" t="n">
         <v>1.0</v>
       </c>
       <c r="M32" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N32" t="n">
         <v>1.0</v>
@@ -3278,16 +3386,16 @@
         <v>5454.0</v>
       </c>
       <c r="P32" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q32" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="R32" t="e">
         <v>#N/A</v>
       </c>
       <c r="S32" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="33">
@@ -3322,31 +3430,31 @@
         <v>227</v>
       </c>
       <c r="K33" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L33" t="n">
         <v>5.0</v>
       </c>
       <c r="M33" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N33" t="n">
         <v>0.0</v>
       </c>
-      <c r="O33" t="e">
-        <v>#N/A</v>
+      <c r="O33" t="n">
+        <v>58436.0</v>
       </c>
       <c r="P33" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q33" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="R33" t="e">
         <v>#N/A</v>
       </c>
       <c r="S33" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="34">
@@ -3381,13 +3489,13 @@
         <v>227</v>
       </c>
       <c r="K34" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L34" t="n">
         <v>0.0</v>
       </c>
       <c r="M34" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="N34" t="n">
         <v>3.0</v>
@@ -3396,16 +3504,16 @@
         <v>5212.0</v>
       </c>
       <c r="P34" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q34" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="R34" t="e">
         <v>#N/A</v>
       </c>
       <c r="S34" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="35">
@@ -3440,13 +3548,13 @@
         <v>227</v>
       </c>
       <c r="K35" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L35" t="n">
         <v>2.0</v>
       </c>
       <c r="M35" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N35" t="n">
         <v>0.0</v>
@@ -3455,16 +3563,16 @@
         <v>8868.0</v>
       </c>
       <c r="P35" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q35" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="R35" t="e">
         <v>#N/A</v>
       </c>
       <c r="S35" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="36">
@@ -3499,13 +3607,13 @@
         <v>237</v>
       </c>
       <c r="K36" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L36" t="n">
         <v>0.0</v>
       </c>
       <c r="M36" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N36" t="n">
         <v>1.0</v>
@@ -3514,16 +3622,16 @@
         <v>7446.0</v>
       </c>
       <c r="P36" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q36" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="R36" t="e">
         <v>#N/A</v>
       </c>
       <c r="S36" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="37">
@@ -3558,13 +3666,13 @@
         <v>227</v>
       </c>
       <c r="K37" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L37" t="n">
         <v>1.0</v>
       </c>
       <c r="M37" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="N37" t="n">
         <v>1.0</v>
@@ -3573,16 +3681,16 @@
         <v>18810.0</v>
       </c>
       <c r="P37" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q37" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="R37" t="e">
         <v>#N/A</v>
       </c>
       <c r="S37" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="38">
@@ -3617,13 +3725,13 @@
         <v>227</v>
       </c>
       <c r="K38" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L38" t="n">
         <v>3.0</v>
       </c>
       <c r="M38" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="N38" t="n">
         <v>3.0</v>
@@ -3632,16 +3740,16 @@
         <v>3063.0</v>
       </c>
       <c r="P38" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q38" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="R38" t="e">
         <v>#N/A</v>
       </c>
       <c r="S38" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="39">
@@ -3676,13 +3784,13 @@
         <v>227</v>
       </c>
       <c r="K39" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L39" t="n">
         <v>2.0</v>
       </c>
       <c r="M39" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N39" t="n">
         <v>1.0</v>
@@ -3691,16 +3799,16 @@
         <v>7341.0</v>
       </c>
       <c r="P39" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q39" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="R39" t="e">
         <v>#N/A</v>
       </c>
       <c r="S39" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="40">
@@ -3735,13 +3843,13 @@
         <v>227</v>
       </c>
       <c r="K40" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L40" t="n">
         <v>1.0</v>
       </c>
       <c r="M40" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N40" t="n">
         <v>1.0</v>
@@ -3750,16 +3858,16 @@
         <v>15454.0</v>
       </c>
       <c r="P40" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q40" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="R40" t="e">
         <v>#N/A</v>
       </c>
       <c r="S40" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3902,13 @@
         <v>231</v>
       </c>
       <c r="K41" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L41" t="n">
         <v>4.0</v>
       </c>
       <c r="M41" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N41" t="n">
         <v>1.0</v>
@@ -3809,16 +3917,16 @@
         <v>5381.0</v>
       </c>
       <c r="P41" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q41" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="R41" t="e">
         <v>#N/A</v>
       </c>
       <c r="S41" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="42">
@@ -3853,13 +3961,13 @@
         <v>231</v>
       </c>
       <c r="K42" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L42" t="n">
         <v>6.0</v>
       </c>
       <c r="M42" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N42" t="n">
         <v>0.0</v>
@@ -3868,16 +3976,16 @@
         <v>44188.0</v>
       </c>
       <c r="P42" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q42" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="R42" t="e">
         <v>#N/A</v>
       </c>
       <c r="S42" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="43">
@@ -3912,31 +4020,31 @@
         <v>230</v>
       </c>
       <c r="K43" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L43" t="n">
         <v>0.0</v>
       </c>
       <c r="M43" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N43" t="n">
         <v>1.0</v>
       </c>
-      <c r="O43" t="e">
-        <v>#N/A</v>
+      <c r="O43" t="n">
+        <v>18043.0</v>
       </c>
       <c r="P43" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q43" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="R43" t="e">
         <v>#N/A</v>
       </c>
       <c r="S43" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="44">
@@ -3971,13 +4079,13 @@
         <v>227</v>
       </c>
       <c r="K44" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L44" t="n">
         <v>2.0</v>
       </c>
       <c r="M44" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N44" t="n">
         <v>0.0</v>
@@ -3986,16 +4094,16 @@
         <v>18737.0</v>
       </c>
       <c r="P44" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q44" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="R44" t="e">
         <v>#N/A</v>
       </c>
       <c r="S44" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="45">
@@ -4030,13 +4138,13 @@
         <v>227</v>
       </c>
       <c r="K45" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L45" t="n">
         <v>1.0</v>
       </c>
       <c r="M45" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N45" t="n">
         <v>1.0</v>
@@ -4045,16 +4153,16 @@
         <v>8402.0</v>
       </c>
       <c r="P45" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q45" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="R45" t="e">
         <v>#N/A</v>
       </c>
       <c r="S45" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="46">
@@ -4089,13 +4197,13 @@
         <v>227</v>
       </c>
       <c r="K46" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L46" t="n">
         <v>0.0</v>
       </c>
       <c r="M46" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N46" t="n">
         <v>1.0</v>
@@ -4104,16 +4212,16 @@
         <v>6111.0</v>
       </c>
       <c r="P46" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q46" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="R46" t="e">
         <v>#N/A</v>
       </c>
       <c r="S46" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="47">
@@ -4148,13 +4256,13 @@
         <v>227</v>
       </c>
       <c r="K47" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L47" t="n">
         <v>1.0</v>
       </c>
       <c r="M47" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="N47" t="n">
         <v>1.0</v>
@@ -4163,16 +4271,16 @@
         <v>15880.0</v>
       </c>
       <c r="P47" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q47" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="R47" t="e">
         <v>#N/A</v>
       </c>
       <c r="S47" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="48">
@@ -4207,31 +4315,31 @@
         <v>227</v>
       </c>
       <c r="K48" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L48" t="n">
         <v>3.0</v>
       </c>
       <c r="M48" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="N48" t="n">
         <v>0.0</v>
       </c>
-      <c r="O48" t="e">
-        <v>#N/A</v>
+      <c r="O48" t="n">
+        <v>60411.0</v>
       </c>
       <c r="P48" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q48" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="R48" t="e">
         <v>#N/A</v>
       </c>
       <c r="S48" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="49">
@@ -4266,31 +4374,31 @@
         <v>237</v>
       </c>
       <c r="K49" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L49" t="n">
         <v>0.0</v>
       </c>
       <c r="M49" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N49" t="n">
         <v>3.0</v>
       </c>
-      <c r="O49" t="e">
-        <v>#N/A</v>
+      <c r="O49" t="n">
+        <v>6011.0</v>
       </c>
       <c r="P49" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q49" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="R49" t="e">
         <v>#N/A</v>
       </c>
       <c r="S49" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="50">
@@ -4325,13 +4433,13 @@
         <v>227</v>
       </c>
       <c r="K50" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L50" t="n">
         <v>2.0</v>
       </c>
       <c r="M50" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N50" t="n">
         <v>3.0</v>
@@ -4340,16 +4448,16 @@
         <v>4001.0</v>
       </c>
       <c r="P50" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q50" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="R50" t="e">
         <v>#N/A</v>
       </c>
       <c r="S50" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="51">
@@ -4384,13 +4492,13 @@
         <v>227</v>
       </c>
       <c r="K51" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L51" t="n">
         <v>3.0</v>
       </c>
       <c r="M51" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N51" t="n">
         <v>1.0</v>
@@ -4399,16 +4507,16 @@
         <v>14885.0</v>
       </c>
       <c r="P51" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q51" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="R51" t="e">
         <v>#N/A</v>
       </c>
       <c r="S51" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="52">
@@ -4443,13 +4551,13 @@
         <v>227</v>
       </c>
       <c r="K52" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L52" t="n">
         <v>4.0</v>
       </c>
       <c r="M52" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N52" t="n">
         <v>3.0</v>
@@ -4458,16 +4566,16 @@
         <v>4473.0</v>
       </c>
       <c r="P52" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q52" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="R52" t="e">
         <v>#N/A</v>
       </c>
       <c r="S52" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="53">
@@ -4502,13 +4610,13 @@
         <v>227</v>
       </c>
       <c r="K53" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L53" t="n">
         <v>1.0</v>
       </c>
       <c r="M53" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N53" t="n">
         <v>0.0</v>
@@ -4517,16 +4625,16 @@
         <v>5474.0</v>
       </c>
       <c r="P53" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q53" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="R53" t="e">
         <v>#N/A</v>
       </c>
       <c r="S53" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="54">
@@ -4561,31 +4669,31 @@
         <v>230</v>
       </c>
       <c r="K54" t="s">
-        <v>250</v>
-      </c>
-      <c r="L54" t="e">
-        <v>#N/A</v>
+        <v>251</v>
+      </c>
+      <c r="L54" t="n">
+        <v>3.0</v>
       </c>
       <c r="M54" t="s">
-        <v>244</v>
-      </c>
-      <c r="N54" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O54" t="e">
-        <v>#N/A</v>
+        <v>245</v>
+      </c>
+      <c r="N54" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O54" t="n">
+        <v>8816.0</v>
       </c>
       <c r="P54" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q54" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="R54" t="e">
         <v>#N/A</v>
       </c>
       <c r="S54" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="55">
@@ -4620,31 +4728,31 @@
         <v>230</v>
       </c>
       <c r="K55" t="s">
-        <v>251</v>
-      </c>
-      <c r="L55" t="e">
-        <v>#N/A</v>
+        <v>252</v>
+      </c>
+      <c r="L55" t="n">
+        <v>3.0</v>
       </c>
       <c r="M55" t="s">
-        <v>247</v>
-      </c>
-      <c r="N55" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O55" t="e">
-        <v>#N/A</v>
+        <v>248</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O55" t="n">
+        <v>45887.0</v>
       </c>
       <c r="P55" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q55" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="R55" t="e">
         <v>#N/A</v>
       </c>
       <c r="S55" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="56">
@@ -4679,31 +4787,31 @@
         <v>231</v>
       </c>
       <c r="K56" t="s">
-        <v>241</v>
-      </c>
-      <c r="L56" t="e">
-        <v>#N/A</v>
+        <v>242</v>
+      </c>
+      <c r="L56" t="n">
+        <v>1.0</v>
       </c>
       <c r="M56" t="s">
-        <v>249</v>
-      </c>
-      <c r="N56" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O56" t="e">
-        <v>#N/A</v>
+        <v>250</v>
+      </c>
+      <c r="N56" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O56" t="n">
+        <v>4966.0</v>
       </c>
       <c r="P56" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q56" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="R56" t="e">
         <v>#N/A</v>
       </c>
       <c r="S56" t="s">
-        <v>298</v>
+        <v>338</v>
       </c>
     </row>
     <row r="57">
@@ -4738,31 +4846,31 @@
         <v>227</v>
       </c>
       <c r="K57" t="s">
-        <v>247</v>
-      </c>
-      <c r="L57" t="e">
-        <v>#N/A</v>
+        <v>248</v>
+      </c>
+      <c r="L57" t="n">
+        <v>1.0</v>
       </c>
       <c r="M57" t="s">
-        <v>248</v>
-      </c>
-      <c r="N57" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O57" t="e">
-        <v>#N/A</v>
+        <v>249</v>
+      </c>
+      <c r="N57" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O57" t="n">
+        <v>18375.0</v>
       </c>
       <c r="P57" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q57" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="R57" t="e">
         <v>#N/A</v>
       </c>
       <c r="S57" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="58">
@@ -4797,31 +4905,31 @@
         <v>227</v>
       </c>
       <c r="K58" t="s">
+        <v>252</v>
+      </c>
+      <c r="L58" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M58" t="s">
         <v>251</v>
       </c>
-      <c r="L58" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M58" t="s">
-        <v>250</v>
-      </c>
-      <c r="N58" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O58" t="e">
-        <v>#N/A</v>
+      <c r="N58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O58" t="n">
+        <v>47208.0</v>
       </c>
       <c r="P58" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q58" t="s">
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="R58" t="e">
         <v>#N/A</v>
       </c>
       <c r="S58" t="s">
-        <v>300</v>
+        <v>340</v>
       </c>
     </row>
     <row r="59">
@@ -4856,31 +4964,31 @@
         <v>227</v>
       </c>
       <c r="K59" t="s">
-        <v>246</v>
-      </c>
-      <c r="L59" t="e">
-        <v>#N/A</v>
+        <v>247</v>
+      </c>
+      <c r="L59" t="n">
+        <v>1.0</v>
       </c>
       <c r="M59" t="s">
-        <v>243</v>
-      </c>
-      <c r="N59" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O59" t="e">
-        <v>#N/A</v>
+        <v>244</v>
+      </c>
+      <c r="N59" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="O59" t="n">
+        <v>3271.0</v>
       </c>
       <c r="P59" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q59" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="R59" t="e">
         <v>#N/A</v>
       </c>
       <c r="S59" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
     </row>
     <row r="60">
@@ -4915,31 +5023,31 @@
         <v>237</v>
       </c>
       <c r="K60" t="s">
-        <v>242</v>
-      </c>
-      <c r="L60" t="e">
-        <v>#N/A</v>
+        <v>243</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0.0</v>
       </c>
       <c r="M60" t="s">
-        <v>244</v>
-      </c>
-      <c r="N60" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O60" t="e">
-        <v>#N/A</v>
+        <v>245</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O60" t="n">
+        <v>13662.0</v>
       </c>
       <c r="P60" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q60" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="R60" t="e">
         <v>#N/A</v>
       </c>
       <c r="S60" t="s">
-        <v>299</v>
+        <v>342</v>
       </c>
     </row>
     <row r="61">
@@ -4974,31 +5082,31 @@
         <v>227</v>
       </c>
       <c r="K61" t="s">
-        <v>240</v>
-      </c>
-      <c r="L61" t="e">
-        <v>#N/A</v>
+        <v>241</v>
+      </c>
+      <c r="L61" t="n">
+        <v>2.0</v>
       </c>
       <c r="M61" t="s">
-        <v>245</v>
-      </c>
-      <c r="N61" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O61" t="e">
-        <v>#N/A</v>
+        <v>246</v>
+      </c>
+      <c r="N61" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O61" t="n">
+        <v>13662.0</v>
       </c>
       <c r="P61" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q61" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="R61" t="e">
         <v>#N/A</v>
       </c>
       <c r="S61" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
     </row>
     <row r="62">
@@ -5033,31 +5141,31 @@
         <v>226</v>
       </c>
       <c r="K62" t="s">
-        <v>240</v>
-      </c>
-      <c r="L62" t="e">
-        <v>#N/A</v>
+        <v>241</v>
+      </c>
+      <c r="L62" t="n">
+        <v>1.0</v>
       </c>
       <c r="M62" t="s">
-        <v>248</v>
-      </c>
-      <c r="N62" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O62" t="e">
-        <v>#N/A</v>
+        <v>249</v>
+      </c>
+      <c r="N62" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="O62" t="n">
+        <v>18726.0</v>
       </c>
       <c r="P62" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q62" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="R62" t="e">
         <v>#N/A</v>
       </c>
       <c r="S62" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
     </row>
     <row r="63">
@@ -5092,31 +5200,31 @@
         <v>227</v>
       </c>
       <c r="K63" t="s">
-        <v>245</v>
-      </c>
-      <c r="L63" t="e">
-        <v>#N/A</v>
+        <v>246</v>
+      </c>
+      <c r="L63" t="n">
+        <v>1.0</v>
       </c>
       <c r="M63" t="s">
-        <v>242</v>
-      </c>
-      <c r="N63" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O63" t="e">
-        <v>#N/A</v>
+        <v>243</v>
+      </c>
+      <c r="N63" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="O63" t="n">
+        <v>7306.0</v>
       </c>
       <c r="P63" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q63" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="R63" t="e">
         <v>#N/A</v>
       </c>
       <c r="S63" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
     </row>
     <row r="64">
@@ -5151,31 +5259,31 @@
         <v>227</v>
       </c>
       <c r="K64" t="s">
-        <v>249</v>
-      </c>
-      <c r="L64" t="e">
-        <v>#N/A</v>
+        <v>250</v>
+      </c>
+      <c r="L64" t="n">
+        <v>4.0</v>
       </c>
       <c r="M64" t="s">
-        <v>247</v>
-      </c>
-      <c r="N64" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O64" t="e">
-        <v>#N/A</v>
+        <v>248</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O64" t="n">
+        <v>6846.0</v>
       </c>
       <c r="P64" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q64" t="s">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="R64" t="e">
         <v>#N/A</v>
       </c>
       <c r="S64" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
     </row>
     <row r="65">
@@ -5210,31 +5318,31 @@
         <v>227</v>
       </c>
       <c r="K65" t="s">
-        <v>244</v>
-      </c>
-      <c r="L65" t="e">
-        <v>#N/A</v>
+        <v>245</v>
+      </c>
+      <c r="L65" t="n">
+        <v>4.0</v>
       </c>
       <c r="M65" t="s">
-        <v>241</v>
-      </c>
-      <c r="N65" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O65" t="e">
-        <v>#N/A</v>
+        <v>242</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O65" t="n">
+        <v>58687.0</v>
       </c>
       <c r="P65" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q65" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="R65" t="e">
         <v>#N/A</v>
       </c>
       <c r="S65" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
     </row>
     <row r="66">
@@ -5269,31 +5377,31 @@
         <v>227</v>
       </c>
       <c r="K66" t="s">
-        <v>250</v>
-      </c>
-      <c r="L66" t="e">
-        <v>#N/A</v>
+        <v>251</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0.0</v>
       </c>
       <c r="M66" t="s">
-        <v>246</v>
-      </c>
-      <c r="N66" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O66" t="e">
-        <v>#N/A</v>
+        <v>247</v>
+      </c>
+      <c r="N66" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O66" t="n">
+        <v>5207.0</v>
       </c>
       <c r="P66" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q66" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="R66" t="e">
         <v>#N/A</v>
       </c>
       <c r="S66" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
     </row>
     <row r="67">
@@ -5328,31 +5436,31 @@
         <v>236</v>
       </c>
       <c r="K67" t="s">
-        <v>243</v>
-      </c>
-      <c r="L67" t="e">
-        <v>#N/A</v>
+        <v>244</v>
+      </c>
+      <c r="L67" t="n">
+        <v>2.0</v>
       </c>
       <c r="M67" t="s">
-        <v>251</v>
-      </c>
-      <c r="N67" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O67" t="e">
-        <v>#N/A</v>
+        <v>252</v>
+      </c>
+      <c r="N67" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O67" t="n">
+        <v>7175.0</v>
       </c>
       <c r="P67" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q67" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="R67" t="e">
         <v>#N/A</v>
       </c>
       <c r="S67" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
     </row>
     <row r="68">
@@ -5387,13 +5495,13 @@
         <v>227</v>
       </c>
       <c r="K68" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L68" t="n">
         <v>1.0</v>
       </c>
       <c r="M68" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N68" t="n">
         <v>1.0</v>
@@ -5402,16 +5510,16 @@
         <v>4169.0</v>
       </c>
       <c r="P68" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q68" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="R68" t="e">
         <v>#N/A</v>
       </c>
       <c r="S68" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
     <row r="69">
@@ -5446,13 +5554,13 @@
         <v>227</v>
       </c>
       <c r="K69" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L69" t="n">
         <v>2.0</v>
       </c>
       <c r="M69" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N69" t="n">
         <v>1.0</v>
@@ -5461,16 +5569,16 @@
         <v>48529.0</v>
       </c>
       <c r="P69" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q69" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="R69" t="e">
         <v>#N/A</v>
       </c>
       <c r="S69" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="70">
@@ -5505,13 +5613,13 @@
         <v>232</v>
       </c>
       <c r="K70" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L70" t="n">
         <v>3.0</v>
       </c>
       <c r="M70" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N70" t="n">
         <v>1.0</v>
@@ -5520,16 +5628,16 @@
         <v>7266.0</v>
       </c>
       <c r="P70" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q70" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="R70" t="e">
         <v>#N/A</v>
       </c>
       <c r="S70" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
     </row>
     <row r="71">
@@ -5564,13 +5672,13 @@
         <v>226</v>
       </c>
       <c r="K71" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L71" t="n">
         <v>0.0</v>
       </c>
       <c r="M71" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N71" t="n">
         <v>2.0</v>
@@ -5579,16 +5687,16 @@
         <v>17918.0</v>
       </c>
       <c r="P71" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q71" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="R71" t="e">
         <v>#N/A</v>
       </c>
       <c r="S71" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
     </row>
     <row r="72">
@@ -5623,13 +5731,13 @@
         <v>227</v>
       </c>
       <c r="K72" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L72" t="n">
         <v>0.0</v>
       </c>
       <c r="M72" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="N72" t="n">
         <v>3.0</v>
@@ -5638,16 +5746,16 @@
         <v>4843.0</v>
       </c>
       <c r="P72" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q72" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="R72" t="e">
         <v>#N/A</v>
       </c>
       <c r="S72" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
     </row>
     <row r="73">
@@ -5682,13 +5790,13 @@
         <v>227</v>
       </c>
       <c r="K73" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L73" t="n">
         <v>3.0</v>
       </c>
       <c r="M73" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N73" t="n">
         <v>1.0</v>
@@ -5697,16 +5805,16 @@
         <v>17057.0</v>
       </c>
       <c r="P73" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q73" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="R73" t="e">
         <v>#N/A</v>
       </c>
       <c r="S73" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
     </row>
     <row r="74">
@@ -5741,31 +5849,31 @@
         <v>227</v>
       </c>
       <c r="K74" t="s">
-        <v>244</v>
-      </c>
-      <c r="L74" t="e">
-        <v>#N/A</v>
+        <v>245</v>
+      </c>
+      <c r="L74" t="n">
+        <v>4.0</v>
       </c>
       <c r="M74" t="s">
-        <v>245</v>
-      </c>
-      <c r="N74" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O74" t="e">
-        <v>#N/A</v>
+        <v>246</v>
+      </c>
+      <c r="N74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O74" t="n">
+        <v>58645.0</v>
       </c>
       <c r="P74" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q74" t="s">
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="R74" t="e">
         <v>#N/A</v>
       </c>
       <c r="S74" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
     </row>
     <row r="75">
@@ -5800,31 +5908,31 @@
         <v>227</v>
       </c>
       <c r="K75" t="s">
-        <v>243</v>
-      </c>
-      <c r="L75" t="e">
-        <v>#N/A</v>
+        <v>244</v>
+      </c>
+      <c r="L75" t="n">
+        <v>1.0</v>
       </c>
       <c r="M75" t="s">
-        <v>250</v>
-      </c>
-      <c r="N75" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O75" t="e">
-        <v>#N/A</v>
+        <v>251</v>
+      </c>
+      <c r="N75" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="O75" t="n">
+        <v>6798.0</v>
       </c>
       <c r="P75" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q75" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="R75" t="e">
         <v>#N/A</v>
       </c>
       <c r="S75" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
     </row>
     <row r="76">
@@ -5859,31 +5967,31 @@
         <v>227</v>
       </c>
       <c r="K76" t="s">
-        <v>246</v>
-      </c>
-      <c r="L76" t="e">
-        <v>#N/A</v>
+        <v>247</v>
+      </c>
+      <c r="L76" t="n">
+        <v>2.0</v>
       </c>
       <c r="M76" t="s">
-        <v>240</v>
-      </c>
-      <c r="N76" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O76" t="e">
-        <v>#N/A</v>
+        <v>241</v>
+      </c>
+      <c r="N76" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="O76" t="n">
+        <v>4994.0</v>
       </c>
       <c r="P76" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q76" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="R76" t="e">
         <v>#N/A</v>
       </c>
       <c r="S76" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
     </row>
     <row r="77">
@@ -5918,31 +6026,31 @@
         <v>227</v>
       </c>
       <c r="K77" t="s">
-        <v>241</v>
-      </c>
-      <c r="L77" t="e">
-        <v>#N/A</v>
+        <v>242</v>
+      </c>
+      <c r="L77" t="n">
+        <v>2.0</v>
       </c>
       <c r="M77" t="s">
-        <v>251</v>
-      </c>
-      <c r="N77" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O77" t="e">
-        <v>#N/A</v>
+        <v>252</v>
+      </c>
+      <c r="N77" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="O77" t="n">
+        <v>8728.0</v>
       </c>
       <c r="P77" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q77" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="R77" t="e">
         <v>#N/A</v>
       </c>
       <c r="S77" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
     </row>
     <row r="78">
@@ -5977,31 +6085,31 @@
         <v>227</v>
       </c>
       <c r="K78" t="s">
-        <v>248</v>
-      </c>
-      <c r="L78" t="e">
-        <v>#N/A</v>
+        <v>249</v>
+      </c>
+      <c r="L78" t="n">
+        <v>1.0</v>
       </c>
       <c r="M78" t="s">
-        <v>249</v>
-      </c>
-      <c r="N78" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O78" t="e">
-        <v>#N/A</v>
+        <v>250</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O78" t="n">
+        <v>19265.0</v>
       </c>
       <c r="P78" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q78" t="s">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="R78" t="e">
         <v>#N/A</v>
       </c>
       <c r="S78" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
     </row>
     <row r="79">
@@ -6036,31 +6144,31 @@
         <v>238</v>
       </c>
       <c r="K79" t="s">
-        <v>242</v>
-      </c>
-      <c r="L79" t="e">
-        <v>#N/A</v>
+        <v>243</v>
+      </c>
+      <c r="L79" t="n">
+        <v>1.0</v>
       </c>
       <c r="M79" t="s">
-        <v>247</v>
-      </c>
-      <c r="N79" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O79" t="e">
-        <v>#N/A</v>
+        <v>248</v>
+      </c>
+      <c r="N79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O79" t="n">
+        <v>13581.0</v>
       </c>
       <c r="P79" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q79" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="R79" t="e">
         <v>#N/A</v>
       </c>
       <c r="S79" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
     </row>
     <row r="80">
@@ -6095,31 +6203,31 @@
         <v>227</v>
       </c>
       <c r="K80" t="s">
-        <v>251</v>
-      </c>
-      <c r="L80" t="e">
-        <v>#N/A</v>
+        <v>252</v>
+      </c>
+      <c r="L80" t="n">
+        <v>3.0</v>
       </c>
       <c r="M80" t="s">
-        <v>244</v>
-      </c>
-      <c r="N80" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O80" t="e">
-        <v>#N/A</v>
+        <v>245</v>
+      </c>
+      <c r="N80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O80" t="n">
+        <v>51065.0</v>
       </c>
       <c r="P80" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q80" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="R80" t="e">
         <v>#N/A</v>
       </c>
       <c r="S80" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
     </row>
     <row r="81">
@@ -6154,31 +6262,31 @@
         <v>227</v>
       </c>
       <c r="K81" t="s">
-        <v>245</v>
-      </c>
-      <c r="L81" t="e">
-        <v>#N/A</v>
+        <v>246</v>
+      </c>
+      <c r="L81" t="n">
+        <v>1.0</v>
       </c>
       <c r="M81" t="s">
-        <v>248</v>
-      </c>
-      <c r="N81" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O81" t="e">
-        <v>#N/A</v>
+        <v>249</v>
+      </c>
+      <c r="N81" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O81" t="n">
+        <v>6287.0</v>
       </c>
       <c r="P81" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q81" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="R81" t="e">
         <v>#N/A</v>
       </c>
       <c r="S81" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
     </row>
     <row r="82">
@@ -6213,31 +6321,31 @@
         <v>227</v>
       </c>
       <c r="K82" t="s">
-        <v>240</v>
-      </c>
-      <c r="L82" t="e">
-        <v>#N/A</v>
+        <v>241</v>
+      </c>
+      <c r="L82" t="n">
+        <v>1.0</v>
       </c>
       <c r="M82" t="s">
-        <v>241</v>
-      </c>
-      <c r="N82" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O82" t="e">
-        <v>#N/A</v>
+        <v>242</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O82" t="n">
+        <v>18715.0</v>
       </c>
       <c r="P82" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q82" t="s">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="R82" t="e">
         <v>#N/A</v>
       </c>
       <c r="S82" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
     </row>
     <row r="83">
@@ -6272,31 +6380,31 @@
         <v>227</v>
       </c>
       <c r="K83" t="s">
+        <v>248</v>
+      </c>
+      <c r="L83" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M83" t="s">
         <v>247</v>
       </c>
-      <c r="L83" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M83" t="s">
-        <v>246</v>
-      </c>
-      <c r="N83" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O83" t="e">
-        <v>#N/A</v>
+      <c r="N83" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="O83" t="n">
+        <v>17007.0</v>
       </c>
       <c r="P83" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q83" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="R83" t="e">
         <v>#N/A</v>
       </c>
       <c r="S83" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
     </row>
     <row r="84">
@@ -6331,31 +6439,31 @@
         <v>227</v>
       </c>
       <c r="K84" t="s">
-        <v>249</v>
-      </c>
-      <c r="L84" t="e">
-        <v>#N/A</v>
+        <v>250</v>
+      </c>
+      <c r="L84" t="n">
+        <v>2.0</v>
       </c>
       <c r="M84" t="s">
-        <v>243</v>
-      </c>
-      <c r="N84" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O84" t="e">
-        <v>#N/A</v>
+        <v>244</v>
+      </c>
+      <c r="N84" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O84" t="n">
+        <v>6603.0</v>
       </c>
       <c r="P84" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q84" t="s">
-        <v>265</v>
+        <v>282</v>
       </c>
       <c r="R84" t="e">
         <v>#N/A</v>
       </c>
       <c r="S84" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
     </row>
     <row r="85">
@@ -6390,31 +6498,31 @@
         <v>232</v>
       </c>
       <c r="K85" t="s">
-        <v>250</v>
-      </c>
-      <c r="L85" t="e">
-        <v>#N/A</v>
+        <v>251</v>
+      </c>
+      <c r="L85" t="n">
+        <v>1.0</v>
       </c>
       <c r="M85" t="s">
-        <v>242</v>
-      </c>
-      <c r="N85" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O85" t="e">
-        <v>#N/A</v>
+        <v>243</v>
+      </c>
+      <c r="N85" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="O85" t="n">
+        <v>11585.0</v>
       </c>
       <c r="P85" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q85" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="R85" t="e">
         <v>#N/A</v>
       </c>
       <c r="S85" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
     </row>
     <row r="86">
@@ -6449,31 +6557,31 @@
         <v>237</v>
       </c>
       <c r="K86" t="s">
-        <v>248</v>
-      </c>
-      <c r="L86" t="e">
-        <v>#N/A</v>
+        <v>249</v>
+      </c>
+      <c r="L86" t="n">
+        <v>3.0</v>
       </c>
       <c r="M86" t="s">
-        <v>251</v>
-      </c>
-      <c r="N86" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O86" t="e">
-        <v>#N/A</v>
+        <v>252</v>
+      </c>
+      <c r="N86" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O86" t="n">
+        <v>17539.0</v>
       </c>
       <c r="P86" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q86" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="R86" t="e">
         <v>#N/A</v>
       </c>
       <c r="S86" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
     </row>
     <row r="87">
@@ -6508,31 +6616,31 @@
         <v>239</v>
       </c>
       <c r="K87" t="s">
-        <v>241</v>
-      </c>
-      <c r="L87" t="e">
-        <v>#N/A</v>
+        <v>242</v>
+      </c>
+      <c r="L87" t="n">
+        <v>2.0</v>
       </c>
       <c r="M87" t="s">
-        <v>247</v>
-      </c>
-      <c r="N87" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O87" t="e">
-        <v>#N/A</v>
+        <v>248</v>
+      </c>
+      <c r="N87" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O87" t="n">
+        <v>5308.0</v>
       </c>
       <c r="P87" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q87" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="R87" t="e">
         <v>#N/A</v>
       </c>
       <c r="S87" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
     </row>
     <row r="88">
@@ -6567,31 +6675,31 @@
         <v>227</v>
       </c>
       <c r="K88" t="s">
+        <v>245</v>
+      </c>
+      <c r="L88" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="M88" t="s">
         <v>244</v>
       </c>
-      <c r="L88" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M88" t="s">
-        <v>243</v>
-      </c>
-      <c r="N88" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O88" t="e">
-        <v>#N/A</v>
+      <c r="N88" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O88" t="n">
+        <v>58838.0</v>
       </c>
       <c r="P88" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q88" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="R88" t="e">
         <v>#N/A</v>
       </c>
       <c r="S88" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
     </row>
     <row r="89">
@@ -6626,31 +6734,31 @@
         <v>227</v>
       </c>
       <c r="K89" t="s">
-        <v>242</v>
-      </c>
-      <c r="L89" t="e">
-        <v>#N/A</v>
+        <v>243</v>
+      </c>
+      <c r="L89" t="n">
+        <v>0.0</v>
       </c>
       <c r="M89" t="s">
-        <v>240</v>
-      </c>
-      <c r="N89" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O89" t="e">
-        <v>#N/A</v>
+        <v>241</v>
+      </c>
+      <c r="N89" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O89" t="n">
+        <v>10214.0</v>
       </c>
       <c r="P89" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q89" t="s">
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="R89" t="e">
         <v>#N/A</v>
       </c>
       <c r="S89" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
     </row>
     <row r="90">
@@ -6685,31 +6793,31 @@
         <v>227</v>
       </c>
       <c r="K90" t="s">
-        <v>245</v>
-      </c>
-      <c r="L90" t="e">
-        <v>#N/A</v>
+        <v>246</v>
+      </c>
+      <c r="L90" t="n">
+        <v>1.0</v>
       </c>
       <c r="M90" t="s">
-        <v>250</v>
-      </c>
-      <c r="N90" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O90" t="e">
-        <v>#N/A</v>
+        <v>251</v>
+      </c>
+      <c r="N90" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O90" t="n">
+        <v>5246.0</v>
       </c>
       <c r="P90" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q90" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="R90" t="e">
         <v>#N/A</v>
       </c>
       <c r="S90" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
     </row>
     <row r="91">
@@ -6744,31 +6852,31 @@
         <v>227</v>
       </c>
       <c r="K91" t="s">
-        <v>249</v>
-      </c>
-      <c r="L91" t="e">
-        <v>#N/A</v>
+        <v>250</v>
+      </c>
+      <c r="L91" t="n">
+        <v>0.0</v>
       </c>
       <c r="M91" t="s">
-        <v>246</v>
-      </c>
-      <c r="N91" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O91" t="e">
-        <v>#N/A</v>
+        <v>247</v>
+      </c>
+      <c r="N91" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O91" t="n">
+        <v>5426.0</v>
       </c>
       <c r="P91" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q91" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="R91" t="e">
         <v>#N/A</v>
       </c>
       <c r="S91" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
     </row>
     <row r="92">
@@ -6803,13 +6911,13 @@
         <v>227</v>
       </c>
       <c r="K92" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L92" t="n">
         <v>3.0</v>
       </c>
       <c r="M92" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N92" t="n">
         <v>2.0</v>
@@ -6818,16 +6926,16 @@
         <v>5014.0</v>
       </c>
       <c r="P92" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q92" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="R92" t="e">
         <v>#N/A</v>
       </c>
       <c r="S92" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
     </row>
     <row r="93">
@@ -6862,31 +6970,31 @@
         <v>226</v>
       </c>
       <c r="K93" t="s">
-        <v>246</v>
-      </c>
-      <c r="L93" t="e">
-        <v>#N/A</v>
+        <v>247</v>
+      </c>
+      <c r="L93" t="n">
+        <v>1.0</v>
       </c>
       <c r="M93" t="s">
-        <v>244</v>
-      </c>
-      <c r="N93" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O93" t="e">
-        <v>#N/A</v>
+        <v>245</v>
+      </c>
+      <c r="N93" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="O93" t="n">
+        <v>6254.0</v>
       </c>
       <c r="P93" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q93" t="s">
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="R93" t="e">
         <v>#N/A</v>
       </c>
       <c r="S93" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
     </row>
     <row r="94">
@@ -6921,31 +7029,31 @@
         <v>227</v>
       </c>
       <c r="K94" t="s">
+        <v>244</v>
+      </c>
+      <c r="L94" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M94" t="s">
         <v>243</v>
       </c>
-      <c r="L94" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M94" t="s">
-        <v>242</v>
-      </c>
-      <c r="N94" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O94" t="e">
-        <v>#N/A</v>
+      <c r="N94" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O94" t="n">
+        <v>7440.0</v>
       </c>
       <c r="P94" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q94" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="R94" t="e">
         <v>#N/A</v>
       </c>
       <c r="S94" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
     </row>
     <row r="95">
@@ -6980,31 +7088,31 @@
         <v>227</v>
       </c>
       <c r="K95" t="s">
-        <v>248</v>
-      </c>
-      <c r="L95" t="e">
-        <v>#N/A</v>
+        <v>249</v>
+      </c>
+      <c r="L95" t="n">
+        <v>3.0</v>
       </c>
       <c r="M95" t="s">
-        <v>241</v>
-      </c>
-      <c r="N95" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O95" t="e">
-        <v>#N/A</v>
+        <v>242</v>
+      </c>
+      <c r="N95" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O95" t="n">
+        <v>15829.0</v>
       </c>
       <c r="P95" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q95" t="s">
-        <v>265</v>
+        <v>282</v>
       </c>
       <c r="R95" t="e">
         <v>#N/A</v>
       </c>
       <c r="S95" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
     <row r="96">
@@ -7039,31 +7147,31 @@
         <v>227</v>
       </c>
       <c r="K96" t="s">
-        <v>247</v>
-      </c>
-      <c r="L96" t="e">
-        <v>#N/A</v>
+        <v>248</v>
+      </c>
+      <c r="L96" t="n">
+        <v>0.0</v>
       </c>
       <c r="M96" t="s">
-        <v>240</v>
-      </c>
-      <c r="N96" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O96" t="e">
-        <v>#N/A</v>
+        <v>241</v>
+      </c>
+      <c r="N96" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O96" t="n">
+        <v>17000.0</v>
       </c>
       <c r="P96" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q96" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="R96" t="e">
         <v>#N/A</v>
       </c>
       <c r="S96" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
     </row>
     <row r="97">
@@ -7098,31 +7206,31 @@
         <v>227</v>
       </c>
       <c r="K97" t="s">
-        <v>251</v>
-      </c>
-      <c r="L97" t="e">
-        <v>#N/A</v>
+        <v>252</v>
+      </c>
+      <c r="L97" t="n">
+        <v>3.0</v>
       </c>
       <c r="M97" t="s">
-        <v>245</v>
-      </c>
-      <c r="N97" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O97" t="e">
-        <v>#N/A</v>
+        <v>246</v>
+      </c>
+      <c r="N97" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O97" t="n">
+        <v>45818.0</v>
       </c>
       <c r="P97" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q97" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="R97" t="e">
         <v>#N/A</v>
       </c>
       <c r="S97" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="98">
@@ -7157,31 +7265,31 @@
         <v>227</v>
       </c>
       <c r="K98" t="s">
-        <v>246</v>
-      </c>
-      <c r="L98" t="e">
-        <v>#N/A</v>
+        <v>247</v>
+      </c>
+      <c r="L98" t="n">
+        <v>1.0</v>
       </c>
       <c r="M98" t="s">
-        <v>248</v>
-      </c>
-      <c r="N98" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O98" t="e">
-        <v>#N/A</v>
+        <v>249</v>
+      </c>
+      <c r="N98" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O98" t="n">
+        <v>4003.0</v>
       </c>
       <c r="P98" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q98" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="R98" t="e">
         <v>#N/A</v>
       </c>
       <c r="S98" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
     </row>
     <row r="99">
@@ -7216,31 +7324,31 @@
         <v>227</v>
       </c>
       <c r="K99" t="s">
-        <v>244</v>
-      </c>
-      <c r="L99" t="e">
-        <v>#N/A</v>
+        <v>246</v>
+      </c>
+      <c r="L99" t="n">
+        <v>2.0</v>
       </c>
       <c r="M99" t="s">
-        <v>250</v>
-      </c>
-      <c r="N99" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O99" t="e">
-        <v>#N/A</v>
+        <v>242</v>
+      </c>
+      <c r="N99" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O99" t="n">
+        <v>3892.0</v>
       </c>
       <c r="P99" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q99" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="R99" t="e">
         <v>#N/A</v>
       </c>
       <c r="S99" t="s">
-        <v>335</v>
+        <v>381</v>
       </c>
     </row>
     <row r="100">
@@ -7275,31 +7383,31 @@
         <v>227</v>
       </c>
       <c r="K100" t="s">
-        <v>245</v>
-      </c>
-      <c r="L100" t="e">
-        <v>#N/A</v>
+        <v>248</v>
+      </c>
+      <c r="L100" t="n">
+        <v>0.0</v>
       </c>
       <c r="M100" t="s">
-        <v>241</v>
-      </c>
-      <c r="N100" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O100" t="e">
-        <v>#N/A</v>
+        <v>244</v>
+      </c>
+      <c r="N100" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O100" t="n">
+        <v>15829.0</v>
       </c>
       <c r="P100" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q100" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="R100" t="e">
         <v>#N/A</v>
       </c>
       <c r="S100" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
     </row>
     <row r="101">
@@ -7334,31 +7442,31 @@
         <v>227</v>
       </c>
       <c r="K101" t="s">
-        <v>247</v>
-      </c>
-      <c r="L101" t="e">
-        <v>#N/A</v>
+        <v>241</v>
+      </c>
+      <c r="L101" t="n">
+        <v>3.0</v>
       </c>
       <c r="M101" t="s">
-        <v>243</v>
-      </c>
-      <c r="N101" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O101" t="e">
-        <v>#N/A</v>
+        <v>250</v>
+      </c>
+      <c r="N101" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="O101" t="n">
+        <v>18677.0</v>
       </c>
       <c r="P101" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="Q101" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="R101" t="e">
         <v>#N/A</v>
       </c>
       <c r="S101" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
     </row>
     <row r="102">
@@ -7384,40 +7492,40 @@
         <v>41</v>
       </c>
       <c r="H102" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I102" t="n" s="2">
-        <v>45682.0</v>
+        <v>45683.0</v>
       </c>
       <c r="J102" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="K102" t="s">
-        <v>240</v>
-      </c>
-      <c r="L102" t="e">
-        <v>#N/A</v>
+        <v>243</v>
+      </c>
+      <c r="L102" t="n">
+        <v>1.0</v>
       </c>
       <c r="M102" t="s">
-        <v>249</v>
-      </c>
-      <c r="N102" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O102" t="e">
-        <v>#N/A</v>
+        <v>252</v>
+      </c>
+      <c r="N102" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O102" t="n">
+        <v>13653.0</v>
       </c>
       <c r="P102" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q102" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="R102" t="e">
         <v>#N/A</v>
       </c>
       <c r="S102" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
     </row>
     <row r="103">
@@ -7443,40 +7551,40 @@
         <v>41</v>
       </c>
       <c r="H103" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="I103" t="n" s="2">
-        <v>45683.0</v>
+        <v>45693.0</v>
       </c>
       <c r="J103" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="K103" t="s">
-        <v>242</v>
-      </c>
-      <c r="L103" t="e">
-        <v>#N/A</v>
+        <v>245</v>
+      </c>
+      <c r="L103" t="n">
+        <v>6.0</v>
       </c>
       <c r="M103" t="s">
         <v>251</v>
       </c>
-      <c r="N103" t="e">
-        <v>#N/A</v>
+      <c r="N103" t="n">
+        <v>0.0</v>
       </c>
       <c r="O103" t="e">
         <v>#N/A</v>
       </c>
       <c r="P103" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q103" t="s">
-        <v>265</v>
+        <v>282</v>
       </c>
       <c r="R103" t="e">
         <v>#N/A</v>
       </c>
       <c r="S103" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
     </row>
     <row r="104">
@@ -7511,31 +7619,31 @@
         <v>227</v>
       </c>
       <c r="K104" t="s">
-        <v>243</v>
-      </c>
-      <c r="L104" t="e">
-        <v>#N/A</v>
+        <v>244</v>
+      </c>
+      <c r="L104" t="n">
+        <v>0.0</v>
       </c>
       <c r="M104" t="s">
-        <v>245</v>
-      </c>
-      <c r="N104" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O104" t="e">
-        <v>#N/A</v>
+        <v>246</v>
+      </c>
+      <c r="N104" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O104" t="n">
+        <v>6298.0</v>
       </c>
       <c r="P104" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="Q104" t="s">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="R104" t="e">
         <v>#N/A</v>
       </c>
       <c r="S104" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
     </row>
     <row r="105">
@@ -7570,31 +7678,31 @@
         <v>227</v>
       </c>
       <c r="K105" t="s">
-        <v>250</v>
-      </c>
-      <c r="L105" t="e">
-        <v>#N/A</v>
+        <v>251</v>
+      </c>
+      <c r="L105" t="n">
+        <v>0.0</v>
       </c>
       <c r="M105" t="s">
-        <v>240</v>
-      </c>
-      <c r="N105" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O105" t="e">
-        <v>#N/A</v>
+        <v>241</v>
+      </c>
+      <c r="N105" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="O105" t="n">
+        <v>7458.0</v>
       </c>
       <c r="P105" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="Q105" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="R105" t="e">
         <v>#N/A</v>
       </c>
       <c r="S105" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
     </row>
     <row r="106">
@@ -7629,31 +7737,31 @@
         <v>227</v>
       </c>
       <c r="K106" t="s">
+        <v>249</v>
+      </c>
+      <c r="L106" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="M106" t="s">
         <v>248</v>
       </c>
-      <c r="L106" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M106" t="s">
-        <v>247</v>
-      </c>
-      <c r="N106" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O106" t="e">
-        <v>#N/A</v>
+      <c r="N106" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O106" t="n">
+        <v>16533.0</v>
       </c>
       <c r="P106" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="Q106" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="R106" t="e">
         <v>#N/A</v>
       </c>
       <c r="S106" t="s">
-        <v>337</v>
+        <v>388</v>
       </c>
     </row>
     <row r="107">
@@ -7685,34 +7793,34 @@
         <v>45689.0</v>
       </c>
       <c r="J107" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="K107" t="s">
-        <v>249</v>
-      </c>
-      <c r="L107" t="e">
-        <v>#N/A</v>
+        <v>250</v>
+      </c>
+      <c r="L107" t="n">
+        <v>1.0</v>
       </c>
       <c r="M107" t="s">
-        <v>242</v>
-      </c>
-      <c r="N107" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O107" t="e">
-        <v>#N/A</v>
+        <v>243</v>
+      </c>
+      <c r="N107" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O107" t="n">
+        <v>5661.0</v>
       </c>
       <c r="P107" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="Q107" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="R107" t="e">
         <v>#N/A</v>
       </c>
       <c r="S107" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
     </row>
     <row r="108">
@@ -7738,40 +7846,40 @@
         <v>42</v>
       </c>
       <c r="H108" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I108" t="n" s="2">
-        <v>45689.0</v>
+        <v>45690.0</v>
       </c>
       <c r="J108" t="s">
         <v>227</v>
       </c>
       <c r="K108" t="s">
-        <v>241</v>
-      </c>
-      <c r="L108" t="e">
-        <v>#N/A</v>
+        <v>242</v>
+      </c>
+      <c r="L108" t="n">
+        <v>1.0</v>
       </c>
       <c r="M108" t="s">
-        <v>244</v>
-      </c>
-      <c r="N108" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O108" t="e">
-        <v>#N/A</v>
+        <v>245</v>
+      </c>
+      <c r="N108" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O108" t="n">
+        <v>8293.0</v>
       </c>
       <c r="P108" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="Q108" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="R108" t="e">
         <v>#N/A</v>
       </c>
       <c r="S108" t="s">
-        <v>343</v>
+        <v>390</v>
       </c>
     </row>
     <row r="109">
@@ -7797,40 +7905,40 @@
         <v>42</v>
       </c>
       <c r="H109" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I109" t="n" s="2">
-        <v>45689.0</v>
+        <v>45690.0</v>
       </c>
       <c r="J109" t="s">
         <v>227</v>
       </c>
       <c r="K109" t="s">
-        <v>251</v>
-      </c>
-      <c r="L109" t="e">
-        <v>#N/A</v>
+        <v>252</v>
+      </c>
+      <c r="L109" t="n">
+        <v>4.0</v>
       </c>
       <c r="M109" t="s">
-        <v>246</v>
-      </c>
-      <c r="N109" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O109" t="e">
-        <v>#N/A</v>
+        <v>247</v>
+      </c>
+      <c r="N109" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O109" t="n">
+        <v>46973.0</v>
       </c>
       <c r="P109" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="Q109" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="R109" t="e">
         <v>#N/A</v>
       </c>
       <c r="S109" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
     </row>
     <row r="110">
@@ -7865,31 +7973,31 @@
         <v>227</v>
       </c>
       <c r="K110" t="s">
-        <v>244</v>
-      </c>
-      <c r="L110" t="e">
-        <v>#N/A</v>
+        <v>245</v>
+      </c>
+      <c r="L110" t="n">
+        <v>3.0</v>
       </c>
       <c r="M110" t="s">
-        <v>242</v>
-      </c>
-      <c r="N110" t="e">
-        <v>#N/A</v>
+        <v>243</v>
+      </c>
+      <c r="N110" t="n">
+        <v>0.0</v>
       </c>
       <c r="O110" t="e">
         <v>#N/A</v>
       </c>
       <c r="P110" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="Q110" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="R110" t="e">
         <v>#N/A</v>
       </c>
       <c r="S110" t="s">
-        <v>299</v>
+        <v>392</v>
       </c>
     </row>
     <row r="111">
@@ -7924,31 +8032,31 @@
         <v>227</v>
       </c>
       <c r="K111" t="s">
-        <v>250</v>
-      </c>
-      <c r="L111" t="e">
-        <v>#N/A</v>
+        <v>251</v>
+      </c>
+      <c r="L111" t="n">
+        <v>1.0</v>
       </c>
       <c r="M111" t="s">
-        <v>247</v>
-      </c>
-      <c r="N111" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O111" t="e">
-        <v>#N/A</v>
+        <v>248</v>
+      </c>
+      <c r="N111" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="O111" t="n">
+        <v>7632.0</v>
       </c>
       <c r="P111" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="Q111" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="R111" t="e">
         <v>#N/A</v>
       </c>
       <c r="S111" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
     </row>
     <row r="112">
@@ -7983,31 +8091,31 @@
         <v>227</v>
       </c>
       <c r="K112" t="s">
-        <v>243</v>
-      </c>
-      <c r="L112" t="e">
-        <v>#N/A</v>
+        <v>242</v>
+      </c>
+      <c r="L112" t="n">
+        <v>0.0</v>
       </c>
       <c r="M112" t="s">
-        <v>248</v>
-      </c>
-      <c r="N112" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O112" t="e">
-        <v>#N/A</v>
+        <v>247</v>
+      </c>
+      <c r="N112" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O112" t="n">
+        <v>3973.0</v>
       </c>
       <c r="P112" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="Q112" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="R112" t="e">
         <v>#N/A</v>
       </c>
       <c r="S112" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
     </row>
     <row r="113">
@@ -8042,31 +8150,31 @@
         <v>227</v>
       </c>
       <c r="K113" t="s">
-        <v>241</v>
-      </c>
-      <c r="L113" t="e">
-        <v>#N/A</v>
+        <v>250</v>
+      </c>
+      <c r="L113" t="n">
+        <v>3.0</v>
       </c>
       <c r="M113" t="s">
         <v>246</v>
       </c>
-      <c r="N113" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O113" t="e">
-        <v>#N/A</v>
+      <c r="N113" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O113" t="n">
+        <v>5479.0</v>
       </c>
       <c r="P113" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="Q113" t="s">
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="R113" t="e">
         <v>#N/A</v>
       </c>
       <c r="S113" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
     </row>
     <row r="114">
@@ -8092,40 +8200,40 @@
         <v>43</v>
       </c>
       <c r="H114" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I114" t="n" s="2">
-        <v>45703.0</v>
+        <v>45704.0</v>
       </c>
       <c r="J114" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="K114" t="s">
-        <v>249</v>
-      </c>
-      <c r="L114" t="e">
-        <v>#N/A</v>
+        <v>241</v>
+      </c>
+      <c r="L114" t="n">
+        <v>1.0</v>
       </c>
       <c r="M114" t="s">
-        <v>245</v>
-      </c>
-      <c r="N114" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O114" t="e">
-        <v>#N/A</v>
+        <v>252</v>
+      </c>
+      <c r="N114" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O114" t="n">
+        <v>18356.0</v>
       </c>
       <c r="P114" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="Q114" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="R114" t="e">
         <v>#N/A</v>
       </c>
       <c r="S114" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
     </row>
     <row r="115">
@@ -8151,40 +8259,40 @@
         <v>43</v>
       </c>
       <c r="H115" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I115" t="n" s="2">
-        <v>45703.0</v>
+        <v>45704.0</v>
       </c>
       <c r="J115" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="K115" t="s">
-        <v>240</v>
-      </c>
-      <c r="L115" t="e">
-        <v>#N/A</v>
+        <v>244</v>
+      </c>
+      <c r="L115" t="n">
+        <v>0.0</v>
       </c>
       <c r="M115" t="s">
-        <v>251</v>
-      </c>
-      <c r="N115" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O115" t="e">
-        <v>#N/A</v>
+        <v>249</v>
+      </c>
+      <c r="N115" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O115" t="n">
+        <v>7468.0</v>
       </c>
       <c r="P115" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="Q115" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="R115" t="e">
         <v>#N/A</v>
       </c>
       <c r="S115" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
     </row>
     <row r="116">
@@ -8216,34 +8324,34 @@
         <v>45710.0</v>
       </c>
       <c r="J116" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K116" t="s">
-        <v>248</v>
-      </c>
-      <c r="L116" t="e">
-        <v>#N/A</v>
+        <v>249</v>
+      </c>
+      <c r="L116" t="n">
+        <v>2.0</v>
       </c>
       <c r="M116" t="s">
-        <v>244</v>
-      </c>
-      <c r="N116" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O116" t="e">
-        <v>#N/A</v>
+        <v>245</v>
+      </c>
+      <c r="N116" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O116" t="n">
+        <v>18357.0</v>
       </c>
       <c r="P116" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="Q116" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="R116" t="e">
         <v>#N/A</v>
       </c>
       <c r="S116" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
     </row>
     <row r="117">
@@ -8278,31 +8386,31 @@
         <v>227</v>
       </c>
       <c r="K117" t="s">
-        <v>251</v>
-      </c>
-      <c r="L117" t="e">
-        <v>#N/A</v>
+        <v>252</v>
+      </c>
+      <c r="L117" t="n">
+        <v>0.0</v>
       </c>
       <c r="M117" t="s">
-        <v>243</v>
-      </c>
-      <c r="N117" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O117" t="e">
-        <v>#N/A</v>
+        <v>244</v>
+      </c>
+      <c r="N117" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="O117" t="n">
+        <v>49994.0</v>
       </c>
       <c r="P117" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="Q117" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="R117" t="e">
         <v>#N/A</v>
       </c>
       <c r="S117" t="s">
-        <v>345</v>
+        <v>399</v>
       </c>
     </row>
     <row r="118">
@@ -8337,31 +8445,31 @@
         <v>227</v>
       </c>
       <c r="K118" t="s">
-        <v>246</v>
-      </c>
-      <c r="L118" t="e">
-        <v>#N/A</v>
+        <v>247</v>
+      </c>
+      <c r="L118" t="n">
+        <v>3.0</v>
       </c>
       <c r="M118" t="s">
-        <v>250</v>
-      </c>
-      <c r="N118" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O118" t="e">
-        <v>#N/A</v>
+        <v>251</v>
+      </c>
+      <c r="N118" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O118" t="n">
+        <v>4075.0</v>
       </c>
       <c r="P118" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="Q118" t="s">
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="R118" t="e">
         <v>#N/A</v>
       </c>
       <c r="S118" t="s">
-        <v>344</v>
+        <v>400</v>
       </c>
     </row>
     <row r="119">
@@ -8396,31 +8504,31 @@
         <v>227</v>
       </c>
       <c r="K119" t="s">
-        <v>245</v>
-      </c>
-      <c r="L119" t="e">
-        <v>#N/A</v>
+        <v>243</v>
+      </c>
+      <c r="L119" t="n">
+        <v>1.0</v>
       </c>
       <c r="M119" t="s">
-        <v>240</v>
-      </c>
-      <c r="N119" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O119" t="e">
-        <v>#N/A</v>
+        <v>242</v>
+      </c>
+      <c r="N119" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O119" t="n">
+        <v>9044.0</v>
       </c>
       <c r="P119" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="Q119" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="R119" t="e">
         <v>#N/A</v>
       </c>
       <c r="S119" t="s">
-        <v>339</v>
+        <v>401</v>
       </c>
     </row>
     <row r="120">
@@ -8455,31 +8563,31 @@
         <v>227</v>
       </c>
       <c r="K120" t="s">
-        <v>242</v>
-      </c>
-      <c r="L120" t="e">
-        <v>#N/A</v>
+        <v>248</v>
+      </c>
+      <c r="L120" t="n">
+        <v>1.0</v>
       </c>
       <c r="M120" t="s">
-        <v>241</v>
-      </c>
-      <c r="N120" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O120" t="e">
-        <v>#N/A</v>
+        <v>250</v>
+      </c>
+      <c r="N120" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O120" t="n">
+        <v>16993.0</v>
       </c>
       <c r="P120" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="Q120" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="R120" t="e">
         <v>#N/A</v>
       </c>
       <c r="S120" t="s">
-        <v>391</v>
+        <v>402</v>
       </c>
     </row>
     <row r="121">
@@ -8505,40 +8613,40 @@
         <v>44</v>
       </c>
       <c r="H121" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I121" t="n" s="2">
-        <v>45710.0</v>
+        <v>45711.0</v>
       </c>
       <c r="J121" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="K121" t="s">
-        <v>247</v>
-      </c>
-      <c r="L121" t="e">
-        <v>#N/A</v>
+        <v>246</v>
+      </c>
+      <c r="L121" t="n">
+        <v>1.0</v>
       </c>
       <c r="M121" t="s">
-        <v>249</v>
-      </c>
-      <c r="N121" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O121" t="e">
-        <v>#N/A</v>
+        <v>241</v>
+      </c>
+      <c r="N121" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="O121" t="n">
+        <v>5577.0</v>
       </c>
       <c r="P121" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="Q121" t="s">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="R121" t="e">
         <v>#N/A</v>
       </c>
       <c r="S121" t="s">
-        <v>342</v>
+        <v>403</v>
       </c>
     </row>
     <row r="122">
@@ -8564,40 +8672,40 @@
         <v>45</v>
       </c>
       <c r="H122" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="I122" t="n" s="2">
-        <v>45714.0</v>
+        <v>45713.0</v>
       </c>
       <c r="J122" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K122" t="s">
-        <v>249</v>
-      </c>
-      <c r="L122" t="e">
-        <v>#N/A</v>
+        <v>245</v>
+      </c>
+      <c r="L122" t="n">
+        <v>5.0</v>
       </c>
       <c r="M122" t="s">
-        <v>251</v>
-      </c>
-      <c r="N122" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O122" t="e">
-        <v>#N/A</v>
+        <v>248</v>
+      </c>
+      <c r="N122" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O122" t="n">
+        <v>58756.0</v>
       </c>
       <c r="P122" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="Q122" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="R122" t="e">
         <v>#N/A</v>
       </c>
       <c r="S122" t="s">
-        <v>392</v>
+        <v>404</v>
       </c>
     </row>
     <row r="123">
@@ -8632,31 +8740,31 @@
         <v>231</v>
       </c>
       <c r="K123" t="s">
-        <v>240</v>
-      </c>
-      <c r="L123" t="e">
-        <v>#N/A</v>
+        <v>241</v>
+      </c>
+      <c r="L123" t="n">
+        <v>3.0</v>
       </c>
       <c r="M123" t="s">
-        <v>243</v>
-      </c>
-      <c r="N123" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O123" t="e">
-        <v>#N/A</v>
+        <v>244</v>
+      </c>
+      <c r="N123" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O123" t="n">
+        <v>18770.0</v>
       </c>
       <c r="P123" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="Q123" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="R123" t="e">
         <v>#N/A</v>
       </c>
       <c r="S123" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
     </row>
     <row r="124">
@@ -8691,31 +8799,31 @@
         <v>231</v>
       </c>
       <c r="K124" t="s">
-        <v>244</v>
-      </c>
-      <c r="L124" t="e">
-        <v>#N/A</v>
+        <v>246</v>
+      </c>
+      <c r="L124" t="n">
+        <v>1.0</v>
       </c>
       <c r="M124" t="s">
         <v>247</v>
       </c>
-      <c r="N124" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O124" t="e">
-        <v>#N/A</v>
+      <c r="N124" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O124" t="n">
+        <v>3576.0</v>
       </c>
       <c r="P124" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="Q124" t="s">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="R124" t="e">
         <v>#N/A</v>
       </c>
       <c r="S124" t="s">
-        <v>394</v>
+        <v>406</v>
       </c>
     </row>
     <row r="125">
@@ -8750,31 +8858,31 @@
         <v>231</v>
       </c>
       <c r="K125" t="s">
-        <v>245</v>
-      </c>
-      <c r="L125" t="e">
-        <v>#N/A</v>
+        <v>243</v>
+      </c>
+      <c r="L125" t="n">
+        <v>1.0</v>
       </c>
       <c r="M125" t="s">
-        <v>246</v>
-      </c>
-      <c r="N125" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O125" t="e">
-        <v>#N/A</v>
+        <v>249</v>
+      </c>
+      <c r="N125" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O125" t="n">
+        <v>10674.0</v>
       </c>
       <c r="P125" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="Q125" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="R125" t="e">
         <v>#N/A</v>
       </c>
       <c r="S125" t="s">
-        <v>395</v>
+        <v>407</v>
       </c>
     </row>
     <row r="126">
@@ -8811,29 +8919,29 @@
       <c r="K126" t="s">
         <v>242</v>
       </c>
-      <c r="L126" t="e">
-        <v>#N/A</v>
+      <c r="L126" t="n">
+        <v>2.0</v>
       </c>
       <c r="M126" t="s">
-        <v>248</v>
-      </c>
-      <c r="N126" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O126" t="e">
-        <v>#N/A</v>
+        <v>251</v>
+      </c>
+      <c r="N126" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O126" t="n">
+        <v>4258.0</v>
       </c>
       <c r="P126" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="Q126" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="R126" t="e">
         <v>#N/A</v>
       </c>
       <c r="S126" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
     </row>
     <row r="127">
@@ -8865,34 +8973,34 @@
         <v>45714.0</v>
       </c>
       <c r="J127" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K127" t="s">
-        <v>241</v>
-      </c>
-      <c r="L127" t="e">
-        <v>#N/A</v>
+        <v>250</v>
+      </c>
+      <c r="L127" t="n">
+        <v>2.0</v>
       </c>
       <c r="M127" t="s">
-        <v>250</v>
-      </c>
-      <c r="N127" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O127" t="e">
-        <v>#N/A</v>
+        <v>252</v>
+      </c>
+      <c r="N127" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="O127" t="n">
+        <v>8751.0</v>
       </c>
       <c r="P127" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="Q127" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="R127" t="e">
         <v>#N/A</v>
       </c>
       <c r="S127" t="s">
-        <v>397</v>
+        <v>409</v>
       </c>
     </row>
     <row r="128">
@@ -8927,31 +9035,31 @@
         <v>227</v>
       </c>
       <c r="K128" t="s">
-        <v>248</v>
-      </c>
-      <c r="L128" t="e">
-        <v>#N/A</v>
+        <v>252</v>
+      </c>
+      <c r="L128" t="n">
+        <v>1.0</v>
       </c>
       <c r="M128" t="s">
-        <v>240</v>
-      </c>
-      <c r="N128" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O128" t="e">
-        <v>#N/A</v>
+        <v>242</v>
+      </c>
+      <c r="N128" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="O128" t="n">
+        <v>50056.0</v>
       </c>
       <c r="P128" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="Q128" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="R128" t="e">
         <v>#N/A</v>
       </c>
       <c r="S128" t="s">
-        <v>340</v>
+        <v>410</v>
       </c>
     </row>
     <row r="129">
@@ -8988,29 +9096,29 @@
       <c r="K129" t="s">
         <v>251</v>
       </c>
-      <c r="L129" t="e">
-        <v>#N/A</v>
+      <c r="L129" t="n">
+        <v>1.0</v>
       </c>
       <c r="M129" t="s">
-        <v>241</v>
-      </c>
-      <c r="N129" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O129" t="e">
-        <v>#N/A</v>
+        <v>246</v>
+      </c>
+      <c r="N129" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O129" t="n">
+        <v>7681.0</v>
       </c>
       <c r="P129" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="Q129" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="R129" t="e">
         <v>#N/A</v>
       </c>
       <c r="S129" t="s">
-        <v>355</v>
+        <v>411</v>
       </c>
     </row>
     <row r="130">
@@ -9045,31 +9153,31 @@
         <v>227</v>
       </c>
       <c r="K130" t="s">
-        <v>243</v>
-      </c>
-      <c r="L130" t="e">
-        <v>#N/A</v>
+        <v>247</v>
+      </c>
+      <c r="L130" t="n">
+        <v>1.0</v>
       </c>
       <c r="M130" t="s">
-        <v>244</v>
-      </c>
-      <c r="N130" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O130" t="e">
-        <v>#N/A</v>
+        <v>250</v>
+      </c>
+      <c r="N130" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O130" t="n">
+        <v>3385.0</v>
       </c>
       <c r="P130" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="Q130" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="R130" t="e">
         <v>#N/A</v>
       </c>
       <c r="S130" t="s">
-        <v>366</v>
+        <v>412</v>
       </c>
     </row>
     <row r="131">
@@ -9101,34 +9209,34 @@
         <v>45717.0</v>
       </c>
       <c r="J131" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="K131" t="s">
-        <v>247</v>
-      </c>
-      <c r="L131" t="e">
-        <v>#N/A</v>
+        <v>244</v>
+      </c>
+      <c r="L131" t="n">
+        <v>2.0</v>
       </c>
       <c r="M131" t="s">
-        <v>242</v>
-      </c>
-      <c r="N131" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O131" t="e">
-        <v>#N/A</v>
+        <v>245</v>
+      </c>
+      <c r="N131" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="O131" t="n">
+        <v>7127.0</v>
       </c>
       <c r="P131" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="Q131" t="s">
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="R131" t="e">
         <v>#N/A</v>
       </c>
       <c r="S131" t="s">
-        <v>357</v>
+        <v>413</v>
       </c>
     </row>
     <row r="132">
@@ -9154,22 +9262,22 @@
         <v>46</v>
       </c>
       <c r="H132" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I132" t="n" s="2">
-        <v>45717.0</v>
+        <v>45718.0</v>
       </c>
       <c r="J132" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K132" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L132" t="e">
         <v>#N/A</v>
       </c>
       <c r="M132" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="N132" t="e">
         <v>#N/A</v>
@@ -9178,16 +9286,16 @@
         <v>#N/A</v>
       </c>
       <c r="P132" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="Q132" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="R132" t="e">
         <v>#N/A</v>
       </c>
       <c r="S132" t="s">
-        <v>368</v>
+        <v>414</v>
       </c>
     </row>
     <row r="133">
@@ -9213,22 +9321,22 @@
         <v>46</v>
       </c>
       <c r="H133" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I133" t="n" s="2">
-        <v>45717.0</v>
+        <v>45718.0</v>
       </c>
       <c r="J133" t="s">
         <v>227</v>
       </c>
       <c r="K133" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="L133" t="e">
         <v>#N/A</v>
       </c>
       <c r="M133" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="N133" t="e">
         <v>#N/A</v>
@@ -9237,16 +9345,16 @@
         <v>#N/A</v>
       </c>
       <c r="P133" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="Q133" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="R133" t="e">
         <v>#N/A</v>
       </c>
       <c r="S133" t="s">
-        <v>369</v>
+        <v>415</v>
       </c>
     </row>
     <row r="134">
@@ -9281,13 +9389,13 @@
         <v>227</v>
       </c>
       <c r="K134" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L134" t="n">
         <v>2.0</v>
       </c>
       <c r="M134" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N134" t="n">
         <v>2.0</v>
@@ -9296,16 +9404,16 @@
         <v>15710.0</v>
       </c>
       <c r="P134" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q134" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="R134" t="e">
         <v>#N/A</v>
       </c>
       <c r="S134" t="s">
-        <v>398</v>
+        <v>416</v>
       </c>
     </row>
     <row r="135">
@@ -9340,13 +9448,13 @@
         <v>227</v>
       </c>
       <c r="K135" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L135" t="n">
         <v>2.0</v>
       </c>
       <c r="M135" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="N135" t="n">
         <v>0.0</v>
@@ -9355,16 +9463,16 @@
         <v>7806.0</v>
       </c>
       <c r="P135" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q135" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="R135" t="e">
         <v>#N/A</v>
       </c>
       <c r="S135" t="s">
-        <v>399</v>
+        <v>417</v>
       </c>
     </row>
     <row r="136">
@@ -9399,13 +9507,13 @@
         <v>227</v>
       </c>
       <c r="K136" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L136" t="n">
         <v>6.0</v>
       </c>
       <c r="M136" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N136" t="n">
         <v>0.0</v>
@@ -9414,16 +9522,16 @@
         <v>48832.0</v>
       </c>
       <c r="P136" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q136" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="R136" t="e">
         <v>#N/A</v>
       </c>
       <c r="S136" t="s">
-        <v>400</v>
+        <v>418</v>
       </c>
     </row>
     <row r="137">
@@ -9458,13 +9566,13 @@
         <v>237</v>
       </c>
       <c r="K137" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L137" t="n">
         <v>0.0</v>
       </c>
       <c r="M137" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N137" t="n">
         <v>3.0</v>
@@ -9473,16 +9581,16 @@
         <v>6940.0</v>
       </c>
       <c r="P137" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q137" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="R137" t="e">
         <v>#N/A</v>
       </c>
       <c r="S137" t="s">
-        <v>401</v>
+        <v>419</v>
       </c>
     </row>
     <row r="138">
@@ -9517,13 +9625,13 @@
         <v>227</v>
       </c>
       <c r="K138" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L138" t="n">
         <v>2.0</v>
       </c>
       <c r="M138" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N138" t="n">
         <v>0.0</v>
@@ -9532,16 +9640,16 @@
         <v>16146.0</v>
       </c>
       <c r="P138" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q138" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="R138" t="e">
         <v>#N/A</v>
       </c>
       <c r="S138" t="s">
-        <v>402</v>
+        <v>420</v>
       </c>
     </row>
     <row r="139">
@@ -9576,13 +9684,13 @@
         <v>227</v>
       </c>
       <c r="K139" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L139" t="n">
         <v>3.0</v>
       </c>
       <c r="M139" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N139" t="n">
         <v>1.0</v>
@@ -9591,16 +9699,16 @@
         <v>6895.0</v>
       </c>
       <c r="P139" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q139" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="R139" t="e">
         <v>#N/A</v>
       </c>
       <c r="S139" t="s">
-        <v>403</v>
+        <v>421</v>
       </c>
     </row>
     <row r="140">
@@ -9635,13 +9743,13 @@
         <v>227</v>
       </c>
       <c r="K140" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L140" t="e">
         <v>#N/A</v>
       </c>
       <c r="M140" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N140" t="e">
         <v>#N/A</v>
@@ -9650,16 +9758,16 @@
         <v>#N/A</v>
       </c>
       <c r="P140" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="Q140" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="R140" t="e">
         <v>#N/A</v>
       </c>
       <c r="S140" t="s">
-        <v>404</v>
+        <v>422</v>
       </c>
     </row>
     <row r="141">
@@ -9694,13 +9802,13 @@
         <v>227</v>
       </c>
       <c r="K141" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L141" t="e">
         <v>#N/A</v>
       </c>
       <c r="M141" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="N141" t="e">
         <v>#N/A</v>
@@ -9709,16 +9817,16 @@
         <v>#N/A</v>
       </c>
       <c r="P141" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="Q141" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="R141" t="e">
         <v>#N/A</v>
       </c>
       <c r="S141" t="s">
-        <v>405</v>
+        <v>423</v>
       </c>
     </row>
     <row r="142">
@@ -9753,13 +9861,13 @@
         <v>227</v>
       </c>
       <c r="K142" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="L142" t="e">
         <v>#N/A</v>
       </c>
       <c r="M142" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="N142" t="e">
         <v>#N/A</v>
@@ -9768,16 +9876,16 @@
         <v>#N/A</v>
       </c>
       <c r="P142" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="Q142" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="R142" t="e">
         <v>#N/A</v>
       </c>
       <c r="S142" t="s">
-        <v>358</v>
+        <v>424</v>
       </c>
     </row>
     <row r="143">
@@ -9812,13 +9920,13 @@
         <v>227</v>
       </c>
       <c r="K143" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="L143" t="e">
         <v>#N/A</v>
       </c>
       <c r="M143" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N143" t="e">
         <v>#N/A</v>
@@ -9827,16 +9935,16 @@
         <v>#N/A</v>
       </c>
       <c r="P143" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="Q143" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="R143" t="e">
         <v>#N/A</v>
       </c>
       <c r="S143" t="s">
-        <v>356</v>
+        <v>425</v>
       </c>
     </row>
     <row r="144">
@@ -9862,22 +9970,22 @@
         <v>47</v>
       </c>
       <c r="H144" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I144" t="n" s="2">
-        <v>45731.0</v>
+        <v>45732.0</v>
       </c>
       <c r="J144" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K144" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="L144" t="e">
         <v>#N/A</v>
       </c>
       <c r="M144" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="N144" t="e">
         <v>#N/A</v>
@@ -9886,16 +9994,16 @@
         <v>#N/A</v>
       </c>
       <c r="P144" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="Q144" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="R144" t="e">
         <v>#N/A</v>
       </c>
       <c r="S144" t="s">
-        <v>354</v>
+        <v>426</v>
       </c>
     </row>
     <row r="145">
@@ -9921,22 +10029,22 @@
         <v>47</v>
       </c>
       <c r="H145" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I145" t="n" s="2">
-        <v>45731.0</v>
+        <v>45732.0</v>
       </c>
       <c r="J145" t="s">
         <v>227</v>
       </c>
       <c r="K145" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L145" t="e">
         <v>#N/A</v>
       </c>
       <c r="M145" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N145" t="e">
         <v>#N/A</v>
@@ -9945,16 +10053,16 @@
         <v>#N/A</v>
       </c>
       <c r="P145" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="Q145" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="R145" t="e">
         <v>#N/A</v>
       </c>
       <c r="S145" t="s">
-        <v>363</v>
+        <v>427</v>
       </c>
     </row>
     <row r="146">
@@ -9989,13 +10097,13 @@
         <v>227</v>
       </c>
       <c r="K146" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L146" t="e">
         <v>#N/A</v>
       </c>
       <c r="M146" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="N146" t="e">
         <v>#N/A</v>
@@ -10004,16 +10112,16 @@
         <v>#N/A</v>
       </c>
       <c r="P146" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="Q146" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="R146" t="e">
         <v>#N/A</v>
       </c>
       <c r="S146" t="s">
-        <v>359</v>
+        <v>428</v>
       </c>
     </row>
     <row r="147">
@@ -10048,13 +10156,13 @@
         <v>227</v>
       </c>
       <c r="K147" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L147" t="e">
         <v>#N/A</v>
       </c>
       <c r="M147" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N147" t="e">
         <v>#N/A</v>
@@ -10063,16 +10171,16 @@
         <v>#N/A</v>
       </c>
       <c r="P147" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="Q147" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="R147" t="e">
         <v>#N/A</v>
       </c>
       <c r="S147" t="s">
-        <v>406</v>
+        <v>429</v>
       </c>
     </row>
     <row r="148">
@@ -10107,13 +10215,13 @@
         <v>227</v>
       </c>
       <c r="K148" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L148" t="e">
         <v>#N/A</v>
       </c>
       <c r="M148" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N148" t="e">
         <v>#N/A</v>
@@ -10122,16 +10230,16 @@
         <v>#N/A</v>
       </c>
       <c r="P148" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="Q148" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="R148" t="e">
         <v>#N/A</v>
       </c>
       <c r="S148" t="s">
-        <v>362</v>
+        <v>430</v>
       </c>
     </row>
     <row r="149">
@@ -10166,13 +10274,13 @@
         <v>227</v>
       </c>
       <c r="K149" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L149" t="e">
         <v>#N/A</v>
       </c>
       <c r="M149" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N149" t="e">
         <v>#N/A</v>
@@ -10181,16 +10289,16 @@
         <v>#N/A</v>
       </c>
       <c r="P149" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="Q149" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="R149" t="e">
         <v>#N/A</v>
       </c>
       <c r="S149" t="s">
-        <v>365</v>
+        <v>431</v>
       </c>
     </row>
     <row r="150">
@@ -10225,13 +10333,13 @@
         <v>227</v>
       </c>
       <c r="K150" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L150" t="e">
         <v>#N/A</v>
       </c>
       <c r="M150" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N150" t="e">
         <v>#N/A</v>
@@ -10240,16 +10348,16 @@
         <v>#N/A</v>
       </c>
       <c r="P150" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="Q150" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="R150" t="e">
         <v>#N/A</v>
       </c>
       <c r="S150" t="s">
-        <v>300</v>
+        <v>432</v>
       </c>
     </row>
     <row r="151">
@@ -10284,13 +10392,13 @@
         <v>227</v>
       </c>
       <c r="K151" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L151" t="e">
         <v>#N/A</v>
       </c>
       <c r="M151" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N151" t="e">
         <v>#N/A</v>
@@ -10299,16 +10407,16 @@
         <v>#N/A</v>
       </c>
       <c r="P151" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="Q151" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="R151" t="e">
         <v>#N/A</v>
       </c>
       <c r="S151" t="s">
-        <v>407</v>
+        <v>433</v>
       </c>
     </row>
     <row r="152">
@@ -10343,13 +10451,13 @@
         <v>227</v>
       </c>
       <c r="K152" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L152" t="e">
         <v>#N/A</v>
       </c>
       <c r="M152" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="N152" t="e">
         <v>#N/A</v>
@@ -10358,16 +10466,16 @@
         <v>#N/A</v>
       </c>
       <c r="P152" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="Q152" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="R152" t="e">
         <v>#N/A</v>
       </c>
       <c r="S152" t="s">
-        <v>364</v>
+        <v>434</v>
       </c>
     </row>
     <row r="153">
@@ -10402,14 +10510,14 @@
         <v>227</v>
       </c>
       <c r="K153" t="s">
+        <v>246</v>
+      </c>
+      <c r="L153" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M153" t="s">
         <v>245</v>
       </c>
-      <c r="L153" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M153" t="s">
-        <v>244</v>
-      </c>
       <c r="N153" t="e">
         <v>#N/A</v>
       </c>
@@ -10417,16 +10525,16 @@
         <v>#N/A</v>
       </c>
       <c r="P153" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="Q153" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="R153" t="e">
         <v>#N/A</v>
       </c>
       <c r="S153" t="s">
-        <v>352</v>
+        <v>435</v>
       </c>
     </row>
     <row r="154">
@@ -10461,13 +10569,13 @@
         <v>227</v>
       </c>
       <c r="K154" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L154" t="e">
         <v>#N/A</v>
       </c>
       <c r="M154" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="N154" t="e">
         <v>#N/A</v>
@@ -10476,16 +10584,16 @@
         <v>#N/A</v>
       </c>
       <c r="P154" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="Q154" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="R154" t="e">
         <v>#N/A</v>
       </c>
       <c r="S154" t="s">
-        <v>361</v>
+        <v>436</v>
       </c>
     </row>
     <row r="155">
@@ -10520,13 +10628,13 @@
         <v>227</v>
       </c>
       <c r="K155" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L155" t="e">
         <v>#N/A</v>
       </c>
       <c r="M155" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N155" t="e">
         <v>#N/A</v>
@@ -10535,16 +10643,16 @@
         <v>#N/A</v>
       </c>
       <c r="P155" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="Q155" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="R155" t="e">
         <v>#N/A</v>
       </c>
       <c r="S155" t="s">
-        <v>367</v>
+        <v>437</v>
       </c>
     </row>
     <row r="156">
@@ -10579,13 +10687,13 @@
         <v>227</v>
       </c>
       <c r="K156" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L156" t="e">
         <v>#N/A</v>
       </c>
       <c r="M156" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N156" t="e">
         <v>#N/A</v>
@@ -10594,16 +10702,16 @@
         <v>#N/A</v>
       </c>
       <c r="P156" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="Q156" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="R156" t="e">
         <v>#N/A</v>
       </c>
       <c r="S156" t="s">
-        <v>353</v>
+        <v>438</v>
       </c>
     </row>
     <row r="157">
@@ -10638,13 +10746,13 @@
         <v>227</v>
       </c>
       <c r="K157" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L157" t="e">
         <v>#N/A</v>
       </c>
       <c r="M157" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N157" t="e">
         <v>#N/A</v>
@@ -10653,16 +10761,16 @@
         <v>#N/A</v>
       </c>
       <c r="P157" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="Q157" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="R157" t="e">
         <v>#N/A</v>
       </c>
       <c r="S157" t="s">
-        <v>298</v>
+        <v>439</v>
       </c>
     </row>
     <row r="158">
@@ -10697,13 +10805,13 @@
         <v>227</v>
       </c>
       <c r="K158" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L158" t="e">
         <v>#N/A</v>
       </c>
       <c r="M158" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N158" t="e">
         <v>#N/A</v>
@@ -10712,16 +10820,16 @@
         <v>#N/A</v>
       </c>
       <c r="P158" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="Q158" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="R158" t="e">
         <v>#N/A</v>
       </c>
       <c r="S158" t="s">
-        <v>408</v>
+        <v>440</v>
       </c>
     </row>
     <row r="159">
@@ -10756,13 +10864,13 @@
         <v>227</v>
       </c>
       <c r="K159" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L159" t="e">
         <v>#N/A</v>
       </c>
       <c r="M159" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N159" t="e">
         <v>#N/A</v>
@@ -10771,16 +10879,16 @@
         <v>#N/A</v>
       </c>
       <c r="P159" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="Q159" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="R159" t="e">
         <v>#N/A</v>
       </c>
       <c r="S159" t="s">
-        <v>336</v>
+        <v>441</v>
       </c>
     </row>
     <row r="160">
@@ -10815,14 +10923,14 @@
         <v>227</v>
       </c>
       <c r="K160" t="s">
+        <v>242</v>
+      </c>
+      <c r="L160" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M160" t="s">
         <v>241</v>
       </c>
-      <c r="L160" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M160" t="s">
-        <v>240</v>
-      </c>
       <c r="N160" t="e">
         <v>#N/A</v>
       </c>
@@ -10830,16 +10938,16 @@
         <v>#N/A</v>
       </c>
       <c r="P160" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="Q160" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="R160" t="e">
         <v>#N/A</v>
       </c>
       <c r="S160" t="s">
-        <v>360</v>
+        <v>442</v>
       </c>
     </row>
     <row r="161">
@@ -10874,13 +10982,13 @@
         <v>227</v>
       </c>
       <c r="K161" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L161" t="e">
         <v>#N/A</v>
       </c>
       <c r="M161" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="N161" t="e">
         <v>#N/A</v>
@@ -10889,16 +10997,16 @@
         <v>#N/A</v>
       </c>
       <c r="P161" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="Q161" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="R161" t="e">
         <v>#N/A</v>
       </c>
       <c r="S161" t="s">
-        <v>341</v>
+        <v>443</v>
       </c>
     </row>
     <row r="162">
@@ -10933,13 +11041,13 @@
         <v>227</v>
       </c>
       <c r="K162" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L162" t="e">
         <v>#N/A</v>
       </c>
       <c r="M162" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N162" t="e">
         <v>#N/A</v>
@@ -10948,16 +11056,16 @@
         <v>#N/A</v>
       </c>
       <c r="P162" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="Q162" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="R162" t="e">
         <v>#N/A</v>
       </c>
       <c r="S162" t="s">
-        <v>409</v>
+        <v>444</v>
       </c>
     </row>
     <row r="163">
@@ -10992,13 +11100,13 @@
         <v>227</v>
       </c>
       <c r="K163" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L163" t="e">
         <v>#N/A</v>
       </c>
       <c r="M163" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N163" t="e">
         <v>#N/A</v>
@@ -11007,16 +11115,16 @@
         <v>#N/A</v>
       </c>
       <c r="P163" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="Q163" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="R163" t="e">
         <v>#N/A</v>
       </c>
       <c r="S163" t="s">
-        <v>338</v>
+        <v>445</v>
       </c>
     </row>
     <row r="164">
@@ -11051,13 +11159,13 @@
         <v>227</v>
       </c>
       <c r="K164" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L164" t="n">
         <v>2.0</v>
       </c>
       <c r="M164" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N164" t="n">
         <v>2.0</v>
@@ -11066,16 +11174,16 @@
         <v>5779.0</v>
       </c>
       <c r="P164" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q164" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="R164" t="e">
         <v>#N/A</v>
       </c>
       <c r="S164" t="s">
-        <v>410</v>
+        <v>446</v>
       </c>
     </row>
     <row r="165">
@@ -11110,31 +11218,31 @@
         <v>227</v>
       </c>
       <c r="K165" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L165" t="n">
         <v>1.0</v>
       </c>
       <c r="M165" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N165" t="n">
         <v>2.0</v>
       </c>
-      <c r="O165" t="e">
-        <v>#N/A</v>
+      <c r="O165" t="n">
+        <v>3629.0</v>
       </c>
       <c r="P165" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q165" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="R165" t="e">
         <v>#N/A</v>
       </c>
       <c r="S165" t="s">
-        <v>411</v>
+        <v>447</v>
       </c>
     </row>
     <row r="166">
@@ -11169,13 +11277,13 @@
         <v>236</v>
       </c>
       <c r="K166" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L166" t="n">
         <v>0.0</v>
       </c>
       <c r="M166" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="N166" t="n">
         <v>1.0</v>
@@ -11184,16 +11292,16 @@
         <v>5480.0</v>
       </c>
       <c r="P166" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q166" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="R166" t="e">
         <v>#N/A</v>
       </c>
       <c r="S166" t="s">
-        <v>412</v>
+        <v>448</v>
       </c>
     </row>
     <row r="167">
@@ -11228,13 +11336,13 @@
         <v>226</v>
       </c>
       <c r="K167" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L167" t="n">
         <v>3.0</v>
       </c>
       <c r="M167" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N167" t="n">
         <v>0.0</v>
@@ -11243,16 +11351,16 @@
         <v>59612.0</v>
       </c>
       <c r="P167" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q167" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="R167" t="e">
         <v>#N/A</v>
       </c>
       <c r="S167" t="s">
-        <v>413</v>
+        <v>449</v>
       </c>
     </row>
     <row r="168">
@@ -11287,31 +11395,31 @@
         <v>227</v>
       </c>
       <c r="K168" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L168" t="n">
         <v>0.0</v>
       </c>
       <c r="M168" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N168" t="n">
         <v>1.0</v>
       </c>
-      <c r="O168" t="e">
-        <v>#N/A</v>
+      <c r="O168" t="n">
+        <v>18648.0</v>
       </c>
       <c r="P168" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q168" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="R168" t="e">
         <v>#N/A</v>
       </c>
       <c r="S168" t="s">
-        <v>414</v>
+        <v>450</v>
       </c>
     </row>
     <row r="169">
@@ -11346,13 +11454,13 @@
         <v>227</v>
       </c>
       <c r="K169" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L169" t="n">
         <v>1.0</v>
       </c>
       <c r="M169" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="N169" t="n">
         <v>1.0</v>
@@ -11361,16 +11469,16 @@
         <v>7763.0</v>
       </c>
       <c r="P169" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q169" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="R169" t="e">
         <v>#N/A</v>
       </c>
       <c r="S169" t="s">
-        <v>415</v>
+        <v>451</v>
       </c>
     </row>
     <row r="170">
@@ -11405,13 +11513,13 @@
         <v>227</v>
       </c>
       <c r="K170" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L170" t="n">
         <v>2.0</v>
       </c>
       <c r="M170" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N170" t="n">
         <v>2.0</v>
@@ -11420,16 +11528,16 @@
         <v>6957.0</v>
       </c>
       <c r="P170" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q170" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="R170" t="e">
         <v>#N/A</v>
       </c>
       <c r="S170" t="s">
-        <v>416</v>
+        <v>452</v>
       </c>
     </row>
     <row r="171">
@@ -11464,13 +11572,13 @@
         <v>227</v>
       </c>
       <c r="K171" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L171" t="n">
         <v>2.0</v>
       </c>
       <c r="M171" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N171" t="n">
         <v>1.0</v>
@@ -11479,16 +11587,16 @@
         <v>17155.0</v>
       </c>
       <c r="P171" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q171" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="R171" t="e">
         <v>#N/A</v>
       </c>
       <c r="S171" t="s">
-        <v>417</v>
+        <v>453</v>
       </c>
     </row>
     <row r="172">
@@ -11523,13 +11631,13 @@
         <v>227</v>
       </c>
       <c r="K172" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L172" t="n">
         <v>2.0</v>
       </c>
       <c r="M172" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N172" t="n">
         <v>0.0</v>
@@ -11538,16 +11646,16 @@
         <v>4068.0</v>
       </c>
       <c r="P172" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q172" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="R172" t="e">
         <v>#N/A</v>
       </c>
       <c r="S172" t="s">
-        <v>418</v>
+        <v>454</v>
       </c>
     </row>
     <row r="173">
@@ -11582,13 +11690,13 @@
         <v>227</v>
       </c>
       <c r="K173" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L173" t="n">
         <v>2.0</v>
       </c>
       <c r="M173" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="N173" t="n">
         <v>0.0</v>
@@ -11597,16 +11705,16 @@
         <v>15448.0</v>
       </c>
       <c r="P173" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q173" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="R173" t="e">
         <v>#N/A</v>
       </c>
       <c r="S173" t="s">
-        <v>419</v>
+        <v>455</v>
       </c>
     </row>
     <row r="174">
@@ -11641,31 +11749,31 @@
         <v>227</v>
       </c>
       <c r="K174" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L174" t="n">
         <v>2.0</v>
       </c>
       <c r="M174" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N174" t="n">
         <v>0.0</v>
       </c>
-      <c r="O174" t="e">
-        <v>#N/A</v>
+      <c r="O174" t="n">
+        <v>58872.0</v>
       </c>
       <c r="P174" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q174" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="R174" t="e">
         <v>#N/A</v>
       </c>
       <c r="S174" t="s">
-        <v>420</v>
+        <v>456</v>
       </c>
     </row>
     <row r="175">
@@ -11700,31 +11808,31 @@
         <v>237</v>
       </c>
       <c r="K175" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L175" t="n">
         <v>0.0</v>
       </c>
       <c r="M175" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N175" t="n">
         <v>1.0</v>
       </c>
-      <c r="O175" t="e">
-        <v>#N/A</v>
+      <c r="O175" t="n">
+        <v>14268.0</v>
       </c>
       <c r="P175" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q175" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="R175" t="e">
         <v>#N/A</v>
       </c>
       <c r="S175" t="s">
-        <v>421</v>
+        <v>457</v>
       </c>
     </row>
     <row r="176">
@@ -11759,13 +11867,13 @@
         <v>227</v>
       </c>
       <c r="K176" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L176" t="n">
         <v>1.0</v>
       </c>
       <c r="M176" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N176" t="n">
         <v>1.0</v>
@@ -11774,16 +11882,16 @@
         <v>18399.0</v>
       </c>
       <c r="P176" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q176" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="R176" t="e">
         <v>#N/A</v>
       </c>
       <c r="S176" t="s">
-        <v>422</v>
+        <v>458</v>
       </c>
     </row>
     <row r="177">
@@ -11818,13 +11926,13 @@
         <v>227</v>
       </c>
       <c r="K177" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L177" t="n">
         <v>3.0</v>
       </c>
       <c r="M177" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N177" t="n">
         <v>3.0</v>
@@ -11833,16 +11941,16 @@
         <v>6257.0</v>
       </c>
       <c r="P177" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q177" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="R177" t="e">
         <v>#N/A</v>
       </c>
       <c r="S177" t="s">
-        <v>423</v>
+        <v>459</v>
       </c>
     </row>
     <row r="178">
@@ -11877,31 +11985,31 @@
         <v>227</v>
       </c>
       <c r="K178" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L178" t="n">
         <v>2.0</v>
       </c>
       <c r="M178" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N178" t="n">
         <v>1.0</v>
       </c>
-      <c r="O178" t="e">
-        <v>#N/A</v>
+      <c r="O178" t="n">
+        <v>5214.0</v>
       </c>
       <c r="P178" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q178" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="R178" t="e">
         <v>#N/A</v>
       </c>
       <c r="S178" t="s">
-        <v>424</v>
+        <v>460</v>
       </c>
     </row>
     <row r="179">
@@ -11936,13 +12044,13 @@
         <v>227</v>
       </c>
       <c r="K179" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L179" t="n">
         <v>1.0</v>
       </c>
       <c r="M179" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="N179" t="n">
         <v>2.0</v>
@@ -11951,16 +12059,16 @@
         <v>9030.0</v>
       </c>
       <c r="P179" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q179" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="R179" t="e">
         <v>#N/A</v>
       </c>
       <c r="S179" t="s">
-        <v>425</v>
+        <v>461</v>
       </c>
     </row>
     <row r="180">
@@ -11995,13 +12103,13 @@
         <v>236</v>
       </c>
       <c r="K180" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L180" t="n">
         <v>0.0</v>
       </c>
       <c r="M180" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N180" t="n">
         <v>6.0</v>
@@ -12010,16 +12118,16 @@
         <v>7036.0</v>
       </c>
       <c r="P180" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q180" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="R180" t="e">
         <v>#N/A</v>
       </c>
       <c r="S180" t="s">
-        <v>426</v>
+        <v>462</v>
       </c>
     </row>
     <row r="181">
@@ -12054,13 +12162,13 @@
         <v>237</v>
       </c>
       <c r="K181" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L181" t="n">
         <v>1.0</v>
       </c>
       <c r="M181" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="N181" t="n">
         <v>0.0</v>
@@ -12069,16 +12177,16 @@
         <v>48217.0</v>
       </c>
       <c r="P181" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q181" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="R181" t="e">
         <v>#N/A</v>
       </c>
       <c r="S181" t="s">
-        <v>427</v>
+        <v>463</v>
       </c>
     </row>
     <row r="182">
@@ -12113,13 +12221,13 @@
         <v>227</v>
       </c>
       <c r="K182" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L182" t="n">
         <v>0.0</v>
       </c>
       <c r="M182" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N182" t="n">
         <v>1.0</v>
@@ -12128,16 +12236,16 @@
         <v>17106.0</v>
       </c>
       <c r="P182" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q182" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="R182" t="e">
         <v>#N/A</v>
       </c>
       <c r="S182" t="s">
-        <v>428</v>
+        <v>464</v>
       </c>
     </row>
     <row r="183">
@@ -12172,31 +12280,31 @@
         <v>227</v>
       </c>
       <c r="K183" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L183" t="n">
         <v>1.0</v>
       </c>
       <c r="M183" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N183" t="n">
         <v>2.0</v>
       </c>
-      <c r="O183" t="e">
-        <v>#N/A</v>
+      <c r="O183" t="n">
+        <v>5316.0</v>
       </c>
       <c r="P183" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q183" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="R183" t="e">
         <v>#N/A</v>
       </c>
       <c r="S183" t="s">
-        <v>429</v>
+        <v>465</v>
       </c>
     </row>
     <row r="184">
@@ -12231,13 +12339,13 @@
         <v>227</v>
       </c>
       <c r="K184" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L184" t="n">
         <v>2.0</v>
       </c>
       <c r="M184" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N184" t="n">
         <v>3.0</v>
@@ -12246,16 +12354,16 @@
         <v>5316.0</v>
       </c>
       <c r="P184" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q184" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="R184" t="e">
         <v>#N/A</v>
       </c>
       <c r="S184" t="s">
-        <v>430</v>
+        <v>466</v>
       </c>
     </row>
     <row r="185">
@@ -12290,13 +12398,13 @@
         <v>237</v>
       </c>
       <c r="K185" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L185" t="n">
         <v>1.0</v>
       </c>
       <c r="M185" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N185" t="n">
         <v>2.0</v>
@@ -12305,16 +12413,16 @@
         <v>6372.0</v>
       </c>
       <c r="P185" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q185" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="R185" t="e">
         <v>#N/A</v>
       </c>
       <c r="S185" t="s">
-        <v>431</v>
+        <v>467</v>
       </c>
     </row>
     <row r="186">
@@ -12349,13 +12457,13 @@
         <v>227</v>
       </c>
       <c r="K186" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L186" t="n">
         <v>3.0</v>
       </c>
       <c r="M186" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N186" t="n">
         <v>2.0</v>
@@ -12364,16 +12472,16 @@
         <v>19175.0</v>
       </c>
       <c r="P186" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q186" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="R186" t="e">
         <v>#N/A</v>
       </c>
       <c r="S186" t="s">
-        <v>432</v>
+        <v>468</v>
       </c>
     </row>
     <row r="187">
@@ -12408,13 +12516,13 @@
         <v>230</v>
       </c>
       <c r="K187" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L187" t="n">
         <v>2.0</v>
       </c>
       <c r="M187" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="N187" t="n">
         <v>0.0</v>
@@ -12423,16 +12531,16 @@
         <v>44744.0</v>
       </c>
       <c r="P187" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q187" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="R187" t="e">
         <v>#N/A</v>
       </c>
       <c r="S187" t="s">
-        <v>433</v>
+        <v>469</v>
       </c>
     </row>
     <row r="188">
@@ -12467,13 +12575,13 @@
         <v>227</v>
       </c>
       <c r="K188" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L188" t="n">
         <v>0.0</v>
       </c>
       <c r="M188" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N188" t="n">
         <v>1.0</v>
@@ -12482,16 +12590,16 @@
         <v>5084.0</v>
       </c>
       <c r="P188" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q188" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="R188" t="e">
         <v>#N/A</v>
       </c>
       <c r="S188" t="s">
-        <v>434</v>
+        <v>470</v>
       </c>
     </row>
     <row r="189">
@@ -12526,31 +12634,31 @@
         <v>227</v>
       </c>
       <c r="K189" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L189" t="n">
         <v>3.0</v>
       </c>
       <c r="M189" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N189" t="n">
         <v>0.0</v>
       </c>
-      <c r="O189" t="e">
-        <v>#N/A</v>
+      <c r="O189" t="n">
+        <v>3688.0</v>
       </c>
       <c r="P189" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q189" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="R189" t="e">
         <v>#N/A</v>
       </c>
       <c r="S189" t="s">
-        <v>435</v>
+        <v>471</v>
       </c>
     </row>
     <row r="190">
@@ -12585,13 +12693,13 @@
         <v>227</v>
       </c>
       <c r="K190" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L190" t="n">
         <v>4.0</v>
       </c>
       <c r="M190" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N190" t="n">
         <v>0.0</v>
@@ -12600,16 +12708,16 @@
         <v>18757.0</v>
       </c>
       <c r="P190" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q190" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="R190" t="e">
         <v>#N/A</v>
       </c>
       <c r="S190" t="s">
-        <v>436</v>
+        <v>472</v>
       </c>
     </row>
     <row r="191">
@@ -12644,31 +12752,31 @@
         <v>227</v>
       </c>
       <c r="K191" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L191" t="n">
         <v>2.0</v>
       </c>
       <c r="M191" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="N191" t="n">
         <v>2.0</v>
       </c>
-      <c r="O191" t="e">
-        <v>#N/A</v>
+      <c r="O191" t="n">
+        <v>58890.0</v>
       </c>
       <c r="P191" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q191" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="R191" t="e">
         <v>#N/A</v>
       </c>
       <c r="S191" t="s">
-        <v>437</v>
+        <v>473</v>
       </c>
     </row>
     <row r="192">
@@ -12703,31 +12811,31 @@
         <v>227</v>
       </c>
       <c r="K192" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L192" t="n">
         <v>3.0</v>
       </c>
       <c r="M192" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="N192" t="n">
         <v>2.0</v>
       </c>
-      <c r="O192" t="e">
-        <v>#N/A</v>
+      <c r="O192" t="n">
+        <v>10870.0</v>
       </c>
       <c r="P192" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q192" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="R192" t="e">
         <v>#N/A</v>
       </c>
       <c r="S192" t="s">
-        <v>438</v>
+        <v>474</v>
       </c>
     </row>
     <row r="193">
@@ -12762,13 +12870,13 @@
         <v>237</v>
       </c>
       <c r="K193" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L193" t="n">
         <v>1.0</v>
       </c>
       <c r="M193" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N193" t="n">
         <v>0.0</v>
@@ -12777,16 +12885,16 @@
         <v>8924.0</v>
       </c>
       <c r="P193" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q193" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="R193" t="e">
         <v>#N/A</v>
       </c>
       <c r="S193" t="s">
-        <v>439</v>
+        <v>475</v>
       </c>
     </row>
     <row r="194">
@@ -12821,13 +12929,13 @@
         <v>227</v>
       </c>
       <c r="K194" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L194" t="n">
         <v>1.0</v>
       </c>
       <c r="M194" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="N194" t="n">
         <v>2.0</v>
@@ -12836,16 +12944,16 @@
         <v>6548.0</v>
       </c>
       <c r="P194" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q194" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="R194" t="e">
         <v>#N/A</v>
       </c>
       <c r="S194" t="s">
-        <v>440</v>
+        <v>476</v>
       </c>
     </row>
     <row r="195">
@@ -12880,31 +12988,31 @@
         <v>227</v>
       </c>
       <c r="K195" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L195" t="n">
         <v>2.0</v>
       </c>
       <c r="M195" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N195" t="n">
         <v>1.0</v>
       </c>
-      <c r="O195" t="e">
-        <v>#N/A</v>
+      <c r="O195" t="n">
+        <v>3419.0</v>
       </c>
       <c r="P195" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q195" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="R195" t="e">
         <v>#N/A</v>
       </c>
       <c r="S195" t="s">
-        <v>441</v>
+        <v>477</v>
       </c>
     </row>
     <row r="196">
@@ -12939,13 +13047,13 @@
         <v>232</v>
       </c>
       <c r="K196" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L196" t="n">
         <v>1.0</v>
       </c>
       <c r="M196" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N196" t="n">
         <v>0.0</v>
@@ -12954,16 +13062,16 @@
         <v>19274.0</v>
       </c>
       <c r="P196" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q196" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="R196" t="e">
         <v>#N/A</v>
       </c>
       <c r="S196" t="s">
-        <v>442</v>
+        <v>478</v>
       </c>
     </row>
     <row r="197">
@@ -12998,13 +13106,13 @@
         <v>237</v>
       </c>
       <c r="K197" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L197" t="n">
         <v>1.0</v>
       </c>
       <c r="M197" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N197" t="n">
         <v>1.0</v>
@@ -13013,16 +13121,16 @@
         <v>20011.0</v>
       </c>
       <c r="P197" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q197" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="R197" t="e">
         <v>#N/A</v>
       </c>
       <c r="S197" t="s">
-        <v>443</v>
+        <v>479</v>
       </c>
     </row>
     <row r="198">
@@ -13057,13 +13165,13 @@
         <v>227</v>
       </c>
       <c r="K198" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L198" t="n">
         <v>2.0</v>
       </c>
       <c r="M198" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N198" t="n">
         <v>1.0</v>
@@ -13072,16 +13180,16 @@
         <v>48859.0</v>
       </c>
       <c r="P198" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q198" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="R198" t="e">
         <v>#N/A</v>
       </c>
       <c r="S198" t="s">
-        <v>444</v>
+        <v>480</v>
       </c>
     </row>
     <row r="199">
@@ -13116,13 +13224,13 @@
         <v>227</v>
       </c>
       <c r="K199" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L199" t="n">
         <v>0.0</v>
       </c>
       <c r="M199" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N199" t="n">
         <v>3.0</v>
@@ -13131,16 +13239,16 @@
         <v>8692.0</v>
       </c>
       <c r="P199" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q199" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="R199" t="e">
         <v>#N/A</v>
       </c>
       <c r="S199" t="s">
-        <v>445</v>
+        <v>481</v>
       </c>
     </row>
   </sheetData>
